--- a/サンプルプロジェクト/設計書/Nablarch機能のセキュリティ対応表.xlsx
+++ b/サンプルプロジェクト/設計書/Nablarch機能のセキュリティ対応表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C738222C-015B-4EB1-ACC4-EE3D84F7835F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A23CD0-FDB3-4A06-A1D4-18A583426F53}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,11 +13,10 @@
     <sheet name="3.PCIDSS対応表" sheetId="7" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'1.概要'!$A$1:$AR$41</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'2.チェックリスト'!$A$1:$L$57</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'1.概要'!$A$1:$AR$50</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'2.チェックリスト'!$A$1:$L$59</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="257">
   <si>
     <t>□</t>
     <phoneticPr fontId="2"/>
@@ -762,49 +761,45 @@
     <t>・セッショントークン（クッキーなど）を「secure」としてフラグ付けする
 ・URL にセッション ID を含めない
 ・ログイン後の適切なタイムアウトとセッション ID の巡回</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>4.セッション管理の不備
 11.アクセス制御や認可制御の欠落</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>安全な認証とセッション管理は、無許可ユーザによる合法的なアカウントの資格情報、鍵、またはセッショントークンの侵害を防止し、侵入者が許可されているユーザの ID を盗用できなくする。</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>6.CSRF（クロスサイト・リクエスト・フォージェリ）</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t xml:space="preserve">・ユーザの適切な認証 
 ・入力値の削除 
 ・内部オブジェクト参照をユーザに公開しない 
 ・ユーザインタフェースで無許可の機能へのアクセスを許可しない </t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t xml:space="preserve">オブジェクトの直接参照は、開発者が内部実装オブジェクト（ファイル、ディレクトリ、データベースレコード、キーなど）を URL または form （形式）パラメータとして公開するときに発生します。攻撃者は、これらの参照を操作して、承認を受けずにその他のオブジェクトにアクセスできます。 
 すべての URL に対してプレゼンテーション層とビジネスロジックでアクセス制御を一貫して実施します。多くの場合、アプリケーションが機密機能を保護する唯一の方法は、権限のないユーザにリンクまたは URL を表示しないことです。攻撃者は、この弱点を使用してアクセスし、これらのURL に直接アクセスすることで不正な操作を実行できます。 
 攻撃者は Web サイトのディレクトリ構造（ディレクトリトラバーサル）を列挙してナビゲートすることで、情報に不正アクセスし、後から攻撃するためにサイトの動作を詳細に調べることができます。 
 ユーザインタフェースで無許可の機能へのアクセスが許可されると、このアクセスは無許可のユーザが特権情報やカード会員データにアクセスできるようになります。許可を持つユーザのみが機密リソースの直接オブジェクト参照へのアクセスを許可されるようにします。データリソースへのアクセスを制限することは、カード会員データが無許可のリソースに提示されることを防止するために役立ちます。 </t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>5.クロスサイト・スクリプティング</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t xml:space="preserve">内部および外部（公開）の Web アプリケーションにはアーキテクチャに応じて特有のセキュリティリスクがあり、侵害が比較的容易で発生しやすいという特徴があります。 </t>
   </si>
   <si>
-    <t>-</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t xml:space="preserve">組織の脆弱性リスクのランク分けプロセス（要件 6.1 で定義）で「高リスク」に特定され、アプリケーションを侵害する可能性があるすべての脆弱性は、アプリケーション開発中に特定・対処する必要がある。 </t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t xml:space="preserve">アプリケーションは、不適切なエラー処理方法によって構成、内部動作、特権情報に関する情報を意図せずに漏洩したり、プライバシーを侵害したりする可能性があります。攻撃者は、この弱点を利用して、機密データを盗んだり、システムを侵害したりします。悪意のある者は、アプリケーションが正しく処理しないエラーを作成して、詳細なシステム情報を取得したり、サービス拒否割り込みを作成したり、セキュリティを失敗させたり、サーバをクラッシュさせたりすることができます。例えば、「提供されたパスワードが正しくありません」というメッセージは、提供されたユーザ ID は正確であり、パスワードにのみ焦点を合わせればよいことを攻撃者に伝えてしまいます。「データを確認できませんでした」など、より汎用的なエラーメッセージを使用します。 </t>
@@ -818,24 +813,24 @@
   <si>
     <t xml:space="preserve">・ バッファ境界を検証する 
 ・入力文字列をトランケーションする </t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>10.バッファオーバーフロー</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t xml:space="preserve">バッファオーバーフローは、アプリケーションにバッファ領域での適切なバインドチェック機能がない場合に発生します。これにより、バッファ内の情報がバッファのメモリ領域から押し出され、実行可能メモリ領域に移動する可能性があります。その場合、攻撃者は悪意のあるコードをバッファの最後に挿入し、バッファをオーバーフローさせることによって、そのコードを実行可能メモリ領域に押し出すことができます。この方法で悪意のあるコードが実行され、多くの場合、攻撃者はアプリケーションや感染したシステムにリモートアクセスできます。 </t>
   </si>
   <si>
     <t xml:space="preserve">インジェクションの不具合（特に SQL インジェクション）は、アプリケーションの侵害に使用される一般的な方法です。インジェクションは、ユーザ入力データがコマンドまたはクエリの一部としてインタプリタに送信されるときに発生します。攻撃者の悪意をもったデータはインタプリタに意図しないコマンドを実行したりデータを変更したりするよう仕向けて、攻撃者が、アプリケーションを通じてネットワーク内部のコンポーネントを攻撃したり、バッファオーバーフローなどの攻撃を開始したり、機密情報とサーバアプリケーション機能の両方を露出させたりすることを可能にします。 情報は、アプリケーションに送信する前に、すべての英字、英字と数字の混合をチェックするなどして検証する必要があります。 </t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t xml:space="preserve">アプリケーション層はリスクが高く、内部と外部の両方の脅威の標的となる可能性があります。要件 6.5.1 ～ 6.5.10 は必要最小限の制御であり、組織は環境内の個々のテクノロジに適用可能な適切で安全なコーディング手法を採用する必要があります。 
 アプリケーション開発者は、これら（および他の）一般的なコードの脆弱性に関する問題を識別して解決するための適切なトレーニングを受ける必要があります。安全なコーディングガイドラインの知識を持つスタッフを有することにより、稚拙なコーディング方法によりもたらさせるセキュリティの脆弱性を最小限に抑えることができます。開発者のトレーニングは、社内で行うことも第三者によって行うこともでき、使用テクノロジに該当するものでなければなりません。 
 業界で認知された安全なコーディング手法が変化した場合は、メモリのスクレーピング攻撃などの新しい脅威に対応するため、組織のコーディング手法および開発者のトレーニングを更新する必要があります。6.5.1 から 6.5.10 で指定される脆弱性は、最低限のベースラインを示します。最新の脆弱性の傾向に精通し、コーディングの実践に適切な対策を組み入れることは組織の責任です。 </t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t xml:space="preserve">ガイダンス </t>
@@ -871,7 +866,7 @@
     <rPh sb="11" eb="13">
       <t>タイオウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>https://www.ipa.go.jp/security/vuln/websecurity.html</t>
@@ -1617,7 +1612,7 @@
       </rPr>
       <t xml:space="preserve">要件6.5.1～6.5.10にあげられている脆弱性は、このバージョンの PCI DSS が発行された時点の最新の業界ベストプラクティスを踏襲しているが、しかし、脆弱性管理のための業界のベストプラクティスは更新されているため（OWASP ガイド、SANS CWE Top 25、CERT Secure Coding など）、現在のベストプラクティスは、これらの要件を使用する必要がある。 </t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <r>
@@ -1694,7 +1689,7 @@
       </rPr>
       <t xml:space="preserve">インジェクションの不具合（特に SQL インジェクション）。OS コマンドインジェクション、LDAP および Xpath のインジェクションの不具合、その他のインジェクションの不具合も考慮する。 </t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <r>
@@ -1727,7 +1722,7 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <r>
@@ -1769,7 +1764,7 @@
       </rPr>
       <t xml:space="preserve">ソフトウェア開発ポリシーと手順を調べ、責任者をインタビューすることで、以下を含め、コーディング技法によってバッファオーバーフローが対処されていることを確認する。 </t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <r>
@@ -1838,7 +1833,7 @@
       <t xml:space="preserve">
 ・強力な暗号化アルゴリズムと鍵を使用する </t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <r>
@@ -2100,7 +2095,7 @@
       </rPr>
       <t xml:space="preserve">クロスサイトスクリプティング（XSS） </t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <r>
@@ -2159,7 +2154,7 @@
       </rPr>
       <t xml:space="preserve">・コンテキスト依存エスケープの使用 </t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <r>
@@ -2216,7 +2211,7 @@
       </rPr>
       <t xml:space="preserve">クロスサイトリクエスト偽造（CSRF） </t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <r>
@@ -2282,7 +2277,7 @@
       </rPr>
       <t>不完全な認証管理とセッション管理</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <r>
@@ -2306,7 +2301,7 @@
       </rPr>
       <t>ソフトウェア開発ポリシーと手順を調べ、責任者をインタビューすることで、以下を含め、コーディング技法によって不完全な認証管理とセッション管理が対処されていることを確認する。</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>上記に加えPCI DSSへの対応が求められるシステムについてはPCI DSS対応表も参照する。</t>
@@ -2365,7 +2360,7 @@
     <rPh sb="135" eb="137">
       <t>タイオウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>1-(iii) SQLインジェクション エラーメッセージをそのままブラウザに表示しない
@@ -2403,7 +2398,7 @@
     <rPh sb="152" eb="154">
       <t>タイオウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>3.パス名パラメータの未チェック／ディレクトリ・トラバーサル
@@ -2436,7 +2431,7 @@
     <rPh sb="122" eb="124">
       <t>タイオウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>NablarchはHTTPレスポンスのHTTPヘッダのContent-TypeにMIME Type・文字コードを設定しています。これにより特定のブラウザで発生し得る 5-(i) の対策を回避したクロスサイト・スクリプティングを防ぐことができます。
@@ -2550,14 +2545,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ファイルパス管理
-入力値のチェック</t>
-    <rPh sb="6" eb="8">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>△</t>
   </si>
   <si>
@@ -2632,13 +2619,95 @@
       <t>バアイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.2. 対応するバージョン</t>
+    <rPh sb="5" eb="7">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>本書を作成するにあたり参照したIPAのセキュリティチェックリストおよびPCI DSSは以下のバージョンとなる。</t>
+    <rPh sb="0" eb="2">
+      <t>ホンショ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>IPA</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PCI DSS</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>改訂第7版</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>v3.2.1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ファイルパス管理</t>
+    <rPh sb="6" eb="8">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>対応する機能がないため、プロジェクトで対応してください。</t>
+    <rPh sb="0" eb="2">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>対応する機能がないため、プロジェクトで対応してください。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>プロセスに関する要件であり機能ではないため対応項目はありません。</t>
+    <rPh sb="5" eb="6">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヨウケン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -2655,14 +2724,6 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="16"/>
-      <color theme="10"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -2832,7 +2893,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -3090,304 +3151,450 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4394,7 +4601,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59182785-6894-4709-A2E5-57E49270532F}">
-  <dimension ref="B2:D19"/>
+  <dimension ref="B2:J46"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -4405,72 +4612,98 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" s="26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="C4" s="26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="D6" s="26" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="D7" s="26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="D8" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="D9" s="26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="D10" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="2:4">
       <c r="D12" s="26" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="2:4">
       <c r="D13" s="26" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="D14" s="26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="2:4">
       <c r="D16" s="26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" s="26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" s="26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" s="26" t="s">
-        <v>231</v>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="41" spans="3:10">
+      <c r="C41" s="26" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="43" spans="3:10">
+      <c r="D43" s="26" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="45" spans="3:10">
+      <c r="F45" s="26" t="s">
+        <v>249</v>
+      </c>
+      <c r="J45" s="26" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="46" spans="3:10">
+      <c r="F46" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="J46" s="26" t="s">
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -4487,7 +4720,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:L57"/>
+  <dimension ref="A1:L59"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="8" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
@@ -4515,25 +4748,25 @@
   <sheetData>
     <row r="1" spans="1:12" ht="16.5">
       <c r="A1" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B1" s="4"/>
     </row>
     <row r="2" spans="1:12" ht="16.5">
       <c r="A2" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:12" ht="16.5">
       <c r="A3" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:12" ht="16.5">
       <c r="A4" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B4" s="4"/>
     </row>
@@ -4545,38 +4778,38 @@
       <c r="A6" s="1"/>
       <c r="B6" s="4"/>
       <c r="F6" s="32" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="66" t="s">
+      <c r="C7" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="66"/>
-      <c r="E7" s="63" t="s">
-        <v>182</v>
-      </c>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="61" t="s">
-        <v>178</v>
-      </c>
-      <c r="K7" s="61" t="s">
+      <c r="D7" s="82"/>
+      <c r="E7" s="96" t="s">
         <v>181</v>
       </c>
-      <c r="L7" s="68" t="s">
+      <c r="F7" s="96"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="84" t="s">
+        <v>177</v>
+      </c>
+      <c r="K7" s="84" t="s">
+        <v>180</v>
+      </c>
+      <c r="L7" s="86" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="12.75" thickBot="1">
-      <c r="B8" s="65"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="83"/>
       <c r="E8" s="42" t="s">
         <v>2</v>
       </c>
@@ -4590,22 +4823,22 @@
       <c r="I8" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="69"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="85"/>
+      <c r="L8" s="87"/>
     </row>
     <row r="9" spans="1:12" ht="57" customHeight="1">
-      <c r="B9" s="76">
+      <c r="B9" s="111">
         <v>1</v>
       </c>
-      <c r="C9" s="84" t="s">
+      <c r="C9" s="115" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="84"/>
-      <c r="E9" s="79" t="s">
+      <c r="D9" s="115"/>
+      <c r="E9" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="89" t="s">
+      <c r="F9" s="107" t="s">
         <v>18</v>
       </c>
       <c r="G9" s="33" t="s">
@@ -4621,18 +4854,18 @@
         <v>129</v>
       </c>
       <c r="K9" s="37" t="s">
-        <v>177</v>
-      </c>
-      <c r="L9" s="73" t="s">
-        <v>180</v>
+        <v>176</v>
+      </c>
+      <c r="L9" s="93" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="57" customHeight="1">
-      <c r="B10" s="77"/>
-      <c r="C10" s="85"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="90"/>
+      <c r="B10" s="113"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="106"/>
+      <c r="F10" s="108"/>
       <c r="G10" s="31" t="s">
         <v>16</v>
       </c>
@@ -4648,12 +4881,12 @@
       <c r="K10" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="L10" s="74"/>
+      <c r="L10" s="94"/>
     </row>
     <row r="11" spans="1:12" ht="57" customHeight="1">
-      <c r="B11" s="77"/>
-      <c r="C11" s="85"/>
-      <c r="D11" s="85"/>
+      <c r="B11" s="113"/>
+      <c r="C11" s="117"/>
+      <c r="D11" s="117"/>
       <c r="E11" s="29" t="s">
         <v>9</v>
       </c>
@@ -4673,12 +4906,12 @@
       <c r="K11" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="L11" s="74"/>
+      <c r="L11" s="94"/>
     </row>
     <row r="12" spans="1:12" ht="36">
-      <c r="B12" s="77"/>
-      <c r="C12" s="85"/>
-      <c r="D12" s="85"/>
+      <c r="B12" s="113"/>
+      <c r="C12" s="117"/>
+      <c r="D12" s="117"/>
       <c r="E12" s="7" t="s">
         <v>3</v>
       </c>
@@ -4698,12 +4931,12 @@
       <c r="K12" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="L12" s="74"/>
+      <c r="L12" s="94"/>
     </row>
     <row r="13" spans="1:12" ht="36.75" thickBot="1">
-      <c r="B13" s="78"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="86"/>
+      <c r="B13" s="114"/>
+      <c r="C13" s="118"/>
+      <c r="D13" s="118"/>
       <c r="E13" s="38" t="s">
         <v>3</v>
       </c>
@@ -4721,18 +4954,18 @@
         <v>128</v>
       </c>
       <c r="K13" s="41" t="s">
-        <v>240</v>
-      </c>
-      <c r="L13" s="75"/>
+        <v>239</v>
+      </c>
+      <c r="L13" s="95"/>
     </row>
     <row r="14" spans="1:12" ht="36">
-      <c r="B14" s="76">
+      <c r="B14" s="111">
         <v>2</v>
       </c>
-      <c r="C14" s="84" t="s">
+      <c r="C14" s="115" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="84"/>
+      <c r="D14" s="115"/>
       <c r="E14" s="43" t="s">
         <v>9</v>
       </c>
@@ -4754,409 +4987,389 @@
       <c r="K14" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="L14" s="70" t="s">
-        <v>179</v>
+      <c r="L14" s="88" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="36.75" thickBot="1">
-      <c r="B15" s="78"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="38" t="s">
+      <c r="B15" s="120"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="39" t="s">
+      <c r="F15" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="39" t="s">
+      <c r="G15" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="40" t="s">
+      <c r="H15" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="I15" s="38" t="s">
+      <c r="I15" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="J15" s="40" t="s">
+      <c r="J15" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="K15" s="41" t="s">
-        <v>239</v>
-      </c>
-      <c r="L15" s="72"/>
-    </row>
-    <row r="16" spans="1:12" ht="72" customHeight="1">
-      <c r="B16" s="76">
+      <c r="K15" s="54" t="s">
+        <v>238</v>
+      </c>
+      <c r="L15" s="92"/>
+    </row>
+    <row r="16" spans="1:12" ht="27" customHeight="1">
+      <c r="B16" s="111">
         <v>3</v>
       </c>
-      <c r="C16" s="84" t="s">
+      <c r="C16" s="115" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="84"/>
-      <c r="E16" s="79" t="s">
+      <c r="D16" s="115"/>
+      <c r="E16" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="89" t="s">
+      <c r="F16" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="33" t="s">
+      <c r="G16" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="34" t="s">
+      <c r="H16" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="35" t="s">
+      <c r="I16" s="102" t="s">
         <v>40</v>
       </c>
-      <c r="J16" s="36" t="s">
+      <c r="J16" s="71" t="s">
+        <v>253</v>
+      </c>
+      <c r="K16" s="98" t="s">
+        <v>127</v>
+      </c>
+      <c r="L16" s="88" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="27" customHeight="1">
+      <c r="B17" s="112"/>
+      <c r="C17" s="116"/>
+      <c r="D17" s="116"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="101"/>
+      <c r="I17" s="99"/>
+      <c r="J17" s="70" t="s">
+        <v>138</v>
+      </c>
+      <c r="K17" s="97"/>
+      <c r="L17" s="89"/>
+    </row>
+    <row r="18" spans="2:12" ht="27" customHeight="1">
+      <c r="B18" s="113"/>
+      <c r="C18" s="117"/>
+      <c r="D18" s="117"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="104" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="100" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18" s="99" t="s">
+        <v>41</v>
+      </c>
+      <c r="J18" s="69" t="s">
+        <v>253</v>
+      </c>
+      <c r="K18" s="97" t="s">
+        <v>127</v>
+      </c>
+      <c r="L18" s="90"/>
+    </row>
+    <row r="19" spans="2:12" ht="27" customHeight="1">
+      <c r="B19" s="113"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="117"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="101"/>
+      <c r="I19" s="99"/>
+      <c r="J19" s="70" t="s">
+        <v>138</v>
+      </c>
+      <c r="K19" s="97"/>
+      <c r="L19" s="90"/>
+    </row>
+    <row r="20" spans="2:12" ht="36">
+      <c r="B20" s="113"/>
+      <c r="C20" s="117"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="61"/>
+      <c r="H20" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I20" s="67" t="s">
+        <v>42</v>
+      </c>
+      <c r="J20" s="68" t="s">
+        <v>128</v>
+      </c>
+      <c r="K20" s="66" t="s">
+        <v>238</v>
+      </c>
+      <c r="L20" s="90"/>
+    </row>
+    <row r="21" spans="2:12" ht="36.75" thickBot="1">
+      <c r="B21" s="114"/>
+      <c r="C21" s="118"/>
+      <c r="D21" s="118"/>
+      <c r="E21" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="62"/>
+      <c r="H21" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="I21" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="J21" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="K21" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="L21" s="91"/>
+    </row>
+    <row r="22" spans="2:12" ht="36">
+      <c r="B22" s="111">
+        <v>4</v>
+      </c>
+      <c r="C22" s="115" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="115"/>
+      <c r="E22" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="33"/>
+      <c r="H22" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="J22" s="64" t="s">
+        <v>132</v>
+      </c>
+      <c r="K22" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="L22" s="88" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" ht="36">
+      <c r="B23" s="113"/>
+      <c r="C23" s="117"/>
+      <c r="D23" s="117"/>
+      <c r="E23" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="31"/>
+      <c r="H23" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J23" s="65" t="s">
+        <v>132</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="L23" s="90"/>
+    </row>
+    <row r="24" spans="2:12" ht="36">
+      <c r="B24" s="113"/>
+      <c r="C24" s="117"/>
+      <c r="D24" s="117"/>
+      <c r="E24" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="31"/>
+      <c r="H24" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J24" s="65" t="s">
+        <v>132</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="L24" s="90"/>
+    </row>
+    <row r="25" spans="2:12">
+      <c r="B25" s="113"/>
+      <c r="C25" s="117"/>
+      <c r="D25" s="117"/>
+      <c r="E25" s="106" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="108" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J25" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="K25" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="L25" s="90"/>
+    </row>
+    <row r="26" spans="2:12" ht="24">
+      <c r="B26" s="113"/>
+      <c r="C26" s="117"/>
+      <c r="D26" s="117"/>
+      <c r="E26" s="106"/>
+      <c r="F26" s="108"/>
+      <c r="G26" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J26" s="109" t="s">
         <v>241</v>
       </c>
-      <c r="K16" s="37" t="s">
+      <c r="K26" s="110"/>
+      <c r="L26" s="90"/>
+    </row>
+    <row r="27" spans="2:12" ht="36">
+      <c r="B27" s="113"/>
+      <c r="C27" s="117"/>
+      <c r="D27" s="117"/>
+      <c r="E27" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="30"/>
+      <c r="H27" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="I27" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="J27" s="65" t="s">
+        <v>132</v>
+      </c>
+      <c r="K27" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="L16" s="70" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" ht="72" customHeight="1">
-      <c r="B17" s="77"/>
-      <c r="C17" s="85"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="J17" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="K17" s="10" t="s">
+      <c r="L27" s="90"/>
+    </row>
+    <row r="28" spans="2:12" ht="36.75" thickBot="1">
+      <c r="B28" s="114"/>
+      <c r="C28" s="118"/>
+      <c r="D28" s="118"/>
+      <c r="E28" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="45"/>
+      <c r="H28" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="I28" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="J28" s="72" t="s">
+        <v>132</v>
+      </c>
+      <c r="K28" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="L17" s="71"/>
-    </row>
-    <row r="18" spans="2:12" ht="36">
-      <c r="B18" s="77"/>
-      <c r="C18" s="85"/>
-      <c r="D18" s="85"/>
-      <c r="E18" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="30" t="s">
+      <c r="L28" s="91"/>
+    </row>
+    <row r="29" spans="2:12" ht="36">
+      <c r="B29" s="111">
+        <v>5</v>
+      </c>
+      <c r="C29" s="121" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="115" t="s">
+        <v>61</v>
+      </c>
+      <c r="E29" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="30"/>
-      <c r="H18" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="I18" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="K18" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="L18" s="71"/>
-    </row>
-    <row r="19" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B19" s="78"/>
-      <c r="C19" s="86"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="F19" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="45"/>
-      <c r="H19" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="I19" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="J19" s="46" t="s">
-        <v>138</v>
-      </c>
-      <c r="K19" s="41" t="s">
+      <c r="G29" s="33"/>
+      <c r="H29" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="I29" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="J29" s="64" t="s">
+        <v>137</v>
+      </c>
+      <c r="K29" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="L19" s="72"/>
-    </row>
-    <row r="20" spans="2:12" ht="36">
-      <c r="B20" s="76">
-        <v>4</v>
-      </c>
-      <c r="C20" s="84" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="84"/>
-      <c r="E20" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="33"/>
-      <c r="H20" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="I20" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="J20" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="K20" s="37" t="s">
-        <v>127</v>
-      </c>
-      <c r="L20" s="70" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" ht="36">
-      <c r="B21" s="77"/>
-      <c r="C21" s="85"/>
-      <c r="D21" s="85"/>
-      <c r="E21" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="31"/>
-      <c r="H21" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="J21" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="K21" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="L21" s="71"/>
-    </row>
-    <row r="22" spans="2:12" ht="36">
-      <c r="B22" s="77"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="85"/>
-      <c r="E22" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" s="31"/>
-      <c r="H22" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="J22" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="K22" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="L22" s="71"/>
-    </row>
-    <row r="23" spans="2:12">
-      <c r="B23" s="77"/>
-      <c r="C23" s="85"/>
-      <c r="D23" s="85"/>
-      <c r="E23" s="80" t="s">
-        <v>6</v>
-      </c>
-      <c r="F23" s="90" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="J23" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="K23" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="L23" s="71"/>
-    </row>
-    <row r="24" spans="2:12" ht="24">
-      <c r="B24" s="77"/>
-      <c r="C24" s="85"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="80"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="J24" s="59" t="s">
-        <v>243</v>
-      </c>
-      <c r="K24" s="60"/>
-      <c r="L24" s="71"/>
-    </row>
-    <row r="25" spans="2:12" ht="36">
-      <c r="B25" s="77"/>
-      <c r="C25" s="85"/>
-      <c r="D25" s="85"/>
-      <c r="E25" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="F25" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="30"/>
-      <c r="H25" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="I25" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="J25" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="K25" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="L25" s="71"/>
-    </row>
-    <row r="26" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B26" s="78"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="F26" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="45"/>
-      <c r="H26" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="I26" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="J26" s="46" t="s">
-        <v>132</v>
-      </c>
-      <c r="K26" s="41" t="s">
-        <v>127</v>
-      </c>
-      <c r="L26" s="72"/>
-    </row>
-    <row r="27" spans="2:12" ht="36">
-      <c r="B27" s="76">
-        <v>5</v>
-      </c>
-      <c r="C27" s="81" t="s">
-        <v>60</v>
-      </c>
-      <c r="D27" s="84" t="s">
-        <v>61</v>
-      </c>
-      <c r="E27" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" s="33"/>
-      <c r="H27" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="I27" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="J27" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="K27" s="37" t="s">
-        <v>127</v>
-      </c>
-      <c r="L27" s="70" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" ht="36">
-      <c r="B28" s="77"/>
-      <c r="C28" s="82"/>
-      <c r="D28" s="85"/>
-      <c r="E28" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" s="31"/>
-      <c r="H28" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="J28" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="K28" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="L28" s="71"/>
-    </row>
-    <row r="29" spans="2:12" ht="36">
-      <c r="B29" s="77"/>
-      <c r="C29" s="82"/>
-      <c r="D29" s="85"/>
-      <c r="E29" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" s="31"/>
-      <c r="H29" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="J29" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="K29" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="L29" s="71"/>
+      <c r="L29" s="88" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="30" spans="2:12" ht="36">
-      <c r="B30" s="77"/>
-      <c r="C30" s="82"/>
-      <c r="D30" s="85"/>
+      <c r="B30" s="113"/>
+      <c r="C30" s="122"/>
+      <c r="D30" s="117"/>
       <c r="E30" s="29" t="s">
         <v>9</v>
       </c>
@@ -5165,50 +5378,48 @@
       </c>
       <c r="G30" s="31"/>
       <c r="H30" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="J30" s="9" t="s">
         <v>128</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="L30" s="71"/>
+        <v>238</v>
+      </c>
+      <c r="L30" s="90"/>
     </row>
     <row r="31" spans="2:12" ht="36">
-      <c r="B31" s="77"/>
-      <c r="C31" s="82"/>
-      <c r="D31" s="85"/>
-      <c r="E31" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="F31" s="30" t="s">
+      <c r="B31" s="113"/>
+      <c r="C31" s="122"/>
+      <c r="D31" s="117"/>
+      <c r="E31" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="G31" s="30"/>
-      <c r="H31" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="J31" s="13" t="s">
-        <v>138</v>
+      <c r="G31" s="31"/>
+      <c r="H31" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>128</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="L31" s="71"/>
+        <v>238</v>
+      </c>
+      <c r="L31" s="90"/>
     </row>
     <row r="32" spans="2:12" ht="36">
-      <c r="B32" s="77"/>
-      <c r="C32" s="82"/>
-      <c r="D32" s="85" t="s">
-        <v>124</v>
-      </c>
+      <c r="B32" s="113"/>
+      <c r="C32" s="122"/>
+      <c r="D32" s="117"/>
       <c r="E32" s="29" t="s">
         <v>9</v>
       </c>
@@ -5217,51 +5428,49 @@
       </c>
       <c r="G32" s="31"/>
       <c r="H32" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="J32" s="13" t="s">
-        <v>184</v>
+        <v>69</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>128</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="L32" s="71" t="s">
-        <v>185</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="L32" s="90"/>
     </row>
     <row r="33" spans="2:12" ht="36">
-      <c r="B33" s="77"/>
-      <c r="C33" s="82"/>
-      <c r="D33" s="85"/>
+      <c r="B33" s="113"/>
+      <c r="C33" s="122"/>
+      <c r="D33" s="117"/>
       <c r="E33" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="F33" s="30" t="s">
         <v>15</v>
       </c>
       <c r="G33" s="30"/>
       <c r="H33" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="J33" s="9" t="s">
-        <v>128</v>
+        <v>71</v>
+      </c>
+      <c r="J33" s="13" t="s">
+        <v>138</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="L33" s="71"/>
+        <v>127</v>
+      </c>
+      <c r="L33" s="90"/>
     </row>
     <row r="34" spans="2:12" ht="36">
-      <c r="B34" s="77"/>
-      <c r="C34" s="82"/>
-      <c r="D34" s="85" t="s">
-        <v>123</v>
+      <c r="B34" s="113"/>
+      <c r="C34" s="122"/>
+      <c r="D34" s="117" t="s">
+        <v>124</v>
       </c>
       <c r="E34" s="29" t="s">
         <v>9</v>
@@ -5271,25 +5480,25 @@
       </c>
       <c r="G34" s="31"/>
       <c r="H34" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J34" s="13" t="s">
-        <v>139</v>
+        <v>183</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="L34" s="71" t="s">
-        <v>235</v>
+        <v>127</v>
+      </c>
+      <c r="L34" s="90" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="35" spans="2:12" ht="36">
-      <c r="B35" s="77"/>
-      <c r="C35" s="82"/>
-      <c r="D35" s="85"/>
+      <c r="B35" s="113"/>
+      <c r="C35" s="122"/>
+      <c r="D35" s="117"/>
       <c r="E35" s="28" t="s">
         <v>3</v>
       </c>
@@ -5298,524 +5507,522 @@
       </c>
       <c r="G35" s="30"/>
       <c r="H35" s="9" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J35" s="9" t="s">
         <v>128</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="L35" s="71"/>
-    </row>
-    <row r="36" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B36" s="78"/>
-      <c r="C36" s="83"/>
-      <c r="D36" s="86"/>
-      <c r="E36" s="44" t="s">
+        <v>238</v>
+      </c>
+      <c r="L35" s="90"/>
+    </row>
+    <row r="36" spans="2:12" ht="36">
+      <c r="B36" s="113"/>
+      <c r="C36" s="122"/>
+      <c r="D36" s="117" t="s">
+        <v>123</v>
+      </c>
+      <c r="E36" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" s="31"/>
+      <c r="H36" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J36" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="K36" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="L36" s="90" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" ht="36">
+      <c r="B37" s="113"/>
+      <c r="C37" s="122"/>
+      <c r="D37" s="117"/>
+      <c r="E37" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F36" s="39" t="s">
+      <c r="F37" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G36" s="45"/>
-      <c r="H36" s="40" t="s">
+      <c r="G37" s="30"/>
+      <c r="H37" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="K37" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="L37" s="90"/>
+    </row>
+    <row r="38" spans="2:12" ht="36.75" thickBot="1">
+      <c r="B38" s="114"/>
+      <c r="C38" s="123"/>
+      <c r="D38" s="118"/>
+      <c r="E38" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="F38" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" s="45"/>
+      <c r="H38" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="I36" s="38" t="s">
+      <c r="I38" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="J36" s="46" t="s">
+      <c r="J38" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="K36" s="41" t="s">
+      <c r="K38" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="L36" s="72"/>
-    </row>
-    <row r="37" spans="2:12" ht="48">
-      <c r="B37" s="76">
+      <c r="L38" s="91"/>
+    </row>
+    <row r="39" spans="2:12" ht="48">
+      <c r="B39" s="111">
         <v>6</v>
       </c>
-      <c r="C37" s="84" t="s">
+      <c r="C39" s="115" t="s">
         <v>80</v>
       </c>
-      <c r="D37" s="84"/>
-      <c r="E37" s="79" t="s">
+      <c r="D39" s="115"/>
+      <c r="E39" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="F37" s="89" t="s">
+      <c r="F39" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="G37" s="33" t="s">
+      <c r="G39" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="H37" s="47" t="s">
+      <c r="H39" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="I37" s="35" t="s">
+      <c r="I39" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="J37" s="36" t="s">
+      <c r="J39" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="K37" s="37" t="s">
+      <c r="K39" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="L37" s="70" t="s">
+      <c r="L39" s="88" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="38" spans="2:12" ht="36">
-      <c r="B38" s="77"/>
-      <c r="C38" s="85"/>
-      <c r="D38" s="85"/>
-      <c r="E38" s="80"/>
-      <c r="F38" s="90"/>
-      <c r="G38" s="31" t="s">
+    <row r="40" spans="2:12" ht="36">
+      <c r="B40" s="113"/>
+      <c r="C40" s="117"/>
+      <c r="D40" s="117"/>
+      <c r="E40" s="106"/>
+      <c r="F40" s="108"/>
+      <c r="G40" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="H38" s="11" t="s">
+      <c r="H40" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="I38" s="6" t="s">
+      <c r="I40" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="J38" s="59" t="s">
-        <v>245</v>
-      </c>
-      <c r="K38" s="60"/>
-      <c r="L38" s="71"/>
-    </row>
-    <row r="39" spans="2:12" ht="24">
-      <c r="B39" s="77"/>
-      <c r="C39" s="85"/>
-      <c r="D39" s="85"/>
-      <c r="E39" s="80"/>
-      <c r="F39" s="90"/>
-      <c r="G39" s="31" t="s">
+      <c r="J40" s="109" t="s">
+        <v>243</v>
+      </c>
+      <c r="K40" s="110"/>
+      <c r="L40" s="90"/>
+    </row>
+    <row r="41" spans="2:12" ht="24">
+      <c r="B41" s="113"/>
+      <c r="C41" s="117"/>
+      <c r="D41" s="117"/>
+      <c r="E41" s="106"/>
+      <c r="F41" s="108"/>
+      <c r="G41" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="H39" s="11" t="s">
+      <c r="H41" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="I39" s="6" t="s">
+      <c r="I41" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="J39" s="59" t="s">
-        <v>245</v>
-      </c>
-      <c r="K39" s="60"/>
-      <c r="L39" s="71"/>
-    </row>
-    <row r="40" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B40" s="78"/>
-      <c r="C40" s="86"/>
-      <c r="D40" s="86"/>
-      <c r="E40" s="44" t="s">
+      <c r="J41" s="109" t="s">
+        <v>243</v>
+      </c>
+      <c r="K41" s="110"/>
+      <c r="L41" s="90"/>
+    </row>
+    <row r="42" spans="2:12" ht="36.75" thickBot="1">
+      <c r="B42" s="114"/>
+      <c r="C42" s="118"/>
+      <c r="D42" s="118"/>
+      <c r="E42" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="F40" s="45" t="s">
+      <c r="F42" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="G40" s="45"/>
-      <c r="H40" s="48" t="s">
+      <c r="G42" s="45"/>
+      <c r="H42" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="I40" s="44" t="s">
+      <c r="I42" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="J40" s="40" t="s">
+      <c r="J42" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="K40" s="41" t="s">
-        <v>239</v>
-      </c>
-      <c r="L40" s="72"/>
-    </row>
-    <row r="41" spans="2:12" ht="24">
-      <c r="B41" s="76">
+      <c r="K42" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="L42" s="91"/>
+    </row>
+    <row r="43" spans="2:12" ht="24">
+      <c r="B43" s="111">
         <v>7</v>
       </c>
-      <c r="C41" s="84" t="s">
+      <c r="C43" s="115" t="s">
         <v>89</v>
       </c>
-      <c r="D41" s="84"/>
-      <c r="E41" s="79" t="s">
+      <c r="D43" s="115"/>
+      <c r="E43" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="F41" s="89" t="s">
+      <c r="F43" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="G41" s="33" t="s">
+      <c r="G43" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="H41" s="34" t="s">
+      <c r="H43" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="I41" s="35" t="s">
+      <c r="I43" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="J41" s="49" t="s">
-        <v>176</v>
-      </c>
-      <c r="K41" s="37" t="s">
+      <c r="J43" s="49" t="s">
+        <v>175</v>
+      </c>
+      <c r="K43" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="L41" s="70" t="s">
+      <c r="L43" s="88" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" ht="36">
+      <c r="B44" s="113"/>
+      <c r="C44" s="117"/>
+      <c r="D44" s="117"/>
+      <c r="E44" s="106"/>
+      <c r="F44" s="108"/>
+      <c r="G44" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="J44" s="109" t="s">
+        <v>242</v>
+      </c>
+      <c r="K44" s="110"/>
+      <c r="L44" s="90"/>
+    </row>
+    <row r="45" spans="2:12" ht="36.75" thickBot="1">
+      <c r="B45" s="114"/>
+      <c r="C45" s="118"/>
+      <c r="D45" s="118"/>
+      <c r="E45" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="F45" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="G45" s="45"/>
+      <c r="H45" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="I45" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="J45" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="K45" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="L45" s="91"/>
+    </row>
+    <row r="46" spans="2:12" ht="24">
+      <c r="B46" s="111">
+        <v>8</v>
+      </c>
+      <c r="C46" s="115" t="s">
+        <v>105</v>
+      </c>
+      <c r="D46" s="115"/>
+      <c r="E46" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" s="107" t="s">
+        <v>18</v>
+      </c>
+      <c r="G46" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="H46" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="I46" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="J46" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="K46" s="37" t="s">
+        <v>190</v>
+      </c>
+      <c r="L46" s="88" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" ht="36">
+      <c r="B47" s="113"/>
+      <c r="C47" s="117"/>
+      <c r="D47" s="117"/>
+      <c r="E47" s="106"/>
+      <c r="F47" s="108"/>
+      <c r="G47" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="J47" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="K47" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="L47" s="90"/>
+    </row>
+    <row r="48" spans="2:12" ht="36">
+      <c r="B48" s="113"/>
+      <c r="C48" s="117"/>
+      <c r="D48" s="117"/>
+      <c r="E48" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="G48" s="31"/>
+      <c r="H48" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="J48" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="K48" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="L48" s="90"/>
+    </row>
+    <row r="49" spans="2:12" ht="36.75" thickBot="1">
+      <c r="B49" s="120"/>
+      <c r="C49" s="119"/>
+      <c r="D49" s="119"/>
+      <c r="E49" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="G49" s="52"/>
+      <c r="H49" s="53" t="s">
+        <v>103</v>
+      </c>
+      <c r="I49" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="J49" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="K49" s="54" t="s">
+        <v>238</v>
+      </c>
+      <c r="L49" s="92"/>
+    </row>
+    <row r="50" spans="2:12" ht="36">
+      <c r="B50" s="111">
+        <v>9</v>
+      </c>
+      <c r="C50" s="115" t="s">
+        <v>107</v>
+      </c>
+      <c r="D50" s="115"/>
+      <c r="E50" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" s="107" t="s">
+        <v>18</v>
+      </c>
+      <c r="G50" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="H50" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="I50" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="J50" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="K50" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="L50" s="88" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="42" spans="2:12" ht="36">
-      <c r="B42" s="77"/>
-      <c r="C42" s="85"/>
-      <c r="D42" s="85"/>
-      <c r="E42" s="80"/>
-      <c r="F42" s="90"/>
-      <c r="G42" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="I42" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="J42" s="59" t="s">
+    <row r="51" spans="2:12" ht="36">
+      <c r="B51" s="113"/>
+      <c r="C51" s="117"/>
+      <c r="D51" s="117"/>
+      <c r="E51" s="106"/>
+      <c r="F51" s="108"/>
+      <c r="G51" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="J51" s="109" t="s">
         <v>244</v>
       </c>
-      <c r="K42" s="60"/>
-      <c r="L42" s="71"/>
-    </row>
-    <row r="43" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B43" s="78"/>
-      <c r="C43" s="86"/>
-      <c r="D43" s="86"/>
-      <c r="E43" s="44" t="s">
+      <c r="K51" s="110"/>
+      <c r="L51" s="90"/>
+    </row>
+    <row r="52" spans="2:12" ht="36.75" thickBot="1">
+      <c r="B52" s="114"/>
+      <c r="C52" s="118"/>
+      <c r="D52" s="118"/>
+      <c r="E52" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="F43" s="45" t="s">
+      <c r="F52" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="G43" s="45"/>
-      <c r="H43" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="I43" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="J43" s="40" t="s">
+      <c r="G52" s="39"/>
+      <c r="H52" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="I52" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="J52" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="K43" s="41" t="s">
-        <v>239</v>
-      </c>
-      <c r="L43" s="72"/>
-    </row>
-    <row r="44" spans="2:12" ht="24">
-      <c r="B44" s="76">
-        <v>8</v>
-      </c>
-      <c r="C44" s="84" t="s">
-        <v>105</v>
-      </c>
-      <c r="D44" s="84"/>
-      <c r="E44" s="79" t="s">
+      <c r="K52" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="L52" s="91"/>
+    </row>
+    <row r="53" spans="2:12">
+      <c r="B53" s="111">
+        <v>10</v>
+      </c>
+      <c r="C53" s="115" t="s">
+        <v>114</v>
+      </c>
+      <c r="D53" s="115"/>
+      <c r="E53" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="F44" s="89" t="s">
+      <c r="F53" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="G44" s="33" t="s">
+      <c r="G53" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="H44" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="I44" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="J44" s="36" t="s">
-        <v>141</v>
-      </c>
-      <c r="K44" s="37" t="s">
-        <v>191</v>
-      </c>
-      <c r="L44" s="70" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="45" spans="2:12" ht="36">
-      <c r="B45" s="77"/>
-      <c r="C45" s="85"/>
-      <c r="D45" s="85"/>
-      <c r="E45" s="80"/>
-      <c r="F45" s="90"/>
-      <c r="G45" s="31" t="s">
+      <c r="H53" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="I53" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="J53" s="49" t="s">
+        <v>175</v>
+      </c>
+      <c r="K53" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="L53" s="88" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12" ht="30.75" customHeight="1">
+      <c r="B54" s="113"/>
+      <c r="C54" s="117"/>
+      <c r="D54" s="117"/>
+      <c r="E54" s="106"/>
+      <c r="F54" s="108"/>
+      <c r="G54" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="H45" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="I45" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="J45" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="K45" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="L45" s="71"/>
-    </row>
-    <row r="46" spans="2:12" ht="36">
-      <c r="B46" s="77"/>
-      <c r="C46" s="85"/>
-      <c r="D46" s="85"/>
-      <c r="E46" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="F46" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G46" s="31"/>
-      <c r="H46" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="I46" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="J46" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="K46" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="L46" s="71"/>
-    </row>
-    <row r="47" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B47" s="87"/>
-      <c r="C47" s="92"/>
-      <c r="D47" s="92"/>
-      <c r="E47" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="F47" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="G47" s="52"/>
-      <c r="H47" s="53" t="s">
-        <v>103</v>
-      </c>
-      <c r="I47" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="J47" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="K47" s="54" t="s">
-        <v>239</v>
-      </c>
-      <c r="L47" s="88"/>
-    </row>
-    <row r="48" spans="2:12" ht="36">
-      <c r="B48" s="76">
-        <v>9</v>
-      </c>
-      <c r="C48" s="84" t="s">
-        <v>107</v>
-      </c>
-      <c r="D48" s="84"/>
-      <c r="E48" s="79" t="s">
-        <v>9</v>
-      </c>
-      <c r="F48" s="89" t="s">
-        <v>18</v>
-      </c>
-      <c r="G48" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="H48" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="I48" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="J48" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="K48" s="37" t="s">
+      <c r="H54" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="J54" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="K54" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="L48" s="70" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="49" spans="2:12" ht="36">
-      <c r="B49" s="77"/>
-      <c r="C49" s="85"/>
-      <c r="D49" s="85"/>
-      <c r="E49" s="80"/>
-      <c r="F49" s="90"/>
-      <c r="G49" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="H49" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="I49" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="J49" s="59" t="s">
-        <v>246</v>
-      </c>
-      <c r="K49" s="60"/>
-      <c r="L49" s="71"/>
-    </row>
-    <row r="50" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B50" s="78"/>
-      <c r="C50" s="86"/>
-      <c r="D50" s="86"/>
-      <c r="E50" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="F50" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="G50" s="39"/>
-      <c r="H50" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="I50" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="J50" s="40" t="s">
-        <v>128</v>
-      </c>
-      <c r="K50" s="41" t="s">
-        <v>239</v>
-      </c>
-      <c r="L50" s="72"/>
-    </row>
-    <row r="51" spans="2:12">
-      <c r="B51" s="76">
-        <v>10</v>
-      </c>
-      <c r="C51" s="84" t="s">
-        <v>114</v>
-      </c>
-      <c r="D51" s="84"/>
-      <c r="E51" s="79" t="s">
-        <v>9</v>
-      </c>
-      <c r="F51" s="89" t="s">
-        <v>18</v>
-      </c>
-      <c r="G51" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="H51" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="I51" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="J51" s="49" t="s">
-        <v>176</v>
-      </c>
-      <c r="K51" s="37" t="s">
-        <v>127</v>
-      </c>
-      <c r="L51" s="70" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="52" spans="2:12" ht="30.75" customHeight="1">
-      <c r="B52" s="77"/>
-      <c r="C52" s="85"/>
-      <c r="D52" s="85"/>
-      <c r="E52" s="80"/>
-      <c r="F52" s="90"/>
-      <c r="G52" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="H52" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="I52" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="J52" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="K52" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="L52" s="71"/>
-    </row>
-    <row r="53" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B53" s="78"/>
-      <c r="C53" s="86"/>
-      <c r="D53" s="86"/>
-      <c r="E53" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="F53" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="G53" s="56"/>
-      <c r="H53" s="57" t="s">
-        <v>122</v>
-      </c>
-      <c r="I53" s="58" t="s">
-        <v>118</v>
-      </c>
-      <c r="J53" s="40" t="s">
-        <v>176</v>
-      </c>
-      <c r="K53" s="41" t="s">
-        <v>127</v>
-      </c>
-      <c r="L53" s="72"/>
-    </row>
-    <row r="54" spans="2:12" ht="36">
-      <c r="B54" s="76">
-        <v>11</v>
-      </c>
-      <c r="C54" s="84" t="s">
-        <v>20</v>
-      </c>
-      <c r="D54" s="84"/>
-      <c r="E54" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="F54" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="G54" s="33"/>
-      <c r="H54" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="I54" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="J54" s="36" t="s">
-        <v>133</v>
-      </c>
-      <c r="K54" s="37" t="s">
-        <v>242</v>
-      </c>
-      <c r="L54" s="70" t="s">
-        <v>187</v>
-      </c>
+      <c r="L54" s="90"/>
     </row>
     <row r="55" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B55" s="78"/>
-      <c r="C55" s="86"/>
-      <c r="D55" s="86"/>
+      <c r="B55" s="114"/>
+      <c r="C55" s="118"/>
+      <c r="D55" s="118"/>
       <c r="E55" s="55" t="s">
         <v>9</v>
       </c>
@@ -5824,133 +6031,204 @@
       </c>
       <c r="G55" s="56"/>
       <c r="H55" s="57" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="I55" s="58" t="s">
-        <v>120</v>
-      </c>
-      <c r="J55" s="46" t="s">
-        <v>142</v>
+        <v>118</v>
+      </c>
+      <c r="J55" s="40" t="s">
+        <v>175</v>
       </c>
       <c r="K55" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="L55" s="72"/>
-    </row>
-    <row r="56" spans="2:12">
-      <c r="F56" s="91" t="s">
+      <c r="L55" s="91"/>
+    </row>
+    <row r="56" spans="2:12" ht="36">
+      <c r="B56" s="111">
+        <v>11</v>
+      </c>
+      <c r="C56" s="115" t="s">
+        <v>20</v>
+      </c>
+      <c r="D56" s="115"/>
+      <c r="E56" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="G56" s="33"/>
+      <c r="H56" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="I56" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="J56" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="K56" s="37" t="s">
+        <v>240</v>
+      </c>
+      <c r="L56" s="88" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12" ht="36.75" thickBot="1">
+      <c r="B57" s="114"/>
+      <c r="C57" s="118"/>
+      <c r="D57" s="118"/>
+      <c r="E57" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="G57" s="56"/>
+      <c r="H57" s="57" t="s">
+        <v>104</v>
+      </c>
+      <c r="I57" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="J57" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="K57" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="L57" s="91"/>
+    </row>
+    <row r="58" spans="2:12">
+      <c r="F58" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="G56" s="91"/>
-      <c r="H56" s="91"/>
-      <c r="I56" s="91"/>
-      <c r="J56" s="12"/>
-    </row>
-    <row r="57" spans="2:12">
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="I57" s="4"/>
-      <c r="K57" s="4"/>
-      <c r="L57" s="4"/>
+      <c r="G58" s="124"/>
+      <c r="H58" s="124"/>
+      <c r="I58" s="124"/>
+      <c r="J58" s="12"/>
+    </row>
+    <row r="59" spans="2:12">
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="K59" s="4"/>
+      <c r="L59" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="66">
-    <mergeCell ref="C20:D26"/>
-    <mergeCell ref="F56:I56"/>
-    <mergeCell ref="F37:F39"/>
-    <mergeCell ref="C37:D40"/>
-    <mergeCell ref="D27:D31"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:D55"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="C41:D43"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="C44:D47"/>
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="B27:B36"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="L20:L26"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J38:K38"/>
+  <mergeCells count="74">
+    <mergeCell ref="F58:I58"/>
+    <mergeCell ref="F39:F41"/>
+    <mergeCell ref="C39:D42"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:D57"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="C43:D45"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="C46:D49"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="C53:D55"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="C50:D52"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="B29:B38"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="L22:L28"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="C29:C38"/>
+    <mergeCell ref="C22:D28"/>
+    <mergeCell ref="B22:B28"/>
+    <mergeCell ref="C16:D21"/>
     <mergeCell ref="B9:B13"/>
     <mergeCell ref="C9:D13"/>
     <mergeCell ref="C14:D15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="L29:L33"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="L36:L38"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="L56:L57"/>
+    <mergeCell ref="L53:L55"/>
+    <mergeCell ref="L50:L52"/>
+    <mergeCell ref="L43:L45"/>
+    <mergeCell ref="L39:L42"/>
+    <mergeCell ref="L46:L49"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="G18:G19"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="B20:B26"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="C16:D19"/>
-    <mergeCell ref="L44:L47"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="L27:L31"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="C27:C36"/>
-    <mergeCell ref="L54:L55"/>
-    <mergeCell ref="L51:L53"/>
-    <mergeCell ref="L48:L50"/>
-    <mergeCell ref="L41:L43"/>
-    <mergeCell ref="L37:L40"/>
-    <mergeCell ref="L34:L36"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:D53"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="C48:D50"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="L16:L21"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="L9:L13"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="E16:E19"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:D8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="L16:L19"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="L9:L13"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="B16:B21"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
     <hyperlink ref="J12" r:id="rId1" xr:uid="{4F140B6E-5408-48C2-85F6-23DE7979BC59}"/>
     <hyperlink ref="J14" r:id="rId2" location="api" xr:uid="{BC69DE72-1D6A-4D2E-B3CE-7340994E1030}"/>
-    <hyperlink ref="J25" r:id="rId3" xr:uid="{A4D0A4C8-E0E0-415D-AA77-AFE976F47E29}"/>
-    <hyperlink ref="J27" r:id="rId4" xr:uid="{33C6779D-2410-4466-91D2-A6D5E0812D94}"/>
-    <hyperlink ref="J31" r:id="rId5" xr:uid="{452A0BB6-FB83-4EC0-90D3-912215637F91}"/>
-    <hyperlink ref="J34" r:id="rId6" xr:uid="{BF5D6791-E27E-4B27-BF3C-616B5AD5FC8F}"/>
-    <hyperlink ref="J36" r:id="rId7" xr:uid="{F9C8DA33-B24A-470A-8F5A-0703DF12B786}"/>
-    <hyperlink ref="J37" r:id="rId8" location="tag-double-submission" xr:uid="{6843F36A-624F-4EB2-94F7-DA629EDFC68E}"/>
-    <hyperlink ref="J44" r:id="rId9" location="mail-mail-header-injection" xr:uid="{FE72989F-EB4B-4F08-BF72-9D39574FC646}"/>
-    <hyperlink ref="J48" r:id="rId10" xr:uid="{E5209D2C-79A1-4E63-A82F-990089F72B00}"/>
-    <hyperlink ref="J54" r:id="rId11" xr:uid="{9469AB9C-1EA2-4BB0-B476-48C9BCDB6777}"/>
-    <hyperlink ref="J55" r:id="rId12" xr:uid="{7A4C070F-45E3-4C57-B9C0-345201DC3E9B}"/>
-    <hyperlink ref="J19" r:id="rId13" xr:uid="{FA623ED8-E52C-4EDB-B36B-E099D21466CC}"/>
-    <hyperlink ref="J23" r:id="rId14" location="L74" xr:uid="{3F799024-841A-4591-8AD7-C727A5B27D20}"/>
-    <hyperlink ref="J32" r:id="rId15" location="tag-html-unescape" xr:uid="{03ED6A5D-2F13-41DB-87A2-2FFB2FF1975C}"/>
-    <hyperlink ref="J20" r:id="rId16" display="カスタムタグ" xr:uid="{E4086FF7-8748-4345-A8EF-669469E1FCBB}"/>
-    <hyperlink ref="J21" r:id="rId17" display="カスタムタグ" xr:uid="{220C99A0-3ABC-4A5A-98C0-CC1598477D52}"/>
-    <hyperlink ref="J22" r:id="rId18" display="カスタムタグ" xr:uid="{3DFE7743-D209-4BF5-B1C7-EBAAFEB522A0}"/>
-    <hyperlink ref="J26" r:id="rId19" xr:uid="{FE55259F-EBD9-400B-8C5C-D7F41D671AA4}"/>
-    <hyperlink ref="J45" r:id="rId20" location="mail-mail-header-injection" xr:uid="{11097F48-767C-453D-A534-B0A76E6A75D5}"/>
+    <hyperlink ref="J27" r:id="rId3" xr:uid="{A4D0A4C8-E0E0-415D-AA77-AFE976F47E29}"/>
+    <hyperlink ref="J29" r:id="rId4" xr:uid="{33C6779D-2410-4466-91D2-A6D5E0812D94}"/>
+    <hyperlink ref="J33" r:id="rId5" xr:uid="{452A0BB6-FB83-4EC0-90D3-912215637F91}"/>
+    <hyperlink ref="J36" r:id="rId6" xr:uid="{BF5D6791-E27E-4B27-BF3C-616B5AD5FC8F}"/>
+    <hyperlink ref="J38" r:id="rId7" xr:uid="{F9C8DA33-B24A-470A-8F5A-0703DF12B786}"/>
+    <hyperlink ref="J39" r:id="rId8" location="tag-double-submission" xr:uid="{6843F36A-624F-4EB2-94F7-DA629EDFC68E}"/>
+    <hyperlink ref="J46" r:id="rId9" location="mail-mail-header-injection" xr:uid="{FE72989F-EB4B-4F08-BF72-9D39574FC646}"/>
+    <hyperlink ref="J50" r:id="rId10" xr:uid="{E5209D2C-79A1-4E63-A82F-990089F72B00}"/>
+    <hyperlink ref="J56" r:id="rId11" xr:uid="{9469AB9C-1EA2-4BB0-B476-48C9BCDB6777}"/>
+    <hyperlink ref="J57" r:id="rId12" xr:uid="{7A4C070F-45E3-4C57-B9C0-345201DC3E9B}"/>
+    <hyperlink ref="J21" r:id="rId13" xr:uid="{FA623ED8-E52C-4EDB-B36B-E099D21466CC}"/>
+    <hyperlink ref="J25" r:id="rId14" location="L74" xr:uid="{3F799024-841A-4591-8AD7-C727A5B27D20}"/>
+    <hyperlink ref="J34" r:id="rId15" location="tag-html-unescape" xr:uid="{03ED6A5D-2F13-41DB-87A2-2FFB2FF1975C}"/>
+    <hyperlink ref="J22" r:id="rId16" xr:uid="{E4086FF7-8748-4345-A8EF-669469E1FCBB}"/>
+    <hyperlink ref="J23" r:id="rId17" xr:uid="{220C99A0-3ABC-4A5A-98C0-CC1598477D52}"/>
+    <hyperlink ref="J24" r:id="rId18" xr:uid="{3DFE7743-D209-4BF5-B1C7-EBAAFEB522A0}"/>
+    <hyperlink ref="J28" r:id="rId19" xr:uid="{FE55259F-EBD9-400B-8C5C-D7F41D671AA4}"/>
+    <hyperlink ref="J47" r:id="rId20" location="mail-mail-header-injection" xr:uid="{11097F48-767C-453D-A534-B0A76E6A75D5}"/>
+    <hyperlink ref="J9" r:id="rId21" display="https://nablarch.github.io/docs/LATEST/doc/application_framework/application_framework/libraries/database_management.html" xr:uid="{19222547-30E5-4FE4-9BBF-90D3EFFD2E94}"/>
+    <hyperlink ref="J10" r:id="rId22" display="https://nablarch.github.io/docs/LATEST/doc/application_framework/application_framework/libraries/database_management.html" xr:uid="{37F252DC-3BDF-4B52-B6BE-ED9AA331E98B}"/>
+    <hyperlink ref="J11" r:id="rId23" display="https://nablarch.github.io/docs/LATEST/doc/application_framework/application_framework/libraries/database_management.html" xr:uid="{BDD35FD1-BB81-4115-B556-E70CCE286F8E}"/>
+    <hyperlink ref="J16" r:id="rId24" display="https://nablarch.github.io/docs/LATEST/doc/application_framework/application_framework/libraries/file_path_management.html" xr:uid="{9081010D-28CE-47CE-8552-0CD72293402A}"/>
+    <hyperlink ref="J18" r:id="rId25" display="https://nablarch.github.io/docs/LATEST/doc/application_framework/application_framework/libraries/file_path_management.html" xr:uid="{66B95FAD-9E0B-421A-8A41-BF56EF1441AA}"/>
+    <hyperlink ref="J17" r:id="rId26" xr:uid="{1DC4A8DD-45B1-4C98-9DFB-4B4E74AF8E1E}"/>
+    <hyperlink ref="J19" r:id="rId27" xr:uid="{F3C54DE0-374F-49D1-90BC-9C21C4296FF1}"/>
   </hyperlinks>
   <pageMargins left="0.78740157480314965" right="0.47244094488188981" top="0.6692913385826772" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="21" fitToHeight="2" orientation="portrait" r:id="rId21"/>
+  <pageSetup paperSize="9" scale="21" fitToHeight="2" orientation="portrait" r:id="rId28"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId22"/>
+  <drawing r:id="rId29"/>
 </worksheet>
 </file>
 
@@ -5958,7 +6236,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28E862B2-6DD6-4D95-991A-DE6699BF028C}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="145" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="145" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
@@ -5976,272 +6254,272 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="24" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="24" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="24"/>
       <c r="B4" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="B5" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>167</v>
+        <v>160</v>
+      </c>
+      <c r="E5" s="73" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="46.5" customHeight="1">
-      <c r="B6" s="95" t="s">
+      <c r="B6" s="127" t="s">
+        <v>199</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="D6" s="125" t="s">
+        <v>159</v>
+      </c>
+      <c r="E6" s="129"/>
+    </row>
+    <row r="7" spans="1:5" ht="46.5" customHeight="1">
+      <c r="B7" s="127"/>
+      <c r="C7" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="D6" s="93" t="s">
-        <v>160</v>
-      </c>
-      <c r="E6" s="97"/>
-    </row>
-    <row r="7" spans="1:5" ht="46.5" customHeight="1">
-      <c r="B7" s="95"/>
-      <c r="C7" s="17" t="s">
+      <c r="D7" s="125"/>
+      <c r="E7" s="129"/>
+    </row>
+    <row r="8" spans="1:5" ht="69.75" customHeight="1">
+      <c r="B8" s="127"/>
+      <c r="C8" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="D7" s="93"/>
-      <c r="E7" s="97"/>
-    </row>
-    <row r="8" spans="1:5" ht="69.75" customHeight="1">
-      <c r="B8" s="95"/>
-      <c r="C8" s="17" t="s">
+      <c r="D8" s="125"/>
+      <c r="E8" s="129"/>
+    </row>
+    <row r="9" spans="1:5" ht="24.75" customHeight="1">
+      <c r="B9" s="128" t="s">
         <v>203</v>
       </c>
-      <c r="D8" s="93"/>
-      <c r="E8" s="97"/>
-    </row>
-    <row r="9" spans="1:5" ht="24.75" customHeight="1">
-      <c r="B9" s="96" t="s">
+      <c r="C9" s="128"/>
+      <c r="D9" s="128"/>
+      <c r="E9" s="18"/>
+    </row>
+    <row r="10" spans="1:5" ht="22.5" customHeight="1">
+      <c r="B10" s="127" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="96"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="18"/>
-    </row>
-    <row r="10" spans="1:5" ht="22.5" customHeight="1">
-      <c r="B10" s="95" t="s">
+      <c r="C10" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="D10" s="125" t="s">
+        <v>158</v>
+      </c>
+      <c r="E10" s="125" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="80.25" customHeight="1">
+      <c r="B11" s="127"/>
+      <c r="C11" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="D10" s="93" t="s">
-        <v>159</v>
-      </c>
-      <c r="E10" s="93" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="80.25" customHeight="1">
-      <c r="B11" s="95"/>
-      <c r="C11" s="20" t="s">
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
+    </row>
+    <row r="12" spans="1:5" ht="24">
+      <c r="B12" s="127" t="s">
         <v>207</v>
       </c>
-      <c r="D11" s="93"/>
-      <c r="E11" s="93"/>
-    </row>
-    <row r="12" spans="1:5" ht="24">
-      <c r="B12" s="95" t="s">
+      <c r="C12" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="D12" s="125" t="s">
+        <v>157</v>
+      </c>
+      <c r="E12" s="125" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="47.25" customHeight="1">
+      <c r="B13" s="127"/>
+      <c r="C13" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="D13" s="125"/>
+      <c r="E13" s="125"/>
+    </row>
+    <row r="14" spans="1:5" ht="24">
+      <c r="B14" s="127" t="s">
         <v>209</v>
       </c>
-      <c r="D12" s="93" t="s">
-        <v>158</v>
-      </c>
-      <c r="E12" s="93" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="47.25" customHeight="1">
-      <c r="B13" s="95"/>
-      <c r="C13" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93"/>
-    </row>
-    <row r="14" spans="1:5" ht="24">
-      <c r="B14" s="95" t="s">
+      <c r="C14" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="D14" s="125" t="s">
+        <v>154</v>
+      </c>
+      <c r="E14" s="125" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="24">
+      <c r="B15" s="127"/>
+      <c r="C15" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="D14" s="93" t="s">
-        <v>155</v>
-      </c>
-      <c r="E14" s="93" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="24">
-      <c r="B15" s="95"/>
-      <c r="C15" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="D15" s="93"/>
-      <c r="E15" s="93"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
     </row>
     <row r="16" spans="1:5" ht="36">
       <c r="B16" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="C16" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="C16" s="17" t="s">
-        <v>214</v>
-      </c>
       <c r="D16" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>151</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="84">
       <c r="B17" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="C17" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="C17" s="17" t="s">
-        <v>216</v>
-      </c>
       <c r="D17" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="36">
       <c r="B18" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="C18" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="D18" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="24">
+      <c r="B19" s="130" t="s">
         <v>218</v>
       </c>
-      <c r="D18" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" ht="24">
-      <c r="B19" s="98" t="s">
-        <v>219</v>
-      </c>
-      <c r="C19" s="98"/>
+      <c r="C19" s="130"/>
       <c r="D19" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="E19" s="21"/>
+      <c r="E19" s="63"/>
     </row>
     <row r="20" spans="2:5" ht="24">
-      <c r="B20" s="95" t="s">
+      <c r="B20" s="127" t="s">
+        <v>219</v>
+      </c>
+      <c r="C20" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="D20" s="125" t="s">
         <v>221</v>
       </c>
-      <c r="D20" s="93" t="s">
+      <c r="E20" s="125" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="24">
+      <c r="B21" s="127"/>
+      <c r="C21" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="E20" s="93" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" ht="24">
-      <c r="B21" s="95"/>
-      <c r="C21" s="20" t="s">
+      <c r="D21" s="125"/>
+      <c r="E21" s="125"/>
+    </row>
+    <row r="22" spans="2:5" ht="36">
+      <c r="B22" s="127" t="s">
         <v>223</v>
       </c>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-    </row>
-    <row r="22" spans="2:5" ht="36">
-      <c r="B22" s="95" t="s">
+      <c r="C22" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="C22" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="D22" s="93" t="s">
+      <c r="D22" s="125" t="s">
         <v>148</v>
       </c>
-      <c r="E22" s="93" t="s">
-        <v>234</v>
+      <c r="E22" s="125" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="133.5" customHeight="1">
-      <c r="B23" s="95"/>
+      <c r="B23" s="127"/>
       <c r="C23" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="D23" s="93"/>
-      <c r="E23" s="93"/>
+      <c r="D23" s="125"/>
+      <c r="E23" s="125"/>
     </row>
     <row r="24" spans="2:5" ht="36">
       <c r="B24" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="C24" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="D24" s="21" t="s">
         <v>227</v>
-      </c>
-      <c r="D24" s="21" t="s">
-        <v>228</v>
       </c>
       <c r="E24" s="21" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="24">
-      <c r="B25" s="94" t="s">
+      <c r="B25" s="126" t="s">
+        <v>228</v>
+      </c>
+      <c r="C25" s="22" t="s">
         <v>229</v>
       </c>
-      <c r="C25" s="22" t="s">
-        <v>230</v>
-      </c>
-      <c r="D25" s="94" t="s">
+      <c r="D25" s="126" t="s">
         <v>145</v>
       </c>
-      <c r="E25" s="94" t="s">
+      <c r="E25" s="126" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="36">
-      <c r="B26" s="94"/>
+      <c r="B26" s="126"/>
       <c r="C26" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="D26" s="94"/>
-      <c r="E26" s="94"/>
+      <c r="D26" s="126"/>
+      <c r="E26" s="126"/>
     </row>
   </sheetData>
   <mergeCells count="23">

--- a/サンプルプロジェクト/設計書/Nablarch機能のセキュリティ対応表.xlsx
+++ b/サンプルプロジェクト/設計書/Nablarch機能のセキュリティ対応表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A23CD0-FDB3-4A06-A1D4-18A583426F53}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F647224-D541-405B-BF9F-1D9E30220EED}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,7 +13,7 @@
     <sheet name="3.PCIDSS対応表" sheetId="7" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'1.概要'!$A$1:$AR$50</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'1.概要'!$A$1:$AR$52</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'2.チェックリスト'!$A$1:$L$59</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="222">
   <si>
     <t>□</t>
     <phoneticPr fontId="2"/>
@@ -758,91 +758,19 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>・セッショントークン（クッキーなど）を「secure」としてフラグ付けする
-・URL にセッション ID を含めない
-・ログイン後の適切なタイムアウトとセッション ID の巡回</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>4.セッション管理の不備
-11.アクセス制御や認可制御の欠落</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>安全な認証とセッション管理は、無許可ユーザによる合法的なアカウントの資格情報、鍵、またはセッショントークンの侵害を防止し、侵入者が許可されているユーザの ID を盗用できなくする。</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>6.CSRF（クロスサイト・リクエスト・フォージェリ）</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t xml:space="preserve">・ユーザの適切な認証 
-・入力値の削除 
-・内部オブジェクト参照をユーザに公開しない 
-・ユーザインタフェースで無許可の機能へのアクセスを許可しない </t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve">オブジェクトの直接参照は、開発者が内部実装オブジェクト（ファイル、ディレクトリ、データベースレコード、キーなど）を URL または form （形式）パラメータとして公開するときに発生します。攻撃者は、これらの参照を操作して、承認を受けずにその他のオブジェクトにアクセスできます。 
-すべての URL に対してプレゼンテーション層とビジネスロジックでアクセス制御を一貫して実施します。多くの場合、アプリケーションが機密機能を保護する唯一の方法は、権限のないユーザにリンクまたは URL を表示しないことです。攻撃者は、この弱点を使用してアクセスし、これらのURL に直接アクセスすることで不正な操作を実行できます。 
-攻撃者は Web サイトのディレクトリ構造（ディレクトリトラバーサル）を列挙してナビゲートすることで、情報に不正アクセスし、後から攻撃するためにサイトの動作を詳細に調べることができます。 
-ユーザインタフェースで無許可の機能へのアクセスが許可されると、このアクセスは無許可のユーザが特権情報やカード会員データにアクセスできるようになります。許可を持つユーザのみが機密リソースの直接オブジェクト参照へのアクセスを許可されるようにします。データリソースへのアクセスを制限することは、カード会員データが無許可のリソースに提示されることを防止するために役立ちます。 </t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>5.クロスサイト・スクリプティング</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t xml:space="preserve">内部および外部（公開）の Web アプリケーションにはアーキテクチャに応じて特有のセキュリティリスクがあり、侵害が比較的容易で発生しやすいという特徴があります。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">組織の脆弱性リスクのランク分けプロセス（要件 6.1 で定義）で「高リスク」に特定され、アプリケーションを侵害する可能性があるすべての脆弱性は、アプリケーション開発中に特定・対処する必要がある。 </t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve">アプリケーションは、不適切なエラー処理方法によって構成、内部動作、特権情報に関する情報を意図せずに漏洩したり、プライバシーを侵害したりする可能性があります。攻撃者は、この弱点を利用して、機密データを盗んだり、システムを侵害したりします。悪意のある者は、アプリケーションが正しく処理しないエラーを作成して、詳細なシステム情報を取得したり、サービス拒否割り込みを作成したり、セキュリティを失敗させたり、サーバをクラッシュさせたりすることができます。例えば、「提供されたパスワードが正しくありません」というメッセージは、提供されたユーザ ID は正確であり、パスワードにのみ焦点を合わせればよいことを攻撃者に伝えてしまいます。「データを確認できませんでした」など、より汎用的なエラーメッセージを使用します。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ネットワークトラフィックを強力な暗号化によって適切に暗号化していないアプリケーションは、侵害されてカード会員データが漏洩するリスクが高くなります。攻撃者が弱い暗号化プロセスを利用して、アプリケーションを制御したり、暗号化されたデータに平文アクセスすることも可能になります。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">データの保存に強力な暗号化機能を適切に利用していないアプリケーションは、侵害されて認証情報やカード会員データが漏洩するリスクが高くなります。攻撃者が脆弱な暗号化プロセスを利用して、暗号化されたデータに平文アクセスすることも可能になります。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">・ バッファ境界を検証する 
-・入力文字列をトランケーションする </t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>10.バッファオーバーフロー</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t xml:space="preserve">バッファオーバーフローは、アプリケーションにバッファ領域での適切なバインドチェック機能がない場合に発生します。これにより、バッファ内の情報がバッファのメモリ領域から押し出され、実行可能メモリ領域に移動する可能性があります。その場合、攻撃者は悪意のあるコードをバッファの最後に挿入し、バッファをオーバーフローさせることによって、そのコードを実行可能メモリ領域に押し出すことができます。この方法で悪意のあるコードが実行され、多くの場合、攻撃者はアプリケーションや感染したシステムにリモートアクセスできます。 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">インジェクションの不具合（特に SQL インジェクション）は、アプリケーションの侵害に使用される一般的な方法です。インジェクションは、ユーザ入力データがコマンドまたはクエリの一部としてインタプリタに送信されるときに発生します。攻撃者の悪意をもったデータはインタプリタに意図しないコマンドを実行したりデータを変更したりするよう仕向けて、攻撃者が、アプリケーションを通じてネットワーク内部のコンポーネントを攻撃したり、バッファオーバーフローなどの攻撃を開始したり、機密情報とサーバアプリケーション機能の両方を露出させたりすることを可能にします。 情報は、アプリケーションに送信する前に、すべての英字、英字と数字の混合をチェックするなどして検証する必要があります。 </t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve">アプリケーション層はリスクが高く、内部と外部の両方の脅威の標的となる可能性があります。要件 6.5.1 ～ 6.5.10 は必要最小限の制御であり、組織は環境内の個々のテクノロジに適用可能な適切で安全なコーディング手法を採用する必要があります。 
-アプリケーション開発者は、これら（および他の）一般的なコードの脆弱性に関する問題を識別して解決するための適切なトレーニングを受ける必要があります。安全なコーディングガイドラインの知識を持つスタッフを有することにより、稚拙なコーディング方法によりもたらさせるセキュリティの脆弱性を最小限に抑えることができます。開発者のトレーニングは、社内で行うことも第三者によって行うこともでき、使用テクノロジに該当するものでなければなりません。 
-業界で認知された安全なコーディング手法が変化した場合は、メモリのスクレーピング攻撃などの新しい脅威に対応するため、組織のコーディング手法および開発者のトレーニングを更新する必要があります。6.5.1 から 6.5.10 で指定される脆弱性は、最低限のベースラインを示します。最新の脆弱性の傾向に精通し、コーディングの実践に適切な対策を組み入れることは組織の責任です。 </t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ガイダンス </t>
-  </si>
-  <si>
-    <t xml:space="preserve">テスト手順 </t>
-  </si>
-  <si>
     <t xml:space="preserve">PCI DSS 要件 </t>
-  </si>
-  <si>
-    <t>要件 6: 安全性の高いシステムとアプリケーションを開発し、保守する</t>
   </si>
   <si>
     <t>1.概要</t>
@@ -908,35 +836,6 @@
       <t>ジョウキョウ</t>
     </rPh>
     <rPh sb="36" eb="37">
-      <t>シメ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>PCI DSSでアプリケーションに求められるセキュリティについて記載した 要件6 について</t>
-    <rPh sb="17" eb="18">
-      <t>モト</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ヨウケン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>IPAのチェックリストのどの項目に対応しているかを表として示す。</t>
-    <rPh sb="14" eb="16">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ヒョウ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
       <t>シメ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -1254,43 +1153,6 @@
     </rPh>
     <rPh sb="36" eb="38">
       <t>ケントウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>IPAで公開されている脆弱性対策で根本的解決となっているもについては必ず対応してください。対策に対応するNablarchの機能を右に示します。</t>
-    <rPh sb="4" eb="6">
-      <t>コウカイ</t>
-    </rPh>
-    <rPh sb="11" eb="14">
-      <t>ゼイジャクセイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>タイサク</t>
-    </rPh>
-    <rPh sb="17" eb="22">
-      <t>コンポンテキカイケツ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>カナラ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>タイサク</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="64" eb="65">
-      <t>ミギ</t>
-    </rPh>
-    <rPh sb="66" eb="67">
-      <t>シメ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1494,53 +1356,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>PCI DDSSで定義された要件のうち、アプリケーション実装に関する要件6.5. についてのみ以下にチェックリストとの対応を記載します。</t>
-    <rPh sb="9" eb="11">
-      <t>テイギ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヨウケン</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ジッソウ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ヨウケン</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="62" eb="64">
-      <t>キサイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>それ以外の要件については主にプロセスに関するものであるためNablarchでは対応できません。</t>
-    <rPh sb="2" eb="4">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヨウケン</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>オモ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>タイオウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>以下の対応表から該当するチェックリストのNablarch対応状況を確認しプロジェクトで対応要否を検討してください。</t>
     <rPh sb="0" eb="2">
       <t>イカ</t>
@@ -1575,22 +1390,359 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <r>
-      <t>6.5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> ソフトウェア開発プロセスにおいて次のようにして一般的なコーディングの脆弱性に対応する。 
-　・開発者に対して一般的なコーディングの脆弱性を回避する方法を含む安全なコーディング技法について少なくとも年に一度トレーニングを実施する 
-　・安全なコーディングガイドラインに基づいてアプリケーションを開発する 
-</t>
-    </r>
+    <t>上記に加えPCI DSSへの対応が求められるシステムについてはPCI DSS対応表も参照する。</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NablarchはHTTPレスポンスのHTTPヘッダのContent-TypeにMIME Type・文字コードを設定しています。これにより特定のブラウザで発生し得る 5-(i) の対策を回避したクロスサイト・スクリプティングを防ぐことができます。
+また、Nablarchはセキュリティ関連のヘッダをレスポンスオブジェクトに設定するセキュアハンドラを提供しています。このハンドラにより、ユーザがクロスサイト・スクリプティングの脆弱性対策を無効にしていた場合でもサーバからブラウザの機能を有効にするよう指示することが可能です。</t>
+    <rPh sb="69" eb="71">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>カイヒ</t>
+    </rPh>
+    <rPh sb="113" eb="114">
+      <t>フセ</t>
+    </rPh>
+    <rPh sb="212" eb="215">
+      <t>ゼイジャクセイ</t>
+    </rPh>
+    <rPh sb="215" eb="217">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="218" eb="220">
+      <t>ムコウ</t>
+    </rPh>
+    <rPh sb="225" eb="227">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="239" eb="241">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="242" eb="244">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="249" eb="251">
+      <t>シジ</t>
+    </rPh>
+    <rPh sb="256" eb="258">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Nablarchでのヘッダ出力はHttpServletResponseのAPIを使用しているため、Nablarchを使用する場合はヘッダにおける改行の扱いをAPIに移譲することでHTTPヘッダ・インジェクションの対策が可能です。</t>
+    <rPh sb="58" eb="60">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>カイギョウ</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>アツカ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="106" eb="108">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Nablarchはセキュリティ関連のヘッダをレスポンスオブジェクトに設定するセキュアハンドラを提供しています。このハンドラにより、デフォルトで X-Frame-Options: SAMEORIGIN が出力されるため、クリックジャッキング対策が可能です。</t>
+    <rPh sb="101" eb="103">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="119" eb="121">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="122" eb="124">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>×</t>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>△</t>
+  </si>
+  <si>
+    <t>4-(iv)-a の対策を実施する</t>
+    <rPh sb="10" eb="12">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジッシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>7-(i)-a の対策を実施する</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>6-(i)-a の対策を実施する</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>9-(i)-a の対策を実施する</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>チェックに※がついているものについては、実施項目のいずれかを実施する。対応するNablarchの機能が複数実施項目にある場合はいずれで対応しても問題ない。</t>
+    <rPh sb="35" eb="37">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Nablarchではファイルパス管理機能を提供しています。サーバ内のファイルへのアクセスにこの機能を使用することで、アクセス対象のベースディレクトリを指定することができます。これにより公開するディレクトリが限定されます。同時に、特定の拡張子のファイルのみにアクセスさせることがきます。
+ファイル名をユーザに入力させる場合、上記に組み合わせて、入力値チェックで "."などの文字を許容しないことでディレクトリトラバーサルを防ぐことが可能となります。</t>
+    <rPh sb="92" eb="94">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>ゲンテイ</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="147" eb="148">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="153" eb="155">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="158" eb="160">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.2. 対応するバージョン</t>
+    <rPh sb="5" eb="7">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>本書を作成するにあたり参照したIPAのセキュリティチェックリストおよびPCI DSSは以下のバージョンとなる。</t>
+    <rPh sb="0" eb="2">
+      <t>ホンショ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>IPA</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PCI DSS</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>改訂第7版</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>v3.2.1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ファイルパス管理</t>
+    <rPh sb="6" eb="8">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>対応する機能がないため、プロジェクトで対応してください。</t>
+    <rPh sb="0" eb="2">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>対応する機能がないため、プロジェクトで対応してください。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>プロセスに関する要件であり機能ではないため対応項目はありません。</t>
+    <rPh sb="5" eb="6">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヨウケン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>各要件がIPAのチェックリストのどの項目に対応しているかを表として示す。</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ヨウケン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>シメ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PCI DSSで主にアプリケーションに求められるセキュリティについて記載した 要件6 について</t>
+    <rPh sb="8" eb="9">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ヨウケン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>6.5.1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>6.5.2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>6.5.3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>6.5.4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>6.5.5</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>6.5.6</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>6.5.7</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>6.5.8</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>6.5.9</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>6.5.10</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -1600,227 +1752,10 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>注:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">要件6.5.1～6.5.10にあげられている脆弱性は、このバージョンの PCI DSS が発行された時点の最新の業界ベストプラクティスを踏襲しているが、しかし、脆弱性管理のための業界のベストプラクティスは更新されているため（OWASP ガイド、SANS CWE Top 25、CERT Secure Coding など）、現在のベストプラクティスは、これらの要件を使用する必要がある。 </t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6.5.a </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">ソフトウェア開発ポリシーと手順を調べ、業界のベストプラクティスとガイダンスに基づき、少なくとも年に一度開発者のための安全なコーディング技法について最新のトレーニングを要求していることを確認する。 </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6.5.b </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">トレーニング記録を調べて、少なくとも年に一度ソフトウェア開発者が、一般的なコーディングの脆弱性を避けることを含め、安全なコーディング技法についての最新のトレーニングを受けたことを確認する。 </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6.5.c </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">アプリケーションを少なくとも以下の脆弱性から保護するためのプロセスが存在することを確認する。 </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>注：以下の要件 6.5.1 から 6.5.6 は、すべてのアプリケーション（内部または外部）に適用されます。</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6.5.1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">インジェクションの不具合（特に SQL インジェクション）。OS コマンドインジェクション、LDAP および Xpath のインジェクションの不具合、その他のインジェクションの不具合も考慮する。 </t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6.5.1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">ソフトウェア開発ポリシーと手順を調べ、責任者をインタビューすることで、以下を含め、コーディング技法によってインジェクションの不具合が対処されていることを確認する。 </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>・入力を調べて、ユーザデータがコマンドとクエリの意味を変更できないことを確認する
-・ パラメータ化クエリを使用する</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6.5.2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>バッファオーバーフロー</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6.5.2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">ソフトウェア開発ポリシーと手順を調べ、責任者をインタビューすることで、以下を含め、コーディング技法によってバッファオーバーフローが対処されていることを確認する。 </t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6.5.3 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>安全でない暗号化保存</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6.5.3 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">ソフトウェア開発ポリシーと手順を調べ、責任者をインタビューすることで、以下を含め、コーディング技法によって安全でない暗号化保存が対処されていることを確認する。 </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>・ 暗号化の不具合を防止する</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+      <t xml:space="preserve">1.SQLインジェクション
+7.HTTPヘッダ・インジェクション
+8.メールヘッダ・インジェクション
+</t>
     </r>
     <r>
       <rPr>
@@ -1831,24 +1766,39 @@
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">
-・強力な暗号化アルゴリズムと鍵を使用する </t>
+上記はチェックリストに記載されたインジェクションに関連する項目となります。上記以外のインジェクション（LDAP や Xpathなど）については別途プロジェクトで個別に対応してください。
+</t>
     </r>
+    <rPh sb="52" eb="54">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="123" eb="125">
+      <t>ベット</t>
+    </rPh>
+    <rPh sb="132" eb="134">
+      <t>コベツ</t>
+    </rPh>
+    <rPh sb="135" eb="137">
+      <t>タイオウ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">6.5.4 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>安全でない通信</t>
-    </r>
     <r>
       <rPr>
         <b/>
@@ -1858,290 +1808,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6.5.4 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ソフトウェア開発ポリシーと手順を調べ、責任者をインタビューすることで、安全でない通信がすべての機密情報の通信を適切に認証して暗号化するコーディング技法によって対処されていることを確認する</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6.5.5 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>不適切なエラー処理</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6.5.5 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ソフトウェア開発ポリシーと手順を調べ、責任者をインタビューすることで、不適切なエラー処理が、エラーメッセージを通して情報を漏洩しないコーディング技法によって対処されていることを確認する（例えば、具体的なエラー情報ではなく汎用エラーメッセージを返すなど）</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6.5.6 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>脆弱性特定プロセス（PCI DSS 要件 6.1 で定義）で特定された、すべての「高リスク」脆弱性。</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6.5.6 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ソフトウェア開発ポリシーと手順を調べ、責任者をインタビューすることで、コーディング技法により、アプリケーションを侵害する可能性のある、PCI DSS 要件 6.1 で特定されたすべての「高リスク」脆弱性に対処する。</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>注</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>以下の要件</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>6.5.7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>〜</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">6.5.10 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>は、</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">Web </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">アプリケーションとアプリケーションインタフェース（内部または外部）に適用されます。 </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6.5.7 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">クロスサイトスクリプティング（XSS） </t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6.5.7 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">ソフトウェア開発ポリシーと手順を調べ、責任者をインタビューすることで、以下を含め、コーディング技法によってクロスサイトスクリプティング（XSS）が対処されていることを確認する。 </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>XSS の不具合は、アプリケーションがユーザ入力データを取り入れ、検証したりコンテンツをエンコードしたりする前に Web ブラウザに送信するたびに発生します。XSS により、攻撃者は、被害者のブラウザでスクリプトを実行して、ユーザセッションを乗っ取ったり、Web サイトを書き換えたり、ワームを取り込んだりすることができます。</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>・取り込む前にすべてのパラメータを検証</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> 
+      <t xml:space="preserve">1-(iii) SQLインジェクション エラーメッセージをそのままブラウザに表示しない
 </t>
     </r>
     <r>
@@ -2152,13 +1819,58 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">・コンテキスト依存エスケープの使用 </t>
+      <t xml:space="preserve">
+上記項目に対応することで業務アプリケーションでハンドリングしていないエラーメッセージやスタックトレースがユーザに表示されることは防げます。業務アプリケーションの出力するエラーメッセージについてはプロジェクトで個別に対応してください。(認証失敗時に詳細なメッセージを出力しないなど)
+</t>
     </r>
+    <rPh sb="38" eb="40">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="109" eb="110">
+      <t>フセ</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="125" eb="127">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="149" eb="151">
+      <t>コベツ</t>
+    </rPh>
+    <rPh sb="152" eb="154">
+      <t>タイオウ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">6.5.8 </t>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">3.パス名パラメータの未チェック／ディレクトリ・トラバーサル
+11.アクセス制御や認可制御の欠落
+</t>
     </r>
     <r>
       <rPr>
@@ -2168,358 +1880,134 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>不適切なアクセス制御（安全でないオブジェクトの直接参照、URL アクセス制限の失敗、ディレクトリトラバーサル、機能へのユーザアクセス制限の失敗など）</t>
+      <t xml:space="preserve">
+3については、チェックリストに記載の通り、Nablarchの機能を組み合わせた上で、ディレクトリトラバーサルを起こさないようプロジェクトで個別に対応してください。
+</t>
     </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6.5.8 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">ソフトウェア開発ポリシーと手順を調べ、責任者をインタビューすることで、不適切なアクセス制御（安全でないオブジェクトの直接参照、URL アクセス制限の失敗、ディレクトリトラバーサルなど）が以下を含むコーディング技法によって対処されていることを確認する。 </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6.5.9 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">クロスサイトリクエスト偽造（CSRF） </t>
-    </r>
+    <rPh sb="65" eb="67">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="105" eb="106">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="119" eb="121">
+      <t>コベツ</t>
+    </rPh>
+    <rPh sb="122" eb="124">
+      <t>タイオウ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">6.5.9 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ソフトウェア開発ポリシーと手順を調べ、責任者をインタビューすることで、クロスサイトリクエスト偽造（CSRF）は、アプリケーションがブラウザから自動的に送信された認証情報とトークンに依存しないコーディング技法によって対処されていることを確認する。</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>CSRF 攻撃は、ログオン済みの被害者のブラウザを使用して未認証の要求を脆弱な Web アプリケーションへ送信させ、攻撃者が被害者に実行が許可されているステート変更操作（アカウント情報の更新、購入、さらにはアプリケーションの認証などさえも）を行えるようにします。</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>6.5.10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>不完全な認証管理とセッション管理</t>
-    </r>
+    <t xml:space="preserve">4.セッション管理の不備
+11.アクセス制御や認可制御の欠落
+</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>6.5.10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ソフトウェア開発ポリシーと手順を調べ、責任者をインタビューすることで、以下を含め、コーディング技法によって不完全な認証管理とセッション管理が対処されていることを確認する。</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>上記に加えPCI DSSへの対応が求められるシステムについてはPCI DSS対応表も参照する。</t>
-    <rPh sb="0" eb="2">
-      <t>ジョウキ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>クワ</t>
+    <t>PCI DDSSで定義された要件のうち 要件6.5. についてのみ以下にチェックリストとの対応を記載します。</t>
+    <rPh sb="9" eb="11">
+      <t>テイギ</t>
     </rPh>
     <rPh sb="14" eb="16">
+      <t>ヨウケン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヨウケン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
       <t>タイオウ</t>
     </rPh>
-    <rPh sb="17" eb="18">
-      <t>モト</t>
-    </rPh>
-    <rPh sb="38" eb="40">
+    <rPh sb="48" eb="50">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※他に 要件8 などもアプリケーション実装に関するものですが、Nablarchでは対応していないため各プロジェクトで個別に対応してください。</t>
+    <rPh sb="1" eb="2">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="41" eb="43">
       <t>タイオウ</t>
     </rPh>
-    <rPh sb="40" eb="41">
-      <t>ヒョウ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1.SQLインジェクション
-7.HTTPヘッダ・インジェクション
-8.メールヘッダ・インジェクション
-上記はチェックリストに記載されたインジェクションに関連する項目となります。上記以外のインジェクション（LDAP や Xpathなど）については別途プロジェクトで個別に対応してください。</t>
-    <rPh sb="52" eb="54">
-      <t>ジョウキ</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="77" eb="79">
-      <t>カンレン</t>
-    </rPh>
-    <rPh sb="81" eb="83">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="89" eb="91">
-      <t>ジョウキ</t>
-    </rPh>
-    <rPh sb="91" eb="93">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="123" eb="125">
-      <t>ベット</t>
-    </rPh>
-    <rPh sb="132" eb="134">
+    <rPh sb="50" eb="51">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="58" eb="60">
       <t>コベツ</t>
     </rPh>
-    <rPh sb="135" eb="137">
+    <rPh sb="61" eb="63">
       <t>タイオウ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>1-(iii) SQLインジェクション エラーメッセージをそのままブラウザに表示しない
-上記項目に対応することで業務アプリケーションでハンドリングしていないエラーメッセージやスタックトレースがユーザに表示されることは防げます。業務アプリケーションの出力するエラーメッセージについてはプロジェクトで個別に対応してください。(認証失敗時に詳細なメッセージを出力しないなど)</t>
-    <rPh sb="38" eb="40">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ジョウキ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>IPAで公開されている脆弱性対策で根本的解決となっているものについては必ず対応してください。各対策に対応するNablarchの機能を右に示します。</t>
+    <rPh sb="4" eb="6">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ゼイジャクセイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="17" eb="22">
+      <t>コンポンテキカイケツ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>カナラ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>カク</t>
     </rPh>
     <rPh sb="47" eb="49">
-      <t>コウモク</t>
+      <t>タイサク</t>
     </rPh>
     <rPh sb="50" eb="52">
       <t>タイオウ</t>
     </rPh>
-    <rPh sb="57" eb="59">
-      <t>ギョウム</t>
-    </rPh>
-    <rPh sb="101" eb="103">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="109" eb="110">
-      <t>フセ</t>
-    </rPh>
-    <rPh sb="114" eb="116">
-      <t>ギョウム</t>
-    </rPh>
-    <rPh sb="125" eb="127">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="149" eb="151">
-      <t>コベツ</t>
-    </rPh>
-    <rPh sb="152" eb="154">
-      <t>タイオウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>3.パス名パラメータの未チェック／ディレクトリ・トラバーサル
-11.アクセス制御や認可制御の欠落
-3については、チェックリストに記載の通り、Nablarchの機能を組み合わせた上で、ディレクトリトラバーサルを起こさないようプロジェクトで個別に対応してください。</t>
-    <rPh sb="65" eb="67">
-      <t>キサイ</t>
+    <rPh sb="63" eb="65">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>ミギ</t>
     </rPh>
     <rPh sb="68" eb="69">
-      <t>トオ</t>
-    </rPh>
-    <rPh sb="80" eb="82">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="83" eb="84">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="85" eb="86">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="89" eb="90">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="105" eb="106">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="119" eb="121">
-      <t>コベツ</t>
-    </rPh>
-    <rPh sb="122" eb="124">
-      <t>タイオウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>NablarchはHTTPレスポンスのHTTPヘッダのContent-TypeにMIME Type・文字コードを設定しています。これにより特定のブラウザで発生し得る 5-(i) の対策を回避したクロスサイト・スクリプティングを防ぐことができます。
-また、Nablarchはセキュリティ関連のヘッダをレスポンスオブジェクトに設定するセキュアハンドラを提供しています。このハンドラにより、ユーザがクロスサイト・スクリプティングの脆弱性対策を無効にしていた場合でもサーバからブラウザの機能を有効にするよう指示することが可能です。</t>
-    <rPh sb="69" eb="71">
-      <t>トクテイ</t>
-    </rPh>
-    <rPh sb="77" eb="79">
-      <t>ハッセイ</t>
-    </rPh>
-    <rPh sb="80" eb="81">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="90" eb="92">
-      <t>タイサク</t>
-    </rPh>
-    <rPh sb="93" eb="95">
-      <t>カイヒ</t>
-    </rPh>
-    <rPh sb="113" eb="114">
-      <t>フセ</t>
-    </rPh>
-    <rPh sb="212" eb="215">
-      <t>ゼイジャクセイ</t>
-    </rPh>
-    <rPh sb="215" eb="217">
-      <t>タイサク</t>
-    </rPh>
-    <rPh sb="218" eb="220">
-      <t>ムコウ</t>
-    </rPh>
-    <rPh sb="225" eb="227">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="239" eb="241">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="242" eb="244">
-      <t>ユウコウ</t>
-    </rPh>
-    <rPh sb="249" eb="251">
-      <t>シジ</t>
-    </rPh>
-    <rPh sb="256" eb="258">
-      <t>カノウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Nablarchでのヘッダ出力はHttpServletResponseのAPIを使用しているため、Nablarchを使用する場合はヘッダにおける改行の扱いをAPIに移譲することでHTTPヘッダ・インジェクションの対策が可能です。</t>
-    <rPh sb="58" eb="60">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="62" eb="64">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="72" eb="74">
-      <t>カイギョウ</t>
-    </rPh>
-    <rPh sb="75" eb="76">
-      <t>アツカ</t>
-    </rPh>
-    <rPh sb="82" eb="84">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="106" eb="108">
-      <t>タイサク</t>
-    </rPh>
-    <rPh sb="109" eb="111">
-      <t>カノウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Nablarchはセキュリティ関連のヘッダをレスポンスオブジェクトに設定するセキュアハンドラを提供しています。このハンドラにより、デフォルトで X-Frame-Options: SAMEORIGIN が出力されるため、クリックジャッキング対策が可能です。</t>
-    <rPh sb="101" eb="103">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="119" eb="121">
-      <t>タイサク</t>
-    </rPh>
-    <rPh sb="122" eb="124">
-      <t>カノウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>チェックリストを参照することでNablarchを利用したプロジェクトが個別に確認するべき点が明らかとなります。</t>
+      <t>シメ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>チェックリストを参照することでNablarchを利用したプロジェクトが個別に確認するべき点が明らかとなる。</t>
     <rPh sb="8" eb="10">
       <t>サンショウ</t>
     </rPh>
@@ -2538,176 +2026,46 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>×</t>
-  </si>
-  <si>
-    <t>×</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>△</t>
-  </si>
-  <si>
-    <t>4-(iv)-a の対策を実施する</t>
-    <rPh sb="10" eb="12">
-      <t>タイサク</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ジッシ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>7-(i)-a の対策を実施する</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>6-(i)-a の対策を実施する</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>9-(i)-a の対策を実施する</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>チェックに※がついているものについては、実施項目のいずれかを実施する。対応するNablarchの機能が複数実施項目にある場合はいずれで対応しても問題ない。</t>
-    <rPh sb="35" eb="37">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>フクスウ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>ジッシ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="72" eb="74">
-      <t>モンダイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Nablarchではファイルパス管理機能を提供しています。サーバ内のファイルへのアクセスにこの機能を使用することで、アクセス対象のベースディレクトリを指定することができます。これにより公開するディレクトリが限定されます。同時に、特定の拡張子のファイルのみにアクセスさせることがきます。
-ファイル名をユーザに入力させる場合、上記に組み合わせて、入力値チェックで "."などの文字を許容しないことでディレクトリトラバーサルを防ぐことが可能となります。</t>
-    <rPh sb="92" eb="94">
-      <t>コウカイ</t>
-    </rPh>
-    <rPh sb="103" eb="105">
-      <t>ゲンテイ</t>
-    </rPh>
-    <rPh sb="110" eb="112">
-      <t>ドウジ</t>
-    </rPh>
-    <rPh sb="147" eb="148">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="153" eb="155">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="158" eb="160">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1.2. 対応するバージョン</t>
-    <rPh sb="5" eb="7">
-      <t>タイオウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>本書を作成するにあたり参照したIPAのセキュリティチェックリストおよびPCI DSSは以下のバージョンとなる。</t>
+    <t>なお、アプリケーションに関する要件としては 要件8 などもPCI DSSで規定されている。</t>
+    <rPh sb="12" eb="13">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヨウケン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヨウケン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>キテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>要件6 以外についてはプロジェクトで注意深く確認が必要となる。</t>
     <rPh sb="0" eb="2">
-      <t>ホンショ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>サンショウ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>イカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>IPA</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>PCI DSS</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>改訂第7版</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>v3.2.1</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ファイルパス管理</t>
-    <rPh sb="6" eb="8">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>対応する機能がないため、プロジェクトで対応してください。</t>
-    <rPh sb="0" eb="2">
-      <t>タイオウ</t>
+      <t>ヨウケン</t>
     </rPh>
     <rPh sb="4" eb="6">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>タイオウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>対応する機能がないため、プロジェクトで対応してください。</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>プロセスに関する要件であり機能ではないため対応項目はありません。</t>
-    <rPh sb="5" eb="6">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヨウケン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>コウモク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>チュウイブカ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -2818,23 +2176,6 @@
     </font>
     <font>
       <b/>
-      <i/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Meiryo UI"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Meiryo UI"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Meiryo UI"/>
@@ -2848,8 +2189,15 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2880,18 +2228,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="23">
     <border>
@@ -3209,7 +2545,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3262,28 +2598,13 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -3393,9 +2714,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3426,12 +2744,138 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -3456,146 +2900,14 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3690,13 +3002,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3761,13 +3073,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3864,13 +3176,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3928,13 +3240,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3988,13 +3300,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4048,13 +3360,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>85724</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>66674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>171449</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4601,109 +3913,119 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59182785-6894-4709-A2E5-57E49270532F}">
-  <dimension ref="B2:J46"/>
+  <dimension ref="B2:J48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="16384" width="2.625" style="26"/>
+    <col min="1" max="16384" width="2.625" style="21"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4">
-      <c r="B2" s="26" t="s">
-        <v>164</v>
+      <c r="B2" s="21" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="2:4">
-      <c r="C4" s="26" t="s">
-        <v>165</v>
+      <c r="C4" s="21" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="2:4">
-      <c r="D6" s="26" t="s">
-        <v>169</v>
+      <c r="D6" s="21" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="2:4">
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="21" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="D8" s="22" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="D9" s="21" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="D10" s="21" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="D12" s="21" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
-      <c r="D8" s="27" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="D9" s="26" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4">
-      <c r="D10" s="26" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4">
-      <c r="D12" s="26" t="s">
+    <row r="13" spans="2:4">
+      <c r="D13" s="21" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="D14" s="21" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="D15" s="21" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="D16" s="21" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4">
+      <c r="D18" s="21" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4">
+      <c r="D19" s="21" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4">
+      <c r="D20" s="21" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4">
+      <c r="D21" s="21" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="43" spans="3:10">
+      <c r="C43" s="21" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="45" spans="3:10">
+      <c r="D45" s="21" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="47" spans="3:10">
+      <c r="F47" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="J47" s="21" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="13" spans="2:4">
-      <c r="D13" s="26" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4">
-      <c r="D14" s="26" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4">
-      <c r="D16" s="26" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="17" spans="4:4">
-      <c r="D17" s="26" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="18" spans="4:4">
-      <c r="D18" s="26" t="s">
+    <row r="48" spans="3:10">
+      <c r="F48" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="J48" s="21" t="s">
         <v>195</v>
-      </c>
-    </row>
-    <row r="19" spans="4:4">
-      <c r="D19" s="26" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="41" spans="3:10">
-      <c r="C41" s="26" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="43" spans="3:10">
-      <c r="D43" s="26" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="45" spans="3:10">
-      <c r="F45" s="26" t="s">
-        <v>249</v>
-      </c>
-      <c r="J45" s="26" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="46" spans="3:10">
-      <c r="F46" s="26" t="s">
-        <v>250</v>
-      </c>
-      <c r="J46" s="26" t="s">
-        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -4748,25 +4070,25 @@
   <sheetData>
     <row r="1" spans="1:12" ht="16.5">
       <c r="A1" s="1" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="B1" s="4"/>
     </row>
     <row r="2" spans="1:12" ht="16.5">
       <c r="A2" s="1" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:12" ht="16.5">
       <c r="A3" s="1" t="s">
-        <v>188</v>
+        <v>218</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:12" ht="16.5">
       <c r="A4" s="1" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="B4" s="4"/>
     </row>
@@ -4777,96 +4099,96 @@
     <row r="6" spans="1:12" ht="17.25" thickBot="1">
       <c r="A6" s="1"/>
       <c r="B6" s="4"/>
-      <c r="F6" s="32" t="s">
-        <v>245</v>
+      <c r="F6" s="27" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="B7" s="80" t="s">
+      <c r="B7" s="116" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="82" t="s">
+      <c r="C7" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="82"/>
-      <c r="E7" s="96" t="s">
-        <v>181</v>
-      </c>
-      <c r="F7" s="96"/>
-      <c r="G7" s="96"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="84" t="s">
-        <v>177</v>
-      </c>
-      <c r="K7" s="84" t="s">
-        <v>180</v>
-      </c>
-      <c r="L7" s="86" t="s">
+      <c r="D7" s="118"/>
+      <c r="E7" s="95" t="s">
+        <v>162</v>
+      </c>
+      <c r="F7" s="95"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="95"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="93" t="s">
+        <v>158</v>
+      </c>
+      <c r="K7" s="93" t="s">
+        <v>161</v>
+      </c>
+      <c r="L7" s="105" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="12.75" thickBot="1">
-      <c r="B8" s="81"/>
-      <c r="C8" s="83"/>
-      <c r="D8" s="83"/>
-      <c r="E8" s="42" t="s">
+      <c r="B8" s="117"/>
+      <c r="C8" s="119"/>
+      <c r="D8" s="119"/>
+      <c r="E8" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="42" t="s">
+      <c r="F8" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42" t="s">
+      <c r="G8" s="37"/>
+      <c r="H8" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="42" t="s">
+      <c r="I8" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="J8" s="85"/>
-      <c r="K8" s="85"/>
-      <c r="L8" s="87"/>
+      <c r="J8" s="94"/>
+      <c r="K8" s="94"/>
+      <c r="L8" s="106"/>
     </row>
     <row r="9" spans="1:12" ht="57" customHeight="1">
-      <c r="B9" s="111">
+      <c r="B9" s="78">
         <v>1</v>
       </c>
-      <c r="C9" s="115" t="s">
+      <c r="C9" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="115"/>
-      <c r="E9" s="105" t="s">
+      <c r="D9" s="73"/>
+      <c r="E9" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="107" t="s">
+      <c r="F9" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="33" t="s">
+      <c r="G9" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="34" t="s">
+      <c r="H9" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="35" t="s">
+      <c r="I9" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="36" t="s">
+      <c r="J9" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="K9" s="37" t="s">
-        <v>176</v>
-      </c>
-      <c r="L9" s="93" t="s">
-        <v>179</v>
+      <c r="K9" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="L9" s="108" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="57" customHeight="1">
-      <c r="B10" s="113"/>
-      <c r="C10" s="117"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="106"/>
-      <c r="F10" s="108"/>
-      <c r="G10" s="31" t="s">
+      <c r="B10" s="81"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="26" t="s">
         <v>16</v>
       </c>
       <c r="H10" s="5" t="s">
@@ -4881,19 +4203,19 @@
       <c r="K10" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="L10" s="94"/>
+      <c r="L10" s="109"/>
     </row>
     <row r="11" spans="1:12" ht="57" customHeight="1">
-      <c r="B11" s="113"/>
-      <c r="C11" s="117"/>
-      <c r="D11" s="117"/>
-      <c r="E11" s="29" t="s">
+      <c r="B11" s="81"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="31" t="s">
+      <c r="F11" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="31"/>
+      <c r="G11" s="26"/>
       <c r="H11" s="5" t="s">
         <v>23</v>
       </c>
@@ -4906,12 +4228,12 @@
       <c r="K11" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="L11" s="94"/>
+      <c r="L11" s="109"/>
     </row>
     <row r="12" spans="1:12" ht="36">
-      <c r="B12" s="113"/>
-      <c r="C12" s="117"/>
-      <c r="D12" s="117"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
       <c r="E12" s="7" t="s">
         <v>3</v>
       </c>
@@ -4931,321 +4253,321 @@
       <c r="K12" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="L12" s="94"/>
+      <c r="L12" s="109"/>
     </row>
     <row r="13" spans="1:12" ht="36.75" thickBot="1">
-      <c r="B13" s="114"/>
-      <c r="C13" s="118"/>
-      <c r="D13" s="118"/>
-      <c r="E13" s="38" t="s">
+      <c r="B13" s="79"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="39" t="s">
+      <c r="F13" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="39"/>
-      <c r="H13" s="40" t="s">
+      <c r="G13" s="34"/>
+      <c r="H13" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="I13" s="38" t="s">
+      <c r="I13" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="J13" s="40" t="s">
+      <c r="J13" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="K13" s="41" t="s">
-        <v>239</v>
-      </c>
-      <c r="L13" s="95"/>
+      <c r="K13" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="L13" s="110"/>
     </row>
     <row r="14" spans="1:12" ht="36">
-      <c r="B14" s="111">
+      <c r="B14" s="78">
         <v>2</v>
       </c>
-      <c r="C14" s="115" t="s">
+      <c r="C14" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="115"/>
-      <c r="E14" s="43" t="s">
+      <c r="D14" s="73"/>
+      <c r="E14" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="33" t="s">
+      <c r="F14" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="33" t="s">
+      <c r="G14" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="34" t="s">
+      <c r="H14" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="I14" s="35" t="s">
+      <c r="I14" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="J14" s="36" t="s">
+      <c r="J14" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="K14" s="37" t="s">
+      <c r="K14" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="L14" s="88" t="s">
-        <v>178</v>
+      <c r="L14" s="83" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="36.75" thickBot="1">
-      <c r="B15" s="120"/>
-      <c r="C15" s="119"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="50" t="s">
+      <c r="B15" s="82"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="52" t="s">
+      <c r="F15" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="52" t="s">
+      <c r="G15" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="53" t="s">
+      <c r="H15" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="I15" s="50" t="s">
+      <c r="I15" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="J15" s="53" t="s">
+      <c r="J15" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="K15" s="54" t="s">
-        <v>238</v>
+      <c r="K15" s="49" t="s">
+        <v>181</v>
       </c>
       <c r="L15" s="92"/>
     </row>
     <row r="16" spans="1:12" ht="27" customHeight="1">
-      <c r="B16" s="111">
+      <c r="B16" s="78">
         <v>3</v>
       </c>
-      <c r="C16" s="115" t="s">
+      <c r="C16" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="115"/>
-      <c r="E16" s="77" t="s">
+      <c r="D16" s="73"/>
+      <c r="E16" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="74" t="s">
+      <c r="F16" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="74" t="s">
+      <c r="G16" s="111" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="103" t="s">
+      <c r="H16" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="102" t="s">
+      <c r="I16" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="J16" s="71" t="s">
-        <v>253</v>
-      </c>
-      <c r="K16" s="98" t="s">
+      <c r="J16" s="65" t="s">
+        <v>196</v>
+      </c>
+      <c r="K16" s="97" t="s">
         <v>127</v>
       </c>
-      <c r="L16" s="88" t="s">
-        <v>246</v>
+      <c r="L16" s="83" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="2:12" ht="27" customHeight="1">
-      <c r="B17" s="112"/>
-      <c r="C17" s="116"/>
-      <c r="D17" s="116"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="101"/>
-      <c r="I17" s="99"/>
-      <c r="J17" s="70" t="s">
+      <c r="B17" s="120"/>
+      <c r="C17" s="91"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="114"/>
+      <c r="F17" s="112"/>
+      <c r="G17" s="104"/>
+      <c r="H17" s="100"/>
+      <c r="I17" s="98"/>
+      <c r="J17" s="64" t="s">
         <v>138</v>
       </c>
-      <c r="K17" s="97"/>
-      <c r="L17" s="89"/>
+      <c r="K17" s="96"/>
+      <c r="L17" s="107"/>
     </row>
     <row r="18" spans="2:12" ht="27" customHeight="1">
-      <c r="B18" s="113"/>
-      <c r="C18" s="117"/>
-      <c r="D18" s="117"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="104" t="s">
+      <c r="B18" s="81"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="114"/>
+      <c r="F18" s="112"/>
+      <c r="G18" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="100" t="s">
+      <c r="H18" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="I18" s="99" t="s">
+      <c r="I18" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="J18" s="69" t="s">
-        <v>253</v>
-      </c>
-      <c r="K18" s="97" t="s">
+      <c r="J18" s="63" t="s">
+        <v>196</v>
+      </c>
+      <c r="K18" s="96" t="s">
         <v>127</v>
       </c>
-      <c r="L18" s="90"/>
+      <c r="L18" s="84"/>
     </row>
     <row r="19" spans="2:12" ht="27" customHeight="1">
-      <c r="B19" s="113"/>
-      <c r="C19" s="117"/>
-      <c r="D19" s="117"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="101"/>
-      <c r="I19" s="99"/>
-      <c r="J19" s="70" t="s">
+      <c r="B19" s="81"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="115"/>
+      <c r="F19" s="104"/>
+      <c r="G19" s="104"/>
+      <c r="H19" s="100"/>
+      <c r="I19" s="98"/>
+      <c r="J19" s="64" t="s">
         <v>138</v>
       </c>
-      <c r="K19" s="97"/>
-      <c r="L19" s="90"/>
+      <c r="K19" s="96"/>
+      <c r="L19" s="84"/>
     </row>
     <row r="20" spans="2:12" ht="36">
-      <c r="B20" s="113"/>
-      <c r="C20" s="117"/>
-      <c r="D20" s="117"/>
-      <c r="E20" s="59" t="s">
+      <c r="B20" s="81"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="F20" s="61" t="s">
+      <c r="F20" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="61"/>
+      <c r="G20" s="56"/>
       <c r="H20" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="I20" s="67" t="s">
+      <c r="I20" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="J20" s="68" t="s">
+      <c r="J20" s="62" t="s">
         <v>128</v>
       </c>
-      <c r="K20" s="66" t="s">
-        <v>238</v>
-      </c>
-      <c r="L20" s="90"/>
+      <c r="K20" s="60" t="s">
+        <v>181</v>
+      </c>
+      <c r="L20" s="84"/>
     </row>
     <row r="21" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B21" s="114"/>
-      <c r="C21" s="118"/>
-      <c r="D21" s="118"/>
-      <c r="E21" s="60" t="s">
+      <c r="B21" s="79"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="F21" s="62" t="s">
+      <c r="F21" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="G21" s="62"/>
-      <c r="H21" s="41" t="s">
+      <c r="G21" s="57"/>
+      <c r="H21" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="I21" s="60" t="s">
+      <c r="I21" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="J21" s="46" t="s">
+      <c r="J21" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="K21" s="41" t="s">
+      <c r="K21" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="L21" s="91"/>
+      <c r="L21" s="85"/>
     </row>
     <row r="22" spans="2:12" ht="36">
-      <c r="B22" s="111">
+      <c r="B22" s="78">
         <v>4</v>
       </c>
-      <c r="C22" s="115" t="s">
+      <c r="C22" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="115"/>
-      <c r="E22" s="43" t="s">
+      <c r="D22" s="73"/>
+      <c r="E22" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="33" t="s">
+      <c r="F22" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="G22" s="33"/>
-      <c r="H22" s="34" t="s">
+      <c r="G22" s="28"/>
+      <c r="H22" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="I22" s="35" t="s">
+      <c r="I22" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="J22" s="64" t="s">
+      <c r="J22" s="58" t="s">
         <v>132</v>
       </c>
-      <c r="K22" s="37" t="s">
+      <c r="K22" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="L22" s="88" t="s">
-        <v>182</v>
+      <c r="L22" s="83" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="2:12" ht="36">
-      <c r="B23" s="113"/>
-      <c r="C23" s="117"/>
-      <c r="D23" s="117"/>
-      <c r="E23" s="29" t="s">
+      <c r="B23" s="81"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="31" t="s">
+      <c r="F23" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="G23" s="31"/>
+      <c r="G23" s="26"/>
       <c r="H23" s="5" t="s">
         <v>55</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="J23" s="65" t="s">
+      <c r="J23" s="59" t="s">
         <v>132</v>
       </c>
       <c r="K23" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="L23" s="90"/>
+      <c r="L23" s="84"/>
     </row>
     <row r="24" spans="2:12" ht="36">
-      <c r="B24" s="113"/>
-      <c r="C24" s="117"/>
-      <c r="D24" s="117"/>
-      <c r="E24" s="29" t="s">
+      <c r="B24" s="81"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="31" t="s">
+      <c r="F24" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="G24" s="31"/>
+      <c r="G24" s="26"/>
       <c r="H24" s="5" t="s">
         <v>47</v>
       </c>
       <c r="I24" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="J24" s="65" t="s">
+      <c r="J24" s="59" t="s">
         <v>132</v>
       </c>
       <c r="K24" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="L24" s="90"/>
+      <c r="L24" s="84"/>
     </row>
     <row r="25" spans="2:12">
-      <c r="B25" s="113"/>
-      <c r="C25" s="117"/>
-      <c r="D25" s="117"/>
-      <c r="E25" s="106" t="s">
+      <c r="B25" s="81"/>
+      <c r="C25" s="74"/>
+      <c r="D25" s="74"/>
+      <c r="E25" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="F25" s="108" t="s">
+      <c r="F25" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="G25" s="31" t="s">
+      <c r="G25" s="26" t="s">
         <v>16</v>
       </c>
       <c r="H25" s="5" t="s">
@@ -5258,17 +4580,17 @@
         <v>134</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="L25" s="90"/>
+        <v>183</v>
+      </c>
+      <c r="L25" s="84"/>
     </row>
     <row r="26" spans="2:12" ht="24">
-      <c r="B26" s="113"/>
-      <c r="C26" s="117"/>
-      <c r="D26" s="117"/>
-      <c r="E26" s="106"/>
-      <c r="F26" s="108"/>
-      <c r="G26" s="31" t="s">
+      <c r="B26" s="81"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="26" t="s">
         <v>16</v>
       </c>
       <c r="H26" s="5" t="s">
@@ -5277,106 +4599,106 @@
       <c r="I26" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="J26" s="109" t="s">
-        <v>241</v>
-      </c>
-      <c r="K26" s="110"/>
-      <c r="L26" s="90"/>
+      <c r="J26" s="86" t="s">
+        <v>184</v>
+      </c>
+      <c r="K26" s="87"/>
+      <c r="L26" s="84"/>
     </row>
     <row r="27" spans="2:12" ht="36">
-      <c r="B27" s="113"/>
-      <c r="C27" s="117"/>
-      <c r="D27" s="117"/>
-      <c r="E27" s="28" t="s">
+      <c r="B27" s="81"/>
+      <c r="C27" s="74"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="F27" s="30" t="s">
+      <c r="F27" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="G27" s="30"/>
+      <c r="G27" s="25"/>
       <c r="H27" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="I27" s="28" t="s">
+      <c r="I27" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="J27" s="65" t="s">
+      <c r="J27" s="59" t="s">
         <v>132</v>
       </c>
       <c r="K27" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="L27" s="90"/>
+      <c r="L27" s="84"/>
     </row>
     <row r="28" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B28" s="114"/>
-      <c r="C28" s="118"/>
-      <c r="D28" s="118"/>
-      <c r="E28" s="44" t="s">
+      <c r="B28" s="79"/>
+      <c r="C28" s="75"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="F28" s="45" t="s">
+      <c r="F28" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="G28" s="45"/>
-      <c r="H28" s="41" t="s">
+      <c r="G28" s="40"/>
+      <c r="H28" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="I28" s="44" t="s">
+      <c r="I28" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="J28" s="72" t="s">
+      <c r="J28" s="66" t="s">
         <v>132</v>
       </c>
-      <c r="K28" s="41" t="s">
+      <c r="K28" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="L28" s="91"/>
+      <c r="L28" s="85"/>
     </row>
     <row r="29" spans="2:12" ht="36">
-      <c r="B29" s="111">
+      <c r="B29" s="78">
         <v>5</v>
       </c>
-      <c r="C29" s="121" t="s">
+      <c r="C29" s="88" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="115" t="s">
+      <c r="D29" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="E29" s="43" t="s">
+      <c r="E29" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="F29" s="33" t="s">
+      <c r="F29" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="G29" s="33"/>
-      <c r="H29" s="34" t="s">
+      <c r="G29" s="28"/>
+      <c r="H29" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="I29" s="35" t="s">
+      <c r="I29" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="J29" s="64" t="s">
+      <c r="J29" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="K29" s="37" t="s">
+      <c r="K29" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="L29" s="88" t="s">
-        <v>191</v>
+      <c r="L29" s="83" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="2:12" ht="36">
-      <c r="B30" s="113"/>
-      <c r="C30" s="122"/>
-      <c r="D30" s="117"/>
-      <c r="E30" s="29" t="s">
+      <c r="B30" s="81"/>
+      <c r="C30" s="89"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F30" s="31" t="s">
+      <c r="F30" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="31"/>
+      <c r="G30" s="26"/>
       <c r="H30" s="5" t="s">
         <v>65</v>
       </c>
@@ -5387,21 +4709,21 @@
         <v>128</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="L30" s="90"/>
+        <v>181</v>
+      </c>
+      <c r="L30" s="84"/>
     </row>
     <row r="31" spans="2:12" ht="36">
-      <c r="B31" s="113"/>
-      <c r="C31" s="122"/>
-      <c r="D31" s="117"/>
-      <c r="E31" s="29" t="s">
+      <c r="B31" s="81"/>
+      <c r="C31" s="89"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F31" s="31" t="s">
+      <c r="F31" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="G31" s="31"/>
+      <c r="G31" s="26"/>
       <c r="H31" s="5" t="s">
         <v>66</v>
       </c>
@@ -5412,21 +4734,21 @@
         <v>128</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="L31" s="90"/>
+        <v>181</v>
+      </c>
+      <c r="L31" s="84"/>
     </row>
     <row r="32" spans="2:12" ht="36">
-      <c r="B32" s="113"/>
-      <c r="C32" s="122"/>
-      <c r="D32" s="117"/>
-      <c r="E32" s="29" t="s">
+      <c r="B32" s="81"/>
+      <c r="C32" s="89"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F32" s="31" t="s">
+      <c r="F32" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="G32" s="31"/>
+      <c r="G32" s="26"/>
       <c r="H32" s="5" t="s">
         <v>68</v>
       </c>
@@ -5437,21 +4759,21 @@
         <v>128</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="L32" s="90"/>
+        <v>181</v>
+      </c>
+      <c r="L32" s="84"/>
     </row>
     <row r="33" spans="2:12" ht="36">
-      <c r="B33" s="113"/>
-      <c r="C33" s="122"/>
-      <c r="D33" s="117"/>
-      <c r="E33" s="28" t="s">
+      <c r="B33" s="81"/>
+      <c r="C33" s="89"/>
+      <c r="D33" s="74"/>
+      <c r="E33" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="F33" s="30" t="s">
+      <c r="F33" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="G33" s="30"/>
+      <c r="G33" s="25"/>
       <c r="H33" s="9" t="s">
         <v>70</v>
       </c>
@@ -5464,21 +4786,21 @@
       <c r="K33" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="L33" s="90"/>
+      <c r="L33" s="84"/>
     </row>
     <row r="34" spans="2:12" ht="36">
-      <c r="B34" s="113"/>
-      <c r="C34" s="122"/>
-      <c r="D34" s="117" t="s">
+      <c r="B34" s="81"/>
+      <c r="C34" s="89"/>
+      <c r="D34" s="74" t="s">
         <v>124</v>
       </c>
-      <c r="E34" s="29" t="s">
+      <c r="E34" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F34" s="31" t="s">
+      <c r="F34" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="G34" s="31"/>
+      <c r="G34" s="26"/>
       <c r="H34" s="5" t="s">
         <v>72</v>
       </c>
@@ -5486,26 +4808,26 @@
         <v>73</v>
       </c>
       <c r="J34" s="13" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="K34" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="L34" s="90" t="s">
-        <v>184</v>
+      <c r="L34" s="84" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="35" spans="2:12" ht="36">
-      <c r="B35" s="113"/>
-      <c r="C35" s="122"/>
-      <c r="D35" s="117"/>
-      <c r="E35" s="28" t="s">
+      <c r="B35" s="81"/>
+      <c r="C35" s="89"/>
+      <c r="D35" s="74"/>
+      <c r="E35" s="23" t="s">
         <v>3</v>
       </c>
       <c r="F35" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G35" s="30"/>
+      <c r="G35" s="25"/>
       <c r="H35" s="9" t="s">
         <v>75</v>
       </c>
@@ -5516,23 +4838,23 @@
         <v>128</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="L35" s="90"/>
+        <v>181</v>
+      </c>
+      <c r="L35" s="84"/>
     </row>
     <row r="36" spans="2:12" ht="36">
-      <c r="B36" s="113"/>
-      <c r="C36" s="122"/>
-      <c r="D36" s="117" t="s">
+      <c r="B36" s="81"/>
+      <c r="C36" s="89"/>
+      <c r="D36" s="74" t="s">
         <v>123</v>
       </c>
-      <c r="E36" s="29" t="s">
+      <c r="E36" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F36" s="31" t="s">
+      <c r="F36" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="G36" s="31"/>
+      <c r="G36" s="26"/>
       <c r="H36" s="5" t="s">
         <v>76</v>
       </c>
@@ -5543,23 +4865,23 @@
         <v>139</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="L36" s="90" t="s">
-        <v>234</v>
+        <v>157</v>
+      </c>
+      <c r="L36" s="84" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="37" spans="2:12" ht="36">
-      <c r="B37" s="113"/>
-      <c r="C37" s="122"/>
-      <c r="D37" s="117"/>
-      <c r="E37" s="28" t="s">
+      <c r="B37" s="81"/>
+      <c r="C37" s="89"/>
+      <c r="D37" s="74"/>
+      <c r="E37" s="23" t="s">
         <v>3</v>
       </c>
       <c r="F37" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="30"/>
+      <c r="G37" s="25"/>
       <c r="H37" s="9" t="s">
         <v>79</v>
       </c>
@@ -5570,75 +4892,75 @@
         <v>128</v>
       </c>
       <c r="K37" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="L37" s="90"/>
+        <v>181</v>
+      </c>
+      <c r="L37" s="84"/>
     </row>
     <row r="38" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B38" s="114"/>
-      <c r="C38" s="123"/>
-      <c r="D38" s="118"/>
-      <c r="E38" s="44" t="s">
+      <c r="B38" s="79"/>
+      <c r="C38" s="90"/>
+      <c r="D38" s="75"/>
+      <c r="E38" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="F38" s="39" t="s">
+      <c r="F38" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="G38" s="45"/>
-      <c r="H38" s="40" t="s">
+      <c r="G38" s="40"/>
+      <c r="H38" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="I38" s="38" t="s">
+      <c r="I38" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="J38" s="46" t="s">
+      <c r="J38" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="K38" s="41" t="s">
+      <c r="K38" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="L38" s="91"/>
+      <c r="L38" s="85"/>
     </row>
     <row r="39" spans="2:12" ht="48">
-      <c r="B39" s="111">
+      <c r="B39" s="78">
         <v>6</v>
       </c>
-      <c r="C39" s="115" t="s">
+      <c r="C39" s="73" t="s">
         <v>80</v>
       </c>
-      <c r="D39" s="115"/>
-      <c r="E39" s="105" t="s">
+      <c r="D39" s="73"/>
+      <c r="E39" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="F39" s="107" t="s">
+      <c r="F39" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="G39" s="33" t="s">
+      <c r="G39" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="H39" s="47" t="s">
+      <c r="H39" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="I39" s="35" t="s">
+      <c r="I39" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="J39" s="36" t="s">
+      <c r="J39" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="K39" s="37" t="s">
+      <c r="K39" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="L39" s="88" t="s">
+      <c r="L39" s="83" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="40" spans="2:12" ht="36">
-      <c r="B40" s="113"/>
-      <c r="C40" s="117"/>
-      <c r="D40" s="117"/>
-      <c r="E40" s="106"/>
-      <c r="F40" s="108"/>
-      <c r="G40" s="31" t="s">
+      <c r="B40" s="81"/>
+      <c r="C40" s="74"/>
+      <c r="D40" s="74"/>
+      <c r="E40" s="77"/>
+      <c r="F40" s="72"/>
+      <c r="G40" s="26" t="s">
         <v>16</v>
       </c>
       <c r="H40" s="11" t="s">
@@ -5647,19 +4969,19 @@
       <c r="I40" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="J40" s="109" t="s">
-        <v>243</v>
-      </c>
-      <c r="K40" s="110"/>
-      <c r="L40" s="90"/>
+      <c r="J40" s="86" t="s">
+        <v>186</v>
+      </c>
+      <c r="K40" s="87"/>
+      <c r="L40" s="84"/>
     </row>
     <row r="41" spans="2:12" ht="24">
-      <c r="B41" s="113"/>
-      <c r="C41" s="117"/>
-      <c r="D41" s="117"/>
-      <c r="E41" s="106"/>
-      <c r="F41" s="108"/>
-      <c r="G41" s="31" t="s">
+      <c r="B41" s="81"/>
+      <c r="C41" s="74"/>
+      <c r="D41" s="74"/>
+      <c r="E41" s="77"/>
+      <c r="F41" s="72"/>
+      <c r="G41" s="26" t="s">
         <v>16</v>
       </c>
       <c r="H41" s="11" t="s">
@@ -5668,77 +4990,77 @@
       <c r="I41" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="J41" s="109" t="s">
-        <v>243</v>
-      </c>
-      <c r="K41" s="110"/>
-      <c r="L41" s="90"/>
+      <c r="J41" s="86" t="s">
+        <v>186</v>
+      </c>
+      <c r="K41" s="87"/>
+      <c r="L41" s="84"/>
     </row>
     <row r="42" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B42" s="114"/>
-      <c r="C42" s="118"/>
-      <c r="D42" s="118"/>
-      <c r="E42" s="44" t="s">
+      <c r="B42" s="79"/>
+      <c r="C42" s="75"/>
+      <c r="D42" s="75"/>
+      <c r="E42" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="F42" s="45" t="s">
+      <c r="F42" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="G42" s="45"/>
-      <c r="H42" s="48" t="s">
+      <c r="G42" s="40"/>
+      <c r="H42" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="I42" s="44" t="s">
+      <c r="I42" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="J42" s="40" t="s">
+      <c r="J42" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="K42" s="41" t="s">
-        <v>238</v>
-      </c>
-      <c r="L42" s="91"/>
+      <c r="K42" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="L42" s="85"/>
     </row>
     <row r="43" spans="2:12" ht="24">
-      <c r="B43" s="111">
+      <c r="B43" s="78">
         <v>7</v>
       </c>
-      <c r="C43" s="115" t="s">
+      <c r="C43" s="73" t="s">
         <v>89</v>
       </c>
-      <c r="D43" s="115"/>
-      <c r="E43" s="105" t="s">
+      <c r="D43" s="73"/>
+      <c r="E43" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="F43" s="107" t="s">
+      <c r="F43" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="G43" s="33" t="s">
+      <c r="G43" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="H43" s="34" t="s">
+      <c r="H43" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="I43" s="35" t="s">
+      <c r="I43" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="J43" s="49" t="s">
-        <v>175</v>
-      </c>
-      <c r="K43" s="37" t="s">
+      <c r="J43" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="K43" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="L43" s="88" t="s">
-        <v>235</v>
+      <c r="L43" s="83" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="44" spans="2:12" ht="36">
-      <c r="B44" s="113"/>
-      <c r="C44" s="117"/>
-      <c r="D44" s="117"/>
-      <c r="E44" s="106"/>
-      <c r="F44" s="108"/>
-      <c r="G44" s="31" t="s">
+      <c r="B44" s="81"/>
+      <c r="C44" s="74"/>
+      <c r="D44" s="74"/>
+      <c r="E44" s="77"/>
+      <c r="F44" s="72"/>
+      <c r="G44" s="26" t="s">
         <v>16</v>
       </c>
       <c r="H44" s="5" t="s">
@@ -5747,77 +5069,77 @@
       <c r="I44" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="J44" s="109" t="s">
-        <v>242</v>
-      </c>
-      <c r="K44" s="110"/>
-      <c r="L44" s="90"/>
+      <c r="J44" s="86" t="s">
+        <v>185</v>
+      </c>
+      <c r="K44" s="87"/>
+      <c r="L44" s="84"/>
     </row>
     <row r="45" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B45" s="114"/>
-      <c r="C45" s="118"/>
-      <c r="D45" s="118"/>
-      <c r="E45" s="44" t="s">
+      <c r="B45" s="79"/>
+      <c r="C45" s="75"/>
+      <c r="D45" s="75"/>
+      <c r="E45" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="F45" s="45" t="s">
+      <c r="F45" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="G45" s="45"/>
-      <c r="H45" s="40" t="s">
+      <c r="G45" s="40"/>
+      <c r="H45" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="I45" s="44" t="s">
+      <c r="I45" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="J45" s="40" t="s">
+      <c r="J45" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="K45" s="41" t="s">
-        <v>238</v>
-      </c>
-      <c r="L45" s="91"/>
+      <c r="K45" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="L45" s="85"/>
     </row>
     <row r="46" spans="2:12" ht="24">
-      <c r="B46" s="111">
+      <c r="B46" s="78">
         <v>8</v>
       </c>
-      <c r="C46" s="115" t="s">
+      <c r="C46" s="73" t="s">
         <v>105</v>
       </c>
-      <c r="D46" s="115"/>
-      <c r="E46" s="105" t="s">
+      <c r="D46" s="73"/>
+      <c r="E46" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="F46" s="107" t="s">
+      <c r="F46" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="G46" s="33" t="s">
+      <c r="G46" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="H46" s="34" t="s">
+      <c r="H46" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="I46" s="35" t="s">
+      <c r="I46" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="J46" s="36" t="s">
+      <c r="J46" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="K46" s="37" t="s">
-        <v>190</v>
-      </c>
-      <c r="L46" s="88" t="s">
-        <v>192</v>
+      <c r="K46" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="L46" s="83" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="47" spans="2:12" ht="36">
-      <c r="B47" s="113"/>
-      <c r="C47" s="117"/>
-      <c r="D47" s="117"/>
-      <c r="E47" s="106"/>
-      <c r="F47" s="108"/>
-      <c r="G47" s="31" t="s">
+      <c r="B47" s="81"/>
+      <c r="C47" s="74"/>
+      <c r="D47" s="74"/>
+      <c r="E47" s="77"/>
+      <c r="F47" s="72"/>
+      <c r="G47" s="26" t="s">
         <v>0</v>
       </c>
       <c r="H47" s="5" t="s">
@@ -5830,21 +5152,21 @@
         <v>141</v>
       </c>
       <c r="K47" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="L47" s="90"/>
+        <v>183</v>
+      </c>
+      <c r="L47" s="84"/>
     </row>
     <row r="48" spans="2:12" ht="36">
-      <c r="B48" s="113"/>
-      <c r="C48" s="117"/>
-      <c r="D48" s="117"/>
-      <c r="E48" s="29" t="s">
+      <c r="B48" s="81"/>
+      <c r="C48" s="74"/>
+      <c r="D48" s="74"/>
+      <c r="E48" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F48" s="31" t="s">
+      <c r="F48" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="G48" s="31"/>
+      <c r="G48" s="26"/>
       <c r="H48" s="5" t="s">
         <v>100</v>
       </c>
@@ -5855,75 +5177,75 @@
         <v>128</v>
       </c>
       <c r="K48" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="L48" s="90"/>
+        <v>181</v>
+      </c>
+      <c r="L48" s="84"/>
     </row>
     <row r="49" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B49" s="120"/>
-      <c r="C49" s="119"/>
-      <c r="D49" s="119"/>
-      <c r="E49" s="50" t="s">
+      <c r="B49" s="82"/>
+      <c r="C49" s="80"/>
+      <c r="D49" s="80"/>
+      <c r="E49" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="F49" s="51" t="s">
+      <c r="F49" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="G49" s="52"/>
-      <c r="H49" s="53" t="s">
+      <c r="G49" s="47"/>
+      <c r="H49" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="I49" s="50" t="s">
+      <c r="I49" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="J49" s="53" t="s">
+      <c r="J49" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="K49" s="54" t="s">
-        <v>238</v>
+      <c r="K49" s="49" t="s">
+        <v>181</v>
       </c>
       <c r="L49" s="92"/>
     </row>
     <row r="50" spans="2:12" ht="36">
-      <c r="B50" s="111">
+      <c r="B50" s="78">
         <v>9</v>
       </c>
-      <c r="C50" s="115" t="s">
+      <c r="C50" s="73" t="s">
         <v>107</v>
       </c>
-      <c r="D50" s="115"/>
-      <c r="E50" s="105" t="s">
+      <c r="D50" s="73"/>
+      <c r="E50" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="F50" s="107" t="s">
+      <c r="F50" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="G50" s="33" t="s">
+      <c r="G50" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="H50" s="34" t="s">
+      <c r="H50" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="I50" s="35" t="s">
+      <c r="I50" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="J50" s="36" t="s">
+      <c r="J50" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="K50" s="37" t="s">
+      <c r="K50" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="L50" s="88" t="s">
-        <v>236</v>
+      <c r="L50" s="83" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="51" spans="2:12" ht="36">
-      <c r="B51" s="113"/>
-      <c r="C51" s="117"/>
-      <c r="D51" s="117"/>
-      <c r="E51" s="106"/>
-      <c r="F51" s="108"/>
-      <c r="G51" s="31" t="s">
+      <c r="B51" s="81"/>
+      <c r="C51" s="74"/>
+      <c r="D51" s="74"/>
+      <c r="E51" s="77"/>
+      <c r="F51" s="72"/>
+      <c r="G51" s="26" t="s">
         <v>0</v>
       </c>
       <c r="H51" s="5" t="s">
@@ -5932,77 +5254,77 @@
       <c r="I51" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="J51" s="109" t="s">
-        <v>244</v>
-      </c>
-      <c r="K51" s="110"/>
-      <c r="L51" s="90"/>
+      <c r="J51" s="86" t="s">
+        <v>187</v>
+      </c>
+      <c r="K51" s="87"/>
+      <c r="L51" s="84"/>
     </row>
     <row r="52" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B52" s="114"/>
-      <c r="C52" s="118"/>
-      <c r="D52" s="118"/>
-      <c r="E52" s="38" t="s">
+      <c r="B52" s="79"/>
+      <c r="C52" s="75"/>
+      <c r="D52" s="75"/>
+      <c r="E52" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="F52" s="45" t="s">
+      <c r="F52" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="G52" s="39"/>
-      <c r="H52" s="40" t="s">
+      <c r="G52" s="34"/>
+      <c r="H52" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="I52" s="38" t="s">
+      <c r="I52" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="J52" s="40" t="s">
+      <c r="J52" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="K52" s="41" t="s">
-        <v>238</v>
-      </c>
-      <c r="L52" s="91"/>
+      <c r="K52" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="L52" s="85"/>
     </row>
     <row r="53" spans="2:12">
-      <c r="B53" s="111">
+      <c r="B53" s="78">
         <v>10</v>
       </c>
-      <c r="C53" s="115" t="s">
+      <c r="C53" s="73" t="s">
         <v>114</v>
       </c>
-      <c r="D53" s="115"/>
-      <c r="E53" s="105" t="s">
+      <c r="D53" s="73"/>
+      <c r="E53" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="F53" s="107" t="s">
+      <c r="F53" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="G53" s="33" t="s">
+      <c r="G53" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="H53" s="34" t="s">
+      <c r="H53" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="I53" s="35" t="s">
+      <c r="I53" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="J53" s="49" t="s">
-        <v>175</v>
-      </c>
-      <c r="K53" s="37" t="s">
+      <c r="J53" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="K53" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="L53" s="88" t="s">
-        <v>185</v>
+      <c r="L53" s="83" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="54" spans="2:12" ht="30.75" customHeight="1">
-      <c r="B54" s="113"/>
-      <c r="C54" s="117"/>
-      <c r="D54" s="117"/>
-      <c r="E54" s="106"/>
-      <c r="F54" s="108"/>
-      <c r="G54" s="31" t="s">
+      <c r="B54" s="81"/>
+      <c r="C54" s="74"/>
+      <c r="D54" s="74"/>
+      <c r="E54" s="77"/>
+      <c r="F54" s="72"/>
+      <c r="G54" s="26" t="s">
         <v>0</v>
       </c>
       <c r="H54" s="5" t="s">
@@ -6012,101 +5334,101 @@
         <v>117</v>
       </c>
       <c r="J54" s="9" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="K54" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="L54" s="90"/>
+      <c r="L54" s="84"/>
     </row>
     <row r="55" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B55" s="114"/>
-      <c r="C55" s="118"/>
-      <c r="D55" s="118"/>
-      <c r="E55" s="55" t="s">
+      <c r="B55" s="79"/>
+      <c r="C55" s="75"/>
+      <c r="D55" s="75"/>
+      <c r="E55" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="F55" s="56" t="s">
+      <c r="F55" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="G55" s="56"/>
-      <c r="H55" s="57" t="s">
+      <c r="G55" s="51"/>
+      <c r="H55" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="I55" s="58" t="s">
+      <c r="I55" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="J55" s="40" t="s">
-        <v>175</v>
-      </c>
-      <c r="K55" s="41" t="s">
+      <c r="J55" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="K55" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="L55" s="91"/>
+      <c r="L55" s="85"/>
     </row>
     <row r="56" spans="2:12" ht="36">
-      <c r="B56" s="111">
+      <c r="B56" s="78">
         <v>11</v>
       </c>
-      <c r="C56" s="115" t="s">
+      <c r="C56" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="D56" s="115"/>
-      <c r="E56" s="43" t="s">
+      <c r="D56" s="73"/>
+      <c r="E56" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="F56" s="33" t="s">
+      <c r="F56" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="G56" s="33"/>
-      <c r="H56" s="34" t="s">
+      <c r="G56" s="28"/>
+      <c r="H56" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="I56" s="35" t="s">
+      <c r="I56" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="J56" s="36" t="s">
+      <c r="J56" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="K56" s="37" t="s">
-        <v>240</v>
-      </c>
-      <c r="L56" s="88" t="s">
-        <v>186</v>
+      <c r="K56" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="L56" s="83" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="57" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B57" s="114"/>
-      <c r="C57" s="118"/>
-      <c r="D57" s="118"/>
-      <c r="E57" s="55" t="s">
+      <c r="B57" s="79"/>
+      <c r="C57" s="75"/>
+      <c r="D57" s="75"/>
+      <c r="E57" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="F57" s="56" t="s">
+      <c r="F57" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="G57" s="56"/>
-      <c r="H57" s="57" t="s">
+      <c r="G57" s="51"/>
+      <c r="H57" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="I57" s="58" t="s">
+      <c r="I57" s="53" t="s">
         <v>120</v>
       </c>
-      <c r="J57" s="46" t="s">
+      <c r="J57" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="K57" s="41" t="s">
+      <c r="K57" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="L57" s="91"/>
+      <c r="L57" s="85"/>
     </row>
     <row r="58" spans="2:12">
-      <c r="F58" s="124" t="s">
+      <c r="F58" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="G58" s="124"/>
-      <c r="H58" s="124"/>
-      <c r="I58" s="124"/>
+      <c r="G58" s="70"/>
+      <c r="H58" s="70"/>
+      <c r="I58" s="70"/>
       <c r="J58" s="12"/>
     </row>
     <row r="59" spans="2:12">
@@ -6120,56 +5442,14 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="F58:I58"/>
-    <mergeCell ref="F39:F41"/>
-    <mergeCell ref="C39:D42"/>
-    <mergeCell ref="D29:D33"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:D57"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="C43:D45"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="C46:D49"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="C53:D55"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="C50:D52"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="B29:B38"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="L22:L28"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="C29:C38"/>
-    <mergeCell ref="C22:D28"/>
-    <mergeCell ref="B22:B28"/>
-    <mergeCell ref="C16:D21"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:D13"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="L29:L33"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="L36:L38"/>
-    <mergeCell ref="L34:L35"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="L56:L57"/>
-    <mergeCell ref="L53:L55"/>
-    <mergeCell ref="L50:L52"/>
-    <mergeCell ref="L43:L45"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="L9:L13"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="E16:E19"/>
     <mergeCell ref="L39:L42"/>
     <mergeCell ref="L46:L49"/>
     <mergeCell ref="J7:J8"/>
@@ -6186,14 +5466,56 @@
     <mergeCell ref="K7:K8"/>
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="L16:L21"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="L9:L13"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="F16:F19"/>
-    <mergeCell ref="E16:E19"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="L56:L57"/>
+    <mergeCell ref="L53:L55"/>
+    <mergeCell ref="L50:L52"/>
+    <mergeCell ref="L43:L45"/>
+    <mergeCell ref="C16:D21"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:D13"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="B29:B38"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="L22:L28"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="C29:C38"/>
+    <mergeCell ref="C22:D28"/>
+    <mergeCell ref="B22:B28"/>
+    <mergeCell ref="L29:L33"/>
+    <mergeCell ref="L36:L38"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:D57"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="C43:D45"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="C46:D49"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="C53:D55"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="C50:D52"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="F58:I58"/>
+    <mergeCell ref="F39:F41"/>
+    <mergeCell ref="C39:D42"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="E46:E47"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -6234,319 +5556,126 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28E862B2-6DD6-4D95-991A-DE6699BF028C}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="145" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight"/>
-    </sheetView>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="145" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="2.5" style="25" customWidth="1"/>
-    <col min="2" max="2" width="61.875" style="15" customWidth="1"/>
-    <col min="3" max="3" width="63.5" style="15" customWidth="1"/>
-    <col min="4" max="5" width="61.875" style="15" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="15"/>
+    <col min="1" max="1" width="2.5" style="20" customWidth="1"/>
+    <col min="2" max="2" width="11.875" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.875" style="15" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="24" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="24" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="19" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="122" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="19"/>
+      <c r="B4" s="14"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="67" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="84">
+      <c r="B6" s="69" t="s">
+        <v>202</v>
+      </c>
+      <c r="C6" s="68" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" s="69" t="s">
+        <v>203</v>
+      </c>
+      <c r="C7" s="69" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" s="69" t="s">
+        <v>204</v>
+      </c>
+      <c r="C8" s="68" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="24" t="s">
+    <row r="9" spans="1:3">
+      <c r="B9" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="24"/>
-      <c r="B4" s="14" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="B5" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="E5" s="73" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="46.5" customHeight="1">
-      <c r="B6" s="127" t="s">
+    <row r="10" spans="1:3" ht="72">
+      <c r="B10" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="C11" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="D6" s="125" t="s">
-        <v>159</v>
-      </c>
-      <c r="E6" s="129"/>
-    </row>
-    <row r="7" spans="1:5" ht="46.5" customHeight="1">
-      <c r="B7" s="127"/>
-      <c r="C7" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="D7" s="125"/>
-      <c r="E7" s="129"/>
-    </row>
-    <row r="8" spans="1:5" ht="69.75" customHeight="1">
-      <c r="B8" s="127"/>
-      <c r="C8" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="D8" s="125"/>
-      <c r="E8" s="129"/>
-    </row>
-    <row r="9" spans="1:5" ht="24.75" customHeight="1">
-      <c r="B9" s="128" t="s">
-        <v>203</v>
-      </c>
-      <c r="C9" s="128"/>
-      <c r="D9" s="128"/>
-      <c r="E9" s="18"/>
-    </row>
-    <row r="10" spans="1:5" ht="22.5" customHeight="1">
-      <c r="B10" s="127" t="s">
-        <v>204</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>205</v>
-      </c>
-      <c r="D10" s="125" t="s">
-        <v>158</v>
-      </c>
-      <c r="E10" s="125" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="80.25" customHeight="1">
-      <c r="B11" s="127"/>
-      <c r="C11" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
-    </row>
-    <row r="12" spans="1:5" ht="24">
-      <c r="B12" s="127" t="s">
-        <v>207</v>
-      </c>
-      <c r="C12" s="19" t="s">
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" s="69" t="s">
         <v>208</v>
       </c>
-      <c r="D12" s="125" t="s">
-        <v>157</v>
-      </c>
-      <c r="E12" s="125" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="47.25" customHeight="1">
-      <c r="B13" s="127"/>
-      <c r="C13" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="D13" s="125"/>
-      <c r="E13" s="125"/>
-    </row>
-    <row r="14" spans="1:5" ht="24">
-      <c r="B14" s="127" t="s">
+      <c r="C12" s="69" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="72">
+      <c r="B13" s="69" t="s">
         <v>209</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C13" s="68" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="D14" s="125" t="s">
-        <v>154</v>
-      </c>
-      <c r="E14" s="125" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="24">
-      <c r="B15" s="127"/>
-      <c r="C15" s="20" t="s">
+      <c r="C14" s="69" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="36">
+      <c r="B15" s="121" t="s">
         <v>211</v>
       </c>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
-    </row>
-    <row r="16" spans="1:5" ht="36">
-      <c r="B16" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="84">
-      <c r="B17" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="C17" s="17" t="s">
+      <c r="C15" s="121" t="s">
         <v>215</v>
       </c>
-      <c r="D17" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="36">
-      <c r="B18" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" ht="24">
-      <c r="B19" s="130" t="s">
-        <v>218</v>
-      </c>
-      <c r="C19" s="130"/>
-      <c r="D19" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="E19" s="63"/>
-    </row>
-    <row r="20" spans="2:5" ht="24">
-      <c r="B20" s="127" t="s">
-        <v>219</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>220</v>
-      </c>
-      <c r="D20" s="125" t="s">
-        <v>221</v>
-      </c>
-      <c r="E20" s="125" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" ht="24">
-      <c r="B21" s="127"/>
-      <c r="C21" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="D21" s="125"/>
-      <c r="E21" s="125"/>
-    </row>
-    <row r="22" spans="2:5" ht="36">
-      <c r="B22" s="127" t="s">
-        <v>223</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="D22" s="125" t="s">
-        <v>148</v>
-      </c>
-      <c r="E22" s="125" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" ht="133.5" customHeight="1">
-      <c r="B23" s="127"/>
-      <c r="C23" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="D23" s="125"/>
-      <c r="E23" s="125"/>
-    </row>
-    <row r="24" spans="2:5" ht="36">
-      <c r="B24" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="D24" s="21" t="s">
-        <v>227</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" ht="24">
-      <c r="B25" s="126" t="s">
-        <v>228</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>229</v>
-      </c>
-      <c r="D25" s="126" t="s">
-        <v>145</v>
-      </c>
-      <c r="E25" s="126" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" ht="36">
-      <c r="B26" s="126"/>
-      <c r="C26" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="D26" s="126"/>
-      <c r="E26" s="126"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="B20:B21"/>
-  </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="35" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/サンプルプロジェクト/設計書/Nablarch機能のセキュリティ対応表.xlsx
+++ b/サンプルプロジェクト/設計書/Nablarch機能のセキュリティ対応表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F647224-D541-405B-BF9F-1D9E30220EED}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B79EEE6-016C-4815-A30A-B39A3877B330}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="221">
   <si>
     <t>□</t>
     <phoneticPr fontId="2"/>
@@ -1084,36 +1084,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Nablarchカスタムタグで提供するprettyPrintタグは使用可能なタグおよび属性を指定して、エスケープなしに値を出力することができます。
-ただし、prettyPrintタグは設定が複雑なため、プロジェクト要件に合わせて解説書に記載の対応を実施してください。
-https://nablarch.github.io/docs/LATEST/doc/application_framework/application_framework/libraries/tag.html#tag-html-unescape</t>
-    <rPh sb="92" eb="94">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="95" eb="97">
-      <t>フクザツ</t>
-    </rPh>
-    <rPh sb="107" eb="109">
-      <t>ヨウケン</t>
-    </rPh>
-    <rPh sb="110" eb="111">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="114" eb="117">
-      <t>カイセツショ</t>
-    </rPh>
-    <rPh sb="118" eb="120">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="121" eb="123">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="124" eb="126">
-      <t>ジッシ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>NablarchはJavaで記述されているため、言語レベルでバッファオーバーフローの脆弱性はありません。</t>
     <rPh sb="14" eb="16">
       <t>キジュツ</t>
@@ -1157,148 +1127,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>保険的対策については可能な限り実施するようにしてください。ただし、根本的解決が可能な対策を実施している場合には、対応要否をシステム要件に合わせて判断してください。</t>
-    <rPh sb="0" eb="3">
-      <t>ホケンテキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>タイサク</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>カギ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ジッシ</t>
-    </rPh>
-    <rPh sb="33" eb="38">
-      <t>コンポンテキカイケツ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>タイサク</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ジッシ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>ヨウヒ</t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t>ヨウケン</t>
-    </rPh>
-    <rPh sb="68" eb="69">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="72" eb="74">
-      <t>ハンダン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>△</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Nablarchのカスタムタグはサニタイジングを行います。これによりNablarchのカスタムタグを使った場合には5-(i)の根本的解決が可能です。
-また、NablarchはJSPで使用を許可する構文とタグを規定し、許可する構文とタグのみを使用していることをチェックするJSP静的解析ツールを提供しています。このツールを使用することでカスタムタグ以外のタグを使用したことによるエスケープ漏れを防止することが可能です。
-https://nablarch.github.io/docs/LATEST/doc/development_tools/toolbox/JspStaticAnalysis/01_JspStaticAnalysis.html
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>5-(ii)～(iv)の対策についてはNablarchの提供する機能では実現できないため、プロジェクトで対応してください。</t>
-    </r>
-    <rPh sb="50" eb="51">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="63" eb="68">
-      <t>コンポンテキカイケツ</t>
-    </rPh>
-    <rPh sb="69" eb="71">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="160" eb="162">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="173" eb="175">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="179" eb="181">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="193" eb="194">
-      <t>モ</t>
-    </rPh>
-    <rPh sb="196" eb="198">
-      <t>ボウシ</t>
-    </rPh>
-    <rPh sb="203" eb="205">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="336" eb="338">
-      <t>タイサク</t>
-    </rPh>
-    <rPh sb="352" eb="354">
-      <t>テイキョウ</t>
-    </rPh>
-    <rPh sb="356" eb="358">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="360" eb="362">
-      <t>ジツゲン</t>
-    </rPh>
-    <rPh sb="376" eb="378">
-      <t>タイオウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Nablarchはメール送信機能を提供しており、メールヘッダインジェクション攻撃への対策をガイドしています。
-　・メールヘッダは固定値を使用する。外部からの入力値を使用しない。
-　・プログラミング言語の標準APIを使用してメール送信を行う。Javaの場合は JavaMail APIを使用する。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>8-(ii)についてはNablarchの機能では対策できないため、プロジェクトで対応してください。</t>
-    </r>
-    <rPh sb="169" eb="171">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="173" eb="175">
-      <t>タイサク</t>
-    </rPh>
-    <rPh sb="189" eb="191">
-      <t>タイオウ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1627,42 +1456,6 @@
       <t>カンリ</t>
     </rPh>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>対応する機能がないため、プロジェクトで対応してください。</t>
-    <rPh sb="0" eb="2">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>タイオウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>対応する機能がないため、プロジェクトで対応してください。</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>プロセスに関する要件であり機能ではないため対応項目はありません。</t>
-    <rPh sb="5" eb="6">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヨウケン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>コウモク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>各要件がIPAのチェックリストのどの項目に対応しているかを表として示す。</t>
@@ -2057,6 +1850,136 @@
     </rPh>
     <rPh sb="25" eb="27">
       <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>保険的対策については対応要否をシステム要件に合わせて判断してください。</t>
+    <rPh sb="0" eb="3">
+      <t>ホケンテキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヨウヒ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヨウケン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ハンダン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Nablarchカスタムタグで提供するprettyPrintタグは使用可能なタグおよび属性を指定して、エスケープなしに値を出力することができます。
+https://nablarch.github.io/docs/LATEST/doc/application_framework/application_framework/libraries/tag.html#tag-html-unescape</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nablarchのカスタムタグはサニタイジングを行います。これによりNablarchのカスタムタグを使った場合には5-(i)の根本的解決が可能です。
+また、NablarchはJSPで使用を許可する構文とタグを規定し、許可する構文とタグのみを使用していることをチェックするJSP静的解析ツールを提供しています。このツールを使用することでカスタムタグ以外のタグを使用したことによるエスケープ漏れを防止することが可能です。
+https://nablarch.github.io/docs/LATEST/doc/development_tools/toolbox/JspStaticAnalysis/01_JspStaticAnalysis.html
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>5-(ii)～(iv)の対策についてはプロジェクトで対応してください。</t>
+    </r>
+    <rPh sb="50" eb="51">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="63" eb="68">
+      <t>コンポンテキカイケツ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="160" eb="162">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="173" eb="175">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="179" eb="181">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="193" eb="194">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="196" eb="198">
+      <t>ボウシ</t>
+    </rPh>
+    <rPh sb="203" eb="205">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="336" eb="338">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="350" eb="352">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nablarchはメール送信機能を提供しており、メールヘッダインジェクション攻撃への対策をガイドしています。
+　・メールヘッダは固定値を使用する。外部からの入力値を使用しない。
+　・プログラミング言語の標準APIを使用してメール送信を行う。Javaの場合は JavaMail APIを使用する。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>8-(ii)についてはプロジェクトで対応してください。</t>
+    </r>
+    <rPh sb="167" eb="169">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>対応が"-"のものは対応する項目がありません。プロジェクトで対応を検討してください。</t>
+    <rPh sb="0" eb="2">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ケントウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2750,6 +2673,12 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2813,101 +2742,95 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3954,32 +3877,32 @@
     </row>
     <row r="10" spans="2:4">
       <c r="D10" s="21" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="2:4">
       <c r="D12" s="21" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="2:4">
       <c r="D13" s="21" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="D14" s="21" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="2:4">
       <c r="D15" s="21" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="16" spans="2:4">
       <c r="D16" s="21" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="4:4">
@@ -3994,38 +3917,38 @@
     </row>
     <row r="20" spans="4:4">
       <c r="D20" s="21" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" s="21" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="43" spans="3:10">
       <c r="C43" s="21" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="45" spans="3:10">
       <c r="D45" s="21" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="47" spans="3:10">
       <c r="F47" s="21" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="J47" s="21" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="48" spans="3:10">
       <c r="F48" s="21" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="J48" s="21" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -4070,25 +3993,25 @@
   <sheetData>
     <row r="1" spans="1:12" ht="16.5">
       <c r="A1" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B1" s="4"/>
     </row>
     <row r="2" spans="1:12" ht="16.5">
       <c r="A2" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:12" ht="16.5">
       <c r="A3" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:12" ht="16.5">
       <c r="A4" s="1" t="s">
-        <v>169</v>
+        <v>215</v>
       </c>
       <c r="B4" s="4"/>
     </row>
@@ -4100,38 +4023,38 @@
       <c r="A6" s="1"/>
       <c r="B6" s="4"/>
       <c r="F6" s="27" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="B7" s="116" t="s">
+      <c r="B7" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="118" t="s">
+      <c r="C7" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="118"/>
-      <c r="E7" s="95" t="s">
+      <c r="D7" s="111"/>
+      <c r="E7" s="96" t="s">
         <v>162</v>
       </c>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="95"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="93" t="s">
+      <c r="F7" s="96"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="94" t="s">
         <v>158</v>
       </c>
-      <c r="K7" s="93" t="s">
+      <c r="K7" s="94" t="s">
         <v>161</v>
       </c>
-      <c r="L7" s="105" t="s">
+      <c r="L7" s="106" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="12.75" thickBot="1">
-      <c r="B8" s="117"/>
-      <c r="C8" s="119"/>
-      <c r="D8" s="119"/>
+      <c r="B8" s="110"/>
+      <c r="C8" s="112"/>
+      <c r="D8" s="112"/>
       <c r="E8" s="37" t="s">
         <v>2</v>
       </c>
@@ -4145,22 +4068,22 @@
       <c r="I8" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="J8" s="94"/>
-      <c r="K8" s="94"/>
-      <c r="L8" s="106"/>
+      <c r="J8" s="95"/>
+      <c r="K8" s="95"/>
+      <c r="L8" s="107"/>
     </row>
     <row r="9" spans="1:12" ht="57" customHeight="1">
-      <c r="B9" s="78">
+      <c r="B9" s="80">
         <v>1</v>
       </c>
-      <c r="C9" s="73" t="s">
+      <c r="C9" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="73"/>
-      <c r="E9" s="76" t="s">
+      <c r="D9" s="75"/>
+      <c r="E9" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="71" t="s">
+      <c r="F9" s="73" t="s">
         <v>18</v>
       </c>
       <c r="G9" s="28" t="s">
@@ -4178,16 +4101,16 @@
       <c r="K9" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="L9" s="108" t="s">
+      <c r="L9" s="114" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="57" customHeight="1">
-      <c r="B10" s="81"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="72"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="74"/>
       <c r="G10" s="26" t="s">
         <v>16</v>
       </c>
@@ -4203,12 +4126,12 @@
       <c r="K10" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="L10" s="109"/>
+      <c r="L10" s="115"/>
     </row>
     <row r="11" spans="1:12" ht="57" customHeight="1">
-      <c r="B11" s="81"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="74"/>
+      <c r="B11" s="83"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
       <c r="E11" s="24" t="s">
         <v>9</v>
       </c>
@@ -4228,12 +4151,12 @@
       <c r="K11" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="L11" s="109"/>
+      <c r="L11" s="115"/>
     </row>
     <row r="12" spans="1:12" ht="36">
-      <c r="B12" s="81"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
+      <c r="B12" s="83"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
       <c r="E12" s="7" t="s">
         <v>3</v>
       </c>
@@ -4253,12 +4176,12 @@
       <c r="K12" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="L12" s="109"/>
+      <c r="L12" s="115"/>
     </row>
     <row r="13" spans="1:12" ht="36.75" thickBot="1">
-      <c r="B13" s="79"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="75"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
       <c r="E13" s="33" t="s">
         <v>3</v>
       </c>
@@ -4276,18 +4199,18 @@
         <v>128</v>
       </c>
       <c r="K13" s="36" t="s">
-        <v>182</v>
-      </c>
-      <c r="L13" s="110"/>
+        <v>178</v>
+      </c>
+      <c r="L13" s="116"/>
     </row>
     <row r="14" spans="1:12" ht="36">
-      <c r="B14" s="78">
+      <c r="B14" s="80">
         <v>2</v>
       </c>
-      <c r="C14" s="73" t="s">
+      <c r="C14" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="73"/>
+      <c r="D14" s="75"/>
       <c r="E14" s="38" t="s">
         <v>9</v>
       </c>
@@ -4309,14 +4232,14 @@
       <c r="K14" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="L14" s="83" t="s">
+      <c r="L14" s="85" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="36.75" thickBot="1">
-      <c r="B15" s="82"/>
-      <c r="C15" s="80"/>
-      <c r="D15" s="80"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="82"/>
       <c r="E15" s="45" t="s">
         <v>3</v>
       </c>
@@ -4336,100 +4259,100 @@
         <v>128</v>
       </c>
       <c r="K15" s="49" t="s">
-        <v>181</v>
-      </c>
-      <c r="L15" s="92"/>
+        <v>177</v>
+      </c>
+      <c r="L15" s="93"/>
     </row>
     <row r="16" spans="1:12" ht="27" customHeight="1">
-      <c r="B16" s="78">
+      <c r="B16" s="80">
         <v>3</v>
       </c>
-      <c r="C16" s="73" t="s">
+      <c r="C16" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="73"/>
-      <c r="E16" s="113" t="s">
+      <c r="D16" s="75"/>
+      <c r="E16" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="111" t="s">
+      <c r="F16" s="117" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="111" t="s">
+      <c r="G16" s="117" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="102" t="s">
+      <c r="H16" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="101" t="s">
+      <c r="I16" s="102" t="s">
         <v>40</v>
       </c>
       <c r="J16" s="65" t="s">
-        <v>196</v>
-      </c>
-      <c r="K16" s="97" t="s">
+        <v>192</v>
+      </c>
+      <c r="K16" s="98" t="s">
         <v>127</v>
       </c>
-      <c r="L16" s="83" t="s">
-        <v>189</v>
+      <c r="L16" s="85" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="2:12" ht="27" customHeight="1">
-      <c r="B17" s="120"/>
-      <c r="C17" s="91"/>
-      <c r="D17" s="91"/>
-      <c r="E17" s="114"/>
-      <c r="F17" s="112"/>
-      <c r="G17" s="104"/>
-      <c r="H17" s="100"/>
-      <c r="I17" s="98"/>
+      <c r="B17" s="113"/>
+      <c r="C17" s="122"/>
+      <c r="D17" s="122"/>
+      <c r="E17" s="120"/>
+      <c r="F17" s="118"/>
+      <c r="G17" s="105"/>
+      <c r="H17" s="101"/>
+      <c r="I17" s="99"/>
       <c r="J17" s="64" t="s">
         <v>138</v>
       </c>
-      <c r="K17" s="96"/>
-      <c r="L17" s="107"/>
+      <c r="K17" s="97"/>
+      <c r="L17" s="108"/>
     </row>
     <row r="18" spans="2:12" ht="27" customHeight="1">
-      <c r="B18" s="81"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="114"/>
-      <c r="F18" s="112"/>
-      <c r="G18" s="103" t="s">
+      <c r="B18" s="83"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="120"/>
+      <c r="F18" s="118"/>
+      <c r="G18" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="99" t="s">
+      <c r="H18" s="100" t="s">
         <v>39</v>
       </c>
-      <c r="I18" s="98" t="s">
+      <c r="I18" s="99" t="s">
         <v>41</v>
       </c>
       <c r="J18" s="63" t="s">
-        <v>196</v>
-      </c>
-      <c r="K18" s="96" t="s">
+        <v>192</v>
+      </c>
+      <c r="K18" s="97" t="s">
         <v>127</v>
       </c>
-      <c r="L18" s="84"/>
+      <c r="L18" s="86"/>
     </row>
     <row r="19" spans="2:12" ht="27" customHeight="1">
-      <c r="B19" s="81"/>
-      <c r="C19" s="74"/>
-      <c r="D19" s="74"/>
-      <c r="E19" s="115"/>
-      <c r="F19" s="104"/>
-      <c r="G19" s="104"/>
-      <c r="H19" s="100"/>
-      <c r="I19" s="98"/>
+      <c r="B19" s="83"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="121"/>
+      <c r="F19" s="105"/>
+      <c r="G19" s="105"/>
+      <c r="H19" s="101"/>
+      <c r="I19" s="99"/>
       <c r="J19" s="64" t="s">
         <v>138</v>
       </c>
-      <c r="K19" s="96"/>
-      <c r="L19" s="84"/>
+      <c r="K19" s="97"/>
+      <c r="L19" s="86"/>
     </row>
     <row r="20" spans="2:12" ht="36">
-      <c r="B20" s="81"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="74"/>
+      <c r="B20" s="83"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
       <c r="E20" s="54" t="s">
         <v>3</v>
       </c>
@@ -4447,14 +4370,14 @@
         <v>128</v>
       </c>
       <c r="K20" s="60" t="s">
-        <v>181</v>
-      </c>
-      <c r="L20" s="84"/>
+        <v>177</v>
+      </c>
+      <c r="L20" s="86"/>
     </row>
     <row r="21" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B21" s="79"/>
-      <c r="C21" s="75"/>
-      <c r="D21" s="75"/>
+      <c r="B21" s="81"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="77"/>
       <c r="E21" s="55" t="s">
         <v>3</v>
       </c>
@@ -4474,16 +4397,16 @@
       <c r="K21" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="L21" s="85"/>
+      <c r="L21" s="87"/>
     </row>
     <row r="22" spans="2:12" ht="36">
-      <c r="B22" s="78">
+      <c r="B22" s="80">
         <v>4</v>
       </c>
-      <c r="C22" s="73" t="s">
+      <c r="C22" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="73"/>
+      <c r="D22" s="75"/>
       <c r="E22" s="38" t="s">
         <v>10</v>
       </c>
@@ -4503,14 +4426,14 @@
       <c r="K22" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="L22" s="83" t="s">
+      <c r="L22" s="85" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="23" spans="2:12" ht="36">
-      <c r="B23" s="81"/>
-      <c r="C23" s="74"/>
-      <c r="D23" s="74"/>
+      <c r="B23" s="83"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
       <c r="E23" s="24" t="s">
         <v>9</v>
       </c>
@@ -4530,12 +4453,12 @@
       <c r="K23" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="L23" s="84"/>
+      <c r="L23" s="86"/>
     </row>
     <row r="24" spans="2:12" ht="36">
-      <c r="B24" s="81"/>
-      <c r="C24" s="74"/>
-      <c r="D24" s="74"/>
+      <c r="B24" s="83"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
       <c r="E24" s="24" t="s">
         <v>9</v>
       </c>
@@ -4555,16 +4478,16 @@
       <c r="K24" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="L24" s="84"/>
+      <c r="L24" s="86"/>
     </row>
     <row r="25" spans="2:12">
-      <c r="B25" s="81"/>
-      <c r="C25" s="74"/>
-      <c r="D25" s="74"/>
-      <c r="E25" s="77" t="s">
+      <c r="B25" s="83"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="F25" s="72" t="s">
+      <c r="F25" s="74" t="s">
         <v>18</v>
       </c>
       <c r="G25" s="26" t="s">
@@ -4580,16 +4503,16 @@
         <v>134</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="L25" s="84"/>
+        <v>179</v>
+      </c>
+      <c r="L25" s="86"/>
     </row>
     <row r="26" spans="2:12" ht="24">
-      <c r="B26" s="81"/>
-      <c r="C26" s="74"/>
-      <c r="D26" s="74"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="72"/>
+      <c r="B26" s="83"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="74"/>
       <c r="G26" s="26" t="s">
         <v>16</v>
       </c>
@@ -4599,16 +4522,16 @@
       <c r="I26" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="J26" s="86" t="s">
-        <v>184</v>
-      </c>
-      <c r="K26" s="87"/>
-      <c r="L26" s="84"/>
+      <c r="J26" s="88" t="s">
+        <v>180</v>
+      </c>
+      <c r="K26" s="89"/>
+      <c r="L26" s="86"/>
     </row>
     <row r="27" spans="2:12" ht="36">
-      <c r="B27" s="81"/>
-      <c r="C27" s="74"/>
-      <c r="D27" s="74"/>
+      <c r="B27" s="83"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="76"/>
       <c r="E27" s="23" t="s">
         <v>3</v>
       </c>
@@ -4628,12 +4551,12 @@
       <c r="K27" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="L27" s="84"/>
+      <c r="L27" s="86"/>
     </row>
     <row r="28" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B28" s="79"/>
-      <c r="C28" s="75"/>
-      <c r="D28" s="75"/>
+      <c r="B28" s="81"/>
+      <c r="C28" s="77"/>
+      <c r="D28" s="77"/>
       <c r="E28" s="39" t="s">
         <v>3</v>
       </c>
@@ -4653,16 +4576,16 @@
       <c r="K28" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="L28" s="85"/>
+      <c r="L28" s="87"/>
     </row>
     <row r="29" spans="2:12" ht="36">
-      <c r="B29" s="78">
+      <c r="B29" s="80">
         <v>5</v>
       </c>
-      <c r="C29" s="88" t="s">
+      <c r="C29" s="90" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="73" t="s">
+      <c r="D29" s="75" t="s">
         <v>61</v>
       </c>
       <c r="E29" s="38" t="s">
@@ -4684,14 +4607,14 @@
       <c r="K29" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="L29" s="83" t="s">
-        <v>171</v>
+      <c r="L29" s="85" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="30" spans="2:12" ht="36">
-      <c r="B30" s="81"/>
-      <c r="C30" s="89"/>
-      <c r="D30" s="74"/>
+      <c r="B30" s="83"/>
+      <c r="C30" s="91"/>
+      <c r="D30" s="76"/>
       <c r="E30" s="24" t="s">
         <v>9</v>
       </c>
@@ -4709,14 +4632,14 @@
         <v>128</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="L30" s="84"/>
+        <v>177</v>
+      </c>
+      <c r="L30" s="86"/>
     </row>
     <row r="31" spans="2:12" ht="36">
-      <c r="B31" s="81"/>
-      <c r="C31" s="89"/>
-      <c r="D31" s="74"/>
+      <c r="B31" s="83"/>
+      <c r="C31" s="91"/>
+      <c r="D31" s="76"/>
       <c r="E31" s="24" t="s">
         <v>9</v>
       </c>
@@ -4734,14 +4657,14 @@
         <v>128</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="L31" s="84"/>
+        <v>177</v>
+      </c>
+      <c r="L31" s="86"/>
     </row>
     <row r="32" spans="2:12" ht="36">
-      <c r="B32" s="81"/>
-      <c r="C32" s="89"/>
-      <c r="D32" s="74"/>
+      <c r="B32" s="83"/>
+      <c r="C32" s="91"/>
+      <c r="D32" s="76"/>
       <c r="E32" s="24" t="s">
         <v>9</v>
       </c>
@@ -4759,14 +4682,14 @@
         <v>128</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="L32" s="84"/>
+        <v>177</v>
+      </c>
+      <c r="L32" s="86"/>
     </row>
     <row r="33" spans="2:12" ht="36">
-      <c r="B33" s="81"/>
-      <c r="C33" s="89"/>
-      <c r="D33" s="74"/>
+      <c r="B33" s="83"/>
+      <c r="C33" s="91"/>
+      <c r="D33" s="76"/>
       <c r="E33" s="23" t="s">
         <v>3</v>
       </c>
@@ -4786,12 +4709,12 @@
       <c r="K33" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="L33" s="84"/>
+      <c r="L33" s="86"/>
     </row>
     <row r="34" spans="2:12" ht="36">
-      <c r="B34" s="81"/>
-      <c r="C34" s="89"/>
-      <c r="D34" s="74" t="s">
+      <c r="B34" s="83"/>
+      <c r="C34" s="91"/>
+      <c r="D34" s="76" t="s">
         <v>124</v>
       </c>
       <c r="E34" s="24" t="s">
@@ -4813,14 +4736,14 @@
       <c r="K34" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="L34" s="84" t="s">
-        <v>165</v>
+      <c r="L34" s="86" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="35" spans="2:12" ht="36">
-      <c r="B35" s="81"/>
-      <c r="C35" s="89"/>
-      <c r="D35" s="74"/>
+      <c r="B35" s="83"/>
+      <c r="C35" s="91"/>
+      <c r="D35" s="76"/>
       <c r="E35" s="23" t="s">
         <v>3</v>
       </c>
@@ -4838,14 +4761,14 @@
         <v>128</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="L35" s="84"/>
+        <v>177</v>
+      </c>
+      <c r="L35" s="86"/>
     </row>
     <row r="36" spans="2:12" ht="36">
-      <c r="B36" s="81"/>
-      <c r="C36" s="89"/>
-      <c r="D36" s="74" t="s">
+      <c r="B36" s="83"/>
+      <c r="C36" s="91"/>
+      <c r="D36" s="76" t="s">
         <v>123</v>
       </c>
       <c r="E36" s="24" t="s">
@@ -4867,14 +4790,14 @@
       <c r="K36" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="L36" s="84" t="s">
-        <v>178</v>
+      <c r="L36" s="86" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="37" spans="2:12" ht="36">
-      <c r="B37" s="81"/>
-      <c r="C37" s="89"/>
-      <c r="D37" s="74"/>
+      <c r="B37" s="83"/>
+      <c r="C37" s="91"/>
+      <c r="D37" s="76"/>
       <c r="E37" s="23" t="s">
         <v>3</v>
       </c>
@@ -4892,14 +4815,14 @@
         <v>128</v>
       </c>
       <c r="K37" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="L37" s="84"/>
+        <v>177</v>
+      </c>
+      <c r="L37" s="86"/>
     </row>
     <row r="38" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B38" s="79"/>
-      <c r="C38" s="90"/>
-      <c r="D38" s="75"/>
+      <c r="B38" s="81"/>
+      <c r="C38" s="92"/>
+      <c r="D38" s="77"/>
       <c r="E38" s="39" t="s">
         <v>3</v>
       </c>
@@ -4919,20 +4842,20 @@
       <c r="K38" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="L38" s="85"/>
+      <c r="L38" s="87"/>
     </row>
     <row r="39" spans="2:12" ht="48">
-      <c r="B39" s="78">
+      <c r="B39" s="80">
         <v>6</v>
       </c>
-      <c r="C39" s="73" t="s">
+      <c r="C39" s="75" t="s">
         <v>80</v>
       </c>
-      <c r="D39" s="73"/>
-      <c r="E39" s="76" t="s">
+      <c r="D39" s="75"/>
+      <c r="E39" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="F39" s="71" t="s">
+      <c r="F39" s="73" t="s">
         <v>18</v>
       </c>
       <c r="G39" s="28" t="s">
@@ -4950,16 +4873,16 @@
       <c r="K39" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="L39" s="83" t="s">
+      <c r="L39" s="85" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="40" spans="2:12" ht="36">
-      <c r="B40" s="81"/>
-      <c r="C40" s="74"/>
-      <c r="D40" s="74"/>
-      <c r="E40" s="77"/>
-      <c r="F40" s="72"/>
+      <c r="B40" s="83"/>
+      <c r="C40" s="76"/>
+      <c r="D40" s="76"/>
+      <c r="E40" s="79"/>
+      <c r="F40" s="74"/>
       <c r="G40" s="26" t="s">
         <v>16</v>
       </c>
@@ -4969,18 +4892,18 @@
       <c r="I40" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="J40" s="86" t="s">
-        <v>186</v>
-      </c>
-      <c r="K40" s="87"/>
-      <c r="L40" s="84"/>
+      <c r="J40" s="88" t="s">
+        <v>182</v>
+      </c>
+      <c r="K40" s="89"/>
+      <c r="L40" s="86"/>
     </row>
     <row r="41" spans="2:12" ht="24">
-      <c r="B41" s="81"/>
-      <c r="C41" s="74"/>
-      <c r="D41" s="74"/>
-      <c r="E41" s="77"/>
-      <c r="F41" s="72"/>
+      <c r="B41" s="83"/>
+      <c r="C41" s="76"/>
+      <c r="D41" s="76"/>
+      <c r="E41" s="79"/>
+      <c r="F41" s="74"/>
       <c r="G41" s="26" t="s">
         <v>16</v>
       </c>
@@ -4990,16 +4913,16 @@
       <c r="I41" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="J41" s="86" t="s">
-        <v>186</v>
-      </c>
-      <c r="K41" s="87"/>
-      <c r="L41" s="84"/>
+      <c r="J41" s="88" t="s">
+        <v>182</v>
+      </c>
+      <c r="K41" s="89"/>
+      <c r="L41" s="86"/>
     </row>
     <row r="42" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B42" s="79"/>
-      <c r="C42" s="75"/>
-      <c r="D42" s="75"/>
+      <c r="B42" s="81"/>
+      <c r="C42" s="77"/>
+      <c r="D42" s="77"/>
       <c r="E42" s="39" t="s">
         <v>3</v>
       </c>
@@ -5017,22 +4940,22 @@
         <v>128</v>
       </c>
       <c r="K42" s="36" t="s">
-        <v>181</v>
-      </c>
-      <c r="L42" s="85"/>
+        <v>177</v>
+      </c>
+      <c r="L42" s="87"/>
     </row>
     <row r="43" spans="2:12" ht="24">
-      <c r="B43" s="78">
+      <c r="B43" s="80">
         <v>7</v>
       </c>
-      <c r="C43" s="73" t="s">
+      <c r="C43" s="75" t="s">
         <v>89</v>
       </c>
-      <c r="D43" s="73"/>
-      <c r="E43" s="76" t="s">
+      <c r="D43" s="75"/>
+      <c r="E43" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="F43" s="71" t="s">
+      <c r="F43" s="73" t="s">
         <v>18</v>
       </c>
       <c r="G43" s="28" t="s">
@@ -5050,16 +4973,16 @@
       <c r="K43" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="L43" s="83" t="s">
-        <v>179</v>
+      <c r="L43" s="85" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="44" spans="2:12" ht="36">
-      <c r="B44" s="81"/>
-      <c r="C44" s="74"/>
-      <c r="D44" s="74"/>
-      <c r="E44" s="77"/>
-      <c r="F44" s="72"/>
+      <c r="B44" s="83"/>
+      <c r="C44" s="76"/>
+      <c r="D44" s="76"/>
+      <c r="E44" s="79"/>
+      <c r="F44" s="74"/>
       <c r="G44" s="26" t="s">
         <v>16</v>
       </c>
@@ -5069,16 +4992,16 @@
       <c r="I44" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="J44" s="86" t="s">
-        <v>185</v>
-      </c>
-      <c r="K44" s="87"/>
-      <c r="L44" s="84"/>
+      <c r="J44" s="88" t="s">
+        <v>181</v>
+      </c>
+      <c r="K44" s="89"/>
+      <c r="L44" s="86"/>
     </row>
     <row r="45" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B45" s="79"/>
-      <c r="C45" s="75"/>
-      <c r="D45" s="75"/>
+      <c r="B45" s="81"/>
+      <c r="C45" s="77"/>
+      <c r="D45" s="77"/>
       <c r="E45" s="39" t="s">
         <v>3</v>
       </c>
@@ -5096,22 +5019,22 @@
         <v>128</v>
       </c>
       <c r="K45" s="36" t="s">
-        <v>181</v>
-      </c>
-      <c r="L45" s="85"/>
+        <v>177</v>
+      </c>
+      <c r="L45" s="87"/>
     </row>
     <row r="46" spans="2:12" ht="24">
-      <c r="B46" s="78">
+      <c r="B46" s="80">
         <v>8</v>
       </c>
-      <c r="C46" s="73" t="s">
+      <c r="C46" s="75" t="s">
         <v>105</v>
       </c>
-      <c r="D46" s="73"/>
-      <c r="E46" s="76" t="s">
+      <c r="D46" s="75"/>
+      <c r="E46" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="F46" s="71" t="s">
+      <c r="F46" s="73" t="s">
         <v>18</v>
       </c>
       <c r="G46" s="28" t="s">
@@ -5127,18 +5050,18 @@
         <v>141</v>
       </c>
       <c r="K46" s="32" t="s">
-        <v>170</v>
-      </c>
-      <c r="L46" s="83" t="s">
-        <v>172</v>
+        <v>168</v>
+      </c>
+      <c r="L46" s="85" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="47" spans="2:12" ht="36">
-      <c r="B47" s="81"/>
-      <c r="C47" s="74"/>
-      <c r="D47" s="74"/>
-      <c r="E47" s="77"/>
-      <c r="F47" s="72"/>
+      <c r="B47" s="83"/>
+      <c r="C47" s="76"/>
+      <c r="D47" s="76"/>
+      <c r="E47" s="79"/>
+      <c r="F47" s="74"/>
       <c r="G47" s="26" t="s">
         <v>0</v>
       </c>
@@ -5152,14 +5075,14 @@
         <v>141</v>
       </c>
       <c r="K47" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="L47" s="84"/>
+        <v>179</v>
+      </c>
+      <c r="L47" s="86"/>
     </row>
     <row r="48" spans="2:12" ht="36">
-      <c r="B48" s="81"/>
-      <c r="C48" s="74"/>
-      <c r="D48" s="74"/>
+      <c r="B48" s="83"/>
+      <c r="C48" s="76"/>
+      <c r="D48" s="76"/>
       <c r="E48" s="24" t="s">
         <v>9</v>
       </c>
@@ -5177,14 +5100,14 @@
         <v>128</v>
       </c>
       <c r="K48" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="L48" s="84"/>
+        <v>177</v>
+      </c>
+      <c r="L48" s="86"/>
     </row>
     <row r="49" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B49" s="82"/>
-      <c r="C49" s="80"/>
-      <c r="D49" s="80"/>
+      <c r="B49" s="84"/>
+      <c r="C49" s="82"/>
+      <c r="D49" s="82"/>
       <c r="E49" s="45" t="s">
         <v>3</v>
       </c>
@@ -5202,22 +5125,22 @@
         <v>128</v>
       </c>
       <c r="K49" s="49" t="s">
-        <v>181</v>
-      </c>
-      <c r="L49" s="92"/>
+        <v>177</v>
+      </c>
+      <c r="L49" s="93"/>
     </row>
     <row r="50" spans="2:12" ht="36">
-      <c r="B50" s="78">
+      <c r="B50" s="80">
         <v>9</v>
       </c>
-      <c r="C50" s="73" t="s">
+      <c r="C50" s="75" t="s">
         <v>107</v>
       </c>
-      <c r="D50" s="73"/>
-      <c r="E50" s="76" t="s">
+      <c r="D50" s="75"/>
+      <c r="E50" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="F50" s="71" t="s">
+      <c r="F50" s="73" t="s">
         <v>18</v>
       </c>
       <c r="G50" s="28" t="s">
@@ -5235,16 +5158,16 @@
       <c r="K50" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="L50" s="83" t="s">
-        <v>180</v>
+      <c r="L50" s="85" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="51" spans="2:12" ht="36">
-      <c r="B51" s="81"/>
-      <c r="C51" s="74"/>
-      <c r="D51" s="74"/>
-      <c r="E51" s="77"/>
-      <c r="F51" s="72"/>
+      <c r="B51" s="83"/>
+      <c r="C51" s="76"/>
+      <c r="D51" s="76"/>
+      <c r="E51" s="79"/>
+      <c r="F51" s="74"/>
       <c r="G51" s="26" t="s">
         <v>0</v>
       </c>
@@ -5254,16 +5177,16 @@
       <c r="I51" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="J51" s="86" t="s">
-        <v>187</v>
-      </c>
-      <c r="K51" s="87"/>
-      <c r="L51" s="84"/>
+      <c r="J51" s="88" t="s">
+        <v>183</v>
+      </c>
+      <c r="K51" s="89"/>
+      <c r="L51" s="86"/>
     </row>
     <row r="52" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B52" s="79"/>
-      <c r="C52" s="75"/>
-      <c r="D52" s="75"/>
+      <c r="B52" s="81"/>
+      <c r="C52" s="77"/>
+      <c r="D52" s="77"/>
       <c r="E52" s="33" t="s">
         <v>3</v>
       </c>
@@ -5281,22 +5204,22 @@
         <v>128</v>
       </c>
       <c r="K52" s="36" t="s">
-        <v>181</v>
-      </c>
-      <c r="L52" s="85"/>
+        <v>177</v>
+      </c>
+      <c r="L52" s="87"/>
     </row>
     <row r="53" spans="2:12">
-      <c r="B53" s="78">
+      <c r="B53" s="80">
         <v>10</v>
       </c>
-      <c r="C53" s="73" t="s">
+      <c r="C53" s="75" t="s">
         <v>114</v>
       </c>
-      <c r="D53" s="73"/>
-      <c r="E53" s="76" t="s">
+      <c r="D53" s="75"/>
+      <c r="E53" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="F53" s="71" t="s">
+      <c r="F53" s="73" t="s">
         <v>18</v>
       </c>
       <c r="G53" s="28" t="s">
@@ -5314,16 +5237,16 @@
       <c r="K53" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="L53" s="83" t="s">
-        <v>166</v>
+      <c r="L53" s="85" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="54" spans="2:12" ht="30.75" customHeight="1">
-      <c r="B54" s="81"/>
-      <c r="C54" s="74"/>
-      <c r="D54" s="74"/>
-      <c r="E54" s="77"/>
-      <c r="F54" s="72"/>
+      <c r="B54" s="83"/>
+      <c r="C54" s="76"/>
+      <c r="D54" s="76"/>
+      <c r="E54" s="79"/>
+      <c r="F54" s="74"/>
       <c r="G54" s="26" t="s">
         <v>0</v>
       </c>
@@ -5339,12 +5262,12 @@
       <c r="K54" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="L54" s="84"/>
+      <c r="L54" s="86"/>
     </row>
     <row r="55" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B55" s="79"/>
-      <c r="C55" s="75"/>
-      <c r="D55" s="75"/>
+      <c r="B55" s="81"/>
+      <c r="C55" s="77"/>
+      <c r="D55" s="77"/>
       <c r="E55" s="50" t="s">
         <v>9</v>
       </c>
@@ -5364,16 +5287,16 @@
       <c r="K55" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="L55" s="85"/>
+      <c r="L55" s="87"/>
     </row>
     <row r="56" spans="2:12" ht="36">
-      <c r="B56" s="78">
+      <c r="B56" s="80">
         <v>11</v>
       </c>
-      <c r="C56" s="73" t="s">
+      <c r="C56" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="D56" s="73"/>
+      <c r="D56" s="75"/>
       <c r="E56" s="38" t="s">
         <v>9</v>
       </c>
@@ -5391,16 +5314,16 @@
         <v>133</v>
       </c>
       <c r="K56" s="32" t="s">
-        <v>183</v>
-      </c>
-      <c r="L56" s="83" t="s">
-        <v>167</v>
+        <v>179</v>
+      </c>
+      <c r="L56" s="85" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="57" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B57" s="79"/>
-      <c r="C57" s="75"/>
-      <c r="D57" s="75"/>
+      <c r="B57" s="81"/>
+      <c r="C57" s="77"/>
+      <c r="D57" s="77"/>
       <c r="E57" s="50" t="s">
         <v>9</v>
       </c>
@@ -5420,15 +5343,15 @@
       <c r="K57" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="L57" s="85"/>
+      <c r="L57" s="87"/>
     </row>
     <row r="58" spans="2:12">
-      <c r="F58" s="70" t="s">
+      <c r="F58" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="G58" s="70"/>
-      <c r="H58" s="70"/>
-      <c r="I58" s="70"/>
+      <c r="G58" s="72"/>
+      <c r="H58" s="72"/>
+      <c r="I58" s="72"/>
       <c r="J58" s="12"/>
     </row>
     <row r="59" spans="2:12">
@@ -5450,6 +5373,11 @@
     <mergeCell ref="G16:G17"/>
     <mergeCell ref="F16:F19"/>
     <mergeCell ref="E16:E19"/>
+    <mergeCell ref="C16:D21"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:D13"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="B14:B15"/>
     <mergeCell ref="L39:L42"/>
     <mergeCell ref="L46:L49"/>
     <mergeCell ref="J7:J8"/>
@@ -5472,11 +5400,6 @@
     <mergeCell ref="L53:L55"/>
     <mergeCell ref="L50:L52"/>
     <mergeCell ref="L43:L45"/>
-    <mergeCell ref="C16:D21"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:D13"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="B14:B15"/>
     <mergeCell ref="B39:B42"/>
     <mergeCell ref="D34:D35"/>
     <mergeCell ref="B29:B38"/>
@@ -5556,9 +5479,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28E862B2-6DD6-4D95-991A-DE6699BF028C}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="145" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="145" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -5570,109 +5493,114 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="19" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="19" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="122" t="s">
-        <v>217</v>
+      <c r="A3" s="19" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="19"/>
-      <c r="B4" s="14"/>
+      <c r="A4" s="71" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="B5" s="16" t="s">
+      <c r="A5" s="19"/>
+      <c r="B5" s="14"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="C6" s="67" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="84">
-      <c r="B6" s="69" t="s">
-        <v>202</v>
-      </c>
-      <c r="C6" s="68" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" ht="84">
       <c r="B7" s="69" t="s">
-        <v>203</v>
-      </c>
-      <c r="C7" s="69" t="s">
-        <v>145</v>
+        <v>195</v>
+      </c>
+      <c r="C7" s="68" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" s="69" t="s">
+        <v>196</v>
+      </c>
+      <c r="C8" s="69" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" s="69" t="s">
+        <v>197</v>
+      </c>
+      <c r="C9" s="68" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="72">
+      <c r="B11" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" s="69" t="s">
+        <v>201</v>
+      </c>
+      <c r="C13" s="69" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="72">
+      <c r="B14" s="69" t="s">
+        <v>202</v>
+      </c>
+      <c r="C14" s="68" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="C15" s="69" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="36">
+      <c r="B16" s="70" t="s">
         <v>204</v>
       </c>
-      <c r="C8" s="68" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="B9" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="72">
-      <c r="B10" s="17" t="s">
-        <v>206</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="B11" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="B12" s="69" t="s">
+      <c r="C16" s="70" t="s">
         <v>208</v>
-      </c>
-      <c r="C12" s="69" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="72">
-      <c r="B13" s="69" t="s">
-        <v>209</v>
-      </c>
-      <c r="C13" s="68" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="B14" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="C14" s="69" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="36">
-      <c r="B15" s="121" t="s">
-        <v>211</v>
-      </c>
-      <c r="C15" s="121" t="s">
-        <v>215</v>
       </c>
     </row>
   </sheetData>

--- a/サンプルプロジェクト/設計書/Nablarch機能のセキュリティ対応表.xlsx
+++ b/サンプルプロジェクト/設計書/Nablarch機能のセキュリティ対応表.xlsx
@@ -3,18 +3,99 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B79EEE6-016C-4815-A30A-B39A3877B330}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B149316-8F1B-4B5A-B523-1B946C35D07F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="360" windowWidth="29040" windowHeight="15000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="1.概要" sheetId="8" r:id="rId1"/>
-    <sheet name="2.チェックリスト" sheetId="6" r:id="rId2"/>
-    <sheet name="3.PCIDSS対応表" sheetId="7" r:id="rId3"/>
+    <sheet name="改訂履歴" sheetId="9" r:id="rId1"/>
+    <sheet name="1.概要" sheetId="8" r:id="rId2"/>
+    <sheet name="2.チェックリスト" sheetId="6" r:id="rId3"/>
+    <sheet name="3.PCIDSS対応表" sheetId="7" r:id="rId4"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
+  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'1.概要'!$A$1:$AR$52</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'2.チェックリスト'!$A$1:$L$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">改訂履歴!$A$1:$I$2</definedName>
+    <definedName name="_Regression_X" hidden="1">#REF!</definedName>
+    <definedName name="①">#REF!</definedName>
+    <definedName name="②">#REF!</definedName>
+    <definedName name="aaa">#REF!</definedName>
+    <definedName name="aaaaa">#REF!</definedName>
+    <definedName name="Action">#REF!</definedName>
+    <definedName name="ActionForm">#REF!</definedName>
+    <definedName name="boundary">#REF!</definedName>
+    <definedName name="btnSakusei_click">[1]!btnSakusei_click</definedName>
+    <definedName name="BusinessService">#REF!</definedName>
+    <definedName name="Crisテーブル一覧">#REF!</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="0">改訂履歴!#REF!</definedName>
+    <definedName name="DBI">#REF!</definedName>
+    <definedName name="DB名">#REF!</definedName>
+    <definedName name="ENID">#REF!</definedName>
+    <definedName name="ha">#REF!</definedName>
+    <definedName name="hahaha">#REF!</definedName>
+    <definedName name="hahahaha">#REF!</definedName>
+    <definedName name="NOTNULL">#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'1.概要'!$A$1:$AR$52</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'2.チェックリスト'!$A$1:$L$59</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">改訂履歴!$A$1:$H$10</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">改訂履歴!$1:$4</definedName>
+    <definedName name="RuleComponent">#REF!</definedName>
+    <definedName name="ｓｄ">#REF!</definedName>
+    <definedName name="ServiceComponent">#REF!</definedName>
+    <definedName name="sss">#REF!</definedName>
+    <definedName name="utility">#REF!</definedName>
+    <definedName name="ｖｖｖ">#REF!</definedName>
+    <definedName name="x">[2]画面対応表!$B$2:$E$12</definedName>
+    <definedName name="あ">#REF!</definedName>
+    <definedName name="ああああ">'[3]３．２．１．５．リアルタイム_ステレオタイプ'!$D$185</definedName>
+    <definedName name="あああああ">'[3]３．２．１．５．リアルタイム_ステレオタイプ'!$D$260</definedName>
+    <definedName name="ｲﾝｽﾀﾝｽ一覧0930">#REF!</definedName>
+    <definedName name="クエリ1">#REF!</definedName>
+    <definedName name="サブシステム名">#REF!</definedName>
+    <definedName name="システム名">#REF!</definedName>
+    <definedName name="ﾄﾞﾒｲﾝ一覧0930">#REF!</definedName>
+    <definedName name="ﾏｯﾋﾟﾝｸﾞ_実体･分析対象対応_0930">#REF!</definedName>
+    <definedName name="ﾏｯﾋﾟﾝｸﾞ_分析対象ﾌｨｰﾙﾄﾞ･情報項目対応_0930">#REF!</definedName>
+    <definedName name="画面一覧">#REF!</definedName>
+    <definedName name="画面一覧２">#REF!</definedName>
+    <definedName name="関連表" hidden="1">#REF!</definedName>
+    <definedName name="基本キー">#REF!</definedName>
+    <definedName name="基本用語一覧0930">#REF!</definedName>
+    <definedName name="更新者">#REF!</definedName>
+    <definedName name="更新日">#REF!</definedName>
+    <definedName name="行長">#REF!</definedName>
+    <definedName name="項目ID">#REF!</definedName>
+    <definedName name="項目No">#REF!</definedName>
+    <definedName name="項目名">#REF!</definedName>
+    <definedName name="最新版日本語名称基本">#REF!</definedName>
+    <definedName name="最新版日本語名称基本の重複レコード2">#REF!</definedName>
+    <definedName name="作成者">#REF!</definedName>
+    <definedName name="作成日">#REF!</definedName>
+    <definedName name="索引1">#REF!</definedName>
+    <definedName name="索引2">#REF!</definedName>
+    <definedName name="索引3">#REF!</definedName>
+    <definedName name="索引4">#REF!</definedName>
+    <definedName name="索引5">#REF!</definedName>
+    <definedName name="索引6">#REF!</definedName>
+    <definedName name="索引7">#REF!</definedName>
+    <definedName name="索引P">#REF!</definedName>
+    <definedName name="実体一覧0930">#REF!</definedName>
+    <definedName name="小数桁数">#REF!</definedName>
+    <definedName name="情報項目一覧0930">#REF!</definedName>
+    <definedName name="成果物一覧２" hidden="1">#REF!</definedName>
+    <definedName name="属性">#REF!</definedName>
+    <definedName name="備考">#REF!</definedName>
+    <definedName name="表ID">#REF!</definedName>
+    <definedName name="表の備考">#REF!</definedName>
+    <definedName name="表名">#REF!</definedName>
+    <definedName name="文書名">#REF!</definedName>
+    <definedName name="明細エリア">#REF!</definedName>
+    <definedName name="有効桁数">#REF!</definedName>
+    <definedName name="列長">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="239">
   <si>
     <t>□</t>
     <phoneticPr fontId="2"/>
@@ -717,10 +798,6 @@
   </si>
   <si>
     <t>Nablarch Example</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CSRF対策として、Nablarchの二重サブミットを防ぐ機能を使用できます。この機能は一意なトークンを発行し、サーバサイドでチェックすることで不正な画面遷移を防ぎます。</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1983,12 +2060,192 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CSRF対策として、NablarchのHttpSessionを使用した二重サブミット防止機能を使用できます。この機能は一意なトークンを発行し、サーバサイドでチェックすることで不正な画面遷移を防ぎます。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Nablarch5u16で追加したデータベースを使用した二重サブミット防止機能はCSRF対策に対応していないため、データベースを使用した二重サブミット防止機能を使用する場合はプロジェクトで独自にCSRF対策を実施するか、Nablarchに追加予定のCSRF対策機能（2020年6月リリース予定）の使用を検討してください。</t>
+    </r>
+    <rPh sb="31" eb="33">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ボウシ</t>
+    </rPh>
+    <rPh sb="115" eb="117">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="139" eb="141">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="146" eb="148">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="149" eb="151">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="182" eb="184">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="186" eb="188">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="196" eb="198">
+      <t>ドクジ</t>
+    </rPh>
+    <rPh sb="203" eb="205">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="206" eb="208">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="221" eb="223">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="223" eb="225">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="230" eb="232">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="232" eb="234">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="239" eb="240">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="241" eb="242">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="246" eb="248">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="250" eb="252">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="253" eb="255">
+      <t>ケントウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>改訂履歴</t>
+    <rPh sb="0" eb="2">
+      <t>カイテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リレキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>改訂日</t>
+  </si>
+  <si>
+    <t>区分</t>
+  </si>
+  <si>
+    <t>改訂個所</t>
+  </si>
+  <si>
+    <t>改訂内容</t>
+  </si>
+  <si>
+    <t>担当者</t>
+  </si>
+  <si>
+    <t>箇所</t>
+    <rPh sb="0" eb="2">
+      <t>カショ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>項番</t>
+  </si>
+  <si>
+    <t>新規</t>
+  </si>
+  <si>
+    <t>変更</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Nablarch5u16におけるCSRF対策の補足説明を追加</t>
+    <rPh sb="20" eb="22">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ホソク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TIS伊藤</t>
+    <rPh sb="3" eb="5">
+      <t>イトウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>区分：新規、追加、変更、削除</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>新規作成</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TIS熊野</t>
+    <rPh sb="3" eb="5">
+      <t>クマノ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2.チェックリスト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -2119,8 +2376,54 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="8"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2151,6 +2454,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="23">
     <border>
@@ -2468,7 +2777,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2679,158 +2988,208 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2838,7 +3197,17 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="2" xr:uid="{60474CB5-927F-4710-BF9C-0711E4964C56}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -3515,6 +3884,245 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="WorkingLisKANJIt"/>
+    </sheetNames>
+    <definedNames>
+      <definedName name="btnSakusei_click"/>
+    </definedNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="TRO管理"/>
+      <sheetName val="画面対応表"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="2">
+          <cell r="B2" t="str">
+            <v>MG111-01</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>MG111_default</v>
+          </cell>
+          <cell r="D2" t="str">
+            <v>給与指数キー指定画面</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3" t="str">
+            <v>MG111-10</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>MG111_regist</v>
+          </cell>
+          <cell r="D3" t="str">
+            <v>給与指数詳細登録画面</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4" t="str">
+            <v>MG111-11</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>MG111_regresult</v>
+          </cell>
+          <cell r="D4" t="str">
+            <v>給与指数登録結果画面</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5" t="str">
+            <v>MG111-20</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>MG111_copykey</v>
+          </cell>
+          <cell r="D5" t="str">
+            <v>給与指数コピー元指定画面</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6" t="str">
+            <v>MG111-21</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>MG111_modentry</v>
+          </cell>
+          <cell r="D6" t="str">
+            <v>給与指数詳細コピー登録画面</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7" t="str">
+            <v>MG111-22</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>MG111_regresult</v>
+          </cell>
+          <cell r="D7" t="str">
+            <v>給与指数コピー登録結果画面</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8" t="str">
+            <v>MG111-30</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>MG111_modentry</v>
+          </cell>
+          <cell r="D8" t="str">
+            <v>給与指数詳細変更画面</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9" t="str">
+            <v>MG111-31</v>
+          </cell>
+          <cell r="C9" t="str">
+            <v>MG111_regresult</v>
+          </cell>
+          <cell r="D9" t="str">
+            <v>給与指数変更結果画面</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10" t="str">
+            <v>MG111-40</v>
+          </cell>
+          <cell r="C10" t="str">
+            <v>MG111_inquiry</v>
+          </cell>
+          <cell r="D10" t="str">
+            <v>給与指数詳細照会画面</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11" t="str">
+            <v>MG111-50</v>
+          </cell>
+          <cell r="C11" t="str">
+            <v>MG111_delentry</v>
+          </cell>
+          <cell r="D11" t="str">
+            <v>給与指数詳細削除画面</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12" t="str">
+            <v>MG111-51</v>
+          </cell>
+          <cell r="C12" t="str">
+            <v>MG111_delresult</v>
+          </cell>
+          <cell r="D12" t="str">
+            <v>給与指数削除結果画面</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="表紙"/>
+      <sheetName val="変更履歴"/>
+      <sheetName val="目次"/>
+      <sheetName val="１．当資料の位置付け"/>
+      <sheetName val="２．プラットフォーム"/>
+      <sheetName val="３．処理パターン"/>
+      <sheetName val="３．１．処理パターン一覧"/>
+      <sheetName val="３．２．処理方式別パターン詳細"/>
+      <sheetName val="３．２．１．リアルタイム処理"/>
+      <sheetName val="３．２．１．５．リアルタイム_ステレオタイプ"/>
+      <sheetName val="３．２．２．バッチ処理"/>
+      <sheetName val="３．２．３．センターカット処理"/>
+      <sheetName val="３．２．４．システム間連携処理"/>
+      <sheetName val="３．２．５．ディレード処理"/>
+      <sheetName val="３．２．６．ワークフロー処理"/>
+      <sheetName val="３．２．７．帳票処理"/>
+      <sheetName val="３．２．８．ＦＡＸ処理"/>
+      <sheetName val="３．２．９．イメージ処理"/>
+      <sheetName val="３．２．１０．ファイルアップロード"/>
+      <sheetName val="４．処理パターン組み合わせ"/>
+      <sheetName val="別紙１－１　画面オンライン（更新）の処理フロー"/>
+      <sheetName val="別紙１－２　画面オンライン（会話型）の処理フロー"/>
+      <sheetName val="別紙２ WF（案件情報新規登録パターン）の処理フロー"/>
+      <sheetName val="別紙３ WF（前進パターン）の処理フロー"/>
+      <sheetName val="別紙４ WF（承認パターン）の処理フロー"/>
+      <sheetName val="別紙５ WF(選択・ｽｷｯﾌﾟ）ﾊﾟﾀﾝの処理フロー"/>
+      <sheetName val="別紙６ WF（保留パターン）の処理フロー"/>
+      <sheetName val="別紙７ WF（破棄パターン）の処理フロー"/>
+      <sheetName val="別紙８ CC_WF（案件新規一括登録パターン）の処理フロー"/>
+      <sheetName val="別紙９－１　ファイルアップロード（リクエスト）の処理フロー"/>
+      <sheetName val="別紙９－２　ファイルアップロード（業務）の処理フロー"/>
+      <sheetName val="テンプレート"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9">
+        <row r="185">
+          <cell r="D185" t="str">
+            <v>（６）　《Service Component》ステレオタイプ</v>
+          </cell>
+        </row>
+        <row r="260">
+          <cell r="D260" t="str">
+            <v>（９）　《utility Component》ステレオタイプ</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
+      <sheetData sheetId="31"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -3835,6 +4443,854 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB25FAB2-DFB9-4E29-A9AD-B28991A70D4E}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="3.875" style="74" customWidth="1"/>
+    <col min="2" max="2" width="9" style="74" customWidth="1"/>
+    <col min="3" max="3" width="4.875" style="88" customWidth="1"/>
+    <col min="4" max="4" width="12.75" style="88" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.375" style="74" customWidth="1"/>
+    <col min="6" max="6" width="52.625" style="74" customWidth="1"/>
+    <col min="7" max="7" width="6.75" style="74" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5" style="74" customWidth="1"/>
+    <col min="9" max="9" width="8.625" style="88" customWidth="1"/>
+    <col min="10" max="255" width="9" style="74"/>
+    <col min="256" max="256" width="3.875" style="74" customWidth="1"/>
+    <col min="257" max="257" width="5.5" style="74" customWidth="1"/>
+    <col min="258" max="258" width="9" style="74"/>
+    <col min="259" max="259" width="4.875" style="74" customWidth="1"/>
+    <col min="260" max="260" width="11.75" style="74" customWidth="1"/>
+    <col min="261" max="261" width="14.375" style="74" customWidth="1"/>
+    <col min="262" max="262" width="52.625" style="74" customWidth="1"/>
+    <col min="263" max="263" width="6.75" style="74" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="5.5" style="74" customWidth="1"/>
+    <col min="265" max="265" width="8.625" style="74" customWidth="1"/>
+    <col min="266" max="511" width="9" style="74"/>
+    <col min="512" max="512" width="3.875" style="74" customWidth="1"/>
+    <col min="513" max="513" width="5.5" style="74" customWidth="1"/>
+    <col min="514" max="514" width="9" style="74"/>
+    <col min="515" max="515" width="4.875" style="74" customWidth="1"/>
+    <col min="516" max="516" width="11.75" style="74" customWidth="1"/>
+    <col min="517" max="517" width="14.375" style="74" customWidth="1"/>
+    <col min="518" max="518" width="52.625" style="74" customWidth="1"/>
+    <col min="519" max="519" width="6.75" style="74" bestFit="1" customWidth="1"/>
+    <col min="520" max="520" width="5.5" style="74" customWidth="1"/>
+    <col min="521" max="521" width="8.625" style="74" customWidth="1"/>
+    <col min="522" max="767" width="9" style="74"/>
+    <col min="768" max="768" width="3.875" style="74" customWidth="1"/>
+    <col min="769" max="769" width="5.5" style="74" customWidth="1"/>
+    <col min="770" max="770" width="9" style="74"/>
+    <col min="771" max="771" width="4.875" style="74" customWidth="1"/>
+    <col min="772" max="772" width="11.75" style="74" customWidth="1"/>
+    <col min="773" max="773" width="14.375" style="74" customWidth="1"/>
+    <col min="774" max="774" width="52.625" style="74" customWidth="1"/>
+    <col min="775" max="775" width="6.75" style="74" bestFit="1" customWidth="1"/>
+    <col min="776" max="776" width="5.5" style="74" customWidth="1"/>
+    <col min="777" max="777" width="8.625" style="74" customWidth="1"/>
+    <col min="778" max="1023" width="9" style="74"/>
+    <col min="1024" max="1024" width="3.875" style="74" customWidth="1"/>
+    <col min="1025" max="1025" width="5.5" style="74" customWidth="1"/>
+    <col min="1026" max="1026" width="9" style="74"/>
+    <col min="1027" max="1027" width="4.875" style="74" customWidth="1"/>
+    <col min="1028" max="1028" width="11.75" style="74" customWidth="1"/>
+    <col min="1029" max="1029" width="14.375" style="74" customWidth="1"/>
+    <col min="1030" max="1030" width="52.625" style="74" customWidth="1"/>
+    <col min="1031" max="1031" width="6.75" style="74" bestFit="1" customWidth="1"/>
+    <col min="1032" max="1032" width="5.5" style="74" customWidth="1"/>
+    <col min="1033" max="1033" width="8.625" style="74" customWidth="1"/>
+    <col min="1034" max="1279" width="9" style="74"/>
+    <col min="1280" max="1280" width="3.875" style="74" customWidth="1"/>
+    <col min="1281" max="1281" width="5.5" style="74" customWidth="1"/>
+    <col min="1282" max="1282" width="9" style="74"/>
+    <col min="1283" max="1283" width="4.875" style="74" customWidth="1"/>
+    <col min="1284" max="1284" width="11.75" style="74" customWidth="1"/>
+    <col min="1285" max="1285" width="14.375" style="74" customWidth="1"/>
+    <col min="1286" max="1286" width="52.625" style="74" customWidth="1"/>
+    <col min="1287" max="1287" width="6.75" style="74" bestFit="1" customWidth="1"/>
+    <col min="1288" max="1288" width="5.5" style="74" customWidth="1"/>
+    <col min="1289" max="1289" width="8.625" style="74" customWidth="1"/>
+    <col min="1290" max="1535" width="9" style="74"/>
+    <col min="1536" max="1536" width="3.875" style="74" customWidth="1"/>
+    <col min="1537" max="1537" width="5.5" style="74" customWidth="1"/>
+    <col min="1538" max="1538" width="9" style="74"/>
+    <col min="1539" max="1539" width="4.875" style="74" customWidth="1"/>
+    <col min="1540" max="1540" width="11.75" style="74" customWidth="1"/>
+    <col min="1541" max="1541" width="14.375" style="74" customWidth="1"/>
+    <col min="1542" max="1542" width="52.625" style="74" customWidth="1"/>
+    <col min="1543" max="1543" width="6.75" style="74" bestFit="1" customWidth="1"/>
+    <col min="1544" max="1544" width="5.5" style="74" customWidth="1"/>
+    <col min="1545" max="1545" width="8.625" style="74" customWidth="1"/>
+    <col min="1546" max="1791" width="9" style="74"/>
+    <col min="1792" max="1792" width="3.875" style="74" customWidth="1"/>
+    <col min="1793" max="1793" width="5.5" style="74" customWidth="1"/>
+    <col min="1794" max="1794" width="9" style="74"/>
+    <col min="1795" max="1795" width="4.875" style="74" customWidth="1"/>
+    <col min="1796" max="1796" width="11.75" style="74" customWidth="1"/>
+    <col min="1797" max="1797" width="14.375" style="74" customWidth="1"/>
+    <col min="1798" max="1798" width="52.625" style="74" customWidth="1"/>
+    <col min="1799" max="1799" width="6.75" style="74" bestFit="1" customWidth="1"/>
+    <col min="1800" max="1800" width="5.5" style="74" customWidth="1"/>
+    <col min="1801" max="1801" width="8.625" style="74" customWidth="1"/>
+    <col min="1802" max="2047" width="9" style="74"/>
+    <col min="2048" max="2048" width="3.875" style="74" customWidth="1"/>
+    <col min="2049" max="2049" width="5.5" style="74" customWidth="1"/>
+    <col min="2050" max="2050" width="9" style="74"/>
+    <col min="2051" max="2051" width="4.875" style="74" customWidth="1"/>
+    <col min="2052" max="2052" width="11.75" style="74" customWidth="1"/>
+    <col min="2053" max="2053" width="14.375" style="74" customWidth="1"/>
+    <col min="2054" max="2054" width="52.625" style="74" customWidth="1"/>
+    <col min="2055" max="2055" width="6.75" style="74" bestFit="1" customWidth="1"/>
+    <col min="2056" max="2056" width="5.5" style="74" customWidth="1"/>
+    <col min="2057" max="2057" width="8.625" style="74" customWidth="1"/>
+    <col min="2058" max="2303" width="9" style="74"/>
+    <col min="2304" max="2304" width="3.875" style="74" customWidth="1"/>
+    <col min="2305" max="2305" width="5.5" style="74" customWidth="1"/>
+    <col min="2306" max="2306" width="9" style="74"/>
+    <col min="2307" max="2307" width="4.875" style="74" customWidth="1"/>
+    <col min="2308" max="2308" width="11.75" style="74" customWidth="1"/>
+    <col min="2309" max="2309" width="14.375" style="74" customWidth="1"/>
+    <col min="2310" max="2310" width="52.625" style="74" customWidth="1"/>
+    <col min="2311" max="2311" width="6.75" style="74" bestFit="1" customWidth="1"/>
+    <col min="2312" max="2312" width="5.5" style="74" customWidth="1"/>
+    <col min="2313" max="2313" width="8.625" style="74" customWidth="1"/>
+    <col min="2314" max="2559" width="9" style="74"/>
+    <col min="2560" max="2560" width="3.875" style="74" customWidth="1"/>
+    <col min="2561" max="2561" width="5.5" style="74" customWidth="1"/>
+    <col min="2562" max="2562" width="9" style="74"/>
+    <col min="2563" max="2563" width="4.875" style="74" customWidth="1"/>
+    <col min="2564" max="2564" width="11.75" style="74" customWidth="1"/>
+    <col min="2565" max="2565" width="14.375" style="74" customWidth="1"/>
+    <col min="2566" max="2566" width="52.625" style="74" customWidth="1"/>
+    <col min="2567" max="2567" width="6.75" style="74" bestFit="1" customWidth="1"/>
+    <col min="2568" max="2568" width="5.5" style="74" customWidth="1"/>
+    <col min="2569" max="2569" width="8.625" style="74" customWidth="1"/>
+    <col min="2570" max="2815" width="9" style="74"/>
+    <col min="2816" max="2816" width="3.875" style="74" customWidth="1"/>
+    <col min="2817" max="2817" width="5.5" style="74" customWidth="1"/>
+    <col min="2818" max="2818" width="9" style="74"/>
+    <col min="2819" max="2819" width="4.875" style="74" customWidth="1"/>
+    <col min="2820" max="2820" width="11.75" style="74" customWidth="1"/>
+    <col min="2821" max="2821" width="14.375" style="74" customWidth="1"/>
+    <col min="2822" max="2822" width="52.625" style="74" customWidth="1"/>
+    <col min="2823" max="2823" width="6.75" style="74" bestFit="1" customWidth="1"/>
+    <col min="2824" max="2824" width="5.5" style="74" customWidth="1"/>
+    <col min="2825" max="2825" width="8.625" style="74" customWidth="1"/>
+    <col min="2826" max="3071" width="9" style="74"/>
+    <col min="3072" max="3072" width="3.875" style="74" customWidth="1"/>
+    <col min="3073" max="3073" width="5.5" style="74" customWidth="1"/>
+    <col min="3074" max="3074" width="9" style="74"/>
+    <col min="3075" max="3075" width="4.875" style="74" customWidth="1"/>
+    <col min="3076" max="3076" width="11.75" style="74" customWidth="1"/>
+    <col min="3077" max="3077" width="14.375" style="74" customWidth="1"/>
+    <col min="3078" max="3078" width="52.625" style="74" customWidth="1"/>
+    <col min="3079" max="3079" width="6.75" style="74" bestFit="1" customWidth="1"/>
+    <col min="3080" max="3080" width="5.5" style="74" customWidth="1"/>
+    <col min="3081" max="3081" width="8.625" style="74" customWidth="1"/>
+    <col min="3082" max="3327" width="9" style="74"/>
+    <col min="3328" max="3328" width="3.875" style="74" customWidth="1"/>
+    <col min="3329" max="3329" width="5.5" style="74" customWidth="1"/>
+    <col min="3330" max="3330" width="9" style="74"/>
+    <col min="3331" max="3331" width="4.875" style="74" customWidth="1"/>
+    <col min="3332" max="3332" width="11.75" style="74" customWidth="1"/>
+    <col min="3333" max="3333" width="14.375" style="74" customWidth="1"/>
+    <col min="3334" max="3334" width="52.625" style="74" customWidth="1"/>
+    <col min="3335" max="3335" width="6.75" style="74" bestFit="1" customWidth="1"/>
+    <col min="3336" max="3336" width="5.5" style="74" customWidth="1"/>
+    <col min="3337" max="3337" width="8.625" style="74" customWidth="1"/>
+    <col min="3338" max="3583" width="9" style="74"/>
+    <col min="3584" max="3584" width="3.875" style="74" customWidth="1"/>
+    <col min="3585" max="3585" width="5.5" style="74" customWidth="1"/>
+    <col min="3586" max="3586" width="9" style="74"/>
+    <col min="3587" max="3587" width="4.875" style="74" customWidth="1"/>
+    <col min="3588" max="3588" width="11.75" style="74" customWidth="1"/>
+    <col min="3589" max="3589" width="14.375" style="74" customWidth="1"/>
+    <col min="3590" max="3590" width="52.625" style="74" customWidth="1"/>
+    <col min="3591" max="3591" width="6.75" style="74" bestFit="1" customWidth="1"/>
+    <col min="3592" max="3592" width="5.5" style="74" customWidth="1"/>
+    <col min="3593" max="3593" width="8.625" style="74" customWidth="1"/>
+    <col min="3594" max="3839" width="9" style="74"/>
+    <col min="3840" max="3840" width="3.875" style="74" customWidth="1"/>
+    <col min="3841" max="3841" width="5.5" style="74" customWidth="1"/>
+    <col min="3842" max="3842" width="9" style="74"/>
+    <col min="3843" max="3843" width="4.875" style="74" customWidth="1"/>
+    <col min="3844" max="3844" width="11.75" style="74" customWidth="1"/>
+    <col min="3845" max="3845" width="14.375" style="74" customWidth="1"/>
+    <col min="3846" max="3846" width="52.625" style="74" customWidth="1"/>
+    <col min="3847" max="3847" width="6.75" style="74" bestFit="1" customWidth="1"/>
+    <col min="3848" max="3848" width="5.5" style="74" customWidth="1"/>
+    <col min="3849" max="3849" width="8.625" style="74" customWidth="1"/>
+    <col min="3850" max="4095" width="9" style="74"/>
+    <col min="4096" max="4096" width="3.875" style="74" customWidth="1"/>
+    <col min="4097" max="4097" width="5.5" style="74" customWidth="1"/>
+    <col min="4098" max="4098" width="9" style="74"/>
+    <col min="4099" max="4099" width="4.875" style="74" customWidth="1"/>
+    <col min="4100" max="4100" width="11.75" style="74" customWidth="1"/>
+    <col min="4101" max="4101" width="14.375" style="74" customWidth="1"/>
+    <col min="4102" max="4102" width="52.625" style="74" customWidth="1"/>
+    <col min="4103" max="4103" width="6.75" style="74" bestFit="1" customWidth="1"/>
+    <col min="4104" max="4104" width="5.5" style="74" customWidth="1"/>
+    <col min="4105" max="4105" width="8.625" style="74" customWidth="1"/>
+    <col min="4106" max="4351" width="9" style="74"/>
+    <col min="4352" max="4352" width="3.875" style="74" customWidth="1"/>
+    <col min="4353" max="4353" width="5.5" style="74" customWidth="1"/>
+    <col min="4354" max="4354" width="9" style="74"/>
+    <col min="4355" max="4355" width="4.875" style="74" customWidth="1"/>
+    <col min="4356" max="4356" width="11.75" style="74" customWidth="1"/>
+    <col min="4357" max="4357" width="14.375" style="74" customWidth="1"/>
+    <col min="4358" max="4358" width="52.625" style="74" customWidth="1"/>
+    <col min="4359" max="4359" width="6.75" style="74" bestFit="1" customWidth="1"/>
+    <col min="4360" max="4360" width="5.5" style="74" customWidth="1"/>
+    <col min="4361" max="4361" width="8.625" style="74" customWidth="1"/>
+    <col min="4362" max="4607" width="9" style="74"/>
+    <col min="4608" max="4608" width="3.875" style="74" customWidth="1"/>
+    <col min="4609" max="4609" width="5.5" style="74" customWidth="1"/>
+    <col min="4610" max="4610" width="9" style="74"/>
+    <col min="4611" max="4611" width="4.875" style="74" customWidth="1"/>
+    <col min="4612" max="4612" width="11.75" style="74" customWidth="1"/>
+    <col min="4613" max="4613" width="14.375" style="74" customWidth="1"/>
+    <col min="4614" max="4614" width="52.625" style="74" customWidth="1"/>
+    <col min="4615" max="4615" width="6.75" style="74" bestFit="1" customWidth="1"/>
+    <col min="4616" max="4616" width="5.5" style="74" customWidth="1"/>
+    <col min="4617" max="4617" width="8.625" style="74" customWidth="1"/>
+    <col min="4618" max="4863" width="9" style="74"/>
+    <col min="4864" max="4864" width="3.875" style="74" customWidth="1"/>
+    <col min="4865" max="4865" width="5.5" style="74" customWidth="1"/>
+    <col min="4866" max="4866" width="9" style="74"/>
+    <col min="4867" max="4867" width="4.875" style="74" customWidth="1"/>
+    <col min="4868" max="4868" width="11.75" style="74" customWidth="1"/>
+    <col min="4869" max="4869" width="14.375" style="74" customWidth="1"/>
+    <col min="4870" max="4870" width="52.625" style="74" customWidth="1"/>
+    <col min="4871" max="4871" width="6.75" style="74" bestFit="1" customWidth="1"/>
+    <col min="4872" max="4872" width="5.5" style="74" customWidth="1"/>
+    <col min="4873" max="4873" width="8.625" style="74" customWidth="1"/>
+    <col min="4874" max="5119" width="9" style="74"/>
+    <col min="5120" max="5120" width="3.875" style="74" customWidth="1"/>
+    <col min="5121" max="5121" width="5.5" style="74" customWidth="1"/>
+    <col min="5122" max="5122" width="9" style="74"/>
+    <col min="5123" max="5123" width="4.875" style="74" customWidth="1"/>
+    <col min="5124" max="5124" width="11.75" style="74" customWidth="1"/>
+    <col min="5125" max="5125" width="14.375" style="74" customWidth="1"/>
+    <col min="5126" max="5126" width="52.625" style="74" customWidth="1"/>
+    <col min="5127" max="5127" width="6.75" style="74" bestFit="1" customWidth="1"/>
+    <col min="5128" max="5128" width="5.5" style="74" customWidth="1"/>
+    <col min="5129" max="5129" width="8.625" style="74" customWidth="1"/>
+    <col min="5130" max="5375" width="9" style="74"/>
+    <col min="5376" max="5376" width="3.875" style="74" customWidth="1"/>
+    <col min="5377" max="5377" width="5.5" style="74" customWidth="1"/>
+    <col min="5378" max="5378" width="9" style="74"/>
+    <col min="5379" max="5379" width="4.875" style="74" customWidth="1"/>
+    <col min="5380" max="5380" width="11.75" style="74" customWidth="1"/>
+    <col min="5381" max="5381" width="14.375" style="74" customWidth="1"/>
+    <col min="5382" max="5382" width="52.625" style="74" customWidth="1"/>
+    <col min="5383" max="5383" width="6.75" style="74" bestFit="1" customWidth="1"/>
+    <col min="5384" max="5384" width="5.5" style="74" customWidth="1"/>
+    <col min="5385" max="5385" width="8.625" style="74" customWidth="1"/>
+    <col min="5386" max="5631" width="9" style="74"/>
+    <col min="5632" max="5632" width="3.875" style="74" customWidth="1"/>
+    <col min="5633" max="5633" width="5.5" style="74" customWidth="1"/>
+    <col min="5634" max="5634" width="9" style="74"/>
+    <col min="5635" max="5635" width="4.875" style="74" customWidth="1"/>
+    <col min="5636" max="5636" width="11.75" style="74" customWidth="1"/>
+    <col min="5637" max="5637" width="14.375" style="74" customWidth="1"/>
+    <col min="5638" max="5638" width="52.625" style="74" customWidth="1"/>
+    <col min="5639" max="5639" width="6.75" style="74" bestFit="1" customWidth="1"/>
+    <col min="5640" max="5640" width="5.5" style="74" customWidth="1"/>
+    <col min="5641" max="5641" width="8.625" style="74" customWidth="1"/>
+    <col min="5642" max="5887" width="9" style="74"/>
+    <col min="5888" max="5888" width="3.875" style="74" customWidth="1"/>
+    <col min="5889" max="5889" width="5.5" style="74" customWidth="1"/>
+    <col min="5890" max="5890" width="9" style="74"/>
+    <col min="5891" max="5891" width="4.875" style="74" customWidth="1"/>
+    <col min="5892" max="5892" width="11.75" style="74" customWidth="1"/>
+    <col min="5893" max="5893" width="14.375" style="74" customWidth="1"/>
+    <col min="5894" max="5894" width="52.625" style="74" customWidth="1"/>
+    <col min="5895" max="5895" width="6.75" style="74" bestFit="1" customWidth="1"/>
+    <col min="5896" max="5896" width="5.5" style="74" customWidth="1"/>
+    <col min="5897" max="5897" width="8.625" style="74" customWidth="1"/>
+    <col min="5898" max="6143" width="9" style="74"/>
+    <col min="6144" max="6144" width="3.875" style="74" customWidth="1"/>
+    <col min="6145" max="6145" width="5.5" style="74" customWidth="1"/>
+    <col min="6146" max="6146" width="9" style="74"/>
+    <col min="6147" max="6147" width="4.875" style="74" customWidth="1"/>
+    <col min="6148" max="6148" width="11.75" style="74" customWidth="1"/>
+    <col min="6149" max="6149" width="14.375" style="74" customWidth="1"/>
+    <col min="6150" max="6150" width="52.625" style="74" customWidth="1"/>
+    <col min="6151" max="6151" width="6.75" style="74" bestFit="1" customWidth="1"/>
+    <col min="6152" max="6152" width="5.5" style="74" customWidth="1"/>
+    <col min="6153" max="6153" width="8.625" style="74" customWidth="1"/>
+    <col min="6154" max="6399" width="9" style="74"/>
+    <col min="6400" max="6400" width="3.875" style="74" customWidth="1"/>
+    <col min="6401" max="6401" width="5.5" style="74" customWidth="1"/>
+    <col min="6402" max="6402" width="9" style="74"/>
+    <col min="6403" max="6403" width="4.875" style="74" customWidth="1"/>
+    <col min="6404" max="6404" width="11.75" style="74" customWidth="1"/>
+    <col min="6405" max="6405" width="14.375" style="74" customWidth="1"/>
+    <col min="6406" max="6406" width="52.625" style="74" customWidth="1"/>
+    <col min="6407" max="6407" width="6.75" style="74" bestFit="1" customWidth="1"/>
+    <col min="6408" max="6408" width="5.5" style="74" customWidth="1"/>
+    <col min="6409" max="6409" width="8.625" style="74" customWidth="1"/>
+    <col min="6410" max="6655" width="9" style="74"/>
+    <col min="6656" max="6656" width="3.875" style="74" customWidth="1"/>
+    <col min="6657" max="6657" width="5.5" style="74" customWidth="1"/>
+    <col min="6658" max="6658" width="9" style="74"/>
+    <col min="6659" max="6659" width="4.875" style="74" customWidth="1"/>
+    <col min="6660" max="6660" width="11.75" style="74" customWidth="1"/>
+    <col min="6661" max="6661" width="14.375" style="74" customWidth="1"/>
+    <col min="6662" max="6662" width="52.625" style="74" customWidth="1"/>
+    <col min="6663" max="6663" width="6.75" style="74" bestFit="1" customWidth="1"/>
+    <col min="6664" max="6664" width="5.5" style="74" customWidth="1"/>
+    <col min="6665" max="6665" width="8.625" style="74" customWidth="1"/>
+    <col min="6666" max="6911" width="9" style="74"/>
+    <col min="6912" max="6912" width="3.875" style="74" customWidth="1"/>
+    <col min="6913" max="6913" width="5.5" style="74" customWidth="1"/>
+    <col min="6914" max="6914" width="9" style="74"/>
+    <col min="6915" max="6915" width="4.875" style="74" customWidth="1"/>
+    <col min="6916" max="6916" width="11.75" style="74" customWidth="1"/>
+    <col min="6917" max="6917" width="14.375" style="74" customWidth="1"/>
+    <col min="6918" max="6918" width="52.625" style="74" customWidth="1"/>
+    <col min="6919" max="6919" width="6.75" style="74" bestFit="1" customWidth="1"/>
+    <col min="6920" max="6920" width="5.5" style="74" customWidth="1"/>
+    <col min="6921" max="6921" width="8.625" style="74" customWidth="1"/>
+    <col min="6922" max="7167" width="9" style="74"/>
+    <col min="7168" max="7168" width="3.875" style="74" customWidth="1"/>
+    <col min="7169" max="7169" width="5.5" style="74" customWidth="1"/>
+    <col min="7170" max="7170" width="9" style="74"/>
+    <col min="7171" max="7171" width="4.875" style="74" customWidth="1"/>
+    <col min="7172" max="7172" width="11.75" style="74" customWidth="1"/>
+    <col min="7173" max="7173" width="14.375" style="74" customWidth="1"/>
+    <col min="7174" max="7174" width="52.625" style="74" customWidth="1"/>
+    <col min="7175" max="7175" width="6.75" style="74" bestFit="1" customWidth="1"/>
+    <col min="7176" max="7176" width="5.5" style="74" customWidth="1"/>
+    <col min="7177" max="7177" width="8.625" style="74" customWidth="1"/>
+    <col min="7178" max="7423" width="9" style="74"/>
+    <col min="7424" max="7424" width="3.875" style="74" customWidth="1"/>
+    <col min="7425" max="7425" width="5.5" style="74" customWidth="1"/>
+    <col min="7426" max="7426" width="9" style="74"/>
+    <col min="7427" max="7427" width="4.875" style="74" customWidth="1"/>
+    <col min="7428" max="7428" width="11.75" style="74" customWidth="1"/>
+    <col min="7429" max="7429" width="14.375" style="74" customWidth="1"/>
+    <col min="7430" max="7430" width="52.625" style="74" customWidth="1"/>
+    <col min="7431" max="7431" width="6.75" style="74" bestFit="1" customWidth="1"/>
+    <col min="7432" max="7432" width="5.5" style="74" customWidth="1"/>
+    <col min="7433" max="7433" width="8.625" style="74" customWidth="1"/>
+    <col min="7434" max="7679" width="9" style="74"/>
+    <col min="7680" max="7680" width="3.875" style="74" customWidth="1"/>
+    <col min="7681" max="7681" width="5.5" style="74" customWidth="1"/>
+    <col min="7682" max="7682" width="9" style="74"/>
+    <col min="7683" max="7683" width="4.875" style="74" customWidth="1"/>
+    <col min="7684" max="7684" width="11.75" style="74" customWidth="1"/>
+    <col min="7685" max="7685" width="14.375" style="74" customWidth="1"/>
+    <col min="7686" max="7686" width="52.625" style="74" customWidth="1"/>
+    <col min="7687" max="7687" width="6.75" style="74" bestFit="1" customWidth="1"/>
+    <col min="7688" max="7688" width="5.5" style="74" customWidth="1"/>
+    <col min="7689" max="7689" width="8.625" style="74" customWidth="1"/>
+    <col min="7690" max="7935" width="9" style="74"/>
+    <col min="7936" max="7936" width="3.875" style="74" customWidth="1"/>
+    <col min="7937" max="7937" width="5.5" style="74" customWidth="1"/>
+    <col min="7938" max="7938" width="9" style="74"/>
+    <col min="7939" max="7939" width="4.875" style="74" customWidth="1"/>
+    <col min="7940" max="7940" width="11.75" style="74" customWidth="1"/>
+    <col min="7941" max="7941" width="14.375" style="74" customWidth="1"/>
+    <col min="7942" max="7942" width="52.625" style="74" customWidth="1"/>
+    <col min="7943" max="7943" width="6.75" style="74" bestFit="1" customWidth="1"/>
+    <col min="7944" max="7944" width="5.5" style="74" customWidth="1"/>
+    <col min="7945" max="7945" width="8.625" style="74" customWidth="1"/>
+    <col min="7946" max="8191" width="9" style="74"/>
+    <col min="8192" max="8192" width="3.875" style="74" customWidth="1"/>
+    <col min="8193" max="8193" width="5.5" style="74" customWidth="1"/>
+    <col min="8194" max="8194" width="9" style="74"/>
+    <col min="8195" max="8195" width="4.875" style="74" customWidth="1"/>
+    <col min="8196" max="8196" width="11.75" style="74" customWidth="1"/>
+    <col min="8197" max="8197" width="14.375" style="74" customWidth="1"/>
+    <col min="8198" max="8198" width="52.625" style="74" customWidth="1"/>
+    <col min="8199" max="8199" width="6.75" style="74" bestFit="1" customWidth="1"/>
+    <col min="8200" max="8200" width="5.5" style="74" customWidth="1"/>
+    <col min="8201" max="8201" width="8.625" style="74" customWidth="1"/>
+    <col min="8202" max="8447" width="9" style="74"/>
+    <col min="8448" max="8448" width="3.875" style="74" customWidth="1"/>
+    <col min="8449" max="8449" width="5.5" style="74" customWidth="1"/>
+    <col min="8450" max="8450" width="9" style="74"/>
+    <col min="8451" max="8451" width="4.875" style="74" customWidth="1"/>
+    <col min="8452" max="8452" width="11.75" style="74" customWidth="1"/>
+    <col min="8453" max="8453" width="14.375" style="74" customWidth="1"/>
+    <col min="8454" max="8454" width="52.625" style="74" customWidth="1"/>
+    <col min="8455" max="8455" width="6.75" style="74" bestFit="1" customWidth="1"/>
+    <col min="8456" max="8456" width="5.5" style="74" customWidth="1"/>
+    <col min="8457" max="8457" width="8.625" style="74" customWidth="1"/>
+    <col min="8458" max="8703" width="9" style="74"/>
+    <col min="8704" max="8704" width="3.875" style="74" customWidth="1"/>
+    <col min="8705" max="8705" width="5.5" style="74" customWidth="1"/>
+    <col min="8706" max="8706" width="9" style="74"/>
+    <col min="8707" max="8707" width="4.875" style="74" customWidth="1"/>
+    <col min="8708" max="8708" width="11.75" style="74" customWidth="1"/>
+    <col min="8709" max="8709" width="14.375" style="74" customWidth="1"/>
+    <col min="8710" max="8710" width="52.625" style="74" customWidth="1"/>
+    <col min="8711" max="8711" width="6.75" style="74" bestFit="1" customWidth="1"/>
+    <col min="8712" max="8712" width="5.5" style="74" customWidth="1"/>
+    <col min="8713" max="8713" width="8.625" style="74" customWidth="1"/>
+    <col min="8714" max="8959" width="9" style="74"/>
+    <col min="8960" max="8960" width="3.875" style="74" customWidth="1"/>
+    <col min="8961" max="8961" width="5.5" style="74" customWidth="1"/>
+    <col min="8962" max="8962" width="9" style="74"/>
+    <col min="8963" max="8963" width="4.875" style="74" customWidth="1"/>
+    <col min="8964" max="8964" width="11.75" style="74" customWidth="1"/>
+    <col min="8965" max="8965" width="14.375" style="74" customWidth="1"/>
+    <col min="8966" max="8966" width="52.625" style="74" customWidth="1"/>
+    <col min="8967" max="8967" width="6.75" style="74" bestFit="1" customWidth="1"/>
+    <col min="8968" max="8968" width="5.5" style="74" customWidth="1"/>
+    <col min="8969" max="8969" width="8.625" style="74" customWidth="1"/>
+    <col min="8970" max="9215" width="9" style="74"/>
+    <col min="9216" max="9216" width="3.875" style="74" customWidth="1"/>
+    <col min="9217" max="9217" width="5.5" style="74" customWidth="1"/>
+    <col min="9218" max="9218" width="9" style="74"/>
+    <col min="9219" max="9219" width="4.875" style="74" customWidth="1"/>
+    <col min="9220" max="9220" width="11.75" style="74" customWidth="1"/>
+    <col min="9221" max="9221" width="14.375" style="74" customWidth="1"/>
+    <col min="9222" max="9222" width="52.625" style="74" customWidth="1"/>
+    <col min="9223" max="9223" width="6.75" style="74" bestFit="1" customWidth="1"/>
+    <col min="9224" max="9224" width="5.5" style="74" customWidth="1"/>
+    <col min="9225" max="9225" width="8.625" style="74" customWidth="1"/>
+    <col min="9226" max="9471" width="9" style="74"/>
+    <col min="9472" max="9472" width="3.875" style="74" customWidth="1"/>
+    <col min="9473" max="9473" width="5.5" style="74" customWidth="1"/>
+    <col min="9474" max="9474" width="9" style="74"/>
+    <col min="9475" max="9475" width="4.875" style="74" customWidth="1"/>
+    <col min="9476" max="9476" width="11.75" style="74" customWidth="1"/>
+    <col min="9477" max="9477" width="14.375" style="74" customWidth="1"/>
+    <col min="9478" max="9478" width="52.625" style="74" customWidth="1"/>
+    <col min="9479" max="9479" width="6.75" style="74" bestFit="1" customWidth="1"/>
+    <col min="9480" max="9480" width="5.5" style="74" customWidth="1"/>
+    <col min="9481" max="9481" width="8.625" style="74" customWidth="1"/>
+    <col min="9482" max="9727" width="9" style="74"/>
+    <col min="9728" max="9728" width="3.875" style="74" customWidth="1"/>
+    <col min="9729" max="9729" width="5.5" style="74" customWidth="1"/>
+    <col min="9730" max="9730" width="9" style="74"/>
+    <col min="9731" max="9731" width="4.875" style="74" customWidth="1"/>
+    <col min="9732" max="9732" width="11.75" style="74" customWidth="1"/>
+    <col min="9733" max="9733" width="14.375" style="74" customWidth="1"/>
+    <col min="9734" max="9734" width="52.625" style="74" customWidth="1"/>
+    <col min="9735" max="9735" width="6.75" style="74" bestFit="1" customWidth="1"/>
+    <col min="9736" max="9736" width="5.5" style="74" customWidth="1"/>
+    <col min="9737" max="9737" width="8.625" style="74" customWidth="1"/>
+    <col min="9738" max="9983" width="9" style="74"/>
+    <col min="9984" max="9984" width="3.875" style="74" customWidth="1"/>
+    <col min="9985" max="9985" width="5.5" style="74" customWidth="1"/>
+    <col min="9986" max="9986" width="9" style="74"/>
+    <col min="9987" max="9987" width="4.875" style="74" customWidth="1"/>
+    <col min="9988" max="9988" width="11.75" style="74" customWidth="1"/>
+    <col min="9989" max="9989" width="14.375" style="74" customWidth="1"/>
+    <col min="9990" max="9990" width="52.625" style="74" customWidth="1"/>
+    <col min="9991" max="9991" width="6.75" style="74" bestFit="1" customWidth="1"/>
+    <col min="9992" max="9992" width="5.5" style="74" customWidth="1"/>
+    <col min="9993" max="9993" width="8.625" style="74" customWidth="1"/>
+    <col min="9994" max="10239" width="9" style="74"/>
+    <col min="10240" max="10240" width="3.875" style="74" customWidth="1"/>
+    <col min="10241" max="10241" width="5.5" style="74" customWidth="1"/>
+    <col min="10242" max="10242" width="9" style="74"/>
+    <col min="10243" max="10243" width="4.875" style="74" customWidth="1"/>
+    <col min="10244" max="10244" width="11.75" style="74" customWidth="1"/>
+    <col min="10245" max="10245" width="14.375" style="74" customWidth="1"/>
+    <col min="10246" max="10246" width="52.625" style="74" customWidth="1"/>
+    <col min="10247" max="10247" width="6.75" style="74" bestFit="1" customWidth="1"/>
+    <col min="10248" max="10248" width="5.5" style="74" customWidth="1"/>
+    <col min="10249" max="10249" width="8.625" style="74" customWidth="1"/>
+    <col min="10250" max="10495" width="9" style="74"/>
+    <col min="10496" max="10496" width="3.875" style="74" customWidth="1"/>
+    <col min="10497" max="10497" width="5.5" style="74" customWidth="1"/>
+    <col min="10498" max="10498" width="9" style="74"/>
+    <col min="10499" max="10499" width="4.875" style="74" customWidth="1"/>
+    <col min="10500" max="10500" width="11.75" style="74" customWidth="1"/>
+    <col min="10501" max="10501" width="14.375" style="74" customWidth="1"/>
+    <col min="10502" max="10502" width="52.625" style="74" customWidth="1"/>
+    <col min="10503" max="10503" width="6.75" style="74" bestFit="1" customWidth="1"/>
+    <col min="10504" max="10504" width="5.5" style="74" customWidth="1"/>
+    <col min="10505" max="10505" width="8.625" style="74" customWidth="1"/>
+    <col min="10506" max="10751" width="9" style="74"/>
+    <col min="10752" max="10752" width="3.875" style="74" customWidth="1"/>
+    <col min="10753" max="10753" width="5.5" style="74" customWidth="1"/>
+    <col min="10754" max="10754" width="9" style="74"/>
+    <col min="10755" max="10755" width="4.875" style="74" customWidth="1"/>
+    <col min="10756" max="10756" width="11.75" style="74" customWidth="1"/>
+    <col min="10757" max="10757" width="14.375" style="74" customWidth="1"/>
+    <col min="10758" max="10758" width="52.625" style="74" customWidth="1"/>
+    <col min="10759" max="10759" width="6.75" style="74" bestFit="1" customWidth="1"/>
+    <col min="10760" max="10760" width="5.5" style="74" customWidth="1"/>
+    <col min="10761" max="10761" width="8.625" style="74" customWidth="1"/>
+    <col min="10762" max="11007" width="9" style="74"/>
+    <col min="11008" max="11008" width="3.875" style="74" customWidth="1"/>
+    <col min="11009" max="11009" width="5.5" style="74" customWidth="1"/>
+    <col min="11010" max="11010" width="9" style="74"/>
+    <col min="11011" max="11011" width="4.875" style="74" customWidth="1"/>
+    <col min="11012" max="11012" width="11.75" style="74" customWidth="1"/>
+    <col min="11013" max="11013" width="14.375" style="74" customWidth="1"/>
+    <col min="11014" max="11014" width="52.625" style="74" customWidth="1"/>
+    <col min="11015" max="11015" width="6.75" style="74" bestFit="1" customWidth="1"/>
+    <col min="11016" max="11016" width="5.5" style="74" customWidth="1"/>
+    <col min="11017" max="11017" width="8.625" style="74" customWidth="1"/>
+    <col min="11018" max="11263" width="9" style="74"/>
+    <col min="11264" max="11264" width="3.875" style="74" customWidth="1"/>
+    <col min="11265" max="11265" width="5.5" style="74" customWidth="1"/>
+    <col min="11266" max="11266" width="9" style="74"/>
+    <col min="11267" max="11267" width="4.875" style="74" customWidth="1"/>
+    <col min="11268" max="11268" width="11.75" style="74" customWidth="1"/>
+    <col min="11269" max="11269" width="14.375" style="74" customWidth="1"/>
+    <col min="11270" max="11270" width="52.625" style="74" customWidth="1"/>
+    <col min="11271" max="11271" width="6.75" style="74" bestFit="1" customWidth="1"/>
+    <col min="11272" max="11272" width="5.5" style="74" customWidth="1"/>
+    <col min="11273" max="11273" width="8.625" style="74" customWidth="1"/>
+    <col min="11274" max="11519" width="9" style="74"/>
+    <col min="11520" max="11520" width="3.875" style="74" customWidth="1"/>
+    <col min="11521" max="11521" width="5.5" style="74" customWidth="1"/>
+    <col min="11522" max="11522" width="9" style="74"/>
+    <col min="11523" max="11523" width="4.875" style="74" customWidth="1"/>
+    <col min="11524" max="11524" width="11.75" style="74" customWidth="1"/>
+    <col min="11525" max="11525" width="14.375" style="74" customWidth="1"/>
+    <col min="11526" max="11526" width="52.625" style="74" customWidth="1"/>
+    <col min="11527" max="11527" width="6.75" style="74" bestFit="1" customWidth="1"/>
+    <col min="11528" max="11528" width="5.5" style="74" customWidth="1"/>
+    <col min="11529" max="11529" width="8.625" style="74" customWidth="1"/>
+    <col min="11530" max="11775" width="9" style="74"/>
+    <col min="11776" max="11776" width="3.875" style="74" customWidth="1"/>
+    <col min="11777" max="11777" width="5.5" style="74" customWidth="1"/>
+    <col min="11778" max="11778" width="9" style="74"/>
+    <col min="11779" max="11779" width="4.875" style="74" customWidth="1"/>
+    <col min="11780" max="11780" width="11.75" style="74" customWidth="1"/>
+    <col min="11781" max="11781" width="14.375" style="74" customWidth="1"/>
+    <col min="11782" max="11782" width="52.625" style="74" customWidth="1"/>
+    <col min="11783" max="11783" width="6.75" style="74" bestFit="1" customWidth="1"/>
+    <col min="11784" max="11784" width="5.5" style="74" customWidth="1"/>
+    <col min="11785" max="11785" width="8.625" style="74" customWidth="1"/>
+    <col min="11786" max="12031" width="9" style="74"/>
+    <col min="12032" max="12032" width="3.875" style="74" customWidth="1"/>
+    <col min="12033" max="12033" width="5.5" style="74" customWidth="1"/>
+    <col min="12034" max="12034" width="9" style="74"/>
+    <col min="12035" max="12035" width="4.875" style="74" customWidth="1"/>
+    <col min="12036" max="12036" width="11.75" style="74" customWidth="1"/>
+    <col min="12037" max="12037" width="14.375" style="74" customWidth="1"/>
+    <col min="12038" max="12038" width="52.625" style="74" customWidth="1"/>
+    <col min="12039" max="12039" width="6.75" style="74" bestFit="1" customWidth="1"/>
+    <col min="12040" max="12040" width="5.5" style="74" customWidth="1"/>
+    <col min="12041" max="12041" width="8.625" style="74" customWidth="1"/>
+    <col min="12042" max="12287" width="9" style="74"/>
+    <col min="12288" max="12288" width="3.875" style="74" customWidth="1"/>
+    <col min="12289" max="12289" width="5.5" style="74" customWidth="1"/>
+    <col min="12290" max="12290" width="9" style="74"/>
+    <col min="12291" max="12291" width="4.875" style="74" customWidth="1"/>
+    <col min="12292" max="12292" width="11.75" style="74" customWidth="1"/>
+    <col min="12293" max="12293" width="14.375" style="74" customWidth="1"/>
+    <col min="12294" max="12294" width="52.625" style="74" customWidth="1"/>
+    <col min="12295" max="12295" width="6.75" style="74" bestFit="1" customWidth="1"/>
+    <col min="12296" max="12296" width="5.5" style="74" customWidth="1"/>
+    <col min="12297" max="12297" width="8.625" style="74" customWidth="1"/>
+    <col min="12298" max="12543" width="9" style="74"/>
+    <col min="12544" max="12544" width="3.875" style="74" customWidth="1"/>
+    <col min="12545" max="12545" width="5.5" style="74" customWidth="1"/>
+    <col min="12546" max="12546" width="9" style="74"/>
+    <col min="12547" max="12547" width="4.875" style="74" customWidth="1"/>
+    <col min="12548" max="12548" width="11.75" style="74" customWidth="1"/>
+    <col min="12549" max="12549" width="14.375" style="74" customWidth="1"/>
+    <col min="12550" max="12550" width="52.625" style="74" customWidth="1"/>
+    <col min="12551" max="12551" width="6.75" style="74" bestFit="1" customWidth="1"/>
+    <col min="12552" max="12552" width="5.5" style="74" customWidth="1"/>
+    <col min="12553" max="12553" width="8.625" style="74" customWidth="1"/>
+    <col min="12554" max="12799" width="9" style="74"/>
+    <col min="12800" max="12800" width="3.875" style="74" customWidth="1"/>
+    <col min="12801" max="12801" width="5.5" style="74" customWidth="1"/>
+    <col min="12802" max="12802" width="9" style="74"/>
+    <col min="12803" max="12803" width="4.875" style="74" customWidth="1"/>
+    <col min="12804" max="12804" width="11.75" style="74" customWidth="1"/>
+    <col min="12805" max="12805" width="14.375" style="74" customWidth="1"/>
+    <col min="12806" max="12806" width="52.625" style="74" customWidth="1"/>
+    <col min="12807" max="12807" width="6.75" style="74" bestFit="1" customWidth="1"/>
+    <col min="12808" max="12808" width="5.5" style="74" customWidth="1"/>
+    <col min="12809" max="12809" width="8.625" style="74" customWidth="1"/>
+    <col min="12810" max="13055" width="9" style="74"/>
+    <col min="13056" max="13056" width="3.875" style="74" customWidth="1"/>
+    <col min="13057" max="13057" width="5.5" style="74" customWidth="1"/>
+    <col min="13058" max="13058" width="9" style="74"/>
+    <col min="13059" max="13059" width="4.875" style="74" customWidth="1"/>
+    <col min="13060" max="13060" width="11.75" style="74" customWidth="1"/>
+    <col min="13061" max="13061" width="14.375" style="74" customWidth="1"/>
+    <col min="13062" max="13062" width="52.625" style="74" customWidth="1"/>
+    <col min="13063" max="13063" width="6.75" style="74" bestFit="1" customWidth="1"/>
+    <col min="13064" max="13064" width="5.5" style="74" customWidth="1"/>
+    <col min="13065" max="13065" width="8.625" style="74" customWidth="1"/>
+    <col min="13066" max="13311" width="9" style="74"/>
+    <col min="13312" max="13312" width="3.875" style="74" customWidth="1"/>
+    <col min="13313" max="13313" width="5.5" style="74" customWidth="1"/>
+    <col min="13314" max="13314" width="9" style="74"/>
+    <col min="13315" max="13315" width="4.875" style="74" customWidth="1"/>
+    <col min="13316" max="13316" width="11.75" style="74" customWidth="1"/>
+    <col min="13317" max="13317" width="14.375" style="74" customWidth="1"/>
+    <col min="13318" max="13318" width="52.625" style="74" customWidth="1"/>
+    <col min="13319" max="13319" width="6.75" style="74" bestFit="1" customWidth="1"/>
+    <col min="13320" max="13320" width="5.5" style="74" customWidth="1"/>
+    <col min="13321" max="13321" width="8.625" style="74" customWidth="1"/>
+    <col min="13322" max="13567" width="9" style="74"/>
+    <col min="13568" max="13568" width="3.875" style="74" customWidth="1"/>
+    <col min="13569" max="13569" width="5.5" style="74" customWidth="1"/>
+    <col min="13570" max="13570" width="9" style="74"/>
+    <col min="13571" max="13571" width="4.875" style="74" customWidth="1"/>
+    <col min="13572" max="13572" width="11.75" style="74" customWidth="1"/>
+    <col min="13573" max="13573" width="14.375" style="74" customWidth="1"/>
+    <col min="13574" max="13574" width="52.625" style="74" customWidth="1"/>
+    <col min="13575" max="13575" width="6.75" style="74" bestFit="1" customWidth="1"/>
+    <col min="13576" max="13576" width="5.5" style="74" customWidth="1"/>
+    <col min="13577" max="13577" width="8.625" style="74" customWidth="1"/>
+    <col min="13578" max="13823" width="9" style="74"/>
+    <col min="13824" max="13824" width="3.875" style="74" customWidth="1"/>
+    <col min="13825" max="13825" width="5.5" style="74" customWidth="1"/>
+    <col min="13826" max="13826" width="9" style="74"/>
+    <col min="13827" max="13827" width="4.875" style="74" customWidth="1"/>
+    <col min="13828" max="13828" width="11.75" style="74" customWidth="1"/>
+    <col min="13829" max="13829" width="14.375" style="74" customWidth="1"/>
+    <col min="13830" max="13830" width="52.625" style="74" customWidth="1"/>
+    <col min="13831" max="13831" width="6.75" style="74" bestFit="1" customWidth="1"/>
+    <col min="13832" max="13832" width="5.5" style="74" customWidth="1"/>
+    <col min="13833" max="13833" width="8.625" style="74" customWidth="1"/>
+    <col min="13834" max="14079" width="9" style="74"/>
+    <col min="14080" max="14080" width="3.875" style="74" customWidth="1"/>
+    <col min="14081" max="14081" width="5.5" style="74" customWidth="1"/>
+    <col min="14082" max="14082" width="9" style="74"/>
+    <col min="14083" max="14083" width="4.875" style="74" customWidth="1"/>
+    <col min="14084" max="14084" width="11.75" style="74" customWidth="1"/>
+    <col min="14085" max="14085" width="14.375" style="74" customWidth="1"/>
+    <col min="14086" max="14086" width="52.625" style="74" customWidth="1"/>
+    <col min="14087" max="14087" width="6.75" style="74" bestFit="1" customWidth="1"/>
+    <col min="14088" max="14088" width="5.5" style="74" customWidth="1"/>
+    <col min="14089" max="14089" width="8.625" style="74" customWidth="1"/>
+    <col min="14090" max="14335" width="9" style="74"/>
+    <col min="14336" max="14336" width="3.875" style="74" customWidth="1"/>
+    <col min="14337" max="14337" width="5.5" style="74" customWidth="1"/>
+    <col min="14338" max="14338" width="9" style="74"/>
+    <col min="14339" max="14339" width="4.875" style="74" customWidth="1"/>
+    <col min="14340" max="14340" width="11.75" style="74" customWidth="1"/>
+    <col min="14341" max="14341" width="14.375" style="74" customWidth="1"/>
+    <col min="14342" max="14342" width="52.625" style="74" customWidth="1"/>
+    <col min="14343" max="14343" width="6.75" style="74" bestFit="1" customWidth="1"/>
+    <col min="14344" max="14344" width="5.5" style="74" customWidth="1"/>
+    <col min="14345" max="14345" width="8.625" style="74" customWidth="1"/>
+    <col min="14346" max="14591" width="9" style="74"/>
+    <col min="14592" max="14592" width="3.875" style="74" customWidth="1"/>
+    <col min="14593" max="14593" width="5.5" style="74" customWidth="1"/>
+    <col min="14594" max="14594" width="9" style="74"/>
+    <col min="14595" max="14595" width="4.875" style="74" customWidth="1"/>
+    <col min="14596" max="14596" width="11.75" style="74" customWidth="1"/>
+    <col min="14597" max="14597" width="14.375" style="74" customWidth="1"/>
+    <col min="14598" max="14598" width="52.625" style="74" customWidth="1"/>
+    <col min="14599" max="14599" width="6.75" style="74" bestFit="1" customWidth="1"/>
+    <col min="14600" max="14600" width="5.5" style="74" customWidth="1"/>
+    <col min="14601" max="14601" width="8.625" style="74" customWidth="1"/>
+    <col min="14602" max="14847" width="9" style="74"/>
+    <col min="14848" max="14848" width="3.875" style="74" customWidth="1"/>
+    <col min="14849" max="14849" width="5.5" style="74" customWidth="1"/>
+    <col min="14850" max="14850" width="9" style="74"/>
+    <col min="14851" max="14851" width="4.875" style="74" customWidth="1"/>
+    <col min="14852" max="14852" width="11.75" style="74" customWidth="1"/>
+    <col min="14853" max="14853" width="14.375" style="74" customWidth="1"/>
+    <col min="14854" max="14854" width="52.625" style="74" customWidth="1"/>
+    <col min="14855" max="14855" width="6.75" style="74" bestFit="1" customWidth="1"/>
+    <col min="14856" max="14856" width="5.5" style="74" customWidth="1"/>
+    <col min="14857" max="14857" width="8.625" style="74" customWidth="1"/>
+    <col min="14858" max="15103" width="9" style="74"/>
+    <col min="15104" max="15104" width="3.875" style="74" customWidth="1"/>
+    <col min="15105" max="15105" width="5.5" style="74" customWidth="1"/>
+    <col min="15106" max="15106" width="9" style="74"/>
+    <col min="15107" max="15107" width="4.875" style="74" customWidth="1"/>
+    <col min="15108" max="15108" width="11.75" style="74" customWidth="1"/>
+    <col min="15109" max="15109" width="14.375" style="74" customWidth="1"/>
+    <col min="15110" max="15110" width="52.625" style="74" customWidth="1"/>
+    <col min="15111" max="15111" width="6.75" style="74" bestFit="1" customWidth="1"/>
+    <col min="15112" max="15112" width="5.5" style="74" customWidth="1"/>
+    <col min="15113" max="15113" width="8.625" style="74" customWidth="1"/>
+    <col min="15114" max="15359" width="9" style="74"/>
+    <col min="15360" max="15360" width="3.875" style="74" customWidth="1"/>
+    <col min="15361" max="15361" width="5.5" style="74" customWidth="1"/>
+    <col min="15362" max="15362" width="9" style="74"/>
+    <col min="15363" max="15363" width="4.875" style="74" customWidth="1"/>
+    <col min="15364" max="15364" width="11.75" style="74" customWidth="1"/>
+    <col min="15365" max="15365" width="14.375" style="74" customWidth="1"/>
+    <col min="15366" max="15366" width="52.625" style="74" customWidth="1"/>
+    <col min="15367" max="15367" width="6.75" style="74" bestFit="1" customWidth="1"/>
+    <col min="15368" max="15368" width="5.5" style="74" customWidth="1"/>
+    <col min="15369" max="15369" width="8.625" style="74" customWidth="1"/>
+    <col min="15370" max="15615" width="9" style="74"/>
+    <col min="15616" max="15616" width="3.875" style="74" customWidth="1"/>
+    <col min="15617" max="15617" width="5.5" style="74" customWidth="1"/>
+    <col min="15618" max="15618" width="9" style="74"/>
+    <col min="15619" max="15619" width="4.875" style="74" customWidth="1"/>
+    <col min="15620" max="15620" width="11.75" style="74" customWidth="1"/>
+    <col min="15621" max="15621" width="14.375" style="74" customWidth="1"/>
+    <col min="15622" max="15622" width="52.625" style="74" customWidth="1"/>
+    <col min="15623" max="15623" width="6.75" style="74" bestFit="1" customWidth="1"/>
+    <col min="15624" max="15624" width="5.5" style="74" customWidth="1"/>
+    <col min="15625" max="15625" width="8.625" style="74" customWidth="1"/>
+    <col min="15626" max="15871" width="9" style="74"/>
+    <col min="15872" max="15872" width="3.875" style="74" customWidth="1"/>
+    <col min="15873" max="15873" width="5.5" style="74" customWidth="1"/>
+    <col min="15874" max="15874" width="9" style="74"/>
+    <col min="15875" max="15875" width="4.875" style="74" customWidth="1"/>
+    <col min="15876" max="15876" width="11.75" style="74" customWidth="1"/>
+    <col min="15877" max="15877" width="14.375" style="74" customWidth="1"/>
+    <col min="15878" max="15878" width="52.625" style="74" customWidth="1"/>
+    <col min="15879" max="15879" width="6.75" style="74" bestFit="1" customWidth="1"/>
+    <col min="15880" max="15880" width="5.5" style="74" customWidth="1"/>
+    <col min="15881" max="15881" width="8.625" style="74" customWidth="1"/>
+    <col min="15882" max="16127" width="9" style="74"/>
+    <col min="16128" max="16128" width="3.875" style="74" customWidth="1"/>
+    <col min="16129" max="16129" width="5.5" style="74" customWidth="1"/>
+    <col min="16130" max="16130" width="9" style="74"/>
+    <col min="16131" max="16131" width="4.875" style="74" customWidth="1"/>
+    <col min="16132" max="16132" width="11.75" style="74" customWidth="1"/>
+    <col min="16133" max="16133" width="14.375" style="74" customWidth="1"/>
+    <col min="16134" max="16134" width="52.625" style="74" customWidth="1"/>
+    <col min="16135" max="16135" width="6.75" style="74" bestFit="1" customWidth="1"/>
+    <col min="16136" max="16136" width="5.5" style="74" customWidth="1"/>
+    <col min="16137" max="16137" width="8.625" style="74" customWidth="1"/>
+    <col min="16138" max="16384" width="9" style="74"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="24.75">
+      <c r="A1" s="72" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="74"/>
+      <c r="I1" s="74"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="75"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="74"/>
+      <c r="I2" s="74"/>
+    </row>
+    <row r="3" spans="1:9" s="76" customFormat="1">
+      <c r="A3" s="89" t="s">
+        <v>222</v>
+      </c>
+      <c r="B3" s="89" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3" s="89" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3" s="89" t="s">
+        <v>225</v>
+      </c>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89" t="s">
+        <v>226</v>
+      </c>
+      <c r="G3" s="89" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="76" customFormat="1">
+      <c r="A4" s="89"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="77" t="s">
+        <v>228</v>
+      </c>
+      <c r="E4" s="77" t="s">
+        <v>229</v>
+      </c>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+    </row>
+    <row r="5" spans="1:9" s="81" customFormat="1">
+      <c r="A5" s="78">
+        <v>1</v>
+      </c>
+      <c r="B5" s="80">
+        <v>41547</v>
+      </c>
+      <c r="C5" s="78" t="s">
+        <v>230</v>
+      </c>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="78" t="s">
+        <v>235</v>
+      </c>
+      <c r="G5" s="78" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="83" customFormat="1">
+      <c r="A6" s="78">
+        <v>2</v>
+      </c>
+      <c r="B6" s="82">
+        <v>43949</v>
+      </c>
+      <c r="C6" s="78" t="s">
+        <v>231</v>
+      </c>
+      <c r="D6" s="79" t="s">
+        <v>237</v>
+      </c>
+      <c r="E6" s="79" t="s">
+        <v>238</v>
+      </c>
+      <c r="F6" s="78" t="s">
+        <v>232</v>
+      </c>
+      <c r="G6" s="78" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="83" customFormat="1">
+      <c r="A7" s="74" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="86" customFormat="1" ht="18.75">
+      <c r="A8" s="84"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
+      <c r="I8" s="87"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:F4"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <conditionalFormatting sqref="G1:G2 G9:G65359">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.82677165354330717" bottom="0.86614173228346458" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" scale="79" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;R&amp;10TISインテックグループ外秘</oddHeader>
+    <oddFooter>&amp;L
+Copyright(c) 2019 TIS Inc.&amp;C&amp;P/&amp;N&amp;RV.1.0.7　2019/12/11</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59182785-6894-4709-A2E5-57E49270532F}">
   <dimension ref="B2:J48"/>
   <sheetViews>
@@ -3847,108 +5303,108 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" s="21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="C4" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="D6" s="21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="D7" s="21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="D8" s="22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="D9" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="D10" s="21" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="2:4">
       <c r="D12" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="2:4">
       <c r="D13" s="21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="D14" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="2:4">
       <c r="D15" s="21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16" spans="2:4">
       <c r="D16" s="21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" s="21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" s="21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="43" spans="3:10">
       <c r="C43" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="45" spans="3:10">
       <c r="D45" s="21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="47" spans="3:10">
       <c r="F47" s="21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J47" s="21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="48" spans="3:10">
       <c r="F48" s="21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J48" s="21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -3957,21 +5413,21 @@
     <hyperlink ref="D8" r:id="rId1" xr:uid="{5357E8FE-41EE-44B9-907D-ABB0392918D1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="77" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="77" orientation="portrait" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:L59"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="8" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="8" topLeftCell="E36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="J40" sqref="J40:K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -3993,25 +5449,25 @@
   <sheetData>
     <row r="1" spans="1:12" ht="16.5">
       <c r="A1" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B1" s="4"/>
     </row>
     <row r="2" spans="1:12" ht="16.5">
       <c r="A2" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:12" ht="16.5">
       <c r="A3" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:12" ht="16.5">
       <c r="A4" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B4" s="4"/>
     </row>
@@ -4023,38 +5479,38 @@
       <c r="A6" s="1"/>
       <c r="B6" s="4"/>
       <c r="F6" s="27" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="B7" s="109" t="s">
+      <c r="B7" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="111" t="s">
+      <c r="C7" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="111"/>
-      <c r="E7" s="96" t="s">
-        <v>162</v>
-      </c>
-      <c r="F7" s="96"/>
-      <c r="G7" s="96"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="94" t="s">
-        <v>158</v>
-      </c>
-      <c r="K7" s="94" t="s">
+      <c r="D7" s="92"/>
+      <c r="E7" s="119" t="s">
         <v>161</v>
       </c>
-      <c r="L7" s="106" t="s">
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="117" t="s">
+        <v>157</v>
+      </c>
+      <c r="K7" s="117" t="s">
+        <v>160</v>
+      </c>
+      <c r="L7" s="132" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="12.75" thickBot="1">
-      <c r="B8" s="110"/>
-      <c r="C8" s="112"/>
-      <c r="D8" s="112"/>
+      <c r="B8" s="91"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="93"/>
       <c r="E8" s="37" t="s">
         <v>2</v>
       </c>
@@ -4068,22 +5524,22 @@
       <c r="I8" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="J8" s="95"/>
-      <c r="K8" s="95"/>
-      <c r="L8" s="107"/>
+      <c r="J8" s="118"/>
+      <c r="K8" s="118"/>
+      <c r="L8" s="133"/>
     </row>
     <row r="9" spans="1:12" ht="57" customHeight="1">
-      <c r="B9" s="80">
+      <c r="B9" s="94">
         <v>1</v>
       </c>
-      <c r="C9" s="75" t="s">
+      <c r="C9" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="75"/>
-      <c r="E9" s="78" t="s">
+      <c r="D9" s="109"/>
+      <c r="E9" s="128" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="73" t="s">
+      <c r="F9" s="130" t="s">
         <v>18</v>
       </c>
       <c r="G9" s="28" t="s">
@@ -4099,18 +5555,18 @@
         <v>129</v>
       </c>
       <c r="K9" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="L9" s="114" t="s">
-        <v>160</v>
+        <v>156</v>
+      </c>
+      <c r="L9" s="100" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="57" customHeight="1">
-      <c r="B10" s="83"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="74"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="129"/>
+      <c r="F10" s="131"/>
       <c r="G10" s="26" t="s">
         <v>16</v>
       </c>
@@ -4126,12 +5582,12 @@
       <c r="K10" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="L10" s="115"/>
+      <c r="L10" s="101"/>
     </row>
     <row r="11" spans="1:12" ht="57" customHeight="1">
-      <c r="B11" s="83"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
+      <c r="B11" s="96"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="111"/>
       <c r="E11" s="24" t="s">
         <v>9</v>
       </c>
@@ -4151,12 +5607,12 @@
       <c r="K11" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="L11" s="115"/>
+      <c r="L11" s="101"/>
     </row>
     <row r="12" spans="1:12" ht="36">
-      <c r="B12" s="83"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
+      <c r="B12" s="96"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="111"/>
       <c r="E12" s="7" t="s">
         <v>3</v>
       </c>
@@ -4176,12 +5632,12 @@
       <c r="K12" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="L12" s="115"/>
+      <c r="L12" s="101"/>
     </row>
     <row r="13" spans="1:12" ht="36.75" thickBot="1">
-      <c r="B13" s="81"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
+      <c r="B13" s="97"/>
+      <c r="C13" s="112"/>
+      <c r="D13" s="112"/>
       <c r="E13" s="33" t="s">
         <v>3</v>
       </c>
@@ -4199,18 +5655,18 @@
         <v>128</v>
       </c>
       <c r="K13" s="36" t="s">
-        <v>178</v>
-      </c>
-      <c r="L13" s="116"/>
+        <v>177</v>
+      </c>
+      <c r="L13" s="102"/>
     </row>
     <row r="14" spans="1:12" ht="36">
-      <c r="B14" s="80">
+      <c r="B14" s="94">
         <v>2</v>
       </c>
-      <c r="C14" s="75" t="s">
+      <c r="C14" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="75"/>
+      <c r="D14" s="109"/>
       <c r="E14" s="38" t="s">
         <v>9</v>
       </c>
@@ -4232,14 +5688,14 @@
       <c r="K14" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="L14" s="85" t="s">
-        <v>159</v>
+      <c r="L14" s="98" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="36.75" thickBot="1">
-      <c r="B15" s="84"/>
-      <c r="C15" s="82"/>
-      <c r="D15" s="82"/>
+      <c r="B15" s="114"/>
+      <c r="C15" s="113"/>
+      <c r="D15" s="113"/>
       <c r="E15" s="45" t="s">
         <v>3</v>
       </c>
@@ -4259,100 +5715,100 @@
         <v>128</v>
       </c>
       <c r="K15" s="49" t="s">
-        <v>177</v>
-      </c>
-      <c r="L15" s="93"/>
+        <v>176</v>
+      </c>
+      <c r="L15" s="99"/>
     </row>
     <row r="16" spans="1:12" ht="27" customHeight="1">
-      <c r="B16" s="80">
+      <c r="B16" s="94">
         <v>3</v>
       </c>
-      <c r="C16" s="75" t="s">
+      <c r="C16" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="75"/>
-      <c r="E16" s="119" t="s">
+      <c r="D16" s="109"/>
+      <c r="E16" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="117" t="s">
+      <c r="F16" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="117" t="s">
+      <c r="G16" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="103" t="s">
+      <c r="H16" s="126" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="102" t="s">
+      <c r="I16" s="125" t="s">
         <v>40</v>
       </c>
       <c r="J16" s="65" t="s">
-        <v>192</v>
-      </c>
-      <c r="K16" s="98" t="s">
+        <v>191</v>
+      </c>
+      <c r="K16" s="121" t="s">
         <v>127</v>
       </c>
-      <c r="L16" s="85" t="s">
-        <v>185</v>
+      <c r="L16" s="98" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="2:12" ht="27" customHeight="1">
-      <c r="B17" s="113"/>
-      <c r="C17" s="122"/>
-      <c r="D17" s="122"/>
-      <c r="E17" s="120"/>
-      <c r="F17" s="118"/>
-      <c r="G17" s="105"/>
-      <c r="H17" s="101"/>
-      <c r="I17" s="99"/>
+      <c r="B17" s="95"/>
+      <c r="C17" s="110"/>
+      <c r="D17" s="110"/>
+      <c r="E17" s="107"/>
+      <c r="F17" s="105"/>
+      <c r="G17" s="104"/>
+      <c r="H17" s="124"/>
+      <c r="I17" s="122"/>
       <c r="J17" s="64" t="s">
-        <v>138</v>
-      </c>
-      <c r="K17" s="97"/>
-      <c r="L17" s="108"/>
+        <v>137</v>
+      </c>
+      <c r="K17" s="120"/>
+      <c r="L17" s="134"/>
     </row>
     <row r="18" spans="2:12" ht="27" customHeight="1">
-      <c r="B18" s="83"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="120"/>
-      <c r="F18" s="118"/>
-      <c r="G18" s="104" t="s">
+      <c r="B18" s="96"/>
+      <c r="C18" s="111"/>
+      <c r="D18" s="111"/>
+      <c r="E18" s="107"/>
+      <c r="F18" s="105"/>
+      <c r="G18" s="127" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="100" t="s">
+      <c r="H18" s="123" t="s">
         <v>39</v>
       </c>
-      <c r="I18" s="99" t="s">
+      <c r="I18" s="122" t="s">
         <v>41</v>
       </c>
       <c r="J18" s="63" t="s">
-        <v>192</v>
-      </c>
-      <c r="K18" s="97" t="s">
+        <v>191</v>
+      </c>
+      <c r="K18" s="120" t="s">
         <v>127</v>
       </c>
-      <c r="L18" s="86"/>
+      <c r="L18" s="115"/>
     </row>
     <row r="19" spans="2:12" ht="27" customHeight="1">
-      <c r="B19" s="83"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="121"/>
-      <c r="F19" s="105"/>
-      <c r="G19" s="105"/>
-      <c r="H19" s="101"/>
-      <c r="I19" s="99"/>
+      <c r="B19" s="96"/>
+      <c r="C19" s="111"/>
+      <c r="D19" s="111"/>
+      <c r="E19" s="108"/>
+      <c r="F19" s="104"/>
+      <c r="G19" s="104"/>
+      <c r="H19" s="124"/>
+      <c r="I19" s="122"/>
       <c r="J19" s="64" t="s">
-        <v>138</v>
-      </c>
-      <c r="K19" s="97"/>
-      <c r="L19" s="86"/>
+        <v>137</v>
+      </c>
+      <c r="K19" s="120"/>
+      <c r="L19" s="115"/>
     </row>
     <row r="20" spans="2:12" ht="36">
-      <c r="B20" s="83"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="76"/>
+      <c r="B20" s="96"/>
+      <c r="C20" s="111"/>
+      <c r="D20" s="111"/>
       <c r="E20" s="54" t="s">
         <v>3</v>
       </c>
@@ -4370,14 +5826,14 @@
         <v>128</v>
       </c>
       <c r="K20" s="60" t="s">
-        <v>177</v>
-      </c>
-      <c r="L20" s="86"/>
+        <v>176</v>
+      </c>
+      <c r="L20" s="115"/>
     </row>
     <row r="21" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B21" s="81"/>
-      <c r="C21" s="77"/>
-      <c r="D21" s="77"/>
+      <c r="B21" s="97"/>
+      <c r="C21" s="112"/>
+      <c r="D21" s="112"/>
       <c r="E21" s="55" t="s">
         <v>3</v>
       </c>
@@ -4392,21 +5848,21 @@
         <v>43</v>
       </c>
       <c r="J21" s="41" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K21" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="L21" s="87"/>
+      <c r="L21" s="116"/>
     </row>
     <row r="22" spans="2:12" ht="36">
-      <c r="B22" s="80">
+      <c r="B22" s="94">
         <v>4</v>
       </c>
-      <c r="C22" s="75" t="s">
+      <c r="C22" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="75"/>
+      <c r="D22" s="109"/>
       <c r="E22" s="38" t="s">
         <v>10</v>
       </c>
@@ -4426,14 +5882,14 @@
       <c r="K22" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="L22" s="85" t="s">
-        <v>163</v>
+      <c r="L22" s="98" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="2:12" ht="36">
-      <c r="B23" s="83"/>
-      <c r="C23" s="76"/>
-      <c r="D23" s="76"/>
+      <c r="B23" s="96"/>
+      <c r="C23" s="111"/>
+      <c r="D23" s="111"/>
       <c r="E23" s="24" t="s">
         <v>9</v>
       </c>
@@ -4453,12 +5909,12 @@
       <c r="K23" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="L23" s="86"/>
+      <c r="L23" s="115"/>
     </row>
     <row r="24" spans="2:12" ht="36">
-      <c r="B24" s="83"/>
-      <c r="C24" s="76"/>
-      <c r="D24" s="76"/>
+      <c r="B24" s="96"/>
+      <c r="C24" s="111"/>
+      <c r="D24" s="111"/>
       <c r="E24" s="24" t="s">
         <v>9</v>
       </c>
@@ -4478,16 +5934,16 @@
       <c r="K24" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="L24" s="86"/>
+      <c r="L24" s="115"/>
     </row>
     <row r="25" spans="2:12">
-      <c r="B25" s="83"/>
-      <c r="C25" s="76"/>
-      <c r="D25" s="76"/>
-      <c r="E25" s="79" t="s">
+      <c r="B25" s="96"/>
+      <c r="C25" s="111"/>
+      <c r="D25" s="111"/>
+      <c r="E25" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="F25" s="74" t="s">
+      <c r="F25" s="131" t="s">
         <v>18</v>
       </c>
       <c r="G25" s="26" t="s">
@@ -4503,16 +5959,16 @@
         <v>134</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="L25" s="86"/>
+        <v>178</v>
+      </c>
+      <c r="L25" s="115"/>
     </row>
     <row r="26" spans="2:12" ht="24">
-      <c r="B26" s="83"/>
-      <c r="C26" s="76"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="79"/>
-      <c r="F26" s="74"/>
+      <c r="B26" s="96"/>
+      <c r="C26" s="111"/>
+      <c r="D26" s="111"/>
+      <c r="E26" s="129"/>
+      <c r="F26" s="131"/>
       <c r="G26" s="26" t="s">
         <v>16</v>
       </c>
@@ -4522,16 +5978,16 @@
       <c r="I26" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="J26" s="88" t="s">
-        <v>180</v>
-      </c>
-      <c r="K26" s="89"/>
-      <c r="L26" s="86"/>
+      <c r="J26" s="135" t="s">
+        <v>179</v>
+      </c>
+      <c r="K26" s="136"/>
+      <c r="L26" s="115"/>
     </row>
     <row r="27" spans="2:12" ht="36">
-      <c r="B27" s="83"/>
-      <c r="C27" s="76"/>
-      <c r="D27" s="76"/>
+      <c r="B27" s="96"/>
+      <c r="C27" s="111"/>
+      <c r="D27" s="111"/>
       <c r="E27" s="23" t="s">
         <v>3</v>
       </c>
@@ -4551,12 +6007,12 @@
       <c r="K27" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="L27" s="86"/>
+      <c r="L27" s="115"/>
     </row>
     <row r="28" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B28" s="81"/>
-      <c r="C28" s="77"/>
-      <c r="D28" s="77"/>
+      <c r="B28" s="97"/>
+      <c r="C28" s="112"/>
+      <c r="D28" s="112"/>
       <c r="E28" s="39" t="s">
         <v>3</v>
       </c>
@@ -4576,16 +6032,16 @@
       <c r="K28" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="L28" s="87"/>
+      <c r="L28" s="116"/>
     </row>
     <row r="29" spans="2:12" ht="36">
-      <c r="B29" s="80">
+      <c r="B29" s="94">
         <v>5</v>
       </c>
-      <c r="C29" s="90" t="s">
+      <c r="C29" s="137" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="75" t="s">
+      <c r="D29" s="109" t="s">
         <v>61</v>
       </c>
       <c r="E29" s="38" t="s">
@@ -4602,19 +6058,19 @@
         <v>63</v>
       </c>
       <c r="J29" s="58" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K29" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="L29" s="85" t="s">
-        <v>217</v>
+      <c r="L29" s="98" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="30" spans="2:12" ht="36">
-      <c r="B30" s="83"/>
-      <c r="C30" s="91"/>
-      <c r="D30" s="76"/>
+      <c r="B30" s="96"/>
+      <c r="C30" s="138"/>
+      <c r="D30" s="111"/>
       <c r="E30" s="24" t="s">
         <v>9</v>
       </c>
@@ -4632,14 +6088,14 @@
         <v>128</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="L30" s="86"/>
+        <v>176</v>
+      </c>
+      <c r="L30" s="115"/>
     </row>
     <row r="31" spans="2:12" ht="36">
-      <c r="B31" s="83"/>
-      <c r="C31" s="91"/>
-      <c r="D31" s="76"/>
+      <c r="B31" s="96"/>
+      <c r="C31" s="138"/>
+      <c r="D31" s="111"/>
       <c r="E31" s="24" t="s">
         <v>9</v>
       </c>
@@ -4657,14 +6113,14 @@
         <v>128</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="L31" s="86"/>
+        <v>176</v>
+      </c>
+      <c r="L31" s="115"/>
     </row>
     <row r="32" spans="2:12" ht="36">
-      <c r="B32" s="83"/>
-      <c r="C32" s="91"/>
-      <c r="D32" s="76"/>
+      <c r="B32" s="96"/>
+      <c r="C32" s="138"/>
+      <c r="D32" s="111"/>
       <c r="E32" s="24" t="s">
         <v>9</v>
       </c>
@@ -4682,14 +6138,14 @@
         <v>128</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="L32" s="86"/>
+        <v>176</v>
+      </c>
+      <c r="L32" s="115"/>
     </row>
     <row r="33" spans="2:12" ht="36">
-      <c r="B33" s="83"/>
-      <c r="C33" s="91"/>
-      <c r="D33" s="76"/>
+      <c r="B33" s="96"/>
+      <c r="C33" s="138"/>
+      <c r="D33" s="111"/>
       <c r="E33" s="23" t="s">
         <v>3</v>
       </c>
@@ -4704,17 +6160,17 @@
         <v>71</v>
       </c>
       <c r="J33" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K33" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="L33" s="86"/>
+      <c r="L33" s="115"/>
     </row>
     <row r="34" spans="2:12" ht="36">
-      <c r="B34" s="83"/>
-      <c r="C34" s="91"/>
-      <c r="D34" s="76" t="s">
+      <c r="B34" s="96"/>
+      <c r="C34" s="138"/>
+      <c r="D34" s="111" t="s">
         <v>124</v>
       </c>
       <c r="E34" s="24" t="s">
@@ -4731,19 +6187,19 @@
         <v>73</v>
       </c>
       <c r="J34" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K34" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="L34" s="86" t="s">
-        <v>216</v>
+      <c r="L34" s="115" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="35" spans="2:12" ht="36">
-      <c r="B35" s="83"/>
-      <c r="C35" s="91"/>
-      <c r="D35" s="76"/>
+      <c r="B35" s="96"/>
+      <c r="C35" s="138"/>
+      <c r="D35" s="111"/>
       <c r="E35" s="23" t="s">
         <v>3</v>
       </c>
@@ -4761,14 +6217,14 @@
         <v>128</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="L35" s="86"/>
+        <v>176</v>
+      </c>
+      <c r="L35" s="115"/>
     </row>
     <row r="36" spans="2:12" ht="36">
-      <c r="B36" s="83"/>
-      <c r="C36" s="91"/>
-      <c r="D36" s="76" t="s">
+      <c r="B36" s="96"/>
+      <c r="C36" s="138"/>
+      <c r="D36" s="111" t="s">
         <v>123</v>
       </c>
       <c r="E36" s="24" t="s">
@@ -4785,19 +6241,19 @@
         <v>77</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="L36" s="86" t="s">
-        <v>174</v>
+        <v>156</v>
+      </c>
+      <c r="L36" s="115" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="37" spans="2:12" ht="36">
-      <c r="B37" s="83"/>
-      <c r="C37" s="91"/>
-      <c r="D37" s="76"/>
+      <c r="B37" s="96"/>
+      <c r="C37" s="138"/>
+      <c r="D37" s="111"/>
       <c r="E37" s="23" t="s">
         <v>3</v>
       </c>
@@ -4815,14 +6271,14 @@
         <v>128</v>
       </c>
       <c r="K37" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="L37" s="86"/>
+        <v>176</v>
+      </c>
+      <c r="L37" s="115"/>
     </row>
     <row r="38" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B38" s="81"/>
-      <c r="C38" s="92"/>
-      <c r="D38" s="77"/>
+      <c r="B38" s="97"/>
+      <c r="C38" s="139"/>
+      <c r="D38" s="112"/>
       <c r="E38" s="39" t="s">
         <v>3</v>
       </c>
@@ -4837,25 +6293,25 @@
         <v>126</v>
       </c>
       <c r="J38" s="41" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K38" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="L38" s="87"/>
+      <c r="L38" s="116"/>
     </row>
     <row r="39" spans="2:12" ht="48">
-      <c r="B39" s="80">
+      <c r="B39" s="94">
         <v>6</v>
       </c>
-      <c r="C39" s="75" t="s">
+      <c r="C39" s="109" t="s">
         <v>80</v>
       </c>
-      <c r="D39" s="75"/>
-      <c r="E39" s="78" t="s">
+      <c r="D39" s="109"/>
+      <c r="E39" s="128" t="s">
         <v>9</v>
       </c>
-      <c r="F39" s="73" t="s">
+      <c r="F39" s="130" t="s">
         <v>18</v>
       </c>
       <c r="G39" s="28" t="s">
@@ -4868,21 +6324,21 @@
         <v>82</v>
       </c>
       <c r="J39" s="31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K39" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="L39" s="85" t="s">
-        <v>135</v>
+      <c r="L39" s="98" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="40" spans="2:12" ht="36">
-      <c r="B40" s="83"/>
-      <c r="C40" s="76"/>
-      <c r="D40" s="76"/>
-      <c r="E40" s="79"/>
-      <c r="F40" s="74"/>
+      <c r="B40" s="96"/>
+      <c r="C40" s="111"/>
+      <c r="D40" s="111"/>
+      <c r="E40" s="129"/>
+      <c r="F40" s="131"/>
       <c r="G40" s="26" t="s">
         <v>16</v>
       </c>
@@ -4892,18 +6348,18 @@
       <c r="I40" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="J40" s="88" t="s">
-        <v>182</v>
-      </c>
-      <c r="K40" s="89"/>
-      <c r="L40" s="86"/>
+      <c r="J40" s="135" t="s">
+        <v>181</v>
+      </c>
+      <c r="K40" s="136"/>
+      <c r="L40" s="115"/>
     </row>
     <row r="41" spans="2:12" ht="24">
-      <c r="B41" s="83"/>
-      <c r="C41" s="76"/>
-      <c r="D41" s="76"/>
-      <c r="E41" s="79"/>
-      <c r="F41" s="74"/>
+      <c r="B41" s="96"/>
+      <c r="C41" s="111"/>
+      <c r="D41" s="111"/>
+      <c r="E41" s="129"/>
+      <c r="F41" s="131"/>
       <c r="G41" s="26" t="s">
         <v>16</v>
       </c>
@@ -4913,16 +6369,16 @@
       <c r="I41" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="J41" s="88" t="s">
-        <v>182</v>
-      </c>
-      <c r="K41" s="89"/>
-      <c r="L41" s="86"/>
+      <c r="J41" s="135" t="s">
+        <v>181</v>
+      </c>
+      <c r="K41" s="136"/>
+      <c r="L41" s="115"/>
     </row>
     <row r="42" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B42" s="81"/>
-      <c r="C42" s="77"/>
-      <c r="D42" s="77"/>
+      <c r="B42" s="97"/>
+      <c r="C42" s="112"/>
+      <c r="D42" s="112"/>
       <c r="E42" s="39" t="s">
         <v>3</v>
       </c>
@@ -4940,22 +6396,22 @@
         <v>128</v>
       </c>
       <c r="K42" s="36" t="s">
-        <v>177</v>
-      </c>
-      <c r="L42" s="87"/>
+        <v>176</v>
+      </c>
+      <c r="L42" s="116"/>
     </row>
     <row r="43" spans="2:12" ht="24">
-      <c r="B43" s="80">
+      <c r="B43" s="94">
         <v>7</v>
       </c>
-      <c r="C43" s="75" t="s">
+      <c r="C43" s="109" t="s">
         <v>89</v>
       </c>
-      <c r="D43" s="75"/>
-      <c r="E43" s="78" t="s">
+      <c r="D43" s="109"/>
+      <c r="E43" s="128" t="s">
         <v>13</v>
       </c>
-      <c r="F43" s="73" t="s">
+      <c r="F43" s="130" t="s">
         <v>18</v>
       </c>
       <c r="G43" s="28" t="s">
@@ -4968,21 +6424,21 @@
         <v>90</v>
       </c>
       <c r="J43" s="44" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K43" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="L43" s="85" t="s">
-        <v>175</v>
+      <c r="L43" s="98" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="44" spans="2:12" ht="36">
-      <c r="B44" s="83"/>
-      <c r="C44" s="76"/>
-      <c r="D44" s="76"/>
-      <c r="E44" s="79"/>
-      <c r="F44" s="74"/>
+      <c r="B44" s="96"/>
+      <c r="C44" s="111"/>
+      <c r="D44" s="111"/>
+      <c r="E44" s="129"/>
+      <c r="F44" s="131"/>
       <c r="G44" s="26" t="s">
         <v>16</v>
       </c>
@@ -4992,16 +6448,16 @@
       <c r="I44" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="J44" s="88" t="s">
-        <v>181</v>
-      </c>
-      <c r="K44" s="89"/>
-      <c r="L44" s="86"/>
+      <c r="J44" s="135" t="s">
+        <v>180</v>
+      </c>
+      <c r="K44" s="136"/>
+      <c r="L44" s="115"/>
     </row>
     <row r="45" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B45" s="81"/>
-      <c r="C45" s="77"/>
-      <c r="D45" s="77"/>
+      <c r="B45" s="97"/>
+      <c r="C45" s="112"/>
+      <c r="D45" s="112"/>
       <c r="E45" s="39" t="s">
         <v>3</v>
       </c>
@@ -5019,22 +6475,22 @@
         <v>128</v>
       </c>
       <c r="K45" s="36" t="s">
-        <v>177</v>
-      </c>
-      <c r="L45" s="87"/>
+        <v>176</v>
+      </c>
+      <c r="L45" s="116"/>
     </row>
     <row r="46" spans="2:12" ht="24">
-      <c r="B46" s="80">
+      <c r="B46" s="94">
         <v>8</v>
       </c>
-      <c r="C46" s="75" t="s">
+      <c r="C46" s="109" t="s">
         <v>105</v>
       </c>
-      <c r="D46" s="75"/>
-      <c r="E46" s="78" t="s">
+      <c r="D46" s="109"/>
+      <c r="E46" s="128" t="s">
         <v>9</v>
       </c>
-      <c r="F46" s="73" t="s">
+      <c r="F46" s="130" t="s">
         <v>18</v>
       </c>
       <c r="G46" s="28" t="s">
@@ -5047,21 +6503,21 @@
         <v>98</v>
       </c>
       <c r="J46" s="31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K46" s="32" t="s">
-        <v>168</v>
-      </c>
-      <c r="L46" s="85" t="s">
-        <v>218</v>
+        <v>167</v>
+      </c>
+      <c r="L46" s="98" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="47" spans="2:12" ht="36">
-      <c r="B47" s="83"/>
-      <c r="C47" s="76"/>
-      <c r="D47" s="76"/>
-      <c r="E47" s="79"/>
-      <c r="F47" s="74"/>
+      <c r="B47" s="96"/>
+      <c r="C47" s="111"/>
+      <c r="D47" s="111"/>
+      <c r="E47" s="129"/>
+      <c r="F47" s="131"/>
       <c r="G47" s="26" t="s">
         <v>0</v>
       </c>
@@ -5072,17 +6528,17 @@
         <v>99</v>
       </c>
       <c r="J47" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K47" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="L47" s="86"/>
+        <v>178</v>
+      </c>
+      <c r="L47" s="115"/>
     </row>
     <row r="48" spans="2:12" ht="36">
-      <c r="B48" s="83"/>
-      <c r="C48" s="76"/>
-      <c r="D48" s="76"/>
+      <c r="B48" s="96"/>
+      <c r="C48" s="111"/>
+      <c r="D48" s="111"/>
       <c r="E48" s="24" t="s">
         <v>9</v>
       </c>
@@ -5100,14 +6556,14 @@
         <v>128</v>
       </c>
       <c r="K48" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="L48" s="86"/>
+        <v>176</v>
+      </c>
+      <c r="L48" s="115"/>
     </row>
     <row r="49" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B49" s="84"/>
-      <c r="C49" s="82"/>
-      <c r="D49" s="82"/>
+      <c r="B49" s="114"/>
+      <c r="C49" s="113"/>
+      <c r="D49" s="113"/>
       <c r="E49" s="45" t="s">
         <v>3</v>
       </c>
@@ -5125,22 +6581,22 @@
         <v>128</v>
       </c>
       <c r="K49" s="49" t="s">
-        <v>177</v>
-      </c>
-      <c r="L49" s="93"/>
+        <v>176</v>
+      </c>
+      <c r="L49" s="99"/>
     </row>
     <row r="50" spans="2:12" ht="36">
-      <c r="B50" s="80">
+      <c r="B50" s="94">
         <v>9</v>
       </c>
-      <c r="C50" s="75" t="s">
+      <c r="C50" s="109" t="s">
         <v>107</v>
       </c>
-      <c r="D50" s="75"/>
-      <c r="E50" s="78" t="s">
+      <c r="D50" s="109"/>
+      <c r="E50" s="128" t="s">
         <v>9</v>
       </c>
-      <c r="F50" s="73" t="s">
+      <c r="F50" s="130" t="s">
         <v>18</v>
       </c>
       <c r="G50" s="28" t="s">
@@ -5153,21 +6609,21 @@
         <v>109</v>
       </c>
       <c r="J50" s="31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K50" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="L50" s="85" t="s">
-        <v>176</v>
+      <c r="L50" s="98" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="51" spans="2:12" ht="36">
-      <c r="B51" s="83"/>
-      <c r="C51" s="76"/>
-      <c r="D51" s="76"/>
-      <c r="E51" s="79"/>
-      <c r="F51" s="74"/>
+      <c r="B51" s="96"/>
+      <c r="C51" s="111"/>
+      <c r="D51" s="111"/>
+      <c r="E51" s="129"/>
+      <c r="F51" s="131"/>
       <c r="G51" s="26" t="s">
         <v>0</v>
       </c>
@@ -5177,16 +6633,16 @@
       <c r="I51" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="J51" s="88" t="s">
-        <v>183</v>
-      </c>
-      <c r="K51" s="89"/>
-      <c r="L51" s="86"/>
+      <c r="J51" s="135" t="s">
+        <v>182</v>
+      </c>
+      <c r="K51" s="136"/>
+      <c r="L51" s="115"/>
     </row>
     <row r="52" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B52" s="81"/>
-      <c r="C52" s="77"/>
-      <c r="D52" s="77"/>
+      <c r="B52" s="97"/>
+      <c r="C52" s="112"/>
+      <c r="D52" s="112"/>
       <c r="E52" s="33" t="s">
         <v>3</v>
       </c>
@@ -5204,22 +6660,22 @@
         <v>128</v>
       </c>
       <c r="K52" s="36" t="s">
-        <v>177</v>
-      </c>
-      <c r="L52" s="87"/>
+        <v>176</v>
+      </c>
+      <c r="L52" s="116"/>
     </row>
     <row r="53" spans="2:12">
-      <c r="B53" s="80">
+      <c r="B53" s="94">
         <v>10</v>
       </c>
-      <c r="C53" s="75" t="s">
+      <c r="C53" s="109" t="s">
         <v>114</v>
       </c>
-      <c r="D53" s="75"/>
-      <c r="E53" s="78" t="s">
+      <c r="D53" s="109"/>
+      <c r="E53" s="128" t="s">
         <v>9</v>
       </c>
-      <c r="F53" s="73" t="s">
+      <c r="F53" s="130" t="s">
         <v>18</v>
       </c>
       <c r="G53" s="28" t="s">
@@ -5232,21 +6688,21 @@
         <v>116</v>
       </c>
       <c r="J53" s="44" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K53" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="L53" s="85" t="s">
-        <v>165</v>
+      <c r="L53" s="98" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="54" spans="2:12" ht="30.75" customHeight="1">
-      <c r="B54" s="83"/>
-      <c r="C54" s="76"/>
-      <c r="D54" s="76"/>
-      <c r="E54" s="79"/>
-      <c r="F54" s="74"/>
+      <c r="B54" s="96"/>
+      <c r="C54" s="111"/>
+      <c r="D54" s="111"/>
+      <c r="E54" s="129"/>
+      <c r="F54" s="131"/>
       <c r="G54" s="26" t="s">
         <v>0</v>
       </c>
@@ -5257,17 +6713,17 @@
         <v>117</v>
       </c>
       <c r="J54" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K54" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="L54" s="86"/>
+      <c r="L54" s="115"/>
     </row>
     <row r="55" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B55" s="81"/>
-      <c r="C55" s="77"/>
-      <c r="D55" s="77"/>
+      <c r="B55" s="97"/>
+      <c r="C55" s="112"/>
+      <c r="D55" s="112"/>
       <c r="E55" s="50" t="s">
         <v>9</v>
       </c>
@@ -5282,21 +6738,21 @@
         <v>118</v>
       </c>
       <c r="J55" s="35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K55" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="L55" s="87"/>
+      <c r="L55" s="116"/>
     </row>
     <row r="56" spans="2:12" ht="36">
-      <c r="B56" s="80">
+      <c r="B56" s="94">
         <v>11</v>
       </c>
-      <c r="C56" s="75" t="s">
+      <c r="C56" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="D56" s="75"/>
+      <c r="D56" s="109"/>
       <c r="E56" s="38" t="s">
         <v>9</v>
       </c>
@@ -5314,16 +6770,16 @@
         <v>133</v>
       </c>
       <c r="K56" s="32" t="s">
-        <v>179</v>
-      </c>
-      <c r="L56" s="85" t="s">
-        <v>166</v>
+        <v>178</v>
+      </c>
+      <c r="L56" s="98" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="57" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B57" s="81"/>
-      <c r="C57" s="77"/>
-      <c r="D57" s="77"/>
+      <c r="B57" s="97"/>
+      <c r="C57" s="112"/>
+      <c r="D57" s="112"/>
       <c r="E57" s="50" t="s">
         <v>9</v>
       </c>
@@ -5338,20 +6794,20 @@
         <v>120</v>
       </c>
       <c r="J57" s="41" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K57" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="L57" s="87"/>
+      <c r="L57" s="116"/>
     </row>
     <row r="58" spans="2:12">
-      <c r="F58" s="72" t="s">
+      <c r="F58" s="140" t="s">
         <v>19</v>
       </c>
-      <c r="G58" s="72"/>
-      <c r="H58" s="72"/>
-      <c r="I58" s="72"/>
+      <c r="G58" s="140"/>
+      <c r="H58" s="140"/>
+      <c r="I58" s="140"/>
       <c r="J58" s="12"/>
     </row>
     <row r="59" spans="2:12">
@@ -5365,19 +6821,51 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="L9:L13"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="F16:F19"/>
-    <mergeCell ref="E16:E19"/>
-    <mergeCell ref="C16:D21"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:D13"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="F58:I58"/>
+    <mergeCell ref="F39:F41"/>
+    <mergeCell ref="C39:D42"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:D57"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="C43:D45"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="C46:D49"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="C53:D55"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="C50:D52"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="B29:B38"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="L22:L28"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="C29:C38"/>
+    <mergeCell ref="C22:D28"/>
+    <mergeCell ref="B22:B28"/>
+    <mergeCell ref="L29:L33"/>
+    <mergeCell ref="L36:L38"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="L56:L57"/>
+    <mergeCell ref="L53:L55"/>
+    <mergeCell ref="L50:L52"/>
+    <mergeCell ref="L43:L45"/>
     <mergeCell ref="L39:L42"/>
     <mergeCell ref="L46:L49"/>
     <mergeCell ref="J7:J8"/>
@@ -5394,51 +6882,19 @@
     <mergeCell ref="K7:K8"/>
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="L16:L21"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="L56:L57"/>
-    <mergeCell ref="L53:L55"/>
-    <mergeCell ref="L50:L52"/>
-    <mergeCell ref="L43:L45"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="B29:B38"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="L22:L28"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="C29:C38"/>
-    <mergeCell ref="C22:D28"/>
-    <mergeCell ref="B22:B28"/>
-    <mergeCell ref="L29:L33"/>
-    <mergeCell ref="L36:L38"/>
-    <mergeCell ref="L34:L35"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:D57"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="C43:D45"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="C46:D49"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="C53:D55"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="C50:D52"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="F58:I58"/>
-    <mergeCell ref="F39:F41"/>
-    <mergeCell ref="C39:D42"/>
-    <mergeCell ref="D29:D33"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="L9:L13"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="C16:D21"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:D13"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="B14:B15"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -5477,7 +6933,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28E862B2-6DD6-4D95-991A-DE6699BF028C}">
   <dimension ref="A1:C16"/>
   <sheetViews>
@@ -5493,22 +6949,22 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="19" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="71" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -5517,95 +6973,95 @@
     </row>
     <row r="6" spans="1:3">
       <c r="B6" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C6" s="67" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="84">
       <c r="B7" s="69" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C7" s="68" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" s="69" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C8" s="69" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="B9" s="69" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C9" s="68" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="B10" s="17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="72">
       <c r="B11" s="17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="B12" s="17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="B13" s="69" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C13" s="69" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="72">
       <c r="B14" s="69" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C14" s="68" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="B15" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C15" s="69" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="36">
       <c r="B16" s="70" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C16" s="70" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="35" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="35" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/サンプルプロジェクト/設計書/Nablarch機能のセキュリティ対応表.xlsx
+++ b/サンプルプロジェクト/設計書/Nablarch機能のセキュリティ対応表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B149316-8F1B-4B5A-B523-1B946C35D07F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD1AB97-7AFC-4CED-AACF-134AC286C68D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="360" windowWidth="29040" windowHeight="15000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="360" windowWidth="29040" windowHeight="15960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="9" r:id="rId1"/>
@@ -41,7 +41,7 @@
     <definedName name="NOTNULL">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'1.概要'!$A$1:$AR$52</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'2.チェックリスト'!$A$1:$L$59</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">改訂履歴!$A$1:$H$10</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">改訂履歴!$A$1:$H$11</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">改訂履歴!$1:$4</definedName>
     <definedName name="RuleComponent">#REF!</definedName>
     <definedName name="ｓｄ">#REF!</definedName>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="240">
   <si>
     <t>□</t>
     <phoneticPr fontId="2"/>
@@ -798,16 +798,6 @@
   </si>
   <si>
     <t>Nablarch Example</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>二重サブミット防止</t>
-    <rPh sb="0" eb="2">
-      <t>ニジュウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ボウシ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -2061,83 +2051,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">CSRF対策として、NablarchのHttpSessionを使用した二重サブミット防止機能を使用できます。この機能は一意なトークンを発行し、サーバサイドでチェックすることで不正な画面遷移を防ぎます。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>Nablarch5u16で追加したデータベースを使用した二重サブミット防止機能はCSRF対策に対応していないため、データベースを使用した二重サブミット防止機能を使用する場合はプロジェクトで独自にCSRF対策を実施するか、Nablarchに追加予定のCSRF対策機能（2020年6月リリース予定）の使用を検討してください。</t>
-    </r>
-    <rPh sb="31" eb="33">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ボウシ</t>
-    </rPh>
-    <rPh sb="115" eb="117">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="139" eb="141">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="146" eb="148">
-      <t>タイサク</t>
-    </rPh>
-    <rPh sb="149" eb="151">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="182" eb="184">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="186" eb="188">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="196" eb="198">
-      <t>ドクジ</t>
-    </rPh>
-    <rPh sb="203" eb="205">
-      <t>タイサク</t>
-    </rPh>
-    <rPh sb="206" eb="208">
-      <t>ジッシ</t>
-    </rPh>
-    <rPh sb="221" eb="223">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="223" eb="225">
-      <t>ヨテイ</t>
-    </rPh>
-    <rPh sb="230" eb="232">
-      <t>タイサク</t>
-    </rPh>
-    <rPh sb="232" eb="234">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="239" eb="240">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="241" eb="242">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="246" eb="248">
-      <t>ヨテイ</t>
-    </rPh>
-    <rPh sb="250" eb="252">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="253" eb="255">
-      <t>ケントウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>改訂履歴</t>
     <rPh sb="0" eb="2">
       <t>カイテイ</t>
@@ -2235,6 +2148,141 @@
   </si>
   <si>
     <t>6</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CSRF対策</t>
+    <rPh sb="4" eb="6">
+      <t>タイサク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Nablarch5u17で追加されたCSRF対策機能に合わせてCSRF対策の補足説明を変更</t>
+    <rPh sb="13" eb="15">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ホソク</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CSRF対策として、NablarchのCSRF対策機能を使用できます。この機能は一意なトークンを発行し、サーバサイドでチェックすることで不正な画面遷移を防ぎます。
+NablarchのHttpSessionを使用した二重サブミット防止機能を使用した場合も、CSRF対策機能と同じ効果が得られCSRF対策として機能します。CSRF対策機能はハンドラを追加するだけで漏れなくチェックできるのに対し、二重サブミット防止機能はアプリケーションプログラマが明示的に実装する必要があり、CSRF対策が洩れる可能性があります。そのため、CSRF対策にはCSRF対策機能の使用を推奨します。
+データベースを使用した二重サブミット防止機能はCSRF対策に対応していません。データベースを使用した二重サブミット防止機能を使用する場合はCSRF対策機能を使用してください。
+</t>
+    <rPh sb="23" eb="25">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>ニジュウ</t>
+    </rPh>
+    <rPh sb="115" eb="117">
+      <t>ボウシ</t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="120" eb="122">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="124" eb="126">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="132" eb="134">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="134" eb="136">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="137" eb="138">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="139" eb="141">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="142" eb="143">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="149" eb="151">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="154" eb="156">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="174" eb="176">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="181" eb="182">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="194" eb="195">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="223" eb="226">
+      <t>メイジテキ</t>
+    </rPh>
+    <rPh sb="227" eb="229">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="231" eb="233">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="241" eb="243">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="244" eb="245">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="247" eb="250">
+      <t>カノウセイ</t>
+    </rPh>
+    <rPh sb="265" eb="267">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="273" eb="275">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="275" eb="277">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="278" eb="280">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="281" eb="283">
+      <t>スイショウ</t>
+    </rPh>
+    <rPh sb="367" eb="369">
+      <t>シヨウ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -4447,7 +4495,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -5160,7 +5208,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="24.75">
       <c r="A1" s="72" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B1" s="73"/>
       <c r="C1" s="73"/>
@@ -5176,23 +5224,23 @@
     </row>
     <row r="3" spans="1:9" s="76" customFormat="1">
       <c r="A3" s="89" t="s">
+        <v>220</v>
+      </c>
+      <c r="B3" s="89" t="s">
+        <v>221</v>
+      </c>
+      <c r="C3" s="89" t="s">
         <v>222</v>
       </c>
-      <c r="B3" s="89" t="s">
+      <c r="D3" s="89" t="s">
         <v>223</v>
-      </c>
-      <c r="C3" s="89" t="s">
-        <v>224</v>
-      </c>
-      <c r="D3" s="89" t="s">
-        <v>225</v>
       </c>
       <c r="E3" s="89"/>
       <c r="F3" s="89" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G3" s="89" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="76" customFormat="1">
@@ -5200,10 +5248,10 @@
       <c r="B4" s="89"/>
       <c r="C4" s="89"/>
       <c r="D4" s="77" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E4" s="77" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F4" s="89"/>
       <c r="G4" s="89"/>
@@ -5216,15 +5264,15 @@
         <v>41547</v>
       </c>
       <c r="C5" s="78" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D5" s="79"/>
       <c r="E5" s="79"/>
       <c r="F5" s="78" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G5" s="78" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="83" customFormat="1">
@@ -5235,35 +5283,58 @@
         <v>43949</v>
       </c>
       <c r="C6" s="78" t="s">
+        <v>229</v>
+      </c>
+      <c r="D6" s="79" t="s">
+        <v>235</v>
+      </c>
+      <c r="E6" s="79" t="s">
+        <v>236</v>
+      </c>
+      <c r="F6" s="78" t="s">
+        <v>230</v>
+      </c>
+      <c r="G6" s="78" t="s">
         <v>231</v>
       </c>
-      <c r="D6" s="79" t="s">
-        <v>237</v>
-      </c>
-      <c r="E6" s="79" t="s">
+    </row>
+    <row r="7" spans="1:9" s="83" customFormat="1">
+      <c r="A7" s="78">
+        <v>3</v>
+      </c>
+      <c r="B7" s="82">
+        <v>43970</v>
+      </c>
+      <c r="C7" s="78" t="s">
+        <v>229</v>
+      </c>
+      <c r="D7" s="79" t="s">
+        <v>235</v>
+      </c>
+      <c r="E7" s="79" t="s">
+        <v>236</v>
+      </c>
+      <c r="F7" s="78" t="s">
         <v>238</v>
       </c>
-      <c r="F6" s="78" t="s">
+      <c r="G7" s="78" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="83" customFormat="1">
+      <c r="A8" s="74" t="s">
         <v>232</v>
       </c>
-      <c r="G6" s="78" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="83" customFormat="1">
-      <c r="A7" s="74" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="86" customFormat="1" ht="18.75">
-      <c r="A8" s="84"/>
-      <c r="B8" s="85"/>
-      <c r="C8" s="85"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="85"/>
-      <c r="I8" s="87"/>
+    </row>
+    <row r="9" spans="1:9" s="86" customFormat="1" ht="18.75">
+      <c r="A9" s="84"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="I9" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5275,7 +5346,7 @@
     <mergeCell ref="F3:F4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="G1:G2 G9:G65359">
+  <conditionalFormatting sqref="G1:G2 G10:G65360">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
@@ -5303,108 +5374,108 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="C4" s="21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="D6" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="D7" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="D8" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="D9" s="21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="D10" s="21" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="2:4">
       <c r="D12" s="21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="2:4">
       <c r="D13" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="D14" s="21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="2:4">
       <c r="D15" s="21" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="2:4">
       <c r="D16" s="21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" s="21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" s="21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="43" spans="3:10">
       <c r="C43" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="45" spans="3:10">
       <c r="D45" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="47" spans="3:10">
       <c r="F47" s="21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J47" s="21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="48" spans="3:10">
       <c r="F48" s="21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J48" s="21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -5423,11 +5494,11 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="8" topLeftCell="E36" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="8" topLeftCell="E34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="J40" sqref="J40:K40"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -5449,25 +5520,25 @@
   <sheetData>
     <row r="1" spans="1:12" ht="16.5">
       <c r="A1" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B1" s="4"/>
     </row>
     <row r="2" spans="1:12" ht="16.5">
       <c r="A2" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:12" ht="16.5">
       <c r="A3" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:12" ht="16.5">
       <c r="A4" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B4" s="4"/>
     </row>
@@ -5479,7 +5550,7 @@
       <c r="A6" s="1"/>
       <c r="B6" s="4"/>
       <c r="F6" s="27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -5491,17 +5562,17 @@
       </c>
       <c r="D7" s="92"/>
       <c r="E7" s="119" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F7" s="119"/>
       <c r="G7" s="119"/>
       <c r="H7" s="119"/>
       <c r="I7" s="119"/>
       <c r="J7" s="117" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K7" s="117" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L7" s="132" t="s">
         <v>1</v>
@@ -5555,10 +5626,10 @@
         <v>129</v>
       </c>
       <c r="K9" s="32" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L9" s="100" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="57" customHeight="1">
@@ -5655,7 +5726,7 @@
         <v>128</v>
       </c>
       <c r="K13" s="36" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L13" s="102"/>
     </row>
@@ -5689,7 +5760,7 @@
         <v>127</v>
       </c>
       <c r="L14" s="98" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="36.75" thickBot="1">
@@ -5715,7 +5786,7 @@
         <v>128</v>
       </c>
       <c r="K15" s="49" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L15" s="99"/>
     </row>
@@ -5743,13 +5814,13 @@
         <v>40</v>
       </c>
       <c r="J16" s="65" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K16" s="121" t="s">
         <v>127</v>
       </c>
       <c r="L16" s="98" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="2:12" ht="27" customHeight="1">
@@ -5762,7 +5833,7 @@
       <c r="H17" s="124"/>
       <c r="I17" s="122"/>
       <c r="J17" s="64" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K17" s="120"/>
       <c r="L17" s="134"/>
@@ -5783,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="J18" s="63" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K18" s="120" t="s">
         <v>127</v>
@@ -5800,7 +5871,7 @@
       <c r="H19" s="124"/>
       <c r="I19" s="122"/>
       <c r="J19" s="64" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K19" s="120"/>
       <c r="L19" s="115"/>
@@ -5826,7 +5897,7 @@
         <v>128</v>
       </c>
       <c r="K20" s="60" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L20" s="115"/>
     </row>
@@ -5848,7 +5919,7 @@
         <v>43</v>
       </c>
       <c r="J21" s="41" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K21" s="36" t="s">
         <v>127</v>
@@ -5883,7 +5954,7 @@
         <v>127</v>
       </c>
       <c r="L22" s="98" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="2:12" ht="36">
@@ -5959,7 +6030,7 @@
         <v>134</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L25" s="115"/>
     </row>
@@ -5979,7 +6050,7 @@
         <v>50</v>
       </c>
       <c r="J26" s="135" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K26" s="136"/>
       <c r="L26" s="115"/>
@@ -6058,13 +6129,13 @@
         <v>63</v>
       </c>
       <c r="J29" s="58" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K29" s="32" t="s">
         <v>127</v>
       </c>
       <c r="L29" s="98" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="30" spans="2:12" ht="36">
@@ -6088,7 +6159,7 @@
         <v>128</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L30" s="115"/>
     </row>
@@ -6113,7 +6184,7 @@
         <v>128</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L31" s="115"/>
     </row>
@@ -6138,7 +6209,7 @@
         <v>128</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L32" s="115"/>
     </row>
@@ -6160,7 +6231,7 @@
         <v>71</v>
       </c>
       <c r="J33" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K33" s="10" t="s">
         <v>127</v>
@@ -6187,13 +6258,13 @@
         <v>73</v>
       </c>
       <c r="J34" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K34" s="10" t="s">
         <v>127</v>
       </c>
       <c r="L34" s="115" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="35" spans="2:12" ht="36">
@@ -6217,7 +6288,7 @@
         <v>128</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L35" s="115"/>
     </row>
@@ -6241,13 +6312,13 @@
         <v>77</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L36" s="115" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="37" spans="2:12" ht="36">
@@ -6271,7 +6342,7 @@
         <v>128</v>
       </c>
       <c r="K37" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L37" s="115"/>
     </row>
@@ -6293,7 +6364,7 @@
         <v>126</v>
       </c>
       <c r="J38" s="41" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K38" s="36" t="s">
         <v>127</v>
@@ -6323,14 +6394,14 @@
       <c r="I39" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="J39" s="31" t="s">
-        <v>135</v>
+      <c r="J39" s="58" t="s">
+        <v>237</v>
       </c>
       <c r="K39" s="32" t="s">
         <v>127</v>
       </c>
       <c r="L39" s="98" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
     </row>
     <row r="40" spans="2:12" ht="36">
@@ -6349,7 +6420,7 @@
         <v>84</v>
       </c>
       <c r="J40" s="135" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K40" s="136"/>
       <c r="L40" s="115"/>
@@ -6370,7 +6441,7 @@
         <v>86</v>
       </c>
       <c r="J41" s="135" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K41" s="136"/>
       <c r="L41" s="115"/>
@@ -6396,7 +6467,7 @@
         <v>128</v>
       </c>
       <c r="K42" s="36" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L42" s="116"/>
     </row>
@@ -6424,13 +6495,13 @@
         <v>90</v>
       </c>
       <c r="J43" s="44" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K43" s="32" t="s">
         <v>127</v>
       </c>
       <c r="L43" s="98" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="44" spans="2:12" ht="36">
@@ -6449,7 +6520,7 @@
         <v>93</v>
       </c>
       <c r="J44" s="135" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K44" s="136"/>
       <c r="L44" s="115"/>
@@ -6475,7 +6546,7 @@
         <v>128</v>
       </c>
       <c r="K45" s="36" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L45" s="116"/>
     </row>
@@ -6503,13 +6574,13 @@
         <v>98</v>
       </c>
       <c r="J46" s="31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K46" s="32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L46" s="98" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="47" spans="2:12" ht="36">
@@ -6528,10 +6599,10 @@
         <v>99</v>
       </c>
       <c r="J47" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K47" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L47" s="115"/>
     </row>
@@ -6556,7 +6627,7 @@
         <v>128</v>
       </c>
       <c r="K48" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L48" s="115"/>
     </row>
@@ -6581,7 +6652,7 @@
         <v>128</v>
       </c>
       <c r="K49" s="49" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L49" s="99"/>
     </row>
@@ -6609,13 +6680,13 @@
         <v>109</v>
       </c>
       <c r="J50" s="31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K50" s="32" t="s">
         <v>127</v>
       </c>
       <c r="L50" s="98" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="51" spans="2:12" ht="36">
@@ -6634,7 +6705,7 @@
         <v>110</v>
       </c>
       <c r="J51" s="135" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K51" s="136"/>
       <c r="L51" s="115"/>
@@ -6660,7 +6731,7 @@
         <v>128</v>
       </c>
       <c r="K52" s="36" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L52" s="116"/>
     </row>
@@ -6688,13 +6759,13 @@
         <v>116</v>
       </c>
       <c r="J53" s="44" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K53" s="32" t="s">
         <v>127</v>
       </c>
       <c r="L53" s="98" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="54" spans="2:12" ht="30.75" customHeight="1">
@@ -6713,7 +6784,7 @@
         <v>117</v>
       </c>
       <c r="J54" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K54" s="10" t="s">
         <v>127</v>
@@ -6738,7 +6809,7 @@
         <v>118</v>
       </c>
       <c r="J55" s="35" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K55" s="36" t="s">
         <v>127</v>
@@ -6770,10 +6841,10 @@
         <v>133</v>
       </c>
       <c r="K56" s="32" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L56" s="98" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="57" spans="2:12" ht="36.75" thickBot="1">
@@ -6794,7 +6865,7 @@
         <v>120</v>
       </c>
       <c r="J57" s="41" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K57" s="36" t="s">
         <v>127</v>
@@ -6905,7 +6976,7 @@
     <hyperlink ref="J33" r:id="rId5" xr:uid="{452A0BB6-FB83-4EC0-90D3-912215637F91}"/>
     <hyperlink ref="J36" r:id="rId6" xr:uid="{BF5D6791-E27E-4B27-BF3C-616B5AD5FC8F}"/>
     <hyperlink ref="J38" r:id="rId7" xr:uid="{F9C8DA33-B24A-470A-8F5A-0703DF12B786}"/>
-    <hyperlink ref="J39" r:id="rId8" location="tag-double-submission" xr:uid="{6843F36A-624F-4EB2-94F7-DA629EDFC68E}"/>
+    <hyperlink ref="J39" r:id="rId8" xr:uid="{6843F36A-624F-4EB2-94F7-DA629EDFC68E}"/>
     <hyperlink ref="J46" r:id="rId9" location="mail-mail-header-injection" xr:uid="{FE72989F-EB4B-4F08-BF72-9D39574FC646}"/>
     <hyperlink ref="J50" r:id="rId10" xr:uid="{E5209D2C-79A1-4E63-A82F-990089F72B00}"/>
     <hyperlink ref="J56" r:id="rId11" xr:uid="{9469AB9C-1EA2-4BB0-B476-48C9BCDB6777}"/>
@@ -6937,7 +7008,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28E862B2-6DD6-4D95-991A-DE6699BF028C}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="145" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -6949,22 +7020,22 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="71" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -6973,90 +7044,90 @@
     </row>
     <row r="6" spans="1:3">
       <c r="B6" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C6" s="67" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="84">
       <c r="B7" s="69" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C7" s="68" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" s="69" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C8" s="69" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="B9" s="69" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C9" s="68" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="B10" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="72">
       <c r="B11" s="17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="B12" s="17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="B13" s="69" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C13" s="69" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="72">
       <c r="B14" s="69" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C14" s="68" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="B15" s="17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C15" s="69" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="36">
       <c r="B16" s="70" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C16" s="70" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/サンプルプロジェクト/設計書/Nablarch機能のセキュリティ対応表.xlsx
+++ b/サンプルプロジェクト/設計書/Nablarch機能のセキュリティ対応表.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD1AB97-7AFC-4CED-AACF-134AC286C68D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667BE7BA-5FE1-4F0D-9D8D-415C69FD24EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="360" windowWidth="29040" windowHeight="15960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="9" r:id="rId1"/>
@@ -41,7 +41,7 @@
     <definedName name="NOTNULL">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'1.概要'!$A$1:$AR$52</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'2.チェックリスト'!$A$1:$L$59</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">改訂履歴!$A$1:$H$11</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">改訂履歴!$A$1:$H$12</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">改訂履歴!$1:$4</definedName>
     <definedName name="RuleComponent">#REF!</definedName>
     <definedName name="ｓｄ">#REF!</definedName>
@@ -102,7 +102,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -110,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="243">
   <si>
     <t>□</t>
     <phoneticPr fontId="2"/>
@@ -1780,28 +1783,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>PCI DDSSで定義された要件のうち 要件6.5. についてのみ以下にチェックリストとの対応を記載します。</t>
-    <rPh sb="9" eb="11">
-      <t>テイギ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヨウケン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ヨウケン</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>キサイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>※他に 要件8 などもアプリケーション実装に関するものですが、Nablarchでは対応していないため各プロジェクトで個別に対応してください。</t>
     <rPh sb="1" eb="2">
       <t>ホカ</t>
@@ -2282,6 +2263,49 @@
     </rPh>
     <rPh sb="367" eb="369">
       <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3.PCIDSS対応表</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TIS田中</t>
+    <rPh sb="3" eb="5">
+      <t>タナカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PCI DSSで定義された要件のうち 要件6.5. についてのみ以下にチェックリストとの対応を記載します。</t>
+    <rPh sb="8" eb="10">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヨウケン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヨウケン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PCI DDSS と誤記していたところを修正</t>
+    <rPh sb="10" eb="12">
+      <t>ゴキ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シュウセイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3086,6 +3110,117 @@
     <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3098,24 +3233,9 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3128,9 +3248,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -3143,101 +3260,8 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4495,9 +4519,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -5208,7 +5232,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="24.75">
       <c r="A1" s="72" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B1" s="73"/>
       <c r="C1" s="73"/>
@@ -5224,23 +5248,23 @@
     </row>
     <row r="3" spans="1:9" s="76" customFormat="1">
       <c r="A3" s="89" t="s">
+        <v>219</v>
+      </c>
+      <c r="B3" s="89" t="s">
         <v>220</v>
       </c>
-      <c r="B3" s="89" t="s">
+      <c r="C3" s="89" t="s">
         <v>221</v>
       </c>
-      <c r="C3" s="89" t="s">
+      <c r="D3" s="89" t="s">
         <v>222</v>
-      </c>
-      <c r="D3" s="89" t="s">
-        <v>223</v>
       </c>
       <c r="E3" s="89"/>
       <c r="F3" s="89" t="s">
+        <v>223</v>
+      </c>
+      <c r="G3" s="89" t="s">
         <v>224</v>
-      </c>
-      <c r="G3" s="89" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="76" customFormat="1">
@@ -5248,10 +5272,10 @@
       <c r="B4" s="89"/>
       <c r="C4" s="89"/>
       <c r="D4" s="77" t="s">
+        <v>225</v>
+      </c>
+      <c r="E4" s="77" t="s">
         <v>226</v>
-      </c>
-      <c r="E4" s="77" t="s">
-        <v>227</v>
       </c>
       <c r="F4" s="89"/>
       <c r="G4" s="89"/>
@@ -5264,15 +5288,15 @@
         <v>41547</v>
       </c>
       <c r="C5" s="78" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D5" s="79"/>
       <c r="E5" s="79"/>
       <c r="F5" s="78" t="s">
+        <v>232</v>
+      </c>
+      <c r="G5" s="78" t="s">
         <v>233</v>
-      </c>
-      <c r="G5" s="78" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="83" customFormat="1">
@@ -5283,19 +5307,19 @@
         <v>43949</v>
       </c>
       <c r="C6" s="78" t="s">
+        <v>228</v>
+      </c>
+      <c r="D6" s="79" t="s">
+        <v>234</v>
+      </c>
+      <c r="E6" s="79" t="s">
+        <v>235</v>
+      </c>
+      <c r="F6" s="78" t="s">
         <v>229</v>
       </c>
-      <c r="D6" s="79" t="s">
-        <v>235</v>
-      </c>
-      <c r="E6" s="79" t="s">
-        <v>236</v>
-      </c>
-      <c r="F6" s="78" t="s">
+      <c r="G6" s="78" t="s">
         <v>230</v>
-      </c>
-      <c r="G6" s="78" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="83" customFormat="1">
@@ -5306,35 +5330,58 @@
         <v>43970</v>
       </c>
       <c r="C7" s="78" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D7" s="79" t="s">
+        <v>234</v>
+      </c>
+      <c r="E7" s="79" t="s">
         <v>235</v>
       </c>
-      <c r="E7" s="79" t="s">
-        <v>236</v>
-      </c>
       <c r="F7" s="78" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G7" s="78" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="83" customFormat="1">
+      <c r="A8" s="78">
+        <v>4</v>
+      </c>
+      <c r="B8" s="82">
+        <v>44754</v>
+      </c>
+      <c r="C8" s="78" t="s">
+        <v>228</v>
+      </c>
+      <c r="D8" s="79" t="s">
+        <v>239</v>
+      </c>
+      <c r="E8" s="79" t="s">
+        <v>128</v>
+      </c>
+      <c r="F8" s="78" t="s">
+        <v>242</v>
+      </c>
+      <c r="G8" s="78" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="83" customFormat="1">
+      <c r="A9" s="74" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="83" customFormat="1">
-      <c r="A8" s="74" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="86" customFormat="1" ht="18.75">
-      <c r="A9" s="84"/>
-      <c r="B9" s="85"/>
-      <c r="C9" s="85"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="85"/>
-      <c r="I9" s="87"/>
+    <row r="10" spans="1:9" s="86" customFormat="1" ht="18.75">
+      <c r="A10" s="84"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="I10" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5346,7 +5393,7 @@
     <mergeCell ref="F3:F4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="G1:G2 G10:G65360">
+  <conditionalFormatting sqref="G1:G2 G11:G65361">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
@@ -5365,7 +5412,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59182785-6894-4709-A2E5-57E49270532F}">
   <dimension ref="B2:J48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="12"/>
   <cols>
@@ -5404,7 +5451,7 @@
     </row>
     <row r="10" spans="2:4">
       <c r="D10" s="21" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="2:4">
@@ -5424,12 +5471,12 @@
     </row>
     <row r="15" spans="2:4">
       <c r="D15" s="21" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="16" spans="2:4">
       <c r="D16" s="21" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="4:4">
@@ -5495,10 +5542,10 @@
   <dimension ref="A1:L59"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="8" topLeftCell="E34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="8" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="E9" sqref="E9:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -5532,13 +5579,13 @@
     </row>
     <row r="3" spans="1:12" ht="16.5">
       <c r="A3" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:12" ht="16.5">
       <c r="A4" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B4" s="4"/>
     </row>
@@ -5554,34 +5601,34 @@
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="B7" s="90" t="s">
+      <c r="B7" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="92" t="s">
+      <c r="C7" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="92"/>
-      <c r="E7" s="119" t="s">
+      <c r="D7" s="129"/>
+      <c r="E7" s="114" t="s">
         <v>160</v>
       </c>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="117" t="s">
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="112" t="s">
         <v>156</v>
       </c>
-      <c r="K7" s="117" t="s">
+      <c r="K7" s="112" t="s">
         <v>159</v>
       </c>
-      <c r="L7" s="132" t="s">
+      <c r="L7" s="124" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="12.75" thickBot="1">
-      <c r="B8" s="91"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="93"/>
+      <c r="B8" s="128"/>
+      <c r="C8" s="130"/>
+      <c r="D8" s="130"/>
       <c r="E8" s="37" t="s">
         <v>2</v>
       </c>
@@ -5595,22 +5642,22 @@
       <c r="I8" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="J8" s="118"/>
-      <c r="K8" s="118"/>
-      <c r="L8" s="133"/>
+      <c r="J8" s="113"/>
+      <c r="K8" s="113"/>
+      <c r="L8" s="125"/>
     </row>
     <row r="9" spans="1:12" ht="57" customHeight="1">
-      <c r="B9" s="94">
+      <c r="B9" s="98">
         <v>1</v>
       </c>
-      <c r="C9" s="109" t="s">
+      <c r="C9" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="109"/>
-      <c r="E9" s="128" t="s">
+      <c r="D9" s="93"/>
+      <c r="E9" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="130" t="s">
+      <c r="F9" s="91" t="s">
         <v>18</v>
       </c>
       <c r="G9" s="28" t="s">
@@ -5628,16 +5675,16 @@
       <c r="K9" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="L9" s="100" t="s">
+      <c r="L9" s="132" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="57" customHeight="1">
-      <c r="B10" s="96"/>
-      <c r="C10" s="111"/>
-      <c r="D10" s="111"/>
-      <c r="E10" s="129"/>
-      <c r="F10" s="131"/>
+      <c r="B10" s="101"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="92"/>
       <c r="G10" s="26" t="s">
         <v>16</v>
       </c>
@@ -5653,12 +5700,12 @@
       <c r="K10" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="L10" s="101"/>
+      <c r="L10" s="133"/>
     </row>
     <row r="11" spans="1:12" ht="57" customHeight="1">
-      <c r="B11" s="96"/>
-      <c r="C11" s="111"/>
-      <c r="D11" s="111"/>
+      <c r="B11" s="101"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="94"/>
       <c r="E11" s="24" t="s">
         <v>9</v>
       </c>
@@ -5678,12 +5725,12 @@
       <c r="K11" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="L11" s="101"/>
+      <c r="L11" s="133"/>
     </row>
     <row r="12" spans="1:12" ht="36">
-      <c r="B12" s="96"/>
-      <c r="C12" s="111"/>
-      <c r="D12" s="111"/>
+      <c r="B12" s="101"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="94"/>
       <c r="E12" s="7" t="s">
         <v>3</v>
       </c>
@@ -5703,12 +5750,12 @@
       <c r="K12" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="L12" s="101"/>
+      <c r="L12" s="133"/>
     </row>
     <row r="13" spans="1:12" ht="36.75" thickBot="1">
-      <c r="B13" s="97"/>
-      <c r="C13" s="112"/>
-      <c r="D13" s="112"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
       <c r="E13" s="33" t="s">
         <v>3</v>
       </c>
@@ -5728,16 +5775,16 @@
       <c r="K13" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="L13" s="102"/>
+      <c r="L13" s="134"/>
     </row>
     <row r="14" spans="1:12" ht="36">
-      <c r="B14" s="94">
+      <c r="B14" s="98">
         <v>2</v>
       </c>
-      <c r="C14" s="109" t="s">
+      <c r="C14" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="109"/>
+      <c r="D14" s="93"/>
       <c r="E14" s="38" t="s">
         <v>9</v>
       </c>
@@ -5759,14 +5806,14 @@
       <c r="K14" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="L14" s="98" t="s">
+      <c r="L14" s="103" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="36.75" thickBot="1">
-      <c r="B15" s="114"/>
-      <c r="C15" s="113"/>
-      <c r="D15" s="113"/>
+      <c r="B15" s="102"/>
+      <c r="C15" s="100"/>
+      <c r="D15" s="100"/>
       <c r="E15" s="45" t="s">
         <v>3</v>
       </c>
@@ -5788,98 +5835,98 @@
       <c r="K15" s="49" t="s">
         <v>175</v>
       </c>
-      <c r="L15" s="99"/>
+      <c r="L15" s="111"/>
     </row>
     <row r="16" spans="1:12" ht="27" customHeight="1">
-      <c r="B16" s="94">
+      <c r="B16" s="98">
         <v>3</v>
       </c>
-      <c r="C16" s="109" t="s">
+      <c r="C16" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="109"/>
-      <c r="E16" s="106" t="s">
+      <c r="D16" s="93"/>
+      <c r="E16" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="103" t="s">
+      <c r="F16" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="103" t="s">
+      <c r="G16" s="135" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="126" t="s">
+      <c r="H16" s="121" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="125" t="s">
+      <c r="I16" s="120" t="s">
         <v>40</v>
       </c>
       <c r="J16" s="65" t="s">
         <v>190</v>
       </c>
-      <c r="K16" s="121" t="s">
+      <c r="K16" s="116" t="s">
         <v>127</v>
       </c>
-      <c r="L16" s="98" t="s">
+      <c r="L16" s="103" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="17" spans="2:12" ht="27" customHeight="1">
-      <c r="B17" s="95"/>
-      <c r="C17" s="110"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="107"/>
-      <c r="F17" s="105"/>
-      <c r="G17" s="104"/>
-      <c r="H17" s="124"/>
-      <c r="I17" s="122"/>
+      <c r="B17" s="131"/>
+      <c r="C17" s="140"/>
+      <c r="D17" s="140"/>
+      <c r="E17" s="138"/>
+      <c r="F17" s="136"/>
+      <c r="G17" s="123"/>
+      <c r="H17" s="119"/>
+      <c r="I17" s="117"/>
       <c r="J17" s="64" t="s">
         <v>136</v>
       </c>
-      <c r="K17" s="120"/>
-      <c r="L17" s="134"/>
+      <c r="K17" s="115"/>
+      <c r="L17" s="126"/>
     </row>
     <row r="18" spans="2:12" ht="27" customHeight="1">
-      <c r="B18" s="96"/>
-      <c r="C18" s="111"/>
-      <c r="D18" s="111"/>
-      <c r="E18" s="107"/>
-      <c r="F18" s="105"/>
-      <c r="G18" s="127" t="s">
+      <c r="B18" s="101"/>
+      <c r="C18" s="94"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="138"/>
+      <c r="F18" s="136"/>
+      <c r="G18" s="122" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="123" t="s">
+      <c r="H18" s="118" t="s">
         <v>39</v>
       </c>
-      <c r="I18" s="122" t="s">
+      <c r="I18" s="117" t="s">
         <v>41</v>
       </c>
       <c r="J18" s="63" t="s">
         <v>190</v>
       </c>
-      <c r="K18" s="120" t="s">
+      <c r="K18" s="115" t="s">
         <v>127</v>
       </c>
-      <c r="L18" s="115"/>
+      <c r="L18" s="104"/>
     </row>
     <row r="19" spans="2:12" ht="27" customHeight="1">
-      <c r="B19" s="96"/>
-      <c r="C19" s="111"/>
-      <c r="D19" s="111"/>
-      <c r="E19" s="108"/>
-      <c r="F19" s="104"/>
-      <c r="G19" s="104"/>
-      <c r="H19" s="124"/>
-      <c r="I19" s="122"/>
+      <c r="B19" s="101"/>
+      <c r="C19" s="94"/>
+      <c r="D19" s="94"/>
+      <c r="E19" s="139"/>
+      <c r="F19" s="123"/>
+      <c r="G19" s="123"/>
+      <c r="H19" s="119"/>
+      <c r="I19" s="117"/>
       <c r="J19" s="64" t="s">
         <v>136</v>
       </c>
-      <c r="K19" s="120"/>
-      <c r="L19" s="115"/>
+      <c r="K19" s="115"/>
+      <c r="L19" s="104"/>
     </row>
     <row r="20" spans="2:12" ht="36">
-      <c r="B20" s="96"/>
-      <c r="C20" s="111"/>
-      <c r="D20" s="111"/>
+      <c r="B20" s="101"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="94"/>
       <c r="E20" s="54" t="s">
         <v>3</v>
       </c>
@@ -5899,12 +5946,12 @@
       <c r="K20" s="60" t="s">
         <v>175</v>
       </c>
-      <c r="L20" s="115"/>
+      <c r="L20" s="104"/>
     </row>
     <row r="21" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B21" s="97"/>
-      <c r="C21" s="112"/>
-      <c r="D21" s="112"/>
+      <c r="B21" s="99"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
       <c r="E21" s="55" t="s">
         <v>3</v>
       </c>
@@ -5924,16 +5971,16 @@
       <c r="K21" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="L21" s="116"/>
+      <c r="L21" s="105"/>
     </row>
     <row r="22" spans="2:12" ht="36">
-      <c r="B22" s="94">
+      <c r="B22" s="98">
         <v>4</v>
       </c>
-      <c r="C22" s="109" t="s">
+      <c r="C22" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="109"/>
+      <c r="D22" s="93"/>
       <c r="E22" s="38" t="s">
         <v>10</v>
       </c>
@@ -5953,14 +6000,14 @@
       <c r="K22" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="L22" s="98" t="s">
+      <c r="L22" s="103" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="23" spans="2:12" ht="36">
-      <c r="B23" s="96"/>
-      <c r="C23" s="111"/>
-      <c r="D23" s="111"/>
+      <c r="B23" s="101"/>
+      <c r="C23" s="94"/>
+      <c r="D23" s="94"/>
       <c r="E23" s="24" t="s">
         <v>9</v>
       </c>
@@ -5980,12 +6027,12 @@
       <c r="K23" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="L23" s="115"/>
+      <c r="L23" s="104"/>
     </row>
     <row r="24" spans="2:12" ht="36">
-      <c r="B24" s="96"/>
-      <c r="C24" s="111"/>
-      <c r="D24" s="111"/>
+      <c r="B24" s="101"/>
+      <c r="C24" s="94"/>
+      <c r="D24" s="94"/>
       <c r="E24" s="24" t="s">
         <v>9</v>
       </c>
@@ -6005,16 +6052,16 @@
       <c r="K24" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="L24" s="115"/>
+      <c r="L24" s="104"/>
     </row>
     <row r="25" spans="2:12">
-      <c r="B25" s="96"/>
-      <c r="C25" s="111"/>
-      <c r="D25" s="111"/>
-      <c r="E25" s="129" t="s">
+      <c r="B25" s="101"/>
+      <c r="C25" s="94"/>
+      <c r="D25" s="94"/>
+      <c r="E25" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="F25" s="131" t="s">
+      <c r="F25" s="92" t="s">
         <v>18</v>
       </c>
       <c r="G25" s="26" t="s">
@@ -6032,14 +6079,14 @@
       <c r="K25" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="L25" s="115"/>
+      <c r="L25" s="104"/>
     </row>
     <row r="26" spans="2:12" ht="24">
-      <c r="B26" s="96"/>
-      <c r="C26" s="111"/>
-      <c r="D26" s="111"/>
-      <c r="E26" s="129"/>
-      <c r="F26" s="131"/>
+      <c r="B26" s="101"/>
+      <c r="C26" s="94"/>
+      <c r="D26" s="94"/>
+      <c r="E26" s="97"/>
+      <c r="F26" s="92"/>
       <c r="G26" s="26" t="s">
         <v>16</v>
       </c>
@@ -6049,16 +6096,16 @@
       <c r="I26" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="J26" s="135" t="s">
+      <c r="J26" s="106" t="s">
         <v>178</v>
       </c>
-      <c r="K26" s="136"/>
-      <c r="L26" s="115"/>
+      <c r="K26" s="107"/>
+      <c r="L26" s="104"/>
     </row>
     <row r="27" spans="2:12" ht="36">
-      <c r="B27" s="96"/>
-      <c r="C27" s="111"/>
-      <c r="D27" s="111"/>
+      <c r="B27" s="101"/>
+      <c r="C27" s="94"/>
+      <c r="D27" s="94"/>
       <c r="E27" s="23" t="s">
         <v>3</v>
       </c>
@@ -6078,12 +6125,12 @@
       <c r="K27" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="L27" s="115"/>
+      <c r="L27" s="104"/>
     </row>
     <row r="28" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B28" s="97"/>
-      <c r="C28" s="112"/>
-      <c r="D28" s="112"/>
+      <c r="B28" s="99"/>
+      <c r="C28" s="95"/>
+      <c r="D28" s="95"/>
       <c r="E28" s="39" t="s">
         <v>3</v>
       </c>
@@ -6103,16 +6150,16 @@
       <c r="K28" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="L28" s="116"/>
+      <c r="L28" s="105"/>
     </row>
     <row r="29" spans="2:12" ht="36">
-      <c r="B29" s="94">
+      <c r="B29" s="98">
         <v>5</v>
       </c>
-      <c r="C29" s="137" t="s">
+      <c r="C29" s="108" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="109" t="s">
+      <c r="D29" s="93" t="s">
         <v>61</v>
       </c>
       <c r="E29" s="38" t="s">
@@ -6134,14 +6181,14 @@
       <c r="K29" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="L29" s="98" t="s">
-        <v>215</v>
+      <c r="L29" s="103" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="30" spans="2:12" ht="36">
-      <c r="B30" s="96"/>
-      <c r="C30" s="138"/>
-      <c r="D30" s="111"/>
+      <c r="B30" s="101"/>
+      <c r="C30" s="109"/>
+      <c r="D30" s="94"/>
       <c r="E30" s="24" t="s">
         <v>9</v>
       </c>
@@ -6161,12 +6208,12 @@
       <c r="K30" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="L30" s="115"/>
+      <c r="L30" s="104"/>
     </row>
     <row r="31" spans="2:12" ht="36">
-      <c r="B31" s="96"/>
-      <c r="C31" s="138"/>
-      <c r="D31" s="111"/>
+      <c r="B31" s="101"/>
+      <c r="C31" s="109"/>
+      <c r="D31" s="94"/>
       <c r="E31" s="24" t="s">
         <v>9</v>
       </c>
@@ -6186,12 +6233,12 @@
       <c r="K31" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="L31" s="115"/>
+      <c r="L31" s="104"/>
     </row>
     <row r="32" spans="2:12" ht="36">
-      <c r="B32" s="96"/>
-      <c r="C32" s="138"/>
-      <c r="D32" s="111"/>
+      <c r="B32" s="101"/>
+      <c r="C32" s="109"/>
+      <c r="D32" s="94"/>
       <c r="E32" s="24" t="s">
         <v>9</v>
       </c>
@@ -6211,12 +6258,12 @@
       <c r="K32" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="L32" s="115"/>
+      <c r="L32" s="104"/>
     </row>
     <row r="33" spans="2:12" ht="36">
-      <c r="B33" s="96"/>
-      <c r="C33" s="138"/>
-      <c r="D33" s="111"/>
+      <c r="B33" s="101"/>
+      <c r="C33" s="109"/>
+      <c r="D33" s="94"/>
       <c r="E33" s="23" t="s">
         <v>3</v>
       </c>
@@ -6236,12 +6283,12 @@
       <c r="K33" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="L33" s="115"/>
+      <c r="L33" s="104"/>
     </row>
     <row r="34" spans="2:12" ht="36">
-      <c r="B34" s="96"/>
-      <c r="C34" s="138"/>
-      <c r="D34" s="111" t="s">
+      <c r="B34" s="101"/>
+      <c r="C34" s="109"/>
+      <c r="D34" s="94" t="s">
         <v>124</v>
       </c>
       <c r="E34" s="24" t="s">
@@ -6263,14 +6310,14 @@
       <c r="K34" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="L34" s="115" t="s">
-        <v>214</v>
+      <c r="L34" s="104" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="35" spans="2:12" ht="36">
-      <c r="B35" s="96"/>
-      <c r="C35" s="138"/>
-      <c r="D35" s="111"/>
+      <c r="B35" s="101"/>
+      <c r="C35" s="109"/>
+      <c r="D35" s="94"/>
       <c r="E35" s="23" t="s">
         <v>3</v>
       </c>
@@ -6290,12 +6337,12 @@
       <c r="K35" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="L35" s="115"/>
+      <c r="L35" s="104"/>
     </row>
     <row r="36" spans="2:12" ht="36">
-      <c r="B36" s="96"/>
-      <c r="C36" s="138"/>
-      <c r="D36" s="111" t="s">
+      <c r="B36" s="101"/>
+      <c r="C36" s="109"/>
+      <c r="D36" s="94" t="s">
         <v>123</v>
       </c>
       <c r="E36" s="24" t="s">
@@ -6317,14 +6364,14 @@
       <c r="K36" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="L36" s="115" t="s">
+      <c r="L36" s="104" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="37" spans="2:12" ht="36">
-      <c r="B37" s="96"/>
-      <c r="C37" s="138"/>
-      <c r="D37" s="111"/>
+      <c r="B37" s="101"/>
+      <c r="C37" s="109"/>
+      <c r="D37" s="94"/>
       <c r="E37" s="23" t="s">
         <v>3</v>
       </c>
@@ -6344,12 +6391,12 @@
       <c r="K37" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="L37" s="115"/>
+      <c r="L37" s="104"/>
     </row>
     <row r="38" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B38" s="97"/>
-      <c r="C38" s="139"/>
-      <c r="D38" s="112"/>
+      <c r="B38" s="99"/>
+      <c r="C38" s="110"/>
+      <c r="D38" s="95"/>
       <c r="E38" s="39" t="s">
         <v>3</v>
       </c>
@@ -6369,20 +6416,20 @@
       <c r="K38" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="L38" s="116"/>
+      <c r="L38" s="105"/>
     </row>
     <row r="39" spans="2:12" ht="48">
-      <c r="B39" s="94">
+      <c r="B39" s="98">
         <v>6</v>
       </c>
-      <c r="C39" s="109" t="s">
+      <c r="C39" s="93" t="s">
         <v>80</v>
       </c>
-      <c r="D39" s="109"/>
-      <c r="E39" s="128" t="s">
+      <c r="D39" s="93"/>
+      <c r="E39" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="F39" s="130" t="s">
+      <c r="F39" s="91" t="s">
         <v>18</v>
       </c>
       <c r="G39" s="28" t="s">
@@ -6395,21 +6442,21 @@
         <v>82</v>
       </c>
       <c r="J39" s="58" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K39" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="L39" s="98" t="s">
-        <v>239</v>
+      <c r="L39" s="103" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="40" spans="2:12" ht="36">
-      <c r="B40" s="96"/>
-      <c r="C40" s="111"/>
-      <c r="D40" s="111"/>
-      <c r="E40" s="129"/>
-      <c r="F40" s="131"/>
+      <c r="B40" s="101"/>
+      <c r="C40" s="94"/>
+      <c r="D40" s="94"/>
+      <c r="E40" s="97"/>
+      <c r="F40" s="92"/>
       <c r="G40" s="26" t="s">
         <v>16</v>
       </c>
@@ -6419,18 +6466,18 @@
       <c r="I40" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="J40" s="135" t="s">
+      <c r="J40" s="106" t="s">
         <v>180</v>
       </c>
-      <c r="K40" s="136"/>
-      <c r="L40" s="115"/>
+      <c r="K40" s="107"/>
+      <c r="L40" s="104"/>
     </row>
     <row r="41" spans="2:12" ht="24">
-      <c r="B41" s="96"/>
-      <c r="C41" s="111"/>
-      <c r="D41" s="111"/>
-      <c r="E41" s="129"/>
-      <c r="F41" s="131"/>
+      <c r="B41" s="101"/>
+      <c r="C41" s="94"/>
+      <c r="D41" s="94"/>
+      <c r="E41" s="97"/>
+      <c r="F41" s="92"/>
       <c r="G41" s="26" t="s">
         <v>16</v>
       </c>
@@ -6440,16 +6487,16 @@
       <c r="I41" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="J41" s="135" t="s">
+      <c r="J41" s="106" t="s">
         <v>180</v>
       </c>
-      <c r="K41" s="136"/>
-      <c r="L41" s="115"/>
+      <c r="K41" s="107"/>
+      <c r="L41" s="104"/>
     </row>
     <row r="42" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B42" s="97"/>
-      <c r="C42" s="112"/>
-      <c r="D42" s="112"/>
+      <c r="B42" s="99"/>
+      <c r="C42" s="95"/>
+      <c r="D42" s="95"/>
       <c r="E42" s="39" t="s">
         <v>3</v>
       </c>
@@ -6469,20 +6516,20 @@
       <c r="K42" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="L42" s="116"/>
+      <c r="L42" s="105"/>
     </row>
     <row r="43" spans="2:12" ht="24">
-      <c r="B43" s="94">
+      <c r="B43" s="98">
         <v>7</v>
       </c>
-      <c r="C43" s="109" t="s">
+      <c r="C43" s="93" t="s">
         <v>89</v>
       </c>
-      <c r="D43" s="109"/>
-      <c r="E43" s="128" t="s">
+      <c r="D43" s="93"/>
+      <c r="E43" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="F43" s="130" t="s">
+      <c r="F43" s="91" t="s">
         <v>18</v>
       </c>
       <c r="G43" s="28" t="s">
@@ -6500,16 +6547,16 @@
       <c r="K43" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="L43" s="98" t="s">
+      <c r="L43" s="103" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="44" spans="2:12" ht="36">
-      <c r="B44" s="96"/>
-      <c r="C44" s="111"/>
-      <c r="D44" s="111"/>
-      <c r="E44" s="129"/>
-      <c r="F44" s="131"/>
+      <c r="B44" s="101"/>
+      <c r="C44" s="94"/>
+      <c r="D44" s="94"/>
+      <c r="E44" s="97"/>
+      <c r="F44" s="92"/>
       <c r="G44" s="26" t="s">
         <v>16</v>
       </c>
@@ -6519,16 +6566,16 @@
       <c r="I44" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="J44" s="135" t="s">
+      <c r="J44" s="106" t="s">
         <v>179</v>
       </c>
-      <c r="K44" s="136"/>
-      <c r="L44" s="115"/>
+      <c r="K44" s="107"/>
+      <c r="L44" s="104"/>
     </row>
     <row r="45" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B45" s="97"/>
-      <c r="C45" s="112"/>
-      <c r="D45" s="112"/>
+      <c r="B45" s="99"/>
+      <c r="C45" s="95"/>
+      <c r="D45" s="95"/>
       <c r="E45" s="39" t="s">
         <v>3</v>
       </c>
@@ -6548,20 +6595,20 @@
       <c r="K45" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="L45" s="116"/>
+      <c r="L45" s="105"/>
     </row>
     <row r="46" spans="2:12" ht="24">
-      <c r="B46" s="94">
+      <c r="B46" s="98">
         <v>8</v>
       </c>
-      <c r="C46" s="109" t="s">
+      <c r="C46" s="93" t="s">
         <v>105</v>
       </c>
-      <c r="D46" s="109"/>
-      <c r="E46" s="128" t="s">
+      <c r="D46" s="93"/>
+      <c r="E46" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="F46" s="130" t="s">
+      <c r="F46" s="91" t="s">
         <v>18</v>
       </c>
       <c r="G46" s="28" t="s">
@@ -6579,16 +6626,16 @@
       <c r="K46" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="L46" s="98" t="s">
-        <v>216</v>
+      <c r="L46" s="103" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="47" spans="2:12" ht="36">
-      <c r="B47" s="96"/>
-      <c r="C47" s="111"/>
-      <c r="D47" s="111"/>
-      <c r="E47" s="129"/>
-      <c r="F47" s="131"/>
+      <c r="B47" s="101"/>
+      <c r="C47" s="94"/>
+      <c r="D47" s="94"/>
+      <c r="E47" s="97"/>
+      <c r="F47" s="92"/>
       <c r="G47" s="26" t="s">
         <v>0</v>
       </c>
@@ -6604,12 +6651,12 @@
       <c r="K47" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="L47" s="115"/>
+      <c r="L47" s="104"/>
     </row>
     <row r="48" spans="2:12" ht="36">
-      <c r="B48" s="96"/>
-      <c r="C48" s="111"/>
-      <c r="D48" s="111"/>
+      <c r="B48" s="101"/>
+      <c r="C48" s="94"/>
+      <c r="D48" s="94"/>
       <c r="E48" s="24" t="s">
         <v>9</v>
       </c>
@@ -6629,12 +6676,12 @@
       <c r="K48" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="L48" s="115"/>
+      <c r="L48" s="104"/>
     </row>
     <row r="49" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B49" s="114"/>
-      <c r="C49" s="113"/>
-      <c r="D49" s="113"/>
+      <c r="B49" s="102"/>
+      <c r="C49" s="100"/>
+      <c r="D49" s="100"/>
       <c r="E49" s="45" t="s">
         <v>3</v>
       </c>
@@ -6654,20 +6701,20 @@
       <c r="K49" s="49" t="s">
         <v>175</v>
       </c>
-      <c r="L49" s="99"/>
+      <c r="L49" s="111"/>
     </row>
     <row r="50" spans="2:12" ht="36">
-      <c r="B50" s="94">
+      <c r="B50" s="98">
         <v>9</v>
       </c>
-      <c r="C50" s="109" t="s">
+      <c r="C50" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="D50" s="109"/>
-      <c r="E50" s="128" t="s">
+      <c r="D50" s="93"/>
+      <c r="E50" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="F50" s="130" t="s">
+      <c r="F50" s="91" t="s">
         <v>18</v>
       </c>
       <c r="G50" s="28" t="s">
@@ -6685,16 +6732,16 @@
       <c r="K50" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="L50" s="98" t="s">
+      <c r="L50" s="103" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="51" spans="2:12" ht="36">
-      <c r="B51" s="96"/>
-      <c r="C51" s="111"/>
-      <c r="D51" s="111"/>
-      <c r="E51" s="129"/>
-      <c r="F51" s="131"/>
+      <c r="B51" s="101"/>
+      <c r="C51" s="94"/>
+      <c r="D51" s="94"/>
+      <c r="E51" s="97"/>
+      <c r="F51" s="92"/>
       <c r="G51" s="26" t="s">
         <v>0</v>
       </c>
@@ -6704,16 +6751,16 @@
       <c r="I51" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="J51" s="135" t="s">
+      <c r="J51" s="106" t="s">
         <v>181</v>
       </c>
-      <c r="K51" s="136"/>
-      <c r="L51" s="115"/>
+      <c r="K51" s="107"/>
+      <c r="L51" s="104"/>
     </row>
     <row r="52" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B52" s="97"/>
-      <c r="C52" s="112"/>
-      <c r="D52" s="112"/>
+      <c r="B52" s="99"/>
+      <c r="C52" s="95"/>
+      <c r="D52" s="95"/>
       <c r="E52" s="33" t="s">
         <v>3</v>
       </c>
@@ -6733,20 +6780,20 @@
       <c r="K52" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="L52" s="116"/>
+      <c r="L52" s="105"/>
     </row>
     <row r="53" spans="2:12">
-      <c r="B53" s="94">
+      <c r="B53" s="98">
         <v>10</v>
       </c>
-      <c r="C53" s="109" t="s">
+      <c r="C53" s="93" t="s">
         <v>114</v>
       </c>
-      <c r="D53" s="109"/>
-      <c r="E53" s="128" t="s">
+      <c r="D53" s="93"/>
+      <c r="E53" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="F53" s="130" t="s">
+      <c r="F53" s="91" t="s">
         <v>18</v>
       </c>
       <c r="G53" s="28" t="s">
@@ -6764,16 +6811,16 @@
       <c r="K53" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="L53" s="98" t="s">
+      <c r="L53" s="103" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="54" spans="2:12" ht="30.75" customHeight="1">
-      <c r="B54" s="96"/>
-      <c r="C54" s="111"/>
-      <c r="D54" s="111"/>
-      <c r="E54" s="129"/>
-      <c r="F54" s="131"/>
+      <c r="B54" s="101"/>
+      <c r="C54" s="94"/>
+      <c r="D54" s="94"/>
+      <c r="E54" s="97"/>
+      <c r="F54" s="92"/>
       <c r="G54" s="26" t="s">
         <v>0</v>
       </c>
@@ -6789,12 +6836,12 @@
       <c r="K54" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="L54" s="115"/>
+      <c r="L54" s="104"/>
     </row>
     <row r="55" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B55" s="97"/>
-      <c r="C55" s="112"/>
-      <c r="D55" s="112"/>
+      <c r="B55" s="99"/>
+      <c r="C55" s="95"/>
+      <c r="D55" s="95"/>
       <c r="E55" s="50" t="s">
         <v>9</v>
       </c>
@@ -6814,16 +6861,16 @@
       <c r="K55" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="L55" s="116"/>
+      <c r="L55" s="105"/>
     </row>
     <row r="56" spans="2:12" ht="36">
-      <c r="B56" s="94">
+      <c r="B56" s="98">
         <v>11</v>
       </c>
-      <c r="C56" s="109" t="s">
+      <c r="C56" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="D56" s="109"/>
+      <c r="D56" s="93"/>
       <c r="E56" s="38" t="s">
         <v>9</v>
       </c>
@@ -6843,14 +6890,14 @@
       <c r="K56" s="32" t="s">
         <v>177</v>
       </c>
-      <c r="L56" s="98" t="s">
+      <c r="L56" s="103" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="57" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B57" s="97"/>
-      <c r="C57" s="112"/>
-      <c r="D57" s="112"/>
+      <c r="B57" s="99"/>
+      <c r="C57" s="95"/>
+      <c r="D57" s="95"/>
       <c r="E57" s="50" t="s">
         <v>9</v>
       </c>
@@ -6870,15 +6917,15 @@
       <c r="K57" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="L57" s="116"/>
+      <c r="L57" s="105"/>
     </row>
     <row r="58" spans="2:12">
-      <c r="F58" s="140" t="s">
+      <c r="F58" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="G58" s="140"/>
-      <c r="H58" s="140"/>
-      <c r="I58" s="140"/>
+      <c r="G58" s="90"/>
+      <c r="H58" s="90"/>
+      <c r="I58" s="90"/>
       <c r="J58" s="12"/>
     </row>
     <row r="59" spans="2:12">
@@ -6892,13 +6939,57 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="F58:I58"/>
-    <mergeCell ref="F39:F41"/>
-    <mergeCell ref="C39:D42"/>
-    <mergeCell ref="D29:D33"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="L9:L13"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="C16:D21"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:D13"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="L39:L42"/>
+    <mergeCell ref="L46:L49"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="L16:L21"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="L56:L57"/>
+    <mergeCell ref="L53:L55"/>
+    <mergeCell ref="L50:L52"/>
+    <mergeCell ref="L43:L45"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="B29:B38"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="L22:L28"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="C29:C38"/>
+    <mergeCell ref="C22:D28"/>
+    <mergeCell ref="B22:B28"/>
+    <mergeCell ref="L29:L33"/>
+    <mergeCell ref="L36:L38"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="J41:K41"/>
     <mergeCell ref="B56:B57"/>
     <mergeCell ref="C56:D57"/>
     <mergeCell ref="F43:F44"/>
@@ -6915,57 +7006,13 @@
     <mergeCell ref="E53:E54"/>
     <mergeCell ref="F53:F54"/>
     <mergeCell ref="F46:F47"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="B29:B38"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="L22:L28"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="C29:C38"/>
-    <mergeCell ref="C22:D28"/>
-    <mergeCell ref="B22:B28"/>
-    <mergeCell ref="L29:L33"/>
-    <mergeCell ref="L36:L38"/>
-    <mergeCell ref="L34:L35"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="L56:L57"/>
-    <mergeCell ref="L53:L55"/>
-    <mergeCell ref="L50:L52"/>
-    <mergeCell ref="L43:L45"/>
-    <mergeCell ref="L39:L42"/>
-    <mergeCell ref="L46:L49"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="L16:L21"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="L9:L13"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="F16:F19"/>
-    <mergeCell ref="E16:E19"/>
-    <mergeCell ref="C16:D21"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:D13"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="F58:I58"/>
+    <mergeCell ref="F39:F41"/>
+    <mergeCell ref="C39:D42"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="E46:E47"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -7020,7 +7067,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="19" t="s">
-        <v>207</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -7030,12 +7077,12 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="71" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -7071,7 +7118,7 @@
         <v>195</v>
       </c>
       <c r="C9" s="68" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -7079,7 +7126,7 @@
         <v>196</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="72">
@@ -7095,7 +7142,7 @@
         <v>198</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:3">

--- a/サンプルプロジェクト/設計書/Nablarch機能のセキュリティ対応表.xlsx
+++ b/サンプルプロジェクト/設計書/Nablarch機能のセキュリティ対応表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667BE7BA-5FE1-4F0D-9D8D-415C69FD24EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC72209-1F69-43D5-8BDA-429FD8370078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
     <definedName name="NOTNULL">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'1.概要'!$A$1:$AR$52</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'2.チェックリスト'!$A$1:$L$59</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">改訂履歴!$A$1:$H$12</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">改訂履歴!$A$1:$H$13</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">改訂履歴!$1:$4</definedName>
     <definedName name="RuleComponent">#REF!</definedName>
     <definedName name="ｓｄ">#REF!</definedName>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="243">
   <si>
     <t>□</t>
     <phoneticPr fontId="2"/>
@@ -1147,10 +1147,6 @@
     <rPh sb="448" eb="450">
       <t>カイシ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>HTMLエスケープせずに値を出力する</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1927,11 +1923,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Nablarchカスタムタグで提供するprettyPrintタグは使用可能なタグおよび属性を指定して、エスケープなしに値を出力することができます。
-https://nablarch.github.io/docs/LATEST/doc/application_framework/application_framework/libraries/tag.html#tag-html-unescape</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Nablarchのカスタムタグはサニタイジングを行います。これによりNablarchのカスタムタグを使った場合には5-(i)の根本的解決が可能です。
 また、NablarchはJSPで使用を許可する構文とタグを規定し、許可する構文とタグのみを使用していることをチェックするJSP静的解析ツールを提供しています。このツールを使用することでカスタムタグ以外のタグを使用したことによるエスケープ漏れを防止することが可能です。
@@ -2305,6 +2296,58 @@
       <t>ゴキ</t>
     </rPh>
     <rPh sb="20" eb="22">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>以下のような方法での対応を検討してください。
+・OSSのHTMLパーサを使用して入力された値をパースし、使用できないHTMLタグが含まれていないかをバリデーションする
+・簡易的な装飾であれば、利用者にはMarkdownで入力してもらい、 OSSのJavaScriptライブラリを使用してクライアントサイドでMarkdownからHTMLに変換する</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ケントウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>prettyPrintタグの使用は非推奨としているので、Nablarchの対応状況を×に変更しOSSを利用した対応方法に解説を修正。</t>
+    <rPh sb="14" eb="16">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ヒスイショウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>カイセツ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
       <t>シュウセイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -3110,158 +3153,158 @@
     <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4519,7 +4562,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -5232,7 +5275,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="24.75">
       <c r="A1" s="72" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B1" s="73"/>
       <c r="C1" s="73"/>
@@ -5248,23 +5291,23 @@
     </row>
     <row r="3" spans="1:9" s="76" customFormat="1">
       <c r="A3" s="89" t="s">
+        <v>217</v>
+      </c>
+      <c r="B3" s="89" t="s">
+        <v>218</v>
+      </c>
+      <c r="C3" s="89" t="s">
         <v>219</v>
       </c>
-      <c r="B3" s="89" t="s">
+      <c r="D3" s="89" t="s">
         <v>220</v>
-      </c>
-      <c r="C3" s="89" t="s">
-        <v>221</v>
-      </c>
-      <c r="D3" s="89" t="s">
-        <v>222</v>
       </c>
       <c r="E3" s="89"/>
       <c r="F3" s="89" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G3" s="89" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="76" customFormat="1">
@@ -5272,10 +5315,10 @@
       <c r="B4" s="89"/>
       <c r="C4" s="89"/>
       <c r="D4" s="77" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E4" s="77" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F4" s="89"/>
       <c r="G4" s="89"/>
@@ -5288,15 +5331,15 @@
         <v>41547</v>
       </c>
       <c r="C5" s="78" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D5" s="79"/>
       <c r="E5" s="79"/>
       <c r="F5" s="78" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G5" s="78" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="83" customFormat="1">
@@ -5307,19 +5350,19 @@
         <v>43949</v>
       </c>
       <c r="C6" s="78" t="s">
+        <v>226</v>
+      </c>
+      <c r="D6" s="79" t="s">
+        <v>232</v>
+      </c>
+      <c r="E6" s="79" t="s">
+        <v>233</v>
+      </c>
+      <c r="F6" s="78" t="s">
+        <v>227</v>
+      </c>
+      <c r="G6" s="78" t="s">
         <v>228</v>
-      </c>
-      <c r="D6" s="79" t="s">
-        <v>234</v>
-      </c>
-      <c r="E6" s="79" t="s">
-        <v>235</v>
-      </c>
-      <c r="F6" s="78" t="s">
-        <v>229</v>
-      </c>
-      <c r="G6" s="78" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="83" customFormat="1">
@@ -5330,19 +5373,19 @@
         <v>43970</v>
       </c>
       <c r="C7" s="78" t="s">
+        <v>226</v>
+      </c>
+      <c r="D7" s="79" t="s">
+        <v>232</v>
+      </c>
+      <c r="E7" s="79" t="s">
+        <v>233</v>
+      </c>
+      <c r="F7" s="78" t="s">
+        <v>235</v>
+      </c>
+      <c r="G7" s="78" t="s">
         <v>228</v>
-      </c>
-      <c r="D7" s="79" t="s">
-        <v>234</v>
-      </c>
-      <c r="E7" s="79" t="s">
-        <v>235</v>
-      </c>
-      <c r="F7" s="78" t="s">
-        <v>237</v>
-      </c>
-      <c r="G7" s="78" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="83" customFormat="1">
@@ -5353,35 +5396,58 @@
         <v>44754</v>
       </c>
       <c r="C8" s="78" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D8" s="79" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E8" s="79" t="s">
         <v>128</v>
       </c>
       <c r="F8" s="78" t="s">
+        <v>240</v>
+      </c>
+      <c r="G8" s="78" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="83" customFormat="1" ht="28.5">
+      <c r="A9" s="78">
+        <v>5</v>
+      </c>
+      <c r="B9" s="82">
+        <v>44754</v>
+      </c>
+      <c r="C9" s="78" t="s">
+        <v>226</v>
+      </c>
+      <c r="D9" s="79" t="s">
+        <v>232</v>
+      </c>
+      <c r="E9" s="79" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="78" t="s">
         <v>242</v>
       </c>
-      <c r="G8" s="78" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="83" customFormat="1">
-      <c r="A9" s="74" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="86" customFormat="1" ht="18.75">
-      <c r="A10" s="84"/>
-      <c r="B10" s="85"/>
-      <c r="C10" s="85"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="85"/>
-      <c r="I10" s="87"/>
+      <c r="G9" s="78" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="83" customFormat="1">
+      <c r="A10" s="74" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="86" customFormat="1" ht="18.75">
+      <c r="A11" s="84"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+      <c r="I11" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5393,7 +5459,7 @@
     <mergeCell ref="F3:F4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="G1:G2 G11:G65361">
+  <conditionalFormatting sqref="G1:G2 G12:G65362">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
@@ -5451,32 +5517,32 @@
     </row>
     <row r="10" spans="2:4">
       <c r="D10" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="2:4">
       <c r="D12" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="2:4">
       <c r="D13" s="21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="D14" s="21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="2:4">
       <c r="D15" s="21" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="16" spans="2:4">
       <c r="D16" s="21" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="4:4">
@@ -5491,38 +5557,38 @@
     </row>
     <row r="20" spans="4:4">
       <c r="D20" s="21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" s="21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="43" spans="3:10">
       <c r="C43" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="45" spans="3:10">
       <c r="D45" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="47" spans="3:10">
       <c r="F47" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J47" s="21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="48" spans="3:10">
       <c r="F48" s="21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J48" s="21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -5567,25 +5633,25 @@
   <sheetData>
     <row r="1" spans="1:12" ht="16.5">
       <c r="A1" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B1" s="4"/>
     </row>
     <row r="2" spans="1:12" ht="16.5">
       <c r="A2" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:12" ht="16.5">
       <c r="A3" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:12" ht="16.5">
       <c r="A4" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B4" s="4"/>
     </row>
@@ -5597,38 +5663,38 @@
       <c r="A6" s="1"/>
       <c r="B6" s="4"/>
       <c r="F6" s="27" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="B7" s="127" t="s">
+      <c r="B7" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="129" t="s">
+      <c r="C7" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="129"/>
-      <c r="E7" s="114" t="s">
+      <c r="D7" s="92"/>
+      <c r="E7" s="119" t="s">
         <v>160</v>
       </c>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="112" t="s">
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="117" t="s">
         <v>156</v>
       </c>
-      <c r="K7" s="112" t="s">
+      <c r="K7" s="117" t="s">
         <v>159</v>
       </c>
-      <c r="L7" s="124" t="s">
+      <c r="L7" s="132" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="12.75" thickBot="1">
-      <c r="B8" s="128"/>
-      <c r="C8" s="130"/>
-      <c r="D8" s="130"/>
+      <c r="B8" s="91"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="93"/>
       <c r="E8" s="37" t="s">
         <v>2</v>
       </c>
@@ -5642,22 +5708,22 @@
       <c r="I8" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="J8" s="113"/>
-      <c r="K8" s="113"/>
-      <c r="L8" s="125"/>
+      <c r="J8" s="118"/>
+      <c r="K8" s="118"/>
+      <c r="L8" s="133"/>
     </row>
     <row r="9" spans="1:12" ht="57" customHeight="1">
-      <c r="B9" s="98">
+      <c r="B9" s="94">
         <v>1</v>
       </c>
-      <c r="C9" s="93" t="s">
+      <c r="C9" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="93"/>
-      <c r="E9" s="96" t="s">
+      <c r="D9" s="109"/>
+      <c r="E9" s="128" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="91" t="s">
+      <c r="F9" s="130" t="s">
         <v>18</v>
       </c>
       <c r="G9" s="28" t="s">
@@ -5675,16 +5741,16 @@
       <c r="K9" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="L9" s="132" t="s">
+      <c r="L9" s="100" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="57" customHeight="1">
-      <c r="B10" s="101"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="97"/>
-      <c r="F10" s="92"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="129"/>
+      <c r="F10" s="131"/>
       <c r="G10" s="26" t="s">
         <v>16</v>
       </c>
@@ -5700,12 +5766,12 @@
       <c r="K10" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="L10" s="133"/>
+      <c r="L10" s="101"/>
     </row>
     <row r="11" spans="1:12" ht="57" customHeight="1">
-      <c r="B11" s="101"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="94"/>
+      <c r="B11" s="96"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="111"/>
       <c r="E11" s="24" t="s">
         <v>9</v>
       </c>
@@ -5725,12 +5791,12 @@
       <c r="K11" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="L11" s="133"/>
+      <c r="L11" s="101"/>
     </row>
     <row r="12" spans="1:12" ht="36">
-      <c r="B12" s="101"/>
-      <c r="C12" s="94"/>
-      <c r="D12" s="94"/>
+      <c r="B12" s="96"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="111"/>
       <c r="E12" s="7" t="s">
         <v>3</v>
       </c>
@@ -5750,12 +5816,12 @@
       <c r="K12" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="L12" s="133"/>
+      <c r="L12" s="101"/>
     </row>
     <row r="13" spans="1:12" ht="36.75" thickBot="1">
-      <c r="B13" s="99"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="95"/>
+      <c r="B13" s="97"/>
+      <c r="C13" s="112"/>
+      <c r="D13" s="112"/>
       <c r="E13" s="33" t="s">
         <v>3</v>
       </c>
@@ -5773,18 +5839,18 @@
         <v>128</v>
       </c>
       <c r="K13" s="36" t="s">
-        <v>176</v>
-      </c>
-      <c r="L13" s="134"/>
+        <v>175</v>
+      </c>
+      <c r="L13" s="102"/>
     </row>
     <row r="14" spans="1:12" ht="36">
-      <c r="B14" s="98">
+      <c r="B14" s="94">
         <v>2</v>
       </c>
-      <c r="C14" s="93" t="s">
+      <c r="C14" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="93"/>
+      <c r="D14" s="109"/>
       <c r="E14" s="38" t="s">
         <v>9</v>
       </c>
@@ -5806,14 +5872,14 @@
       <c r="K14" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="L14" s="103" t="s">
+      <c r="L14" s="98" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="36.75" thickBot="1">
-      <c r="B15" s="102"/>
-      <c r="C15" s="100"/>
-      <c r="D15" s="100"/>
+      <c r="B15" s="114"/>
+      <c r="C15" s="113"/>
+      <c r="D15" s="113"/>
       <c r="E15" s="45" t="s">
         <v>3</v>
       </c>
@@ -5833,100 +5899,100 @@
         <v>128</v>
       </c>
       <c r="K15" s="49" t="s">
-        <v>175</v>
-      </c>
-      <c r="L15" s="111"/>
+        <v>174</v>
+      </c>
+      <c r="L15" s="99"/>
     </row>
     <row r="16" spans="1:12" ht="27" customHeight="1">
-      <c r="B16" s="98">
+      <c r="B16" s="94">
         <v>3</v>
       </c>
-      <c r="C16" s="93" t="s">
+      <c r="C16" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="93"/>
-      <c r="E16" s="137" t="s">
+      <c r="D16" s="109"/>
+      <c r="E16" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="135" t="s">
+      <c r="F16" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="135" t="s">
+      <c r="G16" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="121" t="s">
+      <c r="H16" s="126" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="120" t="s">
+      <c r="I16" s="125" t="s">
         <v>40</v>
       </c>
       <c r="J16" s="65" t="s">
-        <v>190</v>
-      </c>
-      <c r="K16" s="116" t="s">
+        <v>189</v>
+      </c>
+      <c r="K16" s="121" t="s">
         <v>127</v>
       </c>
-      <c r="L16" s="103" t="s">
-        <v>183</v>
+      <c r="L16" s="98" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="2:12" ht="27" customHeight="1">
-      <c r="B17" s="131"/>
-      <c r="C17" s="140"/>
-      <c r="D17" s="140"/>
-      <c r="E17" s="138"/>
-      <c r="F17" s="136"/>
-      <c r="G17" s="123"/>
-      <c r="H17" s="119"/>
-      <c r="I17" s="117"/>
+      <c r="B17" s="95"/>
+      <c r="C17" s="110"/>
+      <c r="D17" s="110"/>
+      <c r="E17" s="107"/>
+      <c r="F17" s="105"/>
+      <c r="G17" s="104"/>
+      <c r="H17" s="124"/>
+      <c r="I17" s="122"/>
       <c r="J17" s="64" t="s">
         <v>136</v>
       </c>
-      <c r="K17" s="115"/>
-      <c r="L17" s="126"/>
+      <c r="K17" s="120"/>
+      <c r="L17" s="134"/>
     </row>
     <row r="18" spans="2:12" ht="27" customHeight="1">
-      <c r="B18" s="101"/>
-      <c r="C18" s="94"/>
-      <c r="D18" s="94"/>
-      <c r="E18" s="138"/>
-      <c r="F18" s="136"/>
-      <c r="G18" s="122" t="s">
+      <c r="B18" s="96"/>
+      <c r="C18" s="111"/>
+      <c r="D18" s="111"/>
+      <c r="E18" s="107"/>
+      <c r="F18" s="105"/>
+      <c r="G18" s="127" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="118" t="s">
+      <c r="H18" s="123" t="s">
         <v>39</v>
       </c>
-      <c r="I18" s="117" t="s">
+      <c r="I18" s="122" t="s">
         <v>41</v>
       </c>
       <c r="J18" s="63" t="s">
-        <v>190</v>
-      </c>
-      <c r="K18" s="115" t="s">
+        <v>189</v>
+      </c>
+      <c r="K18" s="120" t="s">
         <v>127</v>
       </c>
-      <c r="L18" s="104"/>
+      <c r="L18" s="115"/>
     </row>
     <row r="19" spans="2:12" ht="27" customHeight="1">
-      <c r="B19" s="101"/>
-      <c r="C19" s="94"/>
-      <c r="D19" s="94"/>
-      <c r="E19" s="139"/>
-      <c r="F19" s="123"/>
-      <c r="G19" s="123"/>
-      <c r="H19" s="119"/>
-      <c r="I19" s="117"/>
+      <c r="B19" s="96"/>
+      <c r="C19" s="111"/>
+      <c r="D19" s="111"/>
+      <c r="E19" s="108"/>
+      <c r="F19" s="104"/>
+      <c r="G19" s="104"/>
+      <c r="H19" s="124"/>
+      <c r="I19" s="122"/>
       <c r="J19" s="64" t="s">
         <v>136</v>
       </c>
-      <c r="K19" s="115"/>
-      <c r="L19" s="104"/>
+      <c r="K19" s="120"/>
+      <c r="L19" s="115"/>
     </row>
     <row r="20" spans="2:12" ht="36">
-      <c r="B20" s="101"/>
-      <c r="C20" s="94"/>
-      <c r="D20" s="94"/>
+      <c r="B20" s="96"/>
+      <c r="C20" s="111"/>
+      <c r="D20" s="111"/>
       <c r="E20" s="54" t="s">
         <v>3</v>
       </c>
@@ -5944,14 +6010,14 @@
         <v>128</v>
       </c>
       <c r="K20" s="60" t="s">
-        <v>175</v>
-      </c>
-      <c r="L20" s="104"/>
+        <v>174</v>
+      </c>
+      <c r="L20" s="115"/>
     </row>
     <row r="21" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B21" s="99"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
+      <c r="B21" s="97"/>
+      <c r="C21" s="112"/>
+      <c r="D21" s="112"/>
       <c r="E21" s="55" t="s">
         <v>3</v>
       </c>
@@ -5971,16 +6037,16 @@
       <c r="K21" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="L21" s="105"/>
+      <c r="L21" s="116"/>
     </row>
     <row r="22" spans="2:12" ht="36">
-      <c r="B22" s="98">
+      <c r="B22" s="94">
         <v>4</v>
       </c>
-      <c r="C22" s="93" t="s">
+      <c r="C22" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="93"/>
+      <c r="D22" s="109"/>
       <c r="E22" s="38" t="s">
         <v>10</v>
       </c>
@@ -6000,14 +6066,14 @@
       <c r="K22" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="L22" s="103" t="s">
+      <c r="L22" s="98" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="23" spans="2:12" ht="36">
-      <c r="B23" s="101"/>
-      <c r="C23" s="94"/>
-      <c r="D23" s="94"/>
+      <c r="B23" s="96"/>
+      <c r="C23" s="111"/>
+      <c r="D23" s="111"/>
       <c r="E23" s="24" t="s">
         <v>9</v>
       </c>
@@ -6027,12 +6093,12 @@
       <c r="K23" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="L23" s="104"/>
+      <c r="L23" s="115"/>
     </row>
     <row r="24" spans="2:12" ht="36">
-      <c r="B24" s="101"/>
-      <c r="C24" s="94"/>
-      <c r="D24" s="94"/>
+      <c r="B24" s="96"/>
+      <c r="C24" s="111"/>
+      <c r="D24" s="111"/>
       <c r="E24" s="24" t="s">
         <v>9</v>
       </c>
@@ -6052,16 +6118,16 @@
       <c r="K24" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="L24" s="104"/>
+      <c r="L24" s="115"/>
     </row>
     <row r="25" spans="2:12">
-      <c r="B25" s="101"/>
-      <c r="C25" s="94"/>
-      <c r="D25" s="94"/>
-      <c r="E25" s="97" t="s">
+      <c r="B25" s="96"/>
+      <c r="C25" s="111"/>
+      <c r="D25" s="111"/>
+      <c r="E25" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="F25" s="92" t="s">
+      <c r="F25" s="131" t="s">
         <v>18</v>
       </c>
       <c r="G25" s="26" t="s">
@@ -6077,16 +6143,16 @@
         <v>134</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="L25" s="104"/>
+        <v>176</v>
+      </c>
+      <c r="L25" s="115"/>
     </row>
     <row r="26" spans="2:12" ht="24">
-      <c r="B26" s="101"/>
-      <c r="C26" s="94"/>
-      <c r="D26" s="94"/>
-      <c r="E26" s="97"/>
-      <c r="F26" s="92"/>
+      <c r="B26" s="96"/>
+      <c r="C26" s="111"/>
+      <c r="D26" s="111"/>
+      <c r="E26" s="129"/>
+      <c r="F26" s="131"/>
       <c r="G26" s="26" t="s">
         <v>16</v>
       </c>
@@ -6096,16 +6162,16 @@
       <c r="I26" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="J26" s="106" t="s">
-        <v>178</v>
-      </c>
-      <c r="K26" s="107"/>
-      <c r="L26" s="104"/>
+      <c r="J26" s="135" t="s">
+        <v>177</v>
+      </c>
+      <c r="K26" s="136"/>
+      <c r="L26" s="115"/>
     </row>
     <row r="27" spans="2:12" ht="36">
-      <c r="B27" s="101"/>
-      <c r="C27" s="94"/>
-      <c r="D27" s="94"/>
+      <c r="B27" s="96"/>
+      <c r="C27" s="111"/>
+      <c r="D27" s="111"/>
       <c r="E27" s="23" t="s">
         <v>3</v>
       </c>
@@ -6125,12 +6191,12 @@
       <c r="K27" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="L27" s="104"/>
+      <c r="L27" s="115"/>
     </row>
     <row r="28" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B28" s="99"/>
-      <c r="C28" s="95"/>
-      <c r="D28" s="95"/>
+      <c r="B28" s="97"/>
+      <c r="C28" s="112"/>
+      <c r="D28" s="112"/>
       <c r="E28" s="39" t="s">
         <v>3</v>
       </c>
@@ -6150,16 +6216,16 @@
       <c r="K28" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="L28" s="105"/>
+      <c r="L28" s="116"/>
     </row>
     <row r="29" spans="2:12" ht="36">
-      <c r="B29" s="98">
+      <c r="B29" s="94">
         <v>5</v>
       </c>
-      <c r="C29" s="108" t="s">
+      <c r="C29" s="137" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="93" t="s">
+      <c r="D29" s="109" t="s">
         <v>61</v>
       </c>
       <c r="E29" s="38" t="s">
@@ -6181,14 +6247,14 @@
       <c r="K29" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="L29" s="103" t="s">
-        <v>214</v>
+      <c r="L29" s="98" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="30" spans="2:12" ht="36">
-      <c r="B30" s="101"/>
-      <c r="C30" s="109"/>
-      <c r="D30" s="94"/>
+      <c r="B30" s="96"/>
+      <c r="C30" s="138"/>
+      <c r="D30" s="111"/>
       <c r="E30" s="24" t="s">
         <v>9</v>
       </c>
@@ -6206,14 +6272,14 @@
         <v>128</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="L30" s="104"/>
+        <v>174</v>
+      </c>
+      <c r="L30" s="115"/>
     </row>
     <row r="31" spans="2:12" ht="36">
-      <c r="B31" s="101"/>
-      <c r="C31" s="109"/>
-      <c r="D31" s="94"/>
+      <c r="B31" s="96"/>
+      <c r="C31" s="138"/>
+      <c r="D31" s="111"/>
       <c r="E31" s="24" t="s">
         <v>9</v>
       </c>
@@ -6231,14 +6297,14 @@
         <v>128</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="L31" s="104"/>
+        <v>174</v>
+      </c>
+      <c r="L31" s="115"/>
     </row>
     <row r="32" spans="2:12" ht="36">
-      <c r="B32" s="101"/>
-      <c r="C32" s="109"/>
-      <c r="D32" s="94"/>
+      <c r="B32" s="96"/>
+      <c r="C32" s="138"/>
+      <c r="D32" s="111"/>
       <c r="E32" s="24" t="s">
         <v>9</v>
       </c>
@@ -6256,14 +6322,14 @@
         <v>128</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="L32" s="104"/>
+        <v>174</v>
+      </c>
+      <c r="L32" s="115"/>
     </row>
     <row r="33" spans="2:12" ht="36">
-      <c r="B33" s="101"/>
-      <c r="C33" s="109"/>
-      <c r="D33" s="94"/>
+      <c r="B33" s="96"/>
+      <c r="C33" s="138"/>
+      <c r="D33" s="111"/>
       <c r="E33" s="23" t="s">
         <v>3</v>
       </c>
@@ -6283,12 +6349,12 @@
       <c r="K33" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="L33" s="104"/>
+      <c r="L33" s="115"/>
     </row>
     <row r="34" spans="2:12" ht="36">
-      <c r="B34" s="101"/>
-      <c r="C34" s="109"/>
-      <c r="D34" s="94" t="s">
+      <c r="B34" s="96"/>
+      <c r="C34" s="138"/>
+      <c r="D34" s="111" t="s">
         <v>124</v>
       </c>
       <c r="E34" s="24" t="s">
@@ -6304,20 +6370,20 @@
       <c r="I34" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="J34" s="13" t="s">
-        <v>162</v>
+      <c r="J34" s="9" t="s">
+        <v>128</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="L34" s="104" t="s">
-        <v>213</v>
+        <v>174</v>
+      </c>
+      <c r="L34" s="115" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="35" spans="2:12" ht="36">
-      <c r="B35" s="101"/>
-      <c r="C35" s="109"/>
-      <c r="D35" s="94"/>
+      <c r="B35" s="96"/>
+      <c r="C35" s="138"/>
+      <c r="D35" s="111"/>
       <c r="E35" s="23" t="s">
         <v>3</v>
       </c>
@@ -6335,14 +6401,14 @@
         <v>128</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="L35" s="104"/>
+        <v>174</v>
+      </c>
+      <c r="L35" s="115"/>
     </row>
     <row r="36" spans="2:12" ht="36">
-      <c r="B36" s="101"/>
-      <c r="C36" s="109"/>
-      <c r="D36" s="94" t="s">
+      <c r="B36" s="96"/>
+      <c r="C36" s="138"/>
+      <c r="D36" s="111" t="s">
         <v>123</v>
       </c>
       <c r="E36" s="24" t="s">
@@ -6364,14 +6430,14 @@
       <c r="K36" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="L36" s="104" t="s">
-        <v>172</v>
+      <c r="L36" s="115" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="37" spans="2:12" ht="36">
-      <c r="B37" s="101"/>
-      <c r="C37" s="109"/>
-      <c r="D37" s="94"/>
+      <c r="B37" s="96"/>
+      <c r="C37" s="138"/>
+      <c r="D37" s="111"/>
       <c r="E37" s="23" t="s">
         <v>3</v>
       </c>
@@ -6389,14 +6455,14 @@
         <v>128</v>
       </c>
       <c r="K37" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="L37" s="104"/>
+        <v>174</v>
+      </c>
+      <c r="L37" s="115"/>
     </row>
     <row r="38" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B38" s="99"/>
-      <c r="C38" s="110"/>
-      <c r="D38" s="95"/>
+      <c r="B38" s="97"/>
+      <c r="C38" s="139"/>
+      <c r="D38" s="112"/>
       <c r="E38" s="39" t="s">
         <v>3</v>
       </c>
@@ -6416,20 +6482,20 @@
       <c r="K38" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="L38" s="105"/>
+      <c r="L38" s="116"/>
     </row>
     <row r="39" spans="2:12" ht="48">
-      <c r="B39" s="98">
+      <c r="B39" s="94">
         <v>6</v>
       </c>
-      <c r="C39" s="93" t="s">
+      <c r="C39" s="109" t="s">
         <v>80</v>
       </c>
-      <c r="D39" s="93"/>
-      <c r="E39" s="96" t="s">
+      <c r="D39" s="109"/>
+      <c r="E39" s="128" t="s">
         <v>9</v>
       </c>
-      <c r="F39" s="91" t="s">
+      <c r="F39" s="130" t="s">
         <v>18</v>
       </c>
       <c r="G39" s="28" t="s">
@@ -6442,21 +6508,21 @@
         <v>82</v>
       </c>
       <c r="J39" s="58" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K39" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="L39" s="103" t="s">
-        <v>238</v>
+      <c r="L39" s="98" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="40" spans="2:12" ht="36">
-      <c r="B40" s="101"/>
-      <c r="C40" s="94"/>
-      <c r="D40" s="94"/>
-      <c r="E40" s="97"/>
-      <c r="F40" s="92"/>
+      <c r="B40" s="96"/>
+      <c r="C40" s="111"/>
+      <c r="D40" s="111"/>
+      <c r="E40" s="129"/>
+      <c r="F40" s="131"/>
       <c r="G40" s="26" t="s">
         <v>16</v>
       </c>
@@ -6466,18 +6532,18 @@
       <c r="I40" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="J40" s="106" t="s">
-        <v>180</v>
-      </c>
-      <c r="K40" s="107"/>
-      <c r="L40" s="104"/>
+      <c r="J40" s="135" t="s">
+        <v>179</v>
+      </c>
+      <c r="K40" s="136"/>
+      <c r="L40" s="115"/>
     </row>
     <row r="41" spans="2:12" ht="24">
-      <c r="B41" s="101"/>
-      <c r="C41" s="94"/>
-      <c r="D41" s="94"/>
-      <c r="E41" s="97"/>
-      <c r="F41" s="92"/>
+      <c r="B41" s="96"/>
+      <c r="C41" s="111"/>
+      <c r="D41" s="111"/>
+      <c r="E41" s="129"/>
+      <c r="F41" s="131"/>
       <c r="G41" s="26" t="s">
         <v>16</v>
       </c>
@@ -6487,16 +6553,16 @@
       <c r="I41" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="J41" s="106" t="s">
-        <v>180</v>
-      </c>
-      <c r="K41" s="107"/>
-      <c r="L41" s="104"/>
+      <c r="J41" s="135" t="s">
+        <v>179</v>
+      </c>
+      <c r="K41" s="136"/>
+      <c r="L41" s="115"/>
     </row>
     <row r="42" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B42" s="99"/>
-      <c r="C42" s="95"/>
-      <c r="D42" s="95"/>
+      <c r="B42" s="97"/>
+      <c r="C42" s="112"/>
+      <c r="D42" s="112"/>
       <c r="E42" s="39" t="s">
         <v>3</v>
       </c>
@@ -6514,22 +6580,22 @@
         <v>128</v>
       </c>
       <c r="K42" s="36" t="s">
-        <v>175</v>
-      </c>
-      <c r="L42" s="105"/>
+        <v>174</v>
+      </c>
+      <c r="L42" s="116"/>
     </row>
     <row r="43" spans="2:12" ht="24">
-      <c r="B43" s="98">
+      <c r="B43" s="94">
         <v>7</v>
       </c>
-      <c r="C43" s="93" t="s">
+      <c r="C43" s="109" t="s">
         <v>89</v>
       </c>
-      <c r="D43" s="93"/>
-      <c r="E43" s="96" t="s">
+      <c r="D43" s="109"/>
+      <c r="E43" s="128" t="s">
         <v>13</v>
       </c>
-      <c r="F43" s="91" t="s">
+      <c r="F43" s="130" t="s">
         <v>18</v>
       </c>
       <c r="G43" s="28" t="s">
@@ -6547,16 +6613,16 @@
       <c r="K43" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="L43" s="103" t="s">
-        <v>173</v>
+      <c r="L43" s="98" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="44" spans="2:12" ht="36">
-      <c r="B44" s="101"/>
-      <c r="C44" s="94"/>
-      <c r="D44" s="94"/>
-      <c r="E44" s="97"/>
-      <c r="F44" s="92"/>
+      <c r="B44" s="96"/>
+      <c r="C44" s="111"/>
+      <c r="D44" s="111"/>
+      <c r="E44" s="129"/>
+      <c r="F44" s="131"/>
       <c r="G44" s="26" t="s">
         <v>16</v>
       </c>
@@ -6566,16 +6632,16 @@
       <c r="I44" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="J44" s="106" t="s">
-        <v>179</v>
-      </c>
-      <c r="K44" s="107"/>
-      <c r="L44" s="104"/>
+      <c r="J44" s="135" t="s">
+        <v>178</v>
+      </c>
+      <c r="K44" s="136"/>
+      <c r="L44" s="115"/>
     </row>
     <row r="45" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B45" s="99"/>
-      <c r="C45" s="95"/>
-      <c r="D45" s="95"/>
+      <c r="B45" s="97"/>
+      <c r="C45" s="112"/>
+      <c r="D45" s="112"/>
       <c r="E45" s="39" t="s">
         <v>3</v>
       </c>
@@ -6593,22 +6659,22 @@
         <v>128</v>
       </c>
       <c r="K45" s="36" t="s">
-        <v>175</v>
-      </c>
-      <c r="L45" s="105"/>
+        <v>174</v>
+      </c>
+      <c r="L45" s="116"/>
     </row>
     <row r="46" spans="2:12" ht="24">
-      <c r="B46" s="98">
+      <c r="B46" s="94">
         <v>8</v>
       </c>
-      <c r="C46" s="93" t="s">
+      <c r="C46" s="109" t="s">
         <v>105</v>
       </c>
-      <c r="D46" s="93"/>
-      <c r="E46" s="96" t="s">
+      <c r="D46" s="109"/>
+      <c r="E46" s="128" t="s">
         <v>9</v>
       </c>
-      <c r="F46" s="91" t="s">
+      <c r="F46" s="130" t="s">
         <v>18</v>
       </c>
       <c r="G46" s="28" t="s">
@@ -6624,18 +6690,18 @@
         <v>139</v>
       </c>
       <c r="K46" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="L46" s="103" t="s">
-        <v>215</v>
+        <v>165</v>
+      </c>
+      <c r="L46" s="98" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="47" spans="2:12" ht="36">
-      <c r="B47" s="101"/>
-      <c r="C47" s="94"/>
-      <c r="D47" s="94"/>
-      <c r="E47" s="97"/>
-      <c r="F47" s="92"/>
+      <c r="B47" s="96"/>
+      <c r="C47" s="111"/>
+      <c r="D47" s="111"/>
+      <c r="E47" s="129"/>
+      <c r="F47" s="131"/>
       <c r="G47" s="26" t="s">
         <v>0</v>
       </c>
@@ -6649,14 +6715,14 @@
         <v>139</v>
       </c>
       <c r="K47" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="L47" s="104"/>
+        <v>176</v>
+      </c>
+      <c r="L47" s="115"/>
     </row>
     <row r="48" spans="2:12" ht="36">
-      <c r="B48" s="101"/>
-      <c r="C48" s="94"/>
-      <c r="D48" s="94"/>
+      <c r="B48" s="96"/>
+      <c r="C48" s="111"/>
+      <c r="D48" s="111"/>
       <c r="E48" s="24" t="s">
         <v>9</v>
       </c>
@@ -6674,14 +6740,14 @@
         <v>128</v>
       </c>
       <c r="K48" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="L48" s="104"/>
+        <v>174</v>
+      </c>
+      <c r="L48" s="115"/>
     </row>
     <row r="49" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B49" s="102"/>
-      <c r="C49" s="100"/>
-      <c r="D49" s="100"/>
+      <c r="B49" s="114"/>
+      <c r="C49" s="113"/>
+      <c r="D49" s="113"/>
       <c r="E49" s="45" t="s">
         <v>3</v>
       </c>
@@ -6699,22 +6765,22 @@
         <v>128</v>
       </c>
       <c r="K49" s="49" t="s">
-        <v>175</v>
-      </c>
-      <c r="L49" s="111"/>
+        <v>174</v>
+      </c>
+      <c r="L49" s="99"/>
     </row>
     <row r="50" spans="2:12" ht="36">
-      <c r="B50" s="98">
+      <c r="B50" s="94">
         <v>9</v>
       </c>
-      <c r="C50" s="93" t="s">
+      <c r="C50" s="109" t="s">
         <v>107</v>
       </c>
-      <c r="D50" s="93"/>
-      <c r="E50" s="96" t="s">
+      <c r="D50" s="109"/>
+      <c r="E50" s="128" t="s">
         <v>9</v>
       </c>
-      <c r="F50" s="91" t="s">
+      <c r="F50" s="130" t="s">
         <v>18</v>
       </c>
       <c r="G50" s="28" t="s">
@@ -6732,16 +6798,16 @@
       <c r="K50" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="L50" s="103" t="s">
-        <v>174</v>
+      <c r="L50" s="98" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="51" spans="2:12" ht="36">
-      <c r="B51" s="101"/>
-      <c r="C51" s="94"/>
-      <c r="D51" s="94"/>
-      <c r="E51" s="97"/>
-      <c r="F51" s="92"/>
+      <c r="B51" s="96"/>
+      <c r="C51" s="111"/>
+      <c r="D51" s="111"/>
+      <c r="E51" s="129"/>
+      <c r="F51" s="131"/>
       <c r="G51" s="26" t="s">
         <v>0</v>
       </c>
@@ -6751,16 +6817,16 @@
       <c r="I51" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="J51" s="106" t="s">
-        <v>181</v>
-      </c>
-      <c r="K51" s="107"/>
-      <c r="L51" s="104"/>
+      <c r="J51" s="135" t="s">
+        <v>180</v>
+      </c>
+      <c r="K51" s="136"/>
+      <c r="L51" s="115"/>
     </row>
     <row r="52" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B52" s="99"/>
-      <c r="C52" s="95"/>
-      <c r="D52" s="95"/>
+      <c r="B52" s="97"/>
+      <c r="C52" s="112"/>
+      <c r="D52" s="112"/>
       <c r="E52" s="33" t="s">
         <v>3</v>
       </c>
@@ -6778,22 +6844,22 @@
         <v>128</v>
       </c>
       <c r="K52" s="36" t="s">
-        <v>175</v>
-      </c>
-      <c r="L52" s="105"/>
+        <v>174</v>
+      </c>
+      <c r="L52" s="116"/>
     </row>
     <row r="53" spans="2:12">
-      <c r="B53" s="98">
+      <c r="B53" s="94">
         <v>10</v>
       </c>
-      <c r="C53" s="93" t="s">
+      <c r="C53" s="109" t="s">
         <v>114</v>
       </c>
-      <c r="D53" s="93"/>
-      <c r="E53" s="96" t="s">
+      <c r="D53" s="109"/>
+      <c r="E53" s="128" t="s">
         <v>9</v>
       </c>
-      <c r="F53" s="91" t="s">
+      <c r="F53" s="130" t="s">
         <v>18</v>
       </c>
       <c r="G53" s="28" t="s">
@@ -6811,16 +6877,16 @@
       <c r="K53" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="L53" s="103" t="s">
-        <v>163</v>
+      <c r="L53" s="98" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="54" spans="2:12" ht="30.75" customHeight="1">
-      <c r="B54" s="101"/>
-      <c r="C54" s="94"/>
-      <c r="D54" s="94"/>
-      <c r="E54" s="97"/>
-      <c r="F54" s="92"/>
+      <c r="B54" s="96"/>
+      <c r="C54" s="111"/>
+      <c r="D54" s="111"/>
+      <c r="E54" s="129"/>
+      <c r="F54" s="131"/>
       <c r="G54" s="26" t="s">
         <v>0</v>
       </c>
@@ -6836,12 +6902,12 @@
       <c r="K54" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="L54" s="104"/>
+      <c r="L54" s="115"/>
     </row>
     <row r="55" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B55" s="99"/>
-      <c r="C55" s="95"/>
-      <c r="D55" s="95"/>
+      <c r="B55" s="97"/>
+      <c r="C55" s="112"/>
+      <c r="D55" s="112"/>
       <c r="E55" s="50" t="s">
         <v>9</v>
       </c>
@@ -6861,16 +6927,16 @@
       <c r="K55" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="L55" s="105"/>
+      <c r="L55" s="116"/>
     </row>
     <row r="56" spans="2:12" ht="36">
-      <c r="B56" s="98">
+      <c r="B56" s="94">
         <v>11</v>
       </c>
-      <c r="C56" s="93" t="s">
+      <c r="C56" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="D56" s="93"/>
+      <c r="D56" s="109"/>
       <c r="E56" s="38" t="s">
         <v>9</v>
       </c>
@@ -6888,16 +6954,16 @@
         <v>133</v>
       </c>
       <c r="K56" s="32" t="s">
-        <v>177</v>
-      </c>
-      <c r="L56" s="103" t="s">
-        <v>164</v>
+        <v>176</v>
+      </c>
+      <c r="L56" s="98" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="57" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B57" s="99"/>
-      <c r="C57" s="95"/>
-      <c r="D57" s="95"/>
+      <c r="B57" s="97"/>
+      <c r="C57" s="112"/>
+      <c r="D57" s="112"/>
       <c r="E57" s="50" t="s">
         <v>9</v>
       </c>
@@ -6917,15 +6983,15 @@
       <c r="K57" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="L57" s="105"/>
+      <c r="L57" s="116"/>
     </row>
     <row r="58" spans="2:12">
-      <c r="F58" s="90" t="s">
+      <c r="F58" s="140" t="s">
         <v>19</v>
       </c>
-      <c r="G58" s="90"/>
-      <c r="H58" s="90"/>
-      <c r="I58" s="90"/>
+      <c r="G58" s="140"/>
+      <c r="H58" s="140"/>
+      <c r="I58" s="140"/>
       <c r="J58" s="12"/>
     </row>
     <row r="59" spans="2:12">
@@ -6939,19 +7005,51 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="L9:L13"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="F16:F19"/>
-    <mergeCell ref="E16:E19"/>
-    <mergeCell ref="C16:D21"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:D13"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="F58:I58"/>
+    <mergeCell ref="F39:F41"/>
+    <mergeCell ref="C39:D42"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:D57"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="C43:D45"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="C46:D49"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="C53:D55"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="C50:D52"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="B29:B38"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="L22:L28"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="C29:C38"/>
+    <mergeCell ref="C22:D28"/>
+    <mergeCell ref="B22:B28"/>
+    <mergeCell ref="L29:L33"/>
+    <mergeCell ref="L36:L38"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="L56:L57"/>
+    <mergeCell ref="L53:L55"/>
+    <mergeCell ref="L50:L52"/>
+    <mergeCell ref="L43:L45"/>
     <mergeCell ref="L39:L42"/>
     <mergeCell ref="L46:L49"/>
     <mergeCell ref="J7:J8"/>
@@ -6968,51 +7066,19 @@
     <mergeCell ref="K7:K8"/>
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="L16:L21"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="L56:L57"/>
-    <mergeCell ref="L53:L55"/>
-    <mergeCell ref="L50:L52"/>
-    <mergeCell ref="L43:L45"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="B29:B38"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="L22:L28"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="C29:C38"/>
-    <mergeCell ref="C22:D28"/>
-    <mergeCell ref="B22:B28"/>
-    <mergeCell ref="L29:L33"/>
-    <mergeCell ref="L36:L38"/>
-    <mergeCell ref="L34:L35"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:D57"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="C43:D45"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="C46:D49"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="C53:D55"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="C50:D52"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="F58:I58"/>
-    <mergeCell ref="F39:F41"/>
-    <mergeCell ref="C39:D42"/>
-    <mergeCell ref="D29:D33"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="L9:L13"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="C16:D21"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:D13"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="B14:B15"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -7030,24 +7096,23 @@
     <hyperlink ref="J57" r:id="rId12" xr:uid="{7A4C070F-45E3-4C57-B9C0-345201DC3E9B}"/>
     <hyperlink ref="J21" r:id="rId13" xr:uid="{FA623ED8-E52C-4EDB-B36B-E099D21466CC}"/>
     <hyperlink ref="J25" r:id="rId14" location="L74" xr:uid="{3F799024-841A-4591-8AD7-C727A5B27D20}"/>
-    <hyperlink ref="J34" r:id="rId15" location="tag-html-unescape" xr:uid="{03ED6A5D-2F13-41DB-87A2-2FFB2FF1975C}"/>
-    <hyperlink ref="J22" r:id="rId16" xr:uid="{E4086FF7-8748-4345-A8EF-669469E1FCBB}"/>
-    <hyperlink ref="J23" r:id="rId17" xr:uid="{220C99A0-3ABC-4A5A-98C0-CC1598477D52}"/>
-    <hyperlink ref="J24" r:id="rId18" xr:uid="{3DFE7743-D209-4BF5-B1C7-EBAAFEB522A0}"/>
-    <hyperlink ref="J28" r:id="rId19" xr:uid="{FE55259F-EBD9-400B-8C5C-D7F41D671AA4}"/>
-    <hyperlink ref="J47" r:id="rId20" location="mail-mail-header-injection" xr:uid="{11097F48-767C-453D-A534-B0A76E6A75D5}"/>
-    <hyperlink ref="J9" r:id="rId21" display="https://nablarch.github.io/docs/LATEST/doc/application_framework/application_framework/libraries/database_management.html" xr:uid="{19222547-30E5-4FE4-9BBF-90D3EFFD2E94}"/>
-    <hyperlink ref="J10" r:id="rId22" display="https://nablarch.github.io/docs/LATEST/doc/application_framework/application_framework/libraries/database_management.html" xr:uid="{37F252DC-3BDF-4B52-B6BE-ED9AA331E98B}"/>
-    <hyperlink ref="J11" r:id="rId23" display="https://nablarch.github.io/docs/LATEST/doc/application_framework/application_framework/libraries/database_management.html" xr:uid="{BDD35FD1-BB81-4115-B556-E70CCE286F8E}"/>
-    <hyperlink ref="J16" r:id="rId24" display="https://nablarch.github.io/docs/LATEST/doc/application_framework/application_framework/libraries/file_path_management.html" xr:uid="{9081010D-28CE-47CE-8552-0CD72293402A}"/>
-    <hyperlink ref="J18" r:id="rId25" display="https://nablarch.github.io/docs/LATEST/doc/application_framework/application_framework/libraries/file_path_management.html" xr:uid="{66B95FAD-9E0B-421A-8A41-BF56EF1441AA}"/>
-    <hyperlink ref="J17" r:id="rId26" xr:uid="{1DC4A8DD-45B1-4C98-9DFB-4B4E74AF8E1E}"/>
-    <hyperlink ref="J19" r:id="rId27" xr:uid="{F3C54DE0-374F-49D1-90BC-9C21C4296FF1}"/>
+    <hyperlink ref="J22" r:id="rId15" xr:uid="{E4086FF7-8748-4345-A8EF-669469E1FCBB}"/>
+    <hyperlink ref="J23" r:id="rId16" xr:uid="{220C99A0-3ABC-4A5A-98C0-CC1598477D52}"/>
+    <hyperlink ref="J24" r:id="rId17" xr:uid="{3DFE7743-D209-4BF5-B1C7-EBAAFEB522A0}"/>
+    <hyperlink ref="J28" r:id="rId18" xr:uid="{FE55259F-EBD9-400B-8C5C-D7F41D671AA4}"/>
+    <hyperlink ref="J47" r:id="rId19" location="mail-mail-header-injection" xr:uid="{11097F48-767C-453D-A534-B0A76E6A75D5}"/>
+    <hyperlink ref="J9" r:id="rId20" display="https://nablarch.github.io/docs/LATEST/doc/application_framework/application_framework/libraries/database_management.html" xr:uid="{19222547-30E5-4FE4-9BBF-90D3EFFD2E94}"/>
+    <hyperlink ref="J10" r:id="rId21" display="https://nablarch.github.io/docs/LATEST/doc/application_framework/application_framework/libraries/database_management.html" xr:uid="{37F252DC-3BDF-4B52-B6BE-ED9AA331E98B}"/>
+    <hyperlink ref="J11" r:id="rId22" display="https://nablarch.github.io/docs/LATEST/doc/application_framework/application_framework/libraries/database_management.html" xr:uid="{BDD35FD1-BB81-4115-B556-E70CCE286F8E}"/>
+    <hyperlink ref="J16" r:id="rId23" display="https://nablarch.github.io/docs/LATEST/doc/application_framework/application_framework/libraries/file_path_management.html" xr:uid="{9081010D-28CE-47CE-8552-0CD72293402A}"/>
+    <hyperlink ref="J18" r:id="rId24" display="https://nablarch.github.io/docs/LATEST/doc/application_framework/application_framework/libraries/file_path_management.html" xr:uid="{66B95FAD-9E0B-421A-8A41-BF56EF1441AA}"/>
+    <hyperlink ref="J17" r:id="rId25" xr:uid="{1DC4A8DD-45B1-4C98-9DFB-4B4E74AF8E1E}"/>
+    <hyperlink ref="J19" r:id="rId26" xr:uid="{F3C54DE0-374F-49D1-90BC-9C21C4296FF1}"/>
   </hyperlinks>
   <pageMargins left="0.78740157480314965" right="0.47244094488188981" top="0.6692913385826772" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="21" fitToHeight="2" orientation="portrait" r:id="rId28"/>
+  <pageSetup paperSize="9" scale="21" fitToHeight="2" orientation="portrait" r:id="rId27"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId29"/>
+  <drawing r:id="rId28"/>
 </worksheet>
 </file>
 
@@ -7067,22 +7132,22 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="19" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="19" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="71" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -7099,15 +7164,15 @@
     </row>
     <row r="7" spans="1:3" ht="84">
       <c r="B7" s="69" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C7" s="68" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" s="69" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C8" s="69" t="s">
         <v>143</v>
@@ -7115,39 +7180,39 @@
     </row>
     <row r="9" spans="1:3">
       <c r="B9" s="69" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C9" s="68" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="B10" s="17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="72">
       <c r="B11" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="B12" s="17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="B13" s="69" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C13" s="69" t="s">
         <v>142</v>
@@ -7155,15 +7220,15 @@
     </row>
     <row r="14" spans="1:3" ht="72">
       <c r="B14" s="69" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C14" s="68" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="B15" s="17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C15" s="69" t="s">
         <v>141</v>
@@ -7171,10 +7236,10 @@
     </row>
     <row r="16" spans="1:3" ht="36">
       <c r="B16" s="70" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C16" s="70" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>

--- a/サンプルプロジェクト/設計書/Nablarch機能のセキュリティ対応表.xlsx
+++ b/サンプルプロジェクト/設計書/Nablarch機能のセキュリティ対応表.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD1AB97-7AFC-4CED-AACF-134AC286C68D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC72209-1F69-43D5-8BDA-429FD8370078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="360" windowWidth="29040" windowHeight="15960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="9" r:id="rId1"/>
@@ -41,7 +41,7 @@
     <definedName name="NOTNULL">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'1.概要'!$A$1:$AR$52</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'2.チェックリスト'!$A$1:$L$59</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">改訂履歴!$A$1:$H$11</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">改訂履歴!$A$1:$H$13</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">改訂履歴!$1:$4</definedName>
     <definedName name="RuleComponent">#REF!</definedName>
     <definedName name="ｓｄ">#REF!</definedName>
@@ -102,7 +102,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -110,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="243">
   <si>
     <t>□</t>
     <phoneticPr fontId="2"/>
@@ -1144,10 +1147,6 @@
     <rPh sb="448" eb="450">
       <t>カイシ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>HTMLエスケープせずに値を出力する</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1780,28 +1779,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>PCI DDSSで定義された要件のうち 要件6.5. についてのみ以下にチェックリストとの対応を記載します。</t>
-    <rPh sb="9" eb="11">
-      <t>テイギ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヨウケン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ヨウケン</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>キサイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>※他に 要件8 などもアプリケーション実装に関するものですが、Nablarchでは対応していないため各プロジェクトで個別に対応してください。</t>
     <rPh sb="1" eb="2">
       <t>ホカ</t>
@@ -1943,11 +1920,6 @@
     <rPh sb="26" eb="28">
       <t>ハンダン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Nablarchカスタムタグで提供するprettyPrintタグは使用可能なタグおよび属性を指定して、エスケープなしに値を出力することができます。
-https://nablarch.github.io/docs/LATEST/doc/application_framework/application_framework/libraries/tag.html#tag-html-unescape</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -2282,6 +2254,101 @@
     </rPh>
     <rPh sb="367" eb="369">
       <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3.PCIDSS対応表</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TIS田中</t>
+    <rPh sb="3" eb="5">
+      <t>タナカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PCI DSSで定義された要件のうち 要件6.5. についてのみ以下にチェックリストとの対応を記載します。</t>
+    <rPh sb="8" eb="10">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヨウケン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヨウケン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PCI DDSS と誤記していたところを修正</t>
+    <rPh sb="10" eb="12">
+      <t>ゴキ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>以下のような方法での対応を検討してください。
+・OSSのHTMLパーサを使用して入力された値をパースし、使用できないHTMLタグが含まれていないかをバリデーションする
+・簡易的な装飾であれば、利用者にはMarkdownで入力してもらい、 OSSのJavaScriptライブラリを使用してクライアントサイドでMarkdownからHTMLに変換する</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ケントウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>prettyPrintタグの使用は非推奨としているので、Nablarchの対応状況を×に変更しOSSを利用した対応方法に解説を修正。</t>
+    <rPh sb="14" eb="16">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ヒスイショウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>カイセツ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>シュウセイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -4495,9 +4562,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -5208,7 +5275,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="24.75">
       <c r="A1" s="72" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B1" s="73"/>
       <c r="C1" s="73"/>
@@ -5224,23 +5291,23 @@
     </row>
     <row r="3" spans="1:9" s="76" customFormat="1">
       <c r="A3" s="89" t="s">
+        <v>217</v>
+      </c>
+      <c r="B3" s="89" t="s">
+        <v>218</v>
+      </c>
+      <c r="C3" s="89" t="s">
+        <v>219</v>
+      </c>
+      <c r="D3" s="89" t="s">
         <v>220</v>
-      </c>
-      <c r="B3" s="89" t="s">
-        <v>221</v>
-      </c>
-      <c r="C3" s="89" t="s">
-        <v>222</v>
-      </c>
-      <c r="D3" s="89" t="s">
-        <v>223</v>
       </c>
       <c r="E3" s="89"/>
       <c r="F3" s="89" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G3" s="89" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="76" customFormat="1">
@@ -5248,10 +5315,10 @@
       <c r="B4" s="89"/>
       <c r="C4" s="89"/>
       <c r="D4" s="77" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E4" s="77" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F4" s="89"/>
       <c r="G4" s="89"/>
@@ -5264,15 +5331,15 @@
         <v>41547</v>
       </c>
       <c r="C5" s="78" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D5" s="79"/>
       <c r="E5" s="79"/>
       <c r="F5" s="78" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G5" s="78" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="83" customFormat="1">
@@ -5283,19 +5350,19 @@
         <v>43949</v>
       </c>
       <c r="C6" s="78" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D6" s="79" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E6" s="79" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F6" s="78" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G6" s="78" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="83" customFormat="1">
@@ -5306,35 +5373,81 @@
         <v>43970</v>
       </c>
       <c r="C7" s="78" t="s">
+        <v>226</v>
+      </c>
+      <c r="D7" s="79" t="s">
+        <v>232</v>
+      </c>
+      <c r="E7" s="79" t="s">
+        <v>233</v>
+      </c>
+      <c r="F7" s="78" t="s">
+        <v>235</v>
+      </c>
+      <c r="G7" s="78" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="83" customFormat="1">
+      <c r="A8" s="78">
+        <v>4</v>
+      </c>
+      <c r="B8" s="82">
+        <v>44754</v>
+      </c>
+      <c r="C8" s="78" t="s">
+        <v>226</v>
+      </c>
+      <c r="D8" s="79" t="s">
+        <v>237</v>
+      </c>
+      <c r="E8" s="79" t="s">
+        <v>128</v>
+      </c>
+      <c r="F8" s="78" t="s">
+        <v>240</v>
+      </c>
+      <c r="G8" s="78" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="83" customFormat="1" ht="28.5">
+      <c r="A9" s="78">
+        <v>5</v>
+      </c>
+      <c r="B9" s="82">
+        <v>44754</v>
+      </c>
+      <c r="C9" s="78" t="s">
+        <v>226</v>
+      </c>
+      <c r="D9" s="79" t="s">
+        <v>232</v>
+      </c>
+      <c r="E9" s="79" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="78" t="s">
+        <v>242</v>
+      </c>
+      <c r="G9" s="78" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="83" customFormat="1">
+      <c r="A10" s="74" t="s">
         <v>229</v>
       </c>
-      <c r="D7" s="79" t="s">
-        <v>235</v>
-      </c>
-      <c r="E7" s="79" t="s">
-        <v>236</v>
-      </c>
-      <c r="F7" s="78" t="s">
-        <v>238</v>
-      </c>
-      <c r="G7" s="78" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="83" customFormat="1">
-      <c r="A8" s="74" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="86" customFormat="1" ht="18.75">
-      <c r="A9" s="84"/>
-      <c r="B9" s="85"/>
-      <c r="C9" s="85"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="85"/>
-      <c r="I9" s="87"/>
+    </row>
+    <row r="11" spans="1:9" s="86" customFormat="1" ht="18.75">
+      <c r="A11" s="84"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+      <c r="I11" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5346,7 +5459,7 @@
     <mergeCell ref="F3:F4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="G1:G2 G10:G65360">
+  <conditionalFormatting sqref="G1:G2 G12:G65362">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
@@ -5365,7 +5478,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59182785-6894-4709-A2E5-57E49270532F}">
   <dimension ref="B2:J48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="12"/>
   <cols>
@@ -5404,32 +5517,32 @@
     </row>
     <row r="10" spans="2:4">
       <c r="D10" s="21" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="2:4">
       <c r="D12" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="2:4">
       <c r="D13" s="21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="D14" s="21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="2:4">
       <c r="D15" s="21" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="16" spans="2:4">
       <c r="D16" s="21" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="4:4">
@@ -5444,38 +5557,38 @@
     </row>
     <row r="20" spans="4:4">
       <c r="D20" s="21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" s="21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="43" spans="3:10">
       <c r="C43" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="45" spans="3:10">
       <c r="D45" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="47" spans="3:10">
       <c r="F47" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J47" s="21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="48" spans="3:10">
       <c r="F48" s="21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J48" s="21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -5495,10 +5608,10 @@
   <dimension ref="A1:L59"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="8" topLeftCell="E34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="8" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="E9" sqref="E9:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -5520,25 +5633,25 @@
   <sheetData>
     <row r="1" spans="1:12" ht="16.5">
       <c r="A1" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B1" s="4"/>
     </row>
     <row r="2" spans="1:12" ht="16.5">
       <c r="A2" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:12" ht="16.5">
       <c r="A3" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:12" ht="16.5">
       <c r="A4" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B4" s="4"/>
     </row>
@@ -5550,7 +5663,7 @@
       <c r="A6" s="1"/>
       <c r="B6" s="4"/>
       <c r="F6" s="27" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -5726,7 +5839,7 @@
         <v>128</v>
       </c>
       <c r="K13" s="36" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L13" s="102"/>
     </row>
@@ -5786,7 +5899,7 @@
         <v>128</v>
       </c>
       <c r="K15" s="49" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L15" s="99"/>
     </row>
@@ -5814,13 +5927,13 @@
         <v>40</v>
       </c>
       <c r="J16" s="65" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K16" s="121" t="s">
         <v>127</v>
       </c>
       <c r="L16" s="98" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="2:12" ht="27" customHeight="1">
@@ -5854,7 +5967,7 @@
         <v>41</v>
       </c>
       <c r="J18" s="63" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K18" s="120" t="s">
         <v>127</v>
@@ -5897,7 +6010,7 @@
         <v>128</v>
       </c>
       <c r="K20" s="60" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L20" s="115"/>
     </row>
@@ -6030,7 +6143,7 @@
         <v>134</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L25" s="115"/>
     </row>
@@ -6050,7 +6163,7 @@
         <v>50</v>
       </c>
       <c r="J26" s="135" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K26" s="136"/>
       <c r="L26" s="115"/>
@@ -6135,7 +6248,7 @@
         <v>127</v>
       </c>
       <c r="L29" s="98" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="30" spans="2:12" ht="36">
@@ -6159,7 +6272,7 @@
         <v>128</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L30" s="115"/>
     </row>
@@ -6184,7 +6297,7 @@
         <v>128</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L31" s="115"/>
     </row>
@@ -6209,7 +6322,7 @@
         <v>128</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L32" s="115"/>
     </row>
@@ -6257,14 +6370,14 @@
       <c r="I34" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="J34" s="13" t="s">
-        <v>162</v>
+      <c r="J34" s="9" t="s">
+        <v>128</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>127</v>
+        <v>174</v>
       </c>
       <c r="L34" s="115" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
     </row>
     <row r="35" spans="2:12" ht="36">
@@ -6288,7 +6401,7 @@
         <v>128</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L35" s="115"/>
     </row>
@@ -6318,7 +6431,7 @@
         <v>155</v>
       </c>
       <c r="L36" s="115" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="37" spans="2:12" ht="36">
@@ -6342,7 +6455,7 @@
         <v>128</v>
       </c>
       <c r="K37" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L37" s="115"/>
     </row>
@@ -6395,13 +6508,13 @@
         <v>82</v>
       </c>
       <c r="J39" s="58" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="K39" s="32" t="s">
         <v>127</v>
       </c>
       <c r="L39" s="98" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="40" spans="2:12" ht="36">
@@ -6420,7 +6533,7 @@
         <v>84</v>
       </c>
       <c r="J40" s="135" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K40" s="136"/>
       <c r="L40" s="115"/>
@@ -6441,7 +6554,7 @@
         <v>86</v>
       </c>
       <c r="J41" s="135" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K41" s="136"/>
       <c r="L41" s="115"/>
@@ -6467,7 +6580,7 @@
         <v>128</v>
       </c>
       <c r="K42" s="36" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L42" s="116"/>
     </row>
@@ -6501,7 +6614,7 @@
         <v>127</v>
       </c>
       <c r="L43" s="98" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="44" spans="2:12" ht="36">
@@ -6520,7 +6633,7 @@
         <v>93</v>
       </c>
       <c r="J44" s="135" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K44" s="136"/>
       <c r="L44" s="115"/>
@@ -6546,7 +6659,7 @@
         <v>128</v>
       </c>
       <c r="K45" s="36" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L45" s="116"/>
     </row>
@@ -6577,10 +6690,10 @@
         <v>139</v>
       </c>
       <c r="K46" s="32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L46" s="98" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="47" spans="2:12" ht="36">
@@ -6602,7 +6715,7 @@
         <v>139</v>
       </c>
       <c r="K47" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L47" s="115"/>
     </row>
@@ -6627,7 +6740,7 @@
         <v>128</v>
       </c>
       <c r="K48" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L48" s="115"/>
     </row>
@@ -6652,7 +6765,7 @@
         <v>128</v>
       </c>
       <c r="K49" s="49" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L49" s="99"/>
     </row>
@@ -6686,7 +6799,7 @@
         <v>127</v>
       </c>
       <c r="L50" s="98" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="51" spans="2:12" ht="36">
@@ -6705,7 +6818,7 @@
         <v>110</v>
       </c>
       <c r="J51" s="135" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K51" s="136"/>
       <c r="L51" s="115"/>
@@ -6731,7 +6844,7 @@
         <v>128</v>
       </c>
       <c r="K52" s="36" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L52" s="116"/>
     </row>
@@ -6765,7 +6878,7 @@
         <v>127</v>
       </c>
       <c r="L53" s="98" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="54" spans="2:12" ht="30.75" customHeight="1">
@@ -6841,10 +6954,10 @@
         <v>133</v>
       </c>
       <c r="K56" s="32" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L56" s="98" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="57" spans="2:12" ht="36.75" thickBot="1">
@@ -6983,24 +7096,23 @@
     <hyperlink ref="J57" r:id="rId12" xr:uid="{7A4C070F-45E3-4C57-B9C0-345201DC3E9B}"/>
     <hyperlink ref="J21" r:id="rId13" xr:uid="{FA623ED8-E52C-4EDB-B36B-E099D21466CC}"/>
     <hyperlink ref="J25" r:id="rId14" location="L74" xr:uid="{3F799024-841A-4591-8AD7-C727A5B27D20}"/>
-    <hyperlink ref="J34" r:id="rId15" location="tag-html-unescape" xr:uid="{03ED6A5D-2F13-41DB-87A2-2FFB2FF1975C}"/>
-    <hyperlink ref="J22" r:id="rId16" xr:uid="{E4086FF7-8748-4345-A8EF-669469E1FCBB}"/>
-    <hyperlink ref="J23" r:id="rId17" xr:uid="{220C99A0-3ABC-4A5A-98C0-CC1598477D52}"/>
-    <hyperlink ref="J24" r:id="rId18" xr:uid="{3DFE7743-D209-4BF5-B1C7-EBAAFEB522A0}"/>
-    <hyperlink ref="J28" r:id="rId19" xr:uid="{FE55259F-EBD9-400B-8C5C-D7F41D671AA4}"/>
-    <hyperlink ref="J47" r:id="rId20" location="mail-mail-header-injection" xr:uid="{11097F48-767C-453D-A534-B0A76E6A75D5}"/>
-    <hyperlink ref="J9" r:id="rId21" display="https://nablarch.github.io/docs/LATEST/doc/application_framework/application_framework/libraries/database_management.html" xr:uid="{19222547-30E5-4FE4-9BBF-90D3EFFD2E94}"/>
-    <hyperlink ref="J10" r:id="rId22" display="https://nablarch.github.io/docs/LATEST/doc/application_framework/application_framework/libraries/database_management.html" xr:uid="{37F252DC-3BDF-4B52-B6BE-ED9AA331E98B}"/>
-    <hyperlink ref="J11" r:id="rId23" display="https://nablarch.github.io/docs/LATEST/doc/application_framework/application_framework/libraries/database_management.html" xr:uid="{BDD35FD1-BB81-4115-B556-E70CCE286F8E}"/>
-    <hyperlink ref="J16" r:id="rId24" display="https://nablarch.github.io/docs/LATEST/doc/application_framework/application_framework/libraries/file_path_management.html" xr:uid="{9081010D-28CE-47CE-8552-0CD72293402A}"/>
-    <hyperlink ref="J18" r:id="rId25" display="https://nablarch.github.io/docs/LATEST/doc/application_framework/application_framework/libraries/file_path_management.html" xr:uid="{66B95FAD-9E0B-421A-8A41-BF56EF1441AA}"/>
-    <hyperlink ref="J17" r:id="rId26" xr:uid="{1DC4A8DD-45B1-4C98-9DFB-4B4E74AF8E1E}"/>
-    <hyperlink ref="J19" r:id="rId27" xr:uid="{F3C54DE0-374F-49D1-90BC-9C21C4296FF1}"/>
+    <hyperlink ref="J22" r:id="rId15" xr:uid="{E4086FF7-8748-4345-A8EF-669469E1FCBB}"/>
+    <hyperlink ref="J23" r:id="rId16" xr:uid="{220C99A0-3ABC-4A5A-98C0-CC1598477D52}"/>
+    <hyperlink ref="J24" r:id="rId17" xr:uid="{3DFE7743-D209-4BF5-B1C7-EBAAFEB522A0}"/>
+    <hyperlink ref="J28" r:id="rId18" xr:uid="{FE55259F-EBD9-400B-8C5C-D7F41D671AA4}"/>
+    <hyperlink ref="J47" r:id="rId19" location="mail-mail-header-injection" xr:uid="{11097F48-767C-453D-A534-B0A76E6A75D5}"/>
+    <hyperlink ref="J9" r:id="rId20" display="https://nablarch.github.io/docs/LATEST/doc/application_framework/application_framework/libraries/database_management.html" xr:uid="{19222547-30E5-4FE4-9BBF-90D3EFFD2E94}"/>
+    <hyperlink ref="J10" r:id="rId21" display="https://nablarch.github.io/docs/LATEST/doc/application_framework/application_framework/libraries/database_management.html" xr:uid="{37F252DC-3BDF-4B52-B6BE-ED9AA331E98B}"/>
+    <hyperlink ref="J11" r:id="rId22" display="https://nablarch.github.io/docs/LATEST/doc/application_framework/application_framework/libraries/database_management.html" xr:uid="{BDD35FD1-BB81-4115-B556-E70CCE286F8E}"/>
+    <hyperlink ref="J16" r:id="rId23" display="https://nablarch.github.io/docs/LATEST/doc/application_framework/application_framework/libraries/file_path_management.html" xr:uid="{9081010D-28CE-47CE-8552-0CD72293402A}"/>
+    <hyperlink ref="J18" r:id="rId24" display="https://nablarch.github.io/docs/LATEST/doc/application_framework/application_framework/libraries/file_path_management.html" xr:uid="{66B95FAD-9E0B-421A-8A41-BF56EF1441AA}"/>
+    <hyperlink ref="J17" r:id="rId25" xr:uid="{1DC4A8DD-45B1-4C98-9DFB-4B4E74AF8E1E}"/>
+    <hyperlink ref="J19" r:id="rId26" xr:uid="{F3C54DE0-374F-49D1-90BC-9C21C4296FF1}"/>
   </hyperlinks>
   <pageMargins left="0.78740157480314965" right="0.47244094488188981" top="0.6692913385826772" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="21" fitToHeight="2" orientation="portrait" r:id="rId28"/>
+  <pageSetup paperSize="9" scale="21" fitToHeight="2" orientation="portrait" r:id="rId27"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId29"/>
+  <drawing r:id="rId28"/>
 </worksheet>
 </file>
 
@@ -7020,22 +7132,22 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="19" t="s">
-        <v>207</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="19" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="71" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -7052,15 +7164,15 @@
     </row>
     <row r="7" spans="1:3" ht="84">
       <c r="B7" s="69" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C7" s="68" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" s="69" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C8" s="69" t="s">
         <v>143</v>
@@ -7068,39 +7180,39 @@
     </row>
     <row r="9" spans="1:3">
       <c r="B9" s="69" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C9" s="68" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="B10" s="17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="72">
       <c r="B11" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="B12" s="17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="B13" s="69" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C13" s="69" t="s">
         <v>142</v>
@@ -7108,15 +7220,15 @@
     </row>
     <row r="14" spans="1:3" ht="72">
       <c r="B14" s="69" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C14" s="68" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="B15" s="17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C15" s="69" t="s">
         <v>141</v>
@@ -7124,10 +7236,10 @@
     </row>
     <row r="16" spans="1:3" ht="36">
       <c r="B16" s="70" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C16" s="70" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>

--- a/サンプルプロジェクト/設計書/Nablarch機能のセキュリティ対応表.xlsx
+++ b/サンプルプロジェクト/設計書/Nablarch機能のセキュリティ対応表.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC72209-1F69-43D5-8BDA-429FD8370078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E880971-B7C7-422C-A0A3-B9F14324309E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="9" r:id="rId1"/>
@@ -13,89 +13,12 @@
     <sheet name="2.チェックリスト" sheetId="6" r:id="rId3"/>
     <sheet name="3.PCIDSS対応表" sheetId="7" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-    <externalReference r:id="rId6"/>
-    <externalReference r:id="rId7"/>
-  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">改訂履歴!$A$1:$I$2</definedName>
-    <definedName name="_Regression_X" hidden="1">#REF!</definedName>
-    <definedName name="①">#REF!</definedName>
-    <definedName name="②">#REF!</definedName>
-    <definedName name="aaa">#REF!</definedName>
-    <definedName name="aaaaa">#REF!</definedName>
-    <definedName name="Action">#REF!</definedName>
-    <definedName name="ActionForm">#REF!</definedName>
-    <definedName name="boundary">#REF!</definedName>
-    <definedName name="btnSakusei_click">[1]!btnSakusei_click</definedName>
-    <definedName name="BusinessService">#REF!</definedName>
-    <definedName name="Crisテーブル一覧">#REF!</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="0">改訂履歴!#REF!</definedName>
-    <definedName name="DBI">#REF!</definedName>
-    <definedName name="DB名">#REF!</definedName>
-    <definedName name="ENID">#REF!</definedName>
-    <definedName name="ha">#REF!</definedName>
-    <definedName name="hahaha">#REF!</definedName>
-    <definedName name="hahahaha">#REF!</definedName>
-    <definedName name="NOTNULL">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'1.概要'!$A$1:$AR$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">改訂履歴!$A$1:$I$2</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'1.概要'!$A$1:$AQ$52</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'2.チェックリスト'!$A$1:$L$59</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">改訂履歴!$A$1:$H$13</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">改訂履歴!$1:$4</definedName>
-    <definedName name="RuleComponent">#REF!</definedName>
-    <definedName name="ｓｄ">#REF!</definedName>
-    <definedName name="ServiceComponent">#REF!</definedName>
-    <definedName name="sss">#REF!</definedName>
-    <definedName name="utility">#REF!</definedName>
-    <definedName name="ｖｖｖ">#REF!</definedName>
-    <definedName name="x">[2]画面対応表!$B$2:$E$12</definedName>
-    <definedName name="あ">#REF!</definedName>
-    <definedName name="ああああ">'[3]３．２．１．５．リアルタイム_ステレオタイプ'!$D$185</definedName>
-    <definedName name="あああああ">'[3]３．２．１．５．リアルタイム_ステレオタイプ'!$D$260</definedName>
-    <definedName name="ｲﾝｽﾀﾝｽ一覧0930">#REF!</definedName>
-    <definedName name="クエリ1">#REF!</definedName>
-    <definedName name="サブシステム名">#REF!</definedName>
-    <definedName name="システム名">#REF!</definedName>
-    <definedName name="ﾄﾞﾒｲﾝ一覧0930">#REF!</definedName>
-    <definedName name="ﾏｯﾋﾟﾝｸﾞ_実体･分析対象対応_0930">#REF!</definedName>
-    <definedName name="ﾏｯﾋﾟﾝｸﾞ_分析対象ﾌｨｰﾙﾄﾞ･情報項目対応_0930">#REF!</definedName>
-    <definedName name="画面一覧">#REF!</definedName>
-    <definedName name="画面一覧２">#REF!</definedName>
-    <definedName name="関連表" hidden="1">#REF!</definedName>
-    <definedName name="基本キー">#REF!</definedName>
-    <definedName name="基本用語一覧0930">#REF!</definedName>
-    <definedName name="更新者">#REF!</definedName>
-    <definedName name="更新日">#REF!</definedName>
-    <definedName name="行長">#REF!</definedName>
-    <definedName name="項目ID">#REF!</definedName>
-    <definedName name="項目No">#REF!</definedName>
-    <definedName name="項目名">#REF!</definedName>
-    <definedName name="最新版日本語名称基本">#REF!</definedName>
-    <definedName name="最新版日本語名称基本の重複レコード2">#REF!</definedName>
-    <definedName name="作成者">#REF!</definedName>
-    <definedName name="作成日">#REF!</definedName>
-    <definedName name="索引1">#REF!</definedName>
-    <definedName name="索引2">#REF!</definedName>
-    <definedName name="索引3">#REF!</definedName>
-    <definedName name="索引4">#REF!</definedName>
-    <definedName name="索引5">#REF!</definedName>
-    <definedName name="索引6">#REF!</definedName>
-    <definedName name="索引7">#REF!</definedName>
-    <definedName name="索引P">#REF!</definedName>
-    <definedName name="実体一覧0930">#REF!</definedName>
-    <definedName name="小数桁数">#REF!</definedName>
-    <definedName name="情報項目一覧0930">#REF!</definedName>
-    <definedName name="成果物一覧２" hidden="1">#REF!</definedName>
-    <definedName name="属性">#REF!</definedName>
-    <definedName name="備考">#REF!</definedName>
-    <definedName name="表ID">#REF!</definedName>
-    <definedName name="表の備考">#REF!</definedName>
-    <definedName name="表名">#REF!</definedName>
-    <definedName name="文書名">#REF!</definedName>
-    <definedName name="明細エリア">#REF!</definedName>
-    <definedName name="有効桁数">#REF!</definedName>
-    <definedName name="列長">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2892,7 +2815,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2912,14 +2835,11 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2930,7 +2850,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1">
@@ -2955,16 +2875,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -2980,20 +2894,17 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3004,13 +2915,7 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3019,21 +2924,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3049,53 +2945,23 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3153,6 +3019,117 @@
     <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3165,24 +3142,9 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3195,9 +3157,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -3210,101 +3169,8 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3999,245 +3865,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="WorkingLisKANJIt"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="btnSakusei_click"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="TRO管理"/>
-      <sheetName val="画面対応表"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="2">
-          <cell r="B2" t="str">
-            <v>MG111-01</v>
-          </cell>
-          <cell r="C2" t="str">
-            <v>MG111_default</v>
-          </cell>
-          <cell r="D2" t="str">
-            <v>給与指数キー指定画面</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3" t="str">
-            <v>MG111-10</v>
-          </cell>
-          <cell r="C3" t="str">
-            <v>MG111_regist</v>
-          </cell>
-          <cell r="D3" t="str">
-            <v>給与指数詳細登録画面</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4" t="str">
-            <v>MG111-11</v>
-          </cell>
-          <cell r="C4" t="str">
-            <v>MG111_regresult</v>
-          </cell>
-          <cell r="D4" t="str">
-            <v>給与指数登録結果画面</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5" t="str">
-            <v>MG111-20</v>
-          </cell>
-          <cell r="C5" t="str">
-            <v>MG111_copykey</v>
-          </cell>
-          <cell r="D5" t="str">
-            <v>給与指数コピー元指定画面</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6" t="str">
-            <v>MG111-21</v>
-          </cell>
-          <cell r="C6" t="str">
-            <v>MG111_modentry</v>
-          </cell>
-          <cell r="D6" t="str">
-            <v>給与指数詳細コピー登録画面</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7" t="str">
-            <v>MG111-22</v>
-          </cell>
-          <cell r="C7" t="str">
-            <v>MG111_regresult</v>
-          </cell>
-          <cell r="D7" t="str">
-            <v>給与指数コピー登録結果画面</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8" t="str">
-            <v>MG111-30</v>
-          </cell>
-          <cell r="C8" t="str">
-            <v>MG111_modentry</v>
-          </cell>
-          <cell r="D8" t="str">
-            <v>給与指数詳細変更画面</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9" t="str">
-            <v>MG111-31</v>
-          </cell>
-          <cell r="C9" t="str">
-            <v>MG111_regresult</v>
-          </cell>
-          <cell r="D9" t="str">
-            <v>給与指数変更結果画面</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10" t="str">
-            <v>MG111-40</v>
-          </cell>
-          <cell r="C10" t="str">
-            <v>MG111_inquiry</v>
-          </cell>
-          <cell r="D10" t="str">
-            <v>給与指数詳細照会画面</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11" t="str">
-            <v>MG111-50</v>
-          </cell>
-          <cell r="C11" t="str">
-            <v>MG111_delentry</v>
-          </cell>
-          <cell r="D11" t="str">
-            <v>給与指数詳細削除画面</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12" t="str">
-            <v>MG111-51</v>
-          </cell>
-          <cell r="C12" t="str">
-            <v>MG111_delresult</v>
-          </cell>
-          <cell r="D12" t="str">
-            <v>給与指数削除結果画面</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="表紙"/>
-      <sheetName val="変更履歴"/>
-      <sheetName val="目次"/>
-      <sheetName val="１．当資料の位置付け"/>
-      <sheetName val="２．プラットフォーム"/>
-      <sheetName val="３．処理パターン"/>
-      <sheetName val="３．１．処理パターン一覧"/>
-      <sheetName val="３．２．処理方式別パターン詳細"/>
-      <sheetName val="３．２．１．リアルタイム処理"/>
-      <sheetName val="３．２．１．５．リアルタイム_ステレオタイプ"/>
-      <sheetName val="３．２．２．バッチ処理"/>
-      <sheetName val="３．２．３．センターカット処理"/>
-      <sheetName val="３．２．４．システム間連携処理"/>
-      <sheetName val="３．２．５．ディレード処理"/>
-      <sheetName val="３．２．６．ワークフロー処理"/>
-      <sheetName val="３．２．７．帳票処理"/>
-      <sheetName val="３．２．８．ＦＡＸ処理"/>
-      <sheetName val="３．２．９．イメージ処理"/>
-      <sheetName val="３．２．１０．ファイルアップロード"/>
-      <sheetName val="４．処理パターン組み合わせ"/>
-      <sheetName val="別紙１－１　画面オンライン（更新）の処理フロー"/>
-      <sheetName val="別紙１－２　画面オンライン（会話型）の処理フロー"/>
-      <sheetName val="別紙２ WF（案件情報新規登録パターン）の処理フロー"/>
-      <sheetName val="別紙３ WF（前進パターン）の処理フロー"/>
-      <sheetName val="別紙４ WF（承認パターン）の処理フロー"/>
-      <sheetName val="別紙５ WF(選択・ｽｷｯﾌﾟ）ﾊﾟﾀﾝの処理フロー"/>
-      <sheetName val="別紙６ WF（保留パターン）の処理フロー"/>
-      <sheetName val="別紙７ WF（破棄パターン）の処理フロー"/>
-      <sheetName val="別紙８ CC_WF（案件新規一括登録パターン）の処理フロー"/>
-      <sheetName val="別紙９－１　ファイルアップロード（リクエスト）の処理フロー"/>
-      <sheetName val="別紙９－２　ファイルアップロード（業務）の処理フロー"/>
-      <sheetName val="テンプレート"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9">
-        <row r="185">
-          <cell r="D185" t="str">
-            <v>（６）　《Service Component》ステレオタイプ</v>
-          </cell>
-        </row>
-        <row r="260">
-          <cell r="D260" t="str">
-            <v>（９）　《utility Component》ステレオタイプ</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -4559,7 +4186,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB25FAB2-DFB9-4E29-A9AD-B28991A70D4E}">
-  <sheetPr>
+  <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:I11"/>
@@ -4568,886 +4195,886 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="3.875" style="74" customWidth="1"/>
-    <col min="2" max="2" width="9" style="74" customWidth="1"/>
-    <col min="3" max="3" width="4.875" style="88" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="88" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.375" style="74" customWidth="1"/>
-    <col min="6" max="6" width="52.625" style="74" customWidth="1"/>
-    <col min="7" max="7" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.5" style="74" customWidth="1"/>
-    <col min="9" max="9" width="8.625" style="88" customWidth="1"/>
-    <col min="10" max="255" width="9" style="74"/>
-    <col min="256" max="256" width="3.875" style="74" customWidth="1"/>
-    <col min="257" max="257" width="5.5" style="74" customWidth="1"/>
-    <col min="258" max="258" width="9" style="74"/>
-    <col min="259" max="259" width="4.875" style="74" customWidth="1"/>
-    <col min="260" max="260" width="11.75" style="74" customWidth="1"/>
-    <col min="261" max="261" width="14.375" style="74" customWidth="1"/>
-    <col min="262" max="262" width="52.625" style="74" customWidth="1"/>
-    <col min="263" max="263" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="264" max="264" width="5.5" style="74" customWidth="1"/>
-    <col min="265" max="265" width="8.625" style="74" customWidth="1"/>
-    <col min="266" max="511" width="9" style="74"/>
-    <col min="512" max="512" width="3.875" style="74" customWidth="1"/>
-    <col min="513" max="513" width="5.5" style="74" customWidth="1"/>
-    <col min="514" max="514" width="9" style="74"/>
-    <col min="515" max="515" width="4.875" style="74" customWidth="1"/>
-    <col min="516" max="516" width="11.75" style="74" customWidth="1"/>
-    <col min="517" max="517" width="14.375" style="74" customWidth="1"/>
-    <col min="518" max="518" width="52.625" style="74" customWidth="1"/>
-    <col min="519" max="519" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="520" max="520" width="5.5" style="74" customWidth="1"/>
-    <col min="521" max="521" width="8.625" style="74" customWidth="1"/>
-    <col min="522" max="767" width="9" style="74"/>
-    <col min="768" max="768" width="3.875" style="74" customWidth="1"/>
-    <col min="769" max="769" width="5.5" style="74" customWidth="1"/>
-    <col min="770" max="770" width="9" style="74"/>
-    <col min="771" max="771" width="4.875" style="74" customWidth="1"/>
-    <col min="772" max="772" width="11.75" style="74" customWidth="1"/>
-    <col min="773" max="773" width="14.375" style="74" customWidth="1"/>
-    <col min="774" max="774" width="52.625" style="74" customWidth="1"/>
-    <col min="775" max="775" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="776" max="776" width="5.5" style="74" customWidth="1"/>
-    <col min="777" max="777" width="8.625" style="74" customWidth="1"/>
-    <col min="778" max="1023" width="9" style="74"/>
-    <col min="1024" max="1024" width="3.875" style="74" customWidth="1"/>
-    <col min="1025" max="1025" width="5.5" style="74" customWidth="1"/>
-    <col min="1026" max="1026" width="9" style="74"/>
-    <col min="1027" max="1027" width="4.875" style="74" customWidth="1"/>
-    <col min="1028" max="1028" width="11.75" style="74" customWidth="1"/>
-    <col min="1029" max="1029" width="14.375" style="74" customWidth="1"/>
-    <col min="1030" max="1030" width="52.625" style="74" customWidth="1"/>
-    <col min="1031" max="1031" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="1032" max="1032" width="5.5" style="74" customWidth="1"/>
-    <col min="1033" max="1033" width="8.625" style="74" customWidth="1"/>
-    <col min="1034" max="1279" width="9" style="74"/>
-    <col min="1280" max="1280" width="3.875" style="74" customWidth="1"/>
-    <col min="1281" max="1281" width="5.5" style="74" customWidth="1"/>
-    <col min="1282" max="1282" width="9" style="74"/>
-    <col min="1283" max="1283" width="4.875" style="74" customWidth="1"/>
-    <col min="1284" max="1284" width="11.75" style="74" customWidth="1"/>
-    <col min="1285" max="1285" width="14.375" style="74" customWidth="1"/>
-    <col min="1286" max="1286" width="52.625" style="74" customWidth="1"/>
-    <col min="1287" max="1287" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="1288" max="1288" width="5.5" style="74" customWidth="1"/>
-    <col min="1289" max="1289" width="8.625" style="74" customWidth="1"/>
-    <col min="1290" max="1535" width="9" style="74"/>
-    <col min="1536" max="1536" width="3.875" style="74" customWidth="1"/>
-    <col min="1537" max="1537" width="5.5" style="74" customWidth="1"/>
-    <col min="1538" max="1538" width="9" style="74"/>
-    <col min="1539" max="1539" width="4.875" style="74" customWidth="1"/>
-    <col min="1540" max="1540" width="11.75" style="74" customWidth="1"/>
-    <col min="1541" max="1541" width="14.375" style="74" customWidth="1"/>
-    <col min="1542" max="1542" width="52.625" style="74" customWidth="1"/>
-    <col min="1543" max="1543" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="1544" max="1544" width="5.5" style="74" customWidth="1"/>
-    <col min="1545" max="1545" width="8.625" style="74" customWidth="1"/>
-    <col min="1546" max="1791" width="9" style="74"/>
-    <col min="1792" max="1792" width="3.875" style="74" customWidth="1"/>
-    <col min="1793" max="1793" width="5.5" style="74" customWidth="1"/>
-    <col min="1794" max="1794" width="9" style="74"/>
-    <col min="1795" max="1795" width="4.875" style="74" customWidth="1"/>
-    <col min="1796" max="1796" width="11.75" style="74" customWidth="1"/>
-    <col min="1797" max="1797" width="14.375" style="74" customWidth="1"/>
-    <col min="1798" max="1798" width="52.625" style="74" customWidth="1"/>
-    <col min="1799" max="1799" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="1800" max="1800" width="5.5" style="74" customWidth="1"/>
-    <col min="1801" max="1801" width="8.625" style="74" customWidth="1"/>
-    <col min="1802" max="2047" width="9" style="74"/>
-    <col min="2048" max="2048" width="3.875" style="74" customWidth="1"/>
-    <col min="2049" max="2049" width="5.5" style="74" customWidth="1"/>
-    <col min="2050" max="2050" width="9" style="74"/>
-    <col min="2051" max="2051" width="4.875" style="74" customWidth="1"/>
-    <col min="2052" max="2052" width="11.75" style="74" customWidth="1"/>
-    <col min="2053" max="2053" width="14.375" style="74" customWidth="1"/>
-    <col min="2054" max="2054" width="52.625" style="74" customWidth="1"/>
-    <col min="2055" max="2055" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="2056" max="2056" width="5.5" style="74" customWidth="1"/>
-    <col min="2057" max="2057" width="8.625" style="74" customWidth="1"/>
-    <col min="2058" max="2303" width="9" style="74"/>
-    <col min="2304" max="2304" width="3.875" style="74" customWidth="1"/>
-    <col min="2305" max="2305" width="5.5" style="74" customWidth="1"/>
-    <col min="2306" max="2306" width="9" style="74"/>
-    <col min="2307" max="2307" width="4.875" style="74" customWidth="1"/>
-    <col min="2308" max="2308" width="11.75" style="74" customWidth="1"/>
-    <col min="2309" max="2309" width="14.375" style="74" customWidth="1"/>
-    <col min="2310" max="2310" width="52.625" style="74" customWidth="1"/>
-    <col min="2311" max="2311" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="2312" max="2312" width="5.5" style="74" customWidth="1"/>
-    <col min="2313" max="2313" width="8.625" style="74" customWidth="1"/>
-    <col min="2314" max="2559" width="9" style="74"/>
-    <col min="2560" max="2560" width="3.875" style="74" customWidth="1"/>
-    <col min="2561" max="2561" width="5.5" style="74" customWidth="1"/>
-    <col min="2562" max="2562" width="9" style="74"/>
-    <col min="2563" max="2563" width="4.875" style="74" customWidth="1"/>
-    <col min="2564" max="2564" width="11.75" style="74" customWidth="1"/>
-    <col min="2565" max="2565" width="14.375" style="74" customWidth="1"/>
-    <col min="2566" max="2566" width="52.625" style="74" customWidth="1"/>
-    <col min="2567" max="2567" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="2568" max="2568" width="5.5" style="74" customWidth="1"/>
-    <col min="2569" max="2569" width="8.625" style="74" customWidth="1"/>
-    <col min="2570" max="2815" width="9" style="74"/>
-    <col min="2816" max="2816" width="3.875" style="74" customWidth="1"/>
-    <col min="2817" max="2817" width="5.5" style="74" customWidth="1"/>
-    <col min="2818" max="2818" width="9" style="74"/>
-    <col min="2819" max="2819" width="4.875" style="74" customWidth="1"/>
-    <col min="2820" max="2820" width="11.75" style="74" customWidth="1"/>
-    <col min="2821" max="2821" width="14.375" style="74" customWidth="1"/>
-    <col min="2822" max="2822" width="52.625" style="74" customWidth="1"/>
-    <col min="2823" max="2823" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="2824" max="2824" width="5.5" style="74" customWidth="1"/>
-    <col min="2825" max="2825" width="8.625" style="74" customWidth="1"/>
-    <col min="2826" max="3071" width="9" style="74"/>
-    <col min="3072" max="3072" width="3.875" style="74" customWidth="1"/>
-    <col min="3073" max="3073" width="5.5" style="74" customWidth="1"/>
-    <col min="3074" max="3074" width="9" style="74"/>
-    <col min="3075" max="3075" width="4.875" style="74" customWidth="1"/>
-    <col min="3076" max="3076" width="11.75" style="74" customWidth="1"/>
-    <col min="3077" max="3077" width="14.375" style="74" customWidth="1"/>
-    <col min="3078" max="3078" width="52.625" style="74" customWidth="1"/>
-    <col min="3079" max="3079" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="3080" max="3080" width="5.5" style="74" customWidth="1"/>
-    <col min="3081" max="3081" width="8.625" style="74" customWidth="1"/>
-    <col min="3082" max="3327" width="9" style="74"/>
-    <col min="3328" max="3328" width="3.875" style="74" customWidth="1"/>
-    <col min="3329" max="3329" width="5.5" style="74" customWidth="1"/>
-    <col min="3330" max="3330" width="9" style="74"/>
-    <col min="3331" max="3331" width="4.875" style="74" customWidth="1"/>
-    <col min="3332" max="3332" width="11.75" style="74" customWidth="1"/>
-    <col min="3333" max="3333" width="14.375" style="74" customWidth="1"/>
-    <col min="3334" max="3334" width="52.625" style="74" customWidth="1"/>
-    <col min="3335" max="3335" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="3336" max="3336" width="5.5" style="74" customWidth="1"/>
-    <col min="3337" max="3337" width="8.625" style="74" customWidth="1"/>
-    <col min="3338" max="3583" width="9" style="74"/>
-    <col min="3584" max="3584" width="3.875" style="74" customWidth="1"/>
-    <col min="3585" max="3585" width="5.5" style="74" customWidth="1"/>
-    <col min="3586" max="3586" width="9" style="74"/>
-    <col min="3587" max="3587" width="4.875" style="74" customWidth="1"/>
-    <col min="3588" max="3588" width="11.75" style="74" customWidth="1"/>
-    <col min="3589" max="3589" width="14.375" style="74" customWidth="1"/>
-    <col min="3590" max="3590" width="52.625" style="74" customWidth="1"/>
-    <col min="3591" max="3591" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="3592" max="3592" width="5.5" style="74" customWidth="1"/>
-    <col min="3593" max="3593" width="8.625" style="74" customWidth="1"/>
-    <col min="3594" max="3839" width="9" style="74"/>
-    <col min="3840" max="3840" width="3.875" style="74" customWidth="1"/>
-    <col min="3841" max="3841" width="5.5" style="74" customWidth="1"/>
-    <col min="3842" max="3842" width="9" style="74"/>
-    <col min="3843" max="3843" width="4.875" style="74" customWidth="1"/>
-    <col min="3844" max="3844" width="11.75" style="74" customWidth="1"/>
-    <col min="3845" max="3845" width="14.375" style="74" customWidth="1"/>
-    <col min="3846" max="3846" width="52.625" style="74" customWidth="1"/>
-    <col min="3847" max="3847" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="3848" max="3848" width="5.5" style="74" customWidth="1"/>
-    <col min="3849" max="3849" width="8.625" style="74" customWidth="1"/>
-    <col min="3850" max="4095" width="9" style="74"/>
-    <col min="4096" max="4096" width="3.875" style="74" customWidth="1"/>
-    <col min="4097" max="4097" width="5.5" style="74" customWidth="1"/>
-    <col min="4098" max="4098" width="9" style="74"/>
-    <col min="4099" max="4099" width="4.875" style="74" customWidth="1"/>
-    <col min="4100" max="4100" width="11.75" style="74" customWidth="1"/>
-    <col min="4101" max="4101" width="14.375" style="74" customWidth="1"/>
-    <col min="4102" max="4102" width="52.625" style="74" customWidth="1"/>
-    <col min="4103" max="4103" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="4104" max="4104" width="5.5" style="74" customWidth="1"/>
-    <col min="4105" max="4105" width="8.625" style="74" customWidth="1"/>
-    <col min="4106" max="4351" width="9" style="74"/>
-    <col min="4352" max="4352" width="3.875" style="74" customWidth="1"/>
-    <col min="4353" max="4353" width="5.5" style="74" customWidth="1"/>
-    <col min="4354" max="4354" width="9" style="74"/>
-    <col min="4355" max="4355" width="4.875" style="74" customWidth="1"/>
-    <col min="4356" max="4356" width="11.75" style="74" customWidth="1"/>
-    <col min="4357" max="4357" width="14.375" style="74" customWidth="1"/>
-    <col min="4358" max="4358" width="52.625" style="74" customWidth="1"/>
-    <col min="4359" max="4359" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="4360" max="4360" width="5.5" style="74" customWidth="1"/>
-    <col min="4361" max="4361" width="8.625" style="74" customWidth="1"/>
-    <col min="4362" max="4607" width="9" style="74"/>
-    <col min="4608" max="4608" width="3.875" style="74" customWidth="1"/>
-    <col min="4609" max="4609" width="5.5" style="74" customWidth="1"/>
-    <col min="4610" max="4610" width="9" style="74"/>
-    <col min="4611" max="4611" width="4.875" style="74" customWidth="1"/>
-    <col min="4612" max="4612" width="11.75" style="74" customWidth="1"/>
-    <col min="4613" max="4613" width="14.375" style="74" customWidth="1"/>
-    <col min="4614" max="4614" width="52.625" style="74" customWidth="1"/>
-    <col min="4615" max="4615" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="4616" max="4616" width="5.5" style="74" customWidth="1"/>
-    <col min="4617" max="4617" width="8.625" style="74" customWidth="1"/>
-    <col min="4618" max="4863" width="9" style="74"/>
-    <col min="4864" max="4864" width="3.875" style="74" customWidth="1"/>
-    <col min="4865" max="4865" width="5.5" style="74" customWidth="1"/>
-    <col min="4866" max="4866" width="9" style="74"/>
-    <col min="4867" max="4867" width="4.875" style="74" customWidth="1"/>
-    <col min="4868" max="4868" width="11.75" style="74" customWidth="1"/>
-    <col min="4869" max="4869" width="14.375" style="74" customWidth="1"/>
-    <col min="4870" max="4870" width="52.625" style="74" customWidth="1"/>
-    <col min="4871" max="4871" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="4872" max="4872" width="5.5" style="74" customWidth="1"/>
-    <col min="4873" max="4873" width="8.625" style="74" customWidth="1"/>
-    <col min="4874" max="5119" width="9" style="74"/>
-    <col min="5120" max="5120" width="3.875" style="74" customWidth="1"/>
-    <col min="5121" max="5121" width="5.5" style="74" customWidth="1"/>
-    <col min="5122" max="5122" width="9" style="74"/>
-    <col min="5123" max="5123" width="4.875" style="74" customWidth="1"/>
-    <col min="5124" max="5124" width="11.75" style="74" customWidth="1"/>
-    <col min="5125" max="5125" width="14.375" style="74" customWidth="1"/>
-    <col min="5126" max="5126" width="52.625" style="74" customWidth="1"/>
-    <col min="5127" max="5127" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="5128" max="5128" width="5.5" style="74" customWidth="1"/>
-    <col min="5129" max="5129" width="8.625" style="74" customWidth="1"/>
-    <col min="5130" max="5375" width="9" style="74"/>
-    <col min="5376" max="5376" width="3.875" style="74" customWidth="1"/>
-    <col min="5377" max="5377" width="5.5" style="74" customWidth="1"/>
-    <col min="5378" max="5378" width="9" style="74"/>
-    <col min="5379" max="5379" width="4.875" style="74" customWidth="1"/>
-    <col min="5380" max="5380" width="11.75" style="74" customWidth="1"/>
-    <col min="5381" max="5381" width="14.375" style="74" customWidth="1"/>
-    <col min="5382" max="5382" width="52.625" style="74" customWidth="1"/>
-    <col min="5383" max="5383" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="5384" max="5384" width="5.5" style="74" customWidth="1"/>
-    <col min="5385" max="5385" width="8.625" style="74" customWidth="1"/>
-    <col min="5386" max="5631" width="9" style="74"/>
-    <col min="5632" max="5632" width="3.875" style="74" customWidth="1"/>
-    <col min="5633" max="5633" width="5.5" style="74" customWidth="1"/>
-    <col min="5634" max="5634" width="9" style="74"/>
-    <col min="5635" max="5635" width="4.875" style="74" customWidth="1"/>
-    <col min="5636" max="5636" width="11.75" style="74" customWidth="1"/>
-    <col min="5637" max="5637" width="14.375" style="74" customWidth="1"/>
-    <col min="5638" max="5638" width="52.625" style="74" customWidth="1"/>
-    <col min="5639" max="5639" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="5640" max="5640" width="5.5" style="74" customWidth="1"/>
-    <col min="5641" max="5641" width="8.625" style="74" customWidth="1"/>
-    <col min="5642" max="5887" width="9" style="74"/>
-    <col min="5888" max="5888" width="3.875" style="74" customWidth="1"/>
-    <col min="5889" max="5889" width="5.5" style="74" customWidth="1"/>
-    <col min="5890" max="5890" width="9" style="74"/>
-    <col min="5891" max="5891" width="4.875" style="74" customWidth="1"/>
-    <col min="5892" max="5892" width="11.75" style="74" customWidth="1"/>
-    <col min="5893" max="5893" width="14.375" style="74" customWidth="1"/>
-    <col min="5894" max="5894" width="52.625" style="74" customWidth="1"/>
-    <col min="5895" max="5895" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="5896" max="5896" width="5.5" style="74" customWidth="1"/>
-    <col min="5897" max="5897" width="8.625" style="74" customWidth="1"/>
-    <col min="5898" max="6143" width="9" style="74"/>
-    <col min="6144" max="6144" width="3.875" style="74" customWidth="1"/>
-    <col min="6145" max="6145" width="5.5" style="74" customWidth="1"/>
-    <col min="6146" max="6146" width="9" style="74"/>
-    <col min="6147" max="6147" width="4.875" style="74" customWidth="1"/>
-    <col min="6148" max="6148" width="11.75" style="74" customWidth="1"/>
-    <col min="6149" max="6149" width="14.375" style="74" customWidth="1"/>
-    <col min="6150" max="6150" width="52.625" style="74" customWidth="1"/>
-    <col min="6151" max="6151" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="6152" max="6152" width="5.5" style="74" customWidth="1"/>
-    <col min="6153" max="6153" width="8.625" style="74" customWidth="1"/>
-    <col min="6154" max="6399" width="9" style="74"/>
-    <col min="6400" max="6400" width="3.875" style="74" customWidth="1"/>
-    <col min="6401" max="6401" width="5.5" style="74" customWidth="1"/>
-    <col min="6402" max="6402" width="9" style="74"/>
-    <col min="6403" max="6403" width="4.875" style="74" customWidth="1"/>
-    <col min="6404" max="6404" width="11.75" style="74" customWidth="1"/>
-    <col min="6405" max="6405" width="14.375" style="74" customWidth="1"/>
-    <col min="6406" max="6406" width="52.625" style="74" customWidth="1"/>
-    <col min="6407" max="6407" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="6408" max="6408" width="5.5" style="74" customWidth="1"/>
-    <col min="6409" max="6409" width="8.625" style="74" customWidth="1"/>
-    <col min="6410" max="6655" width="9" style="74"/>
-    <col min="6656" max="6656" width="3.875" style="74" customWidth="1"/>
-    <col min="6657" max="6657" width="5.5" style="74" customWidth="1"/>
-    <col min="6658" max="6658" width="9" style="74"/>
-    <col min="6659" max="6659" width="4.875" style="74" customWidth="1"/>
-    <col min="6660" max="6660" width="11.75" style="74" customWidth="1"/>
-    <col min="6661" max="6661" width="14.375" style="74" customWidth="1"/>
-    <col min="6662" max="6662" width="52.625" style="74" customWidth="1"/>
-    <col min="6663" max="6663" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="6664" max="6664" width="5.5" style="74" customWidth="1"/>
-    <col min="6665" max="6665" width="8.625" style="74" customWidth="1"/>
-    <col min="6666" max="6911" width="9" style="74"/>
-    <col min="6912" max="6912" width="3.875" style="74" customWidth="1"/>
-    <col min="6913" max="6913" width="5.5" style="74" customWidth="1"/>
-    <col min="6914" max="6914" width="9" style="74"/>
-    <col min="6915" max="6915" width="4.875" style="74" customWidth="1"/>
-    <col min="6916" max="6916" width="11.75" style="74" customWidth="1"/>
-    <col min="6917" max="6917" width="14.375" style="74" customWidth="1"/>
-    <col min="6918" max="6918" width="52.625" style="74" customWidth="1"/>
-    <col min="6919" max="6919" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="6920" max="6920" width="5.5" style="74" customWidth="1"/>
-    <col min="6921" max="6921" width="8.625" style="74" customWidth="1"/>
-    <col min="6922" max="7167" width="9" style="74"/>
-    <col min="7168" max="7168" width="3.875" style="74" customWidth="1"/>
-    <col min="7169" max="7169" width="5.5" style="74" customWidth="1"/>
-    <col min="7170" max="7170" width="9" style="74"/>
-    <col min="7171" max="7171" width="4.875" style="74" customWidth="1"/>
-    <col min="7172" max="7172" width="11.75" style="74" customWidth="1"/>
-    <col min="7173" max="7173" width="14.375" style="74" customWidth="1"/>
-    <col min="7174" max="7174" width="52.625" style="74" customWidth="1"/>
-    <col min="7175" max="7175" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="7176" max="7176" width="5.5" style="74" customWidth="1"/>
-    <col min="7177" max="7177" width="8.625" style="74" customWidth="1"/>
-    <col min="7178" max="7423" width="9" style="74"/>
-    <col min="7424" max="7424" width="3.875" style="74" customWidth="1"/>
-    <col min="7425" max="7425" width="5.5" style="74" customWidth="1"/>
-    <col min="7426" max="7426" width="9" style="74"/>
-    <col min="7427" max="7427" width="4.875" style="74" customWidth="1"/>
-    <col min="7428" max="7428" width="11.75" style="74" customWidth="1"/>
-    <col min="7429" max="7429" width="14.375" style="74" customWidth="1"/>
-    <col min="7430" max="7430" width="52.625" style="74" customWidth="1"/>
-    <col min="7431" max="7431" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="7432" max="7432" width="5.5" style="74" customWidth="1"/>
-    <col min="7433" max="7433" width="8.625" style="74" customWidth="1"/>
-    <col min="7434" max="7679" width="9" style="74"/>
-    <col min="7680" max="7680" width="3.875" style="74" customWidth="1"/>
-    <col min="7681" max="7681" width="5.5" style="74" customWidth="1"/>
-    <col min="7682" max="7682" width="9" style="74"/>
-    <col min="7683" max="7683" width="4.875" style="74" customWidth="1"/>
-    <col min="7684" max="7684" width="11.75" style="74" customWidth="1"/>
-    <col min="7685" max="7685" width="14.375" style="74" customWidth="1"/>
-    <col min="7686" max="7686" width="52.625" style="74" customWidth="1"/>
-    <col min="7687" max="7687" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="7688" max="7688" width="5.5" style="74" customWidth="1"/>
-    <col min="7689" max="7689" width="8.625" style="74" customWidth="1"/>
-    <col min="7690" max="7935" width="9" style="74"/>
-    <col min="7936" max="7936" width="3.875" style="74" customWidth="1"/>
-    <col min="7937" max="7937" width="5.5" style="74" customWidth="1"/>
-    <col min="7938" max="7938" width="9" style="74"/>
-    <col min="7939" max="7939" width="4.875" style="74" customWidth="1"/>
-    <col min="7940" max="7940" width="11.75" style="74" customWidth="1"/>
-    <col min="7941" max="7941" width="14.375" style="74" customWidth="1"/>
-    <col min="7942" max="7942" width="52.625" style="74" customWidth="1"/>
-    <col min="7943" max="7943" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="7944" max="7944" width="5.5" style="74" customWidth="1"/>
-    <col min="7945" max="7945" width="8.625" style="74" customWidth="1"/>
-    <col min="7946" max="8191" width="9" style="74"/>
-    <col min="8192" max="8192" width="3.875" style="74" customWidth="1"/>
-    <col min="8193" max="8193" width="5.5" style="74" customWidth="1"/>
-    <col min="8194" max="8194" width="9" style="74"/>
-    <col min="8195" max="8195" width="4.875" style="74" customWidth="1"/>
-    <col min="8196" max="8196" width="11.75" style="74" customWidth="1"/>
-    <col min="8197" max="8197" width="14.375" style="74" customWidth="1"/>
-    <col min="8198" max="8198" width="52.625" style="74" customWidth="1"/>
-    <col min="8199" max="8199" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="8200" max="8200" width="5.5" style="74" customWidth="1"/>
-    <col min="8201" max="8201" width="8.625" style="74" customWidth="1"/>
-    <col min="8202" max="8447" width="9" style="74"/>
-    <col min="8448" max="8448" width="3.875" style="74" customWidth="1"/>
-    <col min="8449" max="8449" width="5.5" style="74" customWidth="1"/>
-    <col min="8450" max="8450" width="9" style="74"/>
-    <col min="8451" max="8451" width="4.875" style="74" customWidth="1"/>
-    <col min="8452" max="8452" width="11.75" style="74" customWidth="1"/>
-    <col min="8453" max="8453" width="14.375" style="74" customWidth="1"/>
-    <col min="8454" max="8454" width="52.625" style="74" customWidth="1"/>
-    <col min="8455" max="8455" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="8456" max="8456" width="5.5" style="74" customWidth="1"/>
-    <col min="8457" max="8457" width="8.625" style="74" customWidth="1"/>
-    <col min="8458" max="8703" width="9" style="74"/>
-    <col min="8704" max="8704" width="3.875" style="74" customWidth="1"/>
-    <col min="8705" max="8705" width="5.5" style="74" customWidth="1"/>
-    <col min="8706" max="8706" width="9" style="74"/>
-    <col min="8707" max="8707" width="4.875" style="74" customWidth="1"/>
-    <col min="8708" max="8708" width="11.75" style="74" customWidth="1"/>
-    <col min="8709" max="8709" width="14.375" style="74" customWidth="1"/>
-    <col min="8710" max="8710" width="52.625" style="74" customWidth="1"/>
-    <col min="8711" max="8711" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="8712" max="8712" width="5.5" style="74" customWidth="1"/>
-    <col min="8713" max="8713" width="8.625" style="74" customWidth="1"/>
-    <col min="8714" max="8959" width="9" style="74"/>
-    <col min="8960" max="8960" width="3.875" style="74" customWidth="1"/>
-    <col min="8961" max="8961" width="5.5" style="74" customWidth="1"/>
-    <col min="8962" max="8962" width="9" style="74"/>
-    <col min="8963" max="8963" width="4.875" style="74" customWidth="1"/>
-    <col min="8964" max="8964" width="11.75" style="74" customWidth="1"/>
-    <col min="8965" max="8965" width="14.375" style="74" customWidth="1"/>
-    <col min="8966" max="8966" width="52.625" style="74" customWidth="1"/>
-    <col min="8967" max="8967" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="8968" max="8968" width="5.5" style="74" customWidth="1"/>
-    <col min="8969" max="8969" width="8.625" style="74" customWidth="1"/>
-    <col min="8970" max="9215" width="9" style="74"/>
-    <col min="9216" max="9216" width="3.875" style="74" customWidth="1"/>
-    <col min="9217" max="9217" width="5.5" style="74" customWidth="1"/>
-    <col min="9218" max="9218" width="9" style="74"/>
-    <col min="9219" max="9219" width="4.875" style="74" customWidth="1"/>
-    <col min="9220" max="9220" width="11.75" style="74" customWidth="1"/>
-    <col min="9221" max="9221" width="14.375" style="74" customWidth="1"/>
-    <col min="9222" max="9222" width="52.625" style="74" customWidth="1"/>
-    <col min="9223" max="9223" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="9224" max="9224" width="5.5" style="74" customWidth="1"/>
-    <col min="9225" max="9225" width="8.625" style="74" customWidth="1"/>
-    <col min="9226" max="9471" width="9" style="74"/>
-    <col min="9472" max="9472" width="3.875" style="74" customWidth="1"/>
-    <col min="9473" max="9473" width="5.5" style="74" customWidth="1"/>
-    <col min="9474" max="9474" width="9" style="74"/>
-    <col min="9475" max="9475" width="4.875" style="74" customWidth="1"/>
-    <col min="9476" max="9476" width="11.75" style="74" customWidth="1"/>
-    <col min="9477" max="9477" width="14.375" style="74" customWidth="1"/>
-    <col min="9478" max="9478" width="52.625" style="74" customWidth="1"/>
-    <col min="9479" max="9479" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="9480" max="9480" width="5.5" style="74" customWidth="1"/>
-    <col min="9481" max="9481" width="8.625" style="74" customWidth="1"/>
-    <col min="9482" max="9727" width="9" style="74"/>
-    <col min="9728" max="9728" width="3.875" style="74" customWidth="1"/>
-    <col min="9729" max="9729" width="5.5" style="74" customWidth="1"/>
-    <col min="9730" max="9730" width="9" style="74"/>
-    <col min="9731" max="9731" width="4.875" style="74" customWidth="1"/>
-    <col min="9732" max="9732" width="11.75" style="74" customWidth="1"/>
-    <col min="9733" max="9733" width="14.375" style="74" customWidth="1"/>
-    <col min="9734" max="9734" width="52.625" style="74" customWidth="1"/>
-    <col min="9735" max="9735" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="9736" max="9736" width="5.5" style="74" customWidth="1"/>
-    <col min="9737" max="9737" width="8.625" style="74" customWidth="1"/>
-    <col min="9738" max="9983" width="9" style="74"/>
-    <col min="9984" max="9984" width="3.875" style="74" customWidth="1"/>
-    <col min="9985" max="9985" width="5.5" style="74" customWidth="1"/>
-    <col min="9986" max="9986" width="9" style="74"/>
-    <col min="9987" max="9987" width="4.875" style="74" customWidth="1"/>
-    <col min="9988" max="9988" width="11.75" style="74" customWidth="1"/>
-    <col min="9989" max="9989" width="14.375" style="74" customWidth="1"/>
-    <col min="9990" max="9990" width="52.625" style="74" customWidth="1"/>
-    <col min="9991" max="9991" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="9992" max="9992" width="5.5" style="74" customWidth="1"/>
-    <col min="9993" max="9993" width="8.625" style="74" customWidth="1"/>
-    <col min="9994" max="10239" width="9" style="74"/>
-    <col min="10240" max="10240" width="3.875" style="74" customWidth="1"/>
-    <col min="10241" max="10241" width="5.5" style="74" customWidth="1"/>
-    <col min="10242" max="10242" width="9" style="74"/>
-    <col min="10243" max="10243" width="4.875" style="74" customWidth="1"/>
-    <col min="10244" max="10244" width="11.75" style="74" customWidth="1"/>
-    <col min="10245" max="10245" width="14.375" style="74" customWidth="1"/>
-    <col min="10246" max="10246" width="52.625" style="74" customWidth="1"/>
-    <col min="10247" max="10247" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="10248" max="10248" width="5.5" style="74" customWidth="1"/>
-    <col min="10249" max="10249" width="8.625" style="74" customWidth="1"/>
-    <col min="10250" max="10495" width="9" style="74"/>
-    <col min="10496" max="10496" width="3.875" style="74" customWidth="1"/>
-    <col min="10497" max="10497" width="5.5" style="74" customWidth="1"/>
-    <col min="10498" max="10498" width="9" style="74"/>
-    <col min="10499" max="10499" width="4.875" style="74" customWidth="1"/>
-    <col min="10500" max="10500" width="11.75" style="74" customWidth="1"/>
-    <col min="10501" max="10501" width="14.375" style="74" customWidth="1"/>
-    <col min="10502" max="10502" width="52.625" style="74" customWidth="1"/>
-    <col min="10503" max="10503" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="10504" max="10504" width="5.5" style="74" customWidth="1"/>
-    <col min="10505" max="10505" width="8.625" style="74" customWidth="1"/>
-    <col min="10506" max="10751" width="9" style="74"/>
-    <col min="10752" max="10752" width="3.875" style="74" customWidth="1"/>
-    <col min="10753" max="10753" width="5.5" style="74" customWidth="1"/>
-    <col min="10754" max="10754" width="9" style="74"/>
-    <col min="10755" max="10755" width="4.875" style="74" customWidth="1"/>
-    <col min="10756" max="10756" width="11.75" style="74" customWidth="1"/>
-    <col min="10757" max="10757" width="14.375" style="74" customWidth="1"/>
-    <col min="10758" max="10758" width="52.625" style="74" customWidth="1"/>
-    <col min="10759" max="10759" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="10760" max="10760" width="5.5" style="74" customWidth="1"/>
-    <col min="10761" max="10761" width="8.625" style="74" customWidth="1"/>
-    <col min="10762" max="11007" width="9" style="74"/>
-    <col min="11008" max="11008" width="3.875" style="74" customWidth="1"/>
-    <col min="11009" max="11009" width="5.5" style="74" customWidth="1"/>
-    <col min="11010" max="11010" width="9" style="74"/>
-    <col min="11011" max="11011" width="4.875" style="74" customWidth="1"/>
-    <col min="11012" max="11012" width="11.75" style="74" customWidth="1"/>
-    <col min="11013" max="11013" width="14.375" style="74" customWidth="1"/>
-    <col min="11014" max="11014" width="52.625" style="74" customWidth="1"/>
-    <col min="11015" max="11015" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="11016" max="11016" width="5.5" style="74" customWidth="1"/>
-    <col min="11017" max="11017" width="8.625" style="74" customWidth="1"/>
-    <col min="11018" max="11263" width="9" style="74"/>
-    <col min="11264" max="11264" width="3.875" style="74" customWidth="1"/>
-    <col min="11265" max="11265" width="5.5" style="74" customWidth="1"/>
-    <col min="11266" max="11266" width="9" style="74"/>
-    <col min="11267" max="11267" width="4.875" style="74" customWidth="1"/>
-    <col min="11268" max="11268" width="11.75" style="74" customWidth="1"/>
-    <col min="11269" max="11269" width="14.375" style="74" customWidth="1"/>
-    <col min="11270" max="11270" width="52.625" style="74" customWidth="1"/>
-    <col min="11271" max="11271" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="11272" max="11272" width="5.5" style="74" customWidth="1"/>
-    <col min="11273" max="11273" width="8.625" style="74" customWidth="1"/>
-    <col min="11274" max="11519" width="9" style="74"/>
-    <col min="11520" max="11520" width="3.875" style="74" customWidth="1"/>
-    <col min="11521" max="11521" width="5.5" style="74" customWidth="1"/>
-    <col min="11522" max="11522" width="9" style="74"/>
-    <col min="11523" max="11523" width="4.875" style="74" customWidth="1"/>
-    <col min="11524" max="11524" width="11.75" style="74" customWidth="1"/>
-    <col min="11525" max="11525" width="14.375" style="74" customWidth="1"/>
-    <col min="11526" max="11526" width="52.625" style="74" customWidth="1"/>
-    <col min="11527" max="11527" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="11528" max="11528" width="5.5" style="74" customWidth="1"/>
-    <col min="11529" max="11529" width="8.625" style="74" customWidth="1"/>
-    <col min="11530" max="11775" width="9" style="74"/>
-    <col min="11776" max="11776" width="3.875" style="74" customWidth="1"/>
-    <col min="11777" max="11777" width="5.5" style="74" customWidth="1"/>
-    <col min="11778" max="11778" width="9" style="74"/>
-    <col min="11779" max="11779" width="4.875" style="74" customWidth="1"/>
-    <col min="11780" max="11780" width="11.75" style="74" customWidth="1"/>
-    <col min="11781" max="11781" width="14.375" style="74" customWidth="1"/>
-    <col min="11782" max="11782" width="52.625" style="74" customWidth="1"/>
-    <col min="11783" max="11783" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="11784" max="11784" width="5.5" style="74" customWidth="1"/>
-    <col min="11785" max="11785" width="8.625" style="74" customWidth="1"/>
-    <col min="11786" max="12031" width="9" style="74"/>
-    <col min="12032" max="12032" width="3.875" style="74" customWidth="1"/>
-    <col min="12033" max="12033" width="5.5" style="74" customWidth="1"/>
-    <col min="12034" max="12034" width="9" style="74"/>
-    <col min="12035" max="12035" width="4.875" style="74" customWidth="1"/>
-    <col min="12036" max="12036" width="11.75" style="74" customWidth="1"/>
-    <col min="12037" max="12037" width="14.375" style="74" customWidth="1"/>
-    <col min="12038" max="12038" width="52.625" style="74" customWidth="1"/>
-    <col min="12039" max="12039" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="12040" max="12040" width="5.5" style="74" customWidth="1"/>
-    <col min="12041" max="12041" width="8.625" style="74" customWidth="1"/>
-    <col min="12042" max="12287" width="9" style="74"/>
-    <col min="12288" max="12288" width="3.875" style="74" customWidth="1"/>
-    <col min="12289" max="12289" width="5.5" style="74" customWidth="1"/>
-    <col min="12290" max="12290" width="9" style="74"/>
-    <col min="12291" max="12291" width="4.875" style="74" customWidth="1"/>
-    <col min="12292" max="12292" width="11.75" style="74" customWidth="1"/>
-    <col min="12293" max="12293" width="14.375" style="74" customWidth="1"/>
-    <col min="12294" max="12294" width="52.625" style="74" customWidth="1"/>
-    <col min="12295" max="12295" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="12296" max="12296" width="5.5" style="74" customWidth="1"/>
-    <col min="12297" max="12297" width="8.625" style="74" customWidth="1"/>
-    <col min="12298" max="12543" width="9" style="74"/>
-    <col min="12544" max="12544" width="3.875" style="74" customWidth="1"/>
-    <col min="12545" max="12545" width="5.5" style="74" customWidth="1"/>
-    <col min="12546" max="12546" width="9" style="74"/>
-    <col min="12547" max="12547" width="4.875" style="74" customWidth="1"/>
-    <col min="12548" max="12548" width="11.75" style="74" customWidth="1"/>
-    <col min="12549" max="12549" width="14.375" style="74" customWidth="1"/>
-    <col min="12550" max="12550" width="52.625" style="74" customWidth="1"/>
-    <col min="12551" max="12551" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="12552" max="12552" width="5.5" style="74" customWidth="1"/>
-    <col min="12553" max="12553" width="8.625" style="74" customWidth="1"/>
-    <col min="12554" max="12799" width="9" style="74"/>
-    <col min="12800" max="12800" width="3.875" style="74" customWidth="1"/>
-    <col min="12801" max="12801" width="5.5" style="74" customWidth="1"/>
-    <col min="12802" max="12802" width="9" style="74"/>
-    <col min="12803" max="12803" width="4.875" style="74" customWidth="1"/>
-    <col min="12804" max="12804" width="11.75" style="74" customWidth="1"/>
-    <col min="12805" max="12805" width="14.375" style="74" customWidth="1"/>
-    <col min="12806" max="12806" width="52.625" style="74" customWidth="1"/>
-    <col min="12807" max="12807" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="12808" max="12808" width="5.5" style="74" customWidth="1"/>
-    <col min="12809" max="12809" width="8.625" style="74" customWidth="1"/>
-    <col min="12810" max="13055" width="9" style="74"/>
-    <col min="13056" max="13056" width="3.875" style="74" customWidth="1"/>
-    <col min="13057" max="13057" width="5.5" style="74" customWidth="1"/>
-    <col min="13058" max="13058" width="9" style="74"/>
-    <col min="13059" max="13059" width="4.875" style="74" customWidth="1"/>
-    <col min="13060" max="13060" width="11.75" style="74" customWidth="1"/>
-    <col min="13061" max="13061" width="14.375" style="74" customWidth="1"/>
-    <col min="13062" max="13062" width="52.625" style="74" customWidth="1"/>
-    <col min="13063" max="13063" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="13064" max="13064" width="5.5" style="74" customWidth="1"/>
-    <col min="13065" max="13065" width="8.625" style="74" customWidth="1"/>
-    <col min="13066" max="13311" width="9" style="74"/>
-    <col min="13312" max="13312" width="3.875" style="74" customWidth="1"/>
-    <col min="13313" max="13313" width="5.5" style="74" customWidth="1"/>
-    <col min="13314" max="13314" width="9" style="74"/>
-    <col min="13315" max="13315" width="4.875" style="74" customWidth="1"/>
-    <col min="13316" max="13316" width="11.75" style="74" customWidth="1"/>
-    <col min="13317" max="13317" width="14.375" style="74" customWidth="1"/>
-    <col min="13318" max="13318" width="52.625" style="74" customWidth="1"/>
-    <col min="13319" max="13319" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="13320" max="13320" width="5.5" style="74" customWidth="1"/>
-    <col min="13321" max="13321" width="8.625" style="74" customWidth="1"/>
-    <col min="13322" max="13567" width="9" style="74"/>
-    <col min="13568" max="13568" width="3.875" style="74" customWidth="1"/>
-    <col min="13569" max="13569" width="5.5" style="74" customWidth="1"/>
-    <col min="13570" max="13570" width="9" style="74"/>
-    <col min="13571" max="13571" width="4.875" style="74" customWidth="1"/>
-    <col min="13572" max="13572" width="11.75" style="74" customWidth="1"/>
-    <col min="13573" max="13573" width="14.375" style="74" customWidth="1"/>
-    <col min="13574" max="13574" width="52.625" style="74" customWidth="1"/>
-    <col min="13575" max="13575" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="13576" max="13576" width="5.5" style="74" customWidth="1"/>
-    <col min="13577" max="13577" width="8.625" style="74" customWidth="1"/>
-    <col min="13578" max="13823" width="9" style="74"/>
-    <col min="13824" max="13824" width="3.875" style="74" customWidth="1"/>
-    <col min="13825" max="13825" width="5.5" style="74" customWidth="1"/>
-    <col min="13826" max="13826" width="9" style="74"/>
-    <col min="13827" max="13827" width="4.875" style="74" customWidth="1"/>
-    <col min="13828" max="13828" width="11.75" style="74" customWidth="1"/>
-    <col min="13829" max="13829" width="14.375" style="74" customWidth="1"/>
-    <col min="13830" max="13830" width="52.625" style="74" customWidth="1"/>
-    <col min="13831" max="13831" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="13832" max="13832" width="5.5" style="74" customWidth="1"/>
-    <col min="13833" max="13833" width="8.625" style="74" customWidth="1"/>
-    <col min="13834" max="14079" width="9" style="74"/>
-    <col min="14080" max="14080" width="3.875" style="74" customWidth="1"/>
-    <col min="14081" max="14081" width="5.5" style="74" customWidth="1"/>
-    <col min="14082" max="14082" width="9" style="74"/>
-    <col min="14083" max="14083" width="4.875" style="74" customWidth="1"/>
-    <col min="14084" max="14084" width="11.75" style="74" customWidth="1"/>
-    <col min="14085" max="14085" width="14.375" style="74" customWidth="1"/>
-    <col min="14086" max="14086" width="52.625" style="74" customWidth="1"/>
-    <col min="14087" max="14087" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="14088" max="14088" width="5.5" style="74" customWidth="1"/>
-    <col min="14089" max="14089" width="8.625" style="74" customWidth="1"/>
-    <col min="14090" max="14335" width="9" style="74"/>
-    <col min="14336" max="14336" width="3.875" style="74" customWidth="1"/>
-    <col min="14337" max="14337" width="5.5" style="74" customWidth="1"/>
-    <col min="14338" max="14338" width="9" style="74"/>
-    <col min="14339" max="14339" width="4.875" style="74" customWidth="1"/>
-    <col min="14340" max="14340" width="11.75" style="74" customWidth="1"/>
-    <col min="14341" max="14341" width="14.375" style="74" customWidth="1"/>
-    <col min="14342" max="14342" width="52.625" style="74" customWidth="1"/>
-    <col min="14343" max="14343" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="14344" max="14344" width="5.5" style="74" customWidth="1"/>
-    <col min="14345" max="14345" width="8.625" style="74" customWidth="1"/>
-    <col min="14346" max="14591" width="9" style="74"/>
-    <col min="14592" max="14592" width="3.875" style="74" customWidth="1"/>
-    <col min="14593" max="14593" width="5.5" style="74" customWidth="1"/>
-    <col min="14594" max="14594" width="9" style="74"/>
-    <col min="14595" max="14595" width="4.875" style="74" customWidth="1"/>
-    <col min="14596" max="14596" width="11.75" style="74" customWidth="1"/>
-    <col min="14597" max="14597" width="14.375" style="74" customWidth="1"/>
-    <col min="14598" max="14598" width="52.625" style="74" customWidth="1"/>
-    <col min="14599" max="14599" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="14600" max="14600" width="5.5" style="74" customWidth="1"/>
-    <col min="14601" max="14601" width="8.625" style="74" customWidth="1"/>
-    <col min="14602" max="14847" width="9" style="74"/>
-    <col min="14848" max="14848" width="3.875" style="74" customWidth="1"/>
-    <col min="14849" max="14849" width="5.5" style="74" customWidth="1"/>
-    <col min="14850" max="14850" width="9" style="74"/>
-    <col min="14851" max="14851" width="4.875" style="74" customWidth="1"/>
-    <col min="14852" max="14852" width="11.75" style="74" customWidth="1"/>
-    <col min="14853" max="14853" width="14.375" style="74" customWidth="1"/>
-    <col min="14854" max="14854" width="52.625" style="74" customWidth="1"/>
-    <col min="14855" max="14855" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="14856" max="14856" width="5.5" style="74" customWidth="1"/>
-    <col min="14857" max="14857" width="8.625" style="74" customWidth="1"/>
-    <col min="14858" max="15103" width="9" style="74"/>
-    <col min="15104" max="15104" width="3.875" style="74" customWidth="1"/>
-    <col min="15105" max="15105" width="5.5" style="74" customWidth="1"/>
-    <col min="15106" max="15106" width="9" style="74"/>
-    <col min="15107" max="15107" width="4.875" style="74" customWidth="1"/>
-    <col min="15108" max="15108" width="11.75" style="74" customWidth="1"/>
-    <col min="15109" max="15109" width="14.375" style="74" customWidth="1"/>
-    <col min="15110" max="15110" width="52.625" style="74" customWidth="1"/>
-    <col min="15111" max="15111" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="15112" max="15112" width="5.5" style="74" customWidth="1"/>
-    <col min="15113" max="15113" width="8.625" style="74" customWidth="1"/>
-    <col min="15114" max="15359" width="9" style="74"/>
-    <col min="15360" max="15360" width="3.875" style="74" customWidth="1"/>
-    <col min="15361" max="15361" width="5.5" style="74" customWidth="1"/>
-    <col min="15362" max="15362" width="9" style="74"/>
-    <col min="15363" max="15363" width="4.875" style="74" customWidth="1"/>
-    <col min="15364" max="15364" width="11.75" style="74" customWidth="1"/>
-    <col min="15365" max="15365" width="14.375" style="74" customWidth="1"/>
-    <col min="15366" max="15366" width="52.625" style="74" customWidth="1"/>
-    <col min="15367" max="15367" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="15368" max="15368" width="5.5" style="74" customWidth="1"/>
-    <col min="15369" max="15369" width="8.625" style="74" customWidth="1"/>
-    <col min="15370" max="15615" width="9" style="74"/>
-    <col min="15616" max="15616" width="3.875" style="74" customWidth="1"/>
-    <col min="15617" max="15617" width="5.5" style="74" customWidth="1"/>
-    <col min="15618" max="15618" width="9" style="74"/>
-    <col min="15619" max="15619" width="4.875" style="74" customWidth="1"/>
-    <col min="15620" max="15620" width="11.75" style="74" customWidth="1"/>
-    <col min="15621" max="15621" width="14.375" style="74" customWidth="1"/>
-    <col min="15622" max="15622" width="52.625" style="74" customWidth="1"/>
-    <col min="15623" max="15623" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="15624" max="15624" width="5.5" style="74" customWidth="1"/>
-    <col min="15625" max="15625" width="8.625" style="74" customWidth="1"/>
-    <col min="15626" max="15871" width="9" style="74"/>
-    <col min="15872" max="15872" width="3.875" style="74" customWidth="1"/>
-    <col min="15873" max="15873" width="5.5" style="74" customWidth="1"/>
-    <col min="15874" max="15874" width="9" style="74"/>
-    <col min="15875" max="15875" width="4.875" style="74" customWidth="1"/>
-    <col min="15876" max="15876" width="11.75" style="74" customWidth="1"/>
-    <col min="15877" max="15877" width="14.375" style="74" customWidth="1"/>
-    <col min="15878" max="15878" width="52.625" style="74" customWidth="1"/>
-    <col min="15879" max="15879" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="15880" max="15880" width="5.5" style="74" customWidth="1"/>
-    <col min="15881" max="15881" width="8.625" style="74" customWidth="1"/>
-    <col min="15882" max="16127" width="9" style="74"/>
-    <col min="16128" max="16128" width="3.875" style="74" customWidth="1"/>
-    <col min="16129" max="16129" width="5.5" style="74" customWidth="1"/>
-    <col min="16130" max="16130" width="9" style="74"/>
-    <col min="16131" max="16131" width="4.875" style="74" customWidth="1"/>
-    <col min="16132" max="16132" width="11.75" style="74" customWidth="1"/>
-    <col min="16133" max="16133" width="14.375" style="74" customWidth="1"/>
-    <col min="16134" max="16134" width="52.625" style="74" customWidth="1"/>
-    <col min="16135" max="16135" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="16136" max="16136" width="5.5" style="74" customWidth="1"/>
-    <col min="16137" max="16137" width="8.625" style="74" customWidth="1"/>
-    <col min="16138" max="16384" width="9" style="74"/>
+    <col min="1" max="1" width="3.875" style="55" customWidth="1"/>
+    <col min="2" max="2" width="9" style="55" customWidth="1"/>
+    <col min="3" max="3" width="4.875" style="69" customWidth="1"/>
+    <col min="4" max="4" width="12.75" style="69" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.375" style="55" customWidth="1"/>
+    <col min="6" max="6" width="52.625" style="55" customWidth="1"/>
+    <col min="7" max="7" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5" style="55" customWidth="1"/>
+    <col min="9" max="9" width="8.625" style="69" customWidth="1"/>
+    <col min="10" max="255" width="9" style="55"/>
+    <col min="256" max="256" width="3.875" style="55" customWidth="1"/>
+    <col min="257" max="257" width="5.5" style="55" customWidth="1"/>
+    <col min="258" max="258" width="9" style="55"/>
+    <col min="259" max="259" width="4.875" style="55" customWidth="1"/>
+    <col min="260" max="260" width="11.75" style="55" customWidth="1"/>
+    <col min="261" max="261" width="14.375" style="55" customWidth="1"/>
+    <col min="262" max="262" width="52.625" style="55" customWidth="1"/>
+    <col min="263" max="263" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="5.5" style="55" customWidth="1"/>
+    <col min="265" max="265" width="8.625" style="55" customWidth="1"/>
+    <col min="266" max="511" width="9" style="55"/>
+    <col min="512" max="512" width="3.875" style="55" customWidth="1"/>
+    <col min="513" max="513" width="5.5" style="55" customWidth="1"/>
+    <col min="514" max="514" width="9" style="55"/>
+    <col min="515" max="515" width="4.875" style="55" customWidth="1"/>
+    <col min="516" max="516" width="11.75" style="55" customWidth="1"/>
+    <col min="517" max="517" width="14.375" style="55" customWidth="1"/>
+    <col min="518" max="518" width="52.625" style="55" customWidth="1"/>
+    <col min="519" max="519" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="520" max="520" width="5.5" style="55" customWidth="1"/>
+    <col min="521" max="521" width="8.625" style="55" customWidth="1"/>
+    <col min="522" max="767" width="9" style="55"/>
+    <col min="768" max="768" width="3.875" style="55" customWidth="1"/>
+    <col min="769" max="769" width="5.5" style="55" customWidth="1"/>
+    <col min="770" max="770" width="9" style="55"/>
+    <col min="771" max="771" width="4.875" style="55" customWidth="1"/>
+    <col min="772" max="772" width="11.75" style="55" customWidth="1"/>
+    <col min="773" max="773" width="14.375" style="55" customWidth="1"/>
+    <col min="774" max="774" width="52.625" style="55" customWidth="1"/>
+    <col min="775" max="775" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="776" max="776" width="5.5" style="55" customWidth="1"/>
+    <col min="777" max="777" width="8.625" style="55" customWidth="1"/>
+    <col min="778" max="1023" width="9" style="55"/>
+    <col min="1024" max="1024" width="3.875" style="55" customWidth="1"/>
+    <col min="1025" max="1025" width="5.5" style="55" customWidth="1"/>
+    <col min="1026" max="1026" width="9" style="55"/>
+    <col min="1027" max="1027" width="4.875" style="55" customWidth="1"/>
+    <col min="1028" max="1028" width="11.75" style="55" customWidth="1"/>
+    <col min="1029" max="1029" width="14.375" style="55" customWidth="1"/>
+    <col min="1030" max="1030" width="52.625" style="55" customWidth="1"/>
+    <col min="1031" max="1031" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="1032" max="1032" width="5.5" style="55" customWidth="1"/>
+    <col min="1033" max="1033" width="8.625" style="55" customWidth="1"/>
+    <col min="1034" max="1279" width="9" style="55"/>
+    <col min="1280" max="1280" width="3.875" style="55" customWidth="1"/>
+    <col min="1281" max="1281" width="5.5" style="55" customWidth="1"/>
+    <col min="1282" max="1282" width="9" style="55"/>
+    <col min="1283" max="1283" width="4.875" style="55" customWidth="1"/>
+    <col min="1284" max="1284" width="11.75" style="55" customWidth="1"/>
+    <col min="1285" max="1285" width="14.375" style="55" customWidth="1"/>
+    <col min="1286" max="1286" width="52.625" style="55" customWidth="1"/>
+    <col min="1287" max="1287" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="1288" max="1288" width="5.5" style="55" customWidth="1"/>
+    <col min="1289" max="1289" width="8.625" style="55" customWidth="1"/>
+    <col min="1290" max="1535" width="9" style="55"/>
+    <col min="1536" max="1536" width="3.875" style="55" customWidth="1"/>
+    <col min="1537" max="1537" width="5.5" style="55" customWidth="1"/>
+    <col min="1538" max="1538" width="9" style="55"/>
+    <col min="1539" max="1539" width="4.875" style="55" customWidth="1"/>
+    <col min="1540" max="1540" width="11.75" style="55" customWidth="1"/>
+    <col min="1541" max="1541" width="14.375" style="55" customWidth="1"/>
+    <col min="1542" max="1542" width="52.625" style="55" customWidth="1"/>
+    <col min="1543" max="1543" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="1544" max="1544" width="5.5" style="55" customWidth="1"/>
+    <col min="1545" max="1545" width="8.625" style="55" customWidth="1"/>
+    <col min="1546" max="1791" width="9" style="55"/>
+    <col min="1792" max="1792" width="3.875" style="55" customWidth="1"/>
+    <col min="1793" max="1793" width="5.5" style="55" customWidth="1"/>
+    <col min="1794" max="1794" width="9" style="55"/>
+    <col min="1795" max="1795" width="4.875" style="55" customWidth="1"/>
+    <col min="1796" max="1796" width="11.75" style="55" customWidth="1"/>
+    <col min="1797" max="1797" width="14.375" style="55" customWidth="1"/>
+    <col min="1798" max="1798" width="52.625" style="55" customWidth="1"/>
+    <col min="1799" max="1799" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="1800" max="1800" width="5.5" style="55" customWidth="1"/>
+    <col min="1801" max="1801" width="8.625" style="55" customWidth="1"/>
+    <col min="1802" max="2047" width="9" style="55"/>
+    <col min="2048" max="2048" width="3.875" style="55" customWidth="1"/>
+    <col min="2049" max="2049" width="5.5" style="55" customWidth="1"/>
+    <col min="2050" max="2050" width="9" style="55"/>
+    <col min="2051" max="2051" width="4.875" style="55" customWidth="1"/>
+    <col min="2052" max="2052" width="11.75" style="55" customWidth="1"/>
+    <col min="2053" max="2053" width="14.375" style="55" customWidth="1"/>
+    <col min="2054" max="2054" width="52.625" style="55" customWidth="1"/>
+    <col min="2055" max="2055" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="2056" max="2056" width="5.5" style="55" customWidth="1"/>
+    <col min="2057" max="2057" width="8.625" style="55" customWidth="1"/>
+    <col min="2058" max="2303" width="9" style="55"/>
+    <col min="2304" max="2304" width="3.875" style="55" customWidth="1"/>
+    <col min="2305" max="2305" width="5.5" style="55" customWidth="1"/>
+    <col min="2306" max="2306" width="9" style="55"/>
+    <col min="2307" max="2307" width="4.875" style="55" customWidth="1"/>
+    <col min="2308" max="2308" width="11.75" style="55" customWidth="1"/>
+    <col min="2309" max="2309" width="14.375" style="55" customWidth="1"/>
+    <col min="2310" max="2310" width="52.625" style="55" customWidth="1"/>
+    <col min="2311" max="2311" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="2312" max="2312" width="5.5" style="55" customWidth="1"/>
+    <col min="2313" max="2313" width="8.625" style="55" customWidth="1"/>
+    <col min="2314" max="2559" width="9" style="55"/>
+    <col min="2560" max="2560" width="3.875" style="55" customWidth="1"/>
+    <col min="2561" max="2561" width="5.5" style="55" customWidth="1"/>
+    <col min="2562" max="2562" width="9" style="55"/>
+    <col min="2563" max="2563" width="4.875" style="55" customWidth="1"/>
+    <col min="2564" max="2564" width="11.75" style="55" customWidth="1"/>
+    <col min="2565" max="2565" width="14.375" style="55" customWidth="1"/>
+    <col min="2566" max="2566" width="52.625" style="55" customWidth="1"/>
+    <col min="2567" max="2567" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="2568" max="2568" width="5.5" style="55" customWidth="1"/>
+    <col min="2569" max="2569" width="8.625" style="55" customWidth="1"/>
+    <col min="2570" max="2815" width="9" style="55"/>
+    <col min="2816" max="2816" width="3.875" style="55" customWidth="1"/>
+    <col min="2817" max="2817" width="5.5" style="55" customWidth="1"/>
+    <col min="2818" max="2818" width="9" style="55"/>
+    <col min="2819" max="2819" width="4.875" style="55" customWidth="1"/>
+    <col min="2820" max="2820" width="11.75" style="55" customWidth="1"/>
+    <col min="2821" max="2821" width="14.375" style="55" customWidth="1"/>
+    <col min="2822" max="2822" width="52.625" style="55" customWidth="1"/>
+    <col min="2823" max="2823" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="2824" max="2824" width="5.5" style="55" customWidth="1"/>
+    <col min="2825" max="2825" width="8.625" style="55" customWidth="1"/>
+    <col min="2826" max="3071" width="9" style="55"/>
+    <col min="3072" max="3072" width="3.875" style="55" customWidth="1"/>
+    <col min="3073" max="3073" width="5.5" style="55" customWidth="1"/>
+    <col min="3074" max="3074" width="9" style="55"/>
+    <col min="3075" max="3075" width="4.875" style="55" customWidth="1"/>
+    <col min="3076" max="3076" width="11.75" style="55" customWidth="1"/>
+    <col min="3077" max="3077" width="14.375" style="55" customWidth="1"/>
+    <col min="3078" max="3078" width="52.625" style="55" customWidth="1"/>
+    <col min="3079" max="3079" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="3080" max="3080" width="5.5" style="55" customWidth="1"/>
+    <col min="3081" max="3081" width="8.625" style="55" customWidth="1"/>
+    <col min="3082" max="3327" width="9" style="55"/>
+    <col min="3328" max="3328" width="3.875" style="55" customWidth="1"/>
+    <col min="3329" max="3329" width="5.5" style="55" customWidth="1"/>
+    <col min="3330" max="3330" width="9" style="55"/>
+    <col min="3331" max="3331" width="4.875" style="55" customWidth="1"/>
+    <col min="3332" max="3332" width="11.75" style="55" customWidth="1"/>
+    <col min="3333" max="3333" width="14.375" style="55" customWidth="1"/>
+    <col min="3334" max="3334" width="52.625" style="55" customWidth="1"/>
+    <col min="3335" max="3335" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="3336" max="3336" width="5.5" style="55" customWidth="1"/>
+    <col min="3337" max="3337" width="8.625" style="55" customWidth="1"/>
+    <col min="3338" max="3583" width="9" style="55"/>
+    <col min="3584" max="3584" width="3.875" style="55" customWidth="1"/>
+    <col min="3585" max="3585" width="5.5" style="55" customWidth="1"/>
+    <col min="3586" max="3586" width="9" style="55"/>
+    <col min="3587" max="3587" width="4.875" style="55" customWidth="1"/>
+    <col min="3588" max="3588" width="11.75" style="55" customWidth="1"/>
+    <col min="3589" max="3589" width="14.375" style="55" customWidth="1"/>
+    <col min="3590" max="3590" width="52.625" style="55" customWidth="1"/>
+    <col min="3591" max="3591" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="3592" max="3592" width="5.5" style="55" customWidth="1"/>
+    <col min="3593" max="3593" width="8.625" style="55" customWidth="1"/>
+    <col min="3594" max="3839" width="9" style="55"/>
+    <col min="3840" max="3840" width="3.875" style="55" customWidth="1"/>
+    <col min="3841" max="3841" width="5.5" style="55" customWidth="1"/>
+    <col min="3842" max="3842" width="9" style="55"/>
+    <col min="3843" max="3843" width="4.875" style="55" customWidth="1"/>
+    <col min="3844" max="3844" width="11.75" style="55" customWidth="1"/>
+    <col min="3845" max="3845" width="14.375" style="55" customWidth="1"/>
+    <col min="3846" max="3846" width="52.625" style="55" customWidth="1"/>
+    <col min="3847" max="3847" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="3848" max="3848" width="5.5" style="55" customWidth="1"/>
+    <col min="3849" max="3849" width="8.625" style="55" customWidth="1"/>
+    <col min="3850" max="4095" width="9" style="55"/>
+    <col min="4096" max="4096" width="3.875" style="55" customWidth="1"/>
+    <col min="4097" max="4097" width="5.5" style="55" customWidth="1"/>
+    <col min="4098" max="4098" width="9" style="55"/>
+    <col min="4099" max="4099" width="4.875" style="55" customWidth="1"/>
+    <col min="4100" max="4100" width="11.75" style="55" customWidth="1"/>
+    <col min="4101" max="4101" width="14.375" style="55" customWidth="1"/>
+    <col min="4102" max="4102" width="52.625" style="55" customWidth="1"/>
+    <col min="4103" max="4103" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="4104" max="4104" width="5.5" style="55" customWidth="1"/>
+    <col min="4105" max="4105" width="8.625" style="55" customWidth="1"/>
+    <col min="4106" max="4351" width="9" style="55"/>
+    <col min="4352" max="4352" width="3.875" style="55" customWidth="1"/>
+    <col min="4353" max="4353" width="5.5" style="55" customWidth="1"/>
+    <col min="4354" max="4354" width="9" style="55"/>
+    <col min="4355" max="4355" width="4.875" style="55" customWidth="1"/>
+    <col min="4356" max="4356" width="11.75" style="55" customWidth="1"/>
+    <col min="4357" max="4357" width="14.375" style="55" customWidth="1"/>
+    <col min="4358" max="4358" width="52.625" style="55" customWidth="1"/>
+    <col min="4359" max="4359" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="4360" max="4360" width="5.5" style="55" customWidth="1"/>
+    <col min="4361" max="4361" width="8.625" style="55" customWidth="1"/>
+    <col min="4362" max="4607" width="9" style="55"/>
+    <col min="4608" max="4608" width="3.875" style="55" customWidth="1"/>
+    <col min="4609" max="4609" width="5.5" style="55" customWidth="1"/>
+    <col min="4610" max="4610" width="9" style="55"/>
+    <col min="4611" max="4611" width="4.875" style="55" customWidth="1"/>
+    <col min="4612" max="4612" width="11.75" style="55" customWidth="1"/>
+    <col min="4613" max="4613" width="14.375" style="55" customWidth="1"/>
+    <col min="4614" max="4614" width="52.625" style="55" customWidth="1"/>
+    <col min="4615" max="4615" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="4616" max="4616" width="5.5" style="55" customWidth="1"/>
+    <col min="4617" max="4617" width="8.625" style="55" customWidth="1"/>
+    <col min="4618" max="4863" width="9" style="55"/>
+    <col min="4864" max="4864" width="3.875" style="55" customWidth="1"/>
+    <col min="4865" max="4865" width="5.5" style="55" customWidth="1"/>
+    <col min="4866" max="4866" width="9" style="55"/>
+    <col min="4867" max="4867" width="4.875" style="55" customWidth="1"/>
+    <col min="4868" max="4868" width="11.75" style="55" customWidth="1"/>
+    <col min="4869" max="4869" width="14.375" style="55" customWidth="1"/>
+    <col min="4870" max="4870" width="52.625" style="55" customWidth="1"/>
+    <col min="4871" max="4871" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="4872" max="4872" width="5.5" style="55" customWidth="1"/>
+    <col min="4873" max="4873" width="8.625" style="55" customWidth="1"/>
+    <col min="4874" max="5119" width="9" style="55"/>
+    <col min="5120" max="5120" width="3.875" style="55" customWidth="1"/>
+    <col min="5121" max="5121" width="5.5" style="55" customWidth="1"/>
+    <col min="5122" max="5122" width="9" style="55"/>
+    <col min="5123" max="5123" width="4.875" style="55" customWidth="1"/>
+    <col min="5124" max="5124" width="11.75" style="55" customWidth="1"/>
+    <col min="5125" max="5125" width="14.375" style="55" customWidth="1"/>
+    <col min="5126" max="5126" width="52.625" style="55" customWidth="1"/>
+    <col min="5127" max="5127" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="5128" max="5128" width="5.5" style="55" customWidth="1"/>
+    <col min="5129" max="5129" width="8.625" style="55" customWidth="1"/>
+    <col min="5130" max="5375" width="9" style="55"/>
+    <col min="5376" max="5376" width="3.875" style="55" customWidth="1"/>
+    <col min="5377" max="5377" width="5.5" style="55" customWidth="1"/>
+    <col min="5378" max="5378" width="9" style="55"/>
+    <col min="5379" max="5379" width="4.875" style="55" customWidth="1"/>
+    <col min="5380" max="5380" width="11.75" style="55" customWidth="1"/>
+    <col min="5381" max="5381" width="14.375" style="55" customWidth="1"/>
+    <col min="5382" max="5382" width="52.625" style="55" customWidth="1"/>
+    <col min="5383" max="5383" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="5384" max="5384" width="5.5" style="55" customWidth="1"/>
+    <col min="5385" max="5385" width="8.625" style="55" customWidth="1"/>
+    <col min="5386" max="5631" width="9" style="55"/>
+    <col min="5632" max="5632" width="3.875" style="55" customWidth="1"/>
+    <col min="5633" max="5633" width="5.5" style="55" customWidth="1"/>
+    <col min="5634" max="5634" width="9" style="55"/>
+    <col min="5635" max="5635" width="4.875" style="55" customWidth="1"/>
+    <col min="5636" max="5636" width="11.75" style="55" customWidth="1"/>
+    <col min="5637" max="5637" width="14.375" style="55" customWidth="1"/>
+    <col min="5638" max="5638" width="52.625" style="55" customWidth="1"/>
+    <col min="5639" max="5639" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="5640" max="5640" width="5.5" style="55" customWidth="1"/>
+    <col min="5641" max="5641" width="8.625" style="55" customWidth="1"/>
+    <col min="5642" max="5887" width="9" style="55"/>
+    <col min="5888" max="5888" width="3.875" style="55" customWidth="1"/>
+    <col min="5889" max="5889" width="5.5" style="55" customWidth="1"/>
+    <col min="5890" max="5890" width="9" style="55"/>
+    <col min="5891" max="5891" width="4.875" style="55" customWidth="1"/>
+    <col min="5892" max="5892" width="11.75" style="55" customWidth="1"/>
+    <col min="5893" max="5893" width="14.375" style="55" customWidth="1"/>
+    <col min="5894" max="5894" width="52.625" style="55" customWidth="1"/>
+    <col min="5895" max="5895" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="5896" max="5896" width="5.5" style="55" customWidth="1"/>
+    <col min="5897" max="5897" width="8.625" style="55" customWidth="1"/>
+    <col min="5898" max="6143" width="9" style="55"/>
+    <col min="6144" max="6144" width="3.875" style="55" customWidth="1"/>
+    <col min="6145" max="6145" width="5.5" style="55" customWidth="1"/>
+    <col min="6146" max="6146" width="9" style="55"/>
+    <col min="6147" max="6147" width="4.875" style="55" customWidth="1"/>
+    <col min="6148" max="6148" width="11.75" style="55" customWidth="1"/>
+    <col min="6149" max="6149" width="14.375" style="55" customWidth="1"/>
+    <col min="6150" max="6150" width="52.625" style="55" customWidth="1"/>
+    <col min="6151" max="6151" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="6152" max="6152" width="5.5" style="55" customWidth="1"/>
+    <col min="6153" max="6153" width="8.625" style="55" customWidth="1"/>
+    <col min="6154" max="6399" width="9" style="55"/>
+    <col min="6400" max="6400" width="3.875" style="55" customWidth="1"/>
+    <col min="6401" max="6401" width="5.5" style="55" customWidth="1"/>
+    <col min="6402" max="6402" width="9" style="55"/>
+    <col min="6403" max="6403" width="4.875" style="55" customWidth="1"/>
+    <col min="6404" max="6404" width="11.75" style="55" customWidth="1"/>
+    <col min="6405" max="6405" width="14.375" style="55" customWidth="1"/>
+    <col min="6406" max="6406" width="52.625" style="55" customWidth="1"/>
+    <col min="6407" max="6407" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="6408" max="6408" width="5.5" style="55" customWidth="1"/>
+    <col min="6409" max="6409" width="8.625" style="55" customWidth="1"/>
+    <col min="6410" max="6655" width="9" style="55"/>
+    <col min="6656" max="6656" width="3.875" style="55" customWidth="1"/>
+    <col min="6657" max="6657" width="5.5" style="55" customWidth="1"/>
+    <col min="6658" max="6658" width="9" style="55"/>
+    <col min="6659" max="6659" width="4.875" style="55" customWidth="1"/>
+    <col min="6660" max="6660" width="11.75" style="55" customWidth="1"/>
+    <col min="6661" max="6661" width="14.375" style="55" customWidth="1"/>
+    <col min="6662" max="6662" width="52.625" style="55" customWidth="1"/>
+    <col min="6663" max="6663" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="6664" max="6664" width="5.5" style="55" customWidth="1"/>
+    <col min="6665" max="6665" width="8.625" style="55" customWidth="1"/>
+    <col min="6666" max="6911" width="9" style="55"/>
+    <col min="6912" max="6912" width="3.875" style="55" customWidth="1"/>
+    <col min="6913" max="6913" width="5.5" style="55" customWidth="1"/>
+    <col min="6914" max="6914" width="9" style="55"/>
+    <col min="6915" max="6915" width="4.875" style="55" customWidth="1"/>
+    <col min="6916" max="6916" width="11.75" style="55" customWidth="1"/>
+    <col min="6917" max="6917" width="14.375" style="55" customWidth="1"/>
+    <col min="6918" max="6918" width="52.625" style="55" customWidth="1"/>
+    <col min="6919" max="6919" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="6920" max="6920" width="5.5" style="55" customWidth="1"/>
+    <col min="6921" max="6921" width="8.625" style="55" customWidth="1"/>
+    <col min="6922" max="7167" width="9" style="55"/>
+    <col min="7168" max="7168" width="3.875" style="55" customWidth="1"/>
+    <col min="7169" max="7169" width="5.5" style="55" customWidth="1"/>
+    <col min="7170" max="7170" width="9" style="55"/>
+    <col min="7171" max="7171" width="4.875" style="55" customWidth="1"/>
+    <col min="7172" max="7172" width="11.75" style="55" customWidth="1"/>
+    <col min="7173" max="7173" width="14.375" style="55" customWidth="1"/>
+    <col min="7174" max="7174" width="52.625" style="55" customWidth="1"/>
+    <col min="7175" max="7175" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="7176" max="7176" width="5.5" style="55" customWidth="1"/>
+    <col min="7177" max="7177" width="8.625" style="55" customWidth="1"/>
+    <col min="7178" max="7423" width="9" style="55"/>
+    <col min="7424" max="7424" width="3.875" style="55" customWidth="1"/>
+    <col min="7425" max="7425" width="5.5" style="55" customWidth="1"/>
+    <col min="7426" max="7426" width="9" style="55"/>
+    <col min="7427" max="7427" width="4.875" style="55" customWidth="1"/>
+    <col min="7428" max="7428" width="11.75" style="55" customWidth="1"/>
+    <col min="7429" max="7429" width="14.375" style="55" customWidth="1"/>
+    <col min="7430" max="7430" width="52.625" style="55" customWidth="1"/>
+    <col min="7431" max="7431" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="7432" max="7432" width="5.5" style="55" customWidth="1"/>
+    <col min="7433" max="7433" width="8.625" style="55" customWidth="1"/>
+    <col min="7434" max="7679" width="9" style="55"/>
+    <col min="7680" max="7680" width="3.875" style="55" customWidth="1"/>
+    <col min="7681" max="7681" width="5.5" style="55" customWidth="1"/>
+    <col min="7682" max="7682" width="9" style="55"/>
+    <col min="7683" max="7683" width="4.875" style="55" customWidth="1"/>
+    <col min="7684" max="7684" width="11.75" style="55" customWidth="1"/>
+    <col min="7685" max="7685" width="14.375" style="55" customWidth="1"/>
+    <col min="7686" max="7686" width="52.625" style="55" customWidth="1"/>
+    <col min="7687" max="7687" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="7688" max="7688" width="5.5" style="55" customWidth="1"/>
+    <col min="7689" max="7689" width="8.625" style="55" customWidth="1"/>
+    <col min="7690" max="7935" width="9" style="55"/>
+    <col min="7936" max="7936" width="3.875" style="55" customWidth="1"/>
+    <col min="7937" max="7937" width="5.5" style="55" customWidth="1"/>
+    <col min="7938" max="7938" width="9" style="55"/>
+    <col min="7939" max="7939" width="4.875" style="55" customWidth="1"/>
+    <col min="7940" max="7940" width="11.75" style="55" customWidth="1"/>
+    <col min="7941" max="7941" width="14.375" style="55" customWidth="1"/>
+    <col min="7942" max="7942" width="52.625" style="55" customWidth="1"/>
+    <col min="7943" max="7943" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="7944" max="7944" width="5.5" style="55" customWidth="1"/>
+    <col min="7945" max="7945" width="8.625" style="55" customWidth="1"/>
+    <col min="7946" max="8191" width="9" style="55"/>
+    <col min="8192" max="8192" width="3.875" style="55" customWidth="1"/>
+    <col min="8193" max="8193" width="5.5" style="55" customWidth="1"/>
+    <col min="8194" max="8194" width="9" style="55"/>
+    <col min="8195" max="8195" width="4.875" style="55" customWidth="1"/>
+    <col min="8196" max="8196" width="11.75" style="55" customWidth="1"/>
+    <col min="8197" max="8197" width="14.375" style="55" customWidth="1"/>
+    <col min="8198" max="8198" width="52.625" style="55" customWidth="1"/>
+    <col min="8199" max="8199" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="8200" max="8200" width="5.5" style="55" customWidth="1"/>
+    <col min="8201" max="8201" width="8.625" style="55" customWidth="1"/>
+    <col min="8202" max="8447" width="9" style="55"/>
+    <col min="8448" max="8448" width="3.875" style="55" customWidth="1"/>
+    <col min="8449" max="8449" width="5.5" style="55" customWidth="1"/>
+    <col min="8450" max="8450" width="9" style="55"/>
+    <col min="8451" max="8451" width="4.875" style="55" customWidth="1"/>
+    <col min="8452" max="8452" width="11.75" style="55" customWidth="1"/>
+    <col min="8453" max="8453" width="14.375" style="55" customWidth="1"/>
+    <col min="8454" max="8454" width="52.625" style="55" customWidth="1"/>
+    <col min="8455" max="8455" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="8456" max="8456" width="5.5" style="55" customWidth="1"/>
+    <col min="8457" max="8457" width="8.625" style="55" customWidth="1"/>
+    <col min="8458" max="8703" width="9" style="55"/>
+    <col min="8704" max="8704" width="3.875" style="55" customWidth="1"/>
+    <col min="8705" max="8705" width="5.5" style="55" customWidth="1"/>
+    <col min="8706" max="8706" width="9" style="55"/>
+    <col min="8707" max="8707" width="4.875" style="55" customWidth="1"/>
+    <col min="8708" max="8708" width="11.75" style="55" customWidth="1"/>
+    <col min="8709" max="8709" width="14.375" style="55" customWidth="1"/>
+    <col min="8710" max="8710" width="52.625" style="55" customWidth="1"/>
+    <col min="8711" max="8711" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="8712" max="8712" width="5.5" style="55" customWidth="1"/>
+    <col min="8713" max="8713" width="8.625" style="55" customWidth="1"/>
+    <col min="8714" max="8959" width="9" style="55"/>
+    <col min="8960" max="8960" width="3.875" style="55" customWidth="1"/>
+    <col min="8961" max="8961" width="5.5" style="55" customWidth="1"/>
+    <col min="8962" max="8962" width="9" style="55"/>
+    <col min="8963" max="8963" width="4.875" style="55" customWidth="1"/>
+    <col min="8964" max="8964" width="11.75" style="55" customWidth="1"/>
+    <col min="8965" max="8965" width="14.375" style="55" customWidth="1"/>
+    <col min="8966" max="8966" width="52.625" style="55" customWidth="1"/>
+    <col min="8967" max="8967" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="8968" max="8968" width="5.5" style="55" customWidth="1"/>
+    <col min="8969" max="8969" width="8.625" style="55" customWidth="1"/>
+    <col min="8970" max="9215" width="9" style="55"/>
+    <col min="9216" max="9216" width="3.875" style="55" customWidth="1"/>
+    <col min="9217" max="9217" width="5.5" style="55" customWidth="1"/>
+    <col min="9218" max="9218" width="9" style="55"/>
+    <col min="9219" max="9219" width="4.875" style="55" customWidth="1"/>
+    <col min="9220" max="9220" width="11.75" style="55" customWidth="1"/>
+    <col min="9221" max="9221" width="14.375" style="55" customWidth="1"/>
+    <col min="9222" max="9222" width="52.625" style="55" customWidth="1"/>
+    <col min="9223" max="9223" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="9224" max="9224" width="5.5" style="55" customWidth="1"/>
+    <col min="9225" max="9225" width="8.625" style="55" customWidth="1"/>
+    <col min="9226" max="9471" width="9" style="55"/>
+    <col min="9472" max="9472" width="3.875" style="55" customWidth="1"/>
+    <col min="9473" max="9473" width="5.5" style="55" customWidth="1"/>
+    <col min="9474" max="9474" width="9" style="55"/>
+    <col min="9475" max="9475" width="4.875" style="55" customWidth="1"/>
+    <col min="9476" max="9476" width="11.75" style="55" customWidth="1"/>
+    <col min="9477" max="9477" width="14.375" style="55" customWidth="1"/>
+    <col min="9478" max="9478" width="52.625" style="55" customWidth="1"/>
+    <col min="9479" max="9479" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="9480" max="9480" width="5.5" style="55" customWidth="1"/>
+    <col min="9481" max="9481" width="8.625" style="55" customWidth="1"/>
+    <col min="9482" max="9727" width="9" style="55"/>
+    <col min="9728" max="9728" width="3.875" style="55" customWidth="1"/>
+    <col min="9729" max="9729" width="5.5" style="55" customWidth="1"/>
+    <col min="9730" max="9730" width="9" style="55"/>
+    <col min="9731" max="9731" width="4.875" style="55" customWidth="1"/>
+    <col min="9732" max="9732" width="11.75" style="55" customWidth="1"/>
+    <col min="9733" max="9733" width="14.375" style="55" customWidth="1"/>
+    <col min="9734" max="9734" width="52.625" style="55" customWidth="1"/>
+    <col min="9735" max="9735" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="9736" max="9736" width="5.5" style="55" customWidth="1"/>
+    <col min="9737" max="9737" width="8.625" style="55" customWidth="1"/>
+    <col min="9738" max="9983" width="9" style="55"/>
+    <col min="9984" max="9984" width="3.875" style="55" customWidth="1"/>
+    <col min="9985" max="9985" width="5.5" style="55" customWidth="1"/>
+    <col min="9986" max="9986" width="9" style="55"/>
+    <col min="9987" max="9987" width="4.875" style="55" customWidth="1"/>
+    <col min="9988" max="9988" width="11.75" style="55" customWidth="1"/>
+    <col min="9989" max="9989" width="14.375" style="55" customWidth="1"/>
+    <col min="9990" max="9990" width="52.625" style="55" customWidth="1"/>
+    <col min="9991" max="9991" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="9992" max="9992" width="5.5" style="55" customWidth="1"/>
+    <col min="9993" max="9993" width="8.625" style="55" customWidth="1"/>
+    <col min="9994" max="10239" width="9" style="55"/>
+    <col min="10240" max="10240" width="3.875" style="55" customWidth="1"/>
+    <col min="10241" max="10241" width="5.5" style="55" customWidth="1"/>
+    <col min="10242" max="10242" width="9" style="55"/>
+    <col min="10243" max="10243" width="4.875" style="55" customWidth="1"/>
+    <col min="10244" max="10244" width="11.75" style="55" customWidth="1"/>
+    <col min="10245" max="10245" width="14.375" style="55" customWidth="1"/>
+    <col min="10246" max="10246" width="52.625" style="55" customWidth="1"/>
+    <col min="10247" max="10247" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="10248" max="10248" width="5.5" style="55" customWidth="1"/>
+    <col min="10249" max="10249" width="8.625" style="55" customWidth="1"/>
+    <col min="10250" max="10495" width="9" style="55"/>
+    <col min="10496" max="10496" width="3.875" style="55" customWidth="1"/>
+    <col min="10497" max="10497" width="5.5" style="55" customWidth="1"/>
+    <col min="10498" max="10498" width="9" style="55"/>
+    <col min="10499" max="10499" width="4.875" style="55" customWidth="1"/>
+    <col min="10500" max="10500" width="11.75" style="55" customWidth="1"/>
+    <col min="10501" max="10501" width="14.375" style="55" customWidth="1"/>
+    <col min="10502" max="10502" width="52.625" style="55" customWidth="1"/>
+    <col min="10503" max="10503" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="10504" max="10504" width="5.5" style="55" customWidth="1"/>
+    <col min="10505" max="10505" width="8.625" style="55" customWidth="1"/>
+    <col min="10506" max="10751" width="9" style="55"/>
+    <col min="10752" max="10752" width="3.875" style="55" customWidth="1"/>
+    <col min="10753" max="10753" width="5.5" style="55" customWidth="1"/>
+    <col min="10754" max="10754" width="9" style="55"/>
+    <col min="10755" max="10755" width="4.875" style="55" customWidth="1"/>
+    <col min="10756" max="10756" width="11.75" style="55" customWidth="1"/>
+    <col min="10757" max="10757" width="14.375" style="55" customWidth="1"/>
+    <col min="10758" max="10758" width="52.625" style="55" customWidth="1"/>
+    <col min="10759" max="10759" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="10760" max="10760" width="5.5" style="55" customWidth="1"/>
+    <col min="10761" max="10761" width="8.625" style="55" customWidth="1"/>
+    <col min="10762" max="11007" width="9" style="55"/>
+    <col min="11008" max="11008" width="3.875" style="55" customWidth="1"/>
+    <col min="11009" max="11009" width="5.5" style="55" customWidth="1"/>
+    <col min="11010" max="11010" width="9" style="55"/>
+    <col min="11011" max="11011" width="4.875" style="55" customWidth="1"/>
+    <col min="11012" max="11012" width="11.75" style="55" customWidth="1"/>
+    <col min="11013" max="11013" width="14.375" style="55" customWidth="1"/>
+    <col min="11014" max="11014" width="52.625" style="55" customWidth="1"/>
+    <col min="11015" max="11015" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="11016" max="11016" width="5.5" style="55" customWidth="1"/>
+    <col min="11017" max="11017" width="8.625" style="55" customWidth="1"/>
+    <col min="11018" max="11263" width="9" style="55"/>
+    <col min="11264" max="11264" width="3.875" style="55" customWidth="1"/>
+    <col min="11265" max="11265" width="5.5" style="55" customWidth="1"/>
+    <col min="11266" max="11266" width="9" style="55"/>
+    <col min="11267" max="11267" width="4.875" style="55" customWidth="1"/>
+    <col min="11268" max="11268" width="11.75" style="55" customWidth="1"/>
+    <col min="11269" max="11269" width="14.375" style="55" customWidth="1"/>
+    <col min="11270" max="11270" width="52.625" style="55" customWidth="1"/>
+    <col min="11271" max="11271" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="11272" max="11272" width="5.5" style="55" customWidth="1"/>
+    <col min="11273" max="11273" width="8.625" style="55" customWidth="1"/>
+    <col min="11274" max="11519" width="9" style="55"/>
+    <col min="11520" max="11520" width="3.875" style="55" customWidth="1"/>
+    <col min="11521" max="11521" width="5.5" style="55" customWidth="1"/>
+    <col min="11522" max="11522" width="9" style="55"/>
+    <col min="11523" max="11523" width="4.875" style="55" customWidth="1"/>
+    <col min="11524" max="11524" width="11.75" style="55" customWidth="1"/>
+    <col min="11525" max="11525" width="14.375" style="55" customWidth="1"/>
+    <col min="11526" max="11526" width="52.625" style="55" customWidth="1"/>
+    <col min="11527" max="11527" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="11528" max="11528" width="5.5" style="55" customWidth="1"/>
+    <col min="11529" max="11529" width="8.625" style="55" customWidth="1"/>
+    <col min="11530" max="11775" width="9" style="55"/>
+    <col min="11776" max="11776" width="3.875" style="55" customWidth="1"/>
+    <col min="11777" max="11777" width="5.5" style="55" customWidth="1"/>
+    <col min="11778" max="11778" width="9" style="55"/>
+    <col min="11779" max="11779" width="4.875" style="55" customWidth="1"/>
+    <col min="11780" max="11780" width="11.75" style="55" customWidth="1"/>
+    <col min="11781" max="11781" width="14.375" style="55" customWidth="1"/>
+    <col min="11782" max="11782" width="52.625" style="55" customWidth="1"/>
+    <col min="11783" max="11783" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="11784" max="11784" width="5.5" style="55" customWidth="1"/>
+    <col min="11785" max="11785" width="8.625" style="55" customWidth="1"/>
+    <col min="11786" max="12031" width="9" style="55"/>
+    <col min="12032" max="12032" width="3.875" style="55" customWidth="1"/>
+    <col min="12033" max="12033" width="5.5" style="55" customWidth="1"/>
+    <col min="12034" max="12034" width="9" style="55"/>
+    <col min="12035" max="12035" width="4.875" style="55" customWidth="1"/>
+    <col min="12036" max="12036" width="11.75" style="55" customWidth="1"/>
+    <col min="12037" max="12037" width="14.375" style="55" customWidth="1"/>
+    <col min="12038" max="12038" width="52.625" style="55" customWidth="1"/>
+    <col min="12039" max="12039" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="12040" max="12040" width="5.5" style="55" customWidth="1"/>
+    <col min="12041" max="12041" width="8.625" style="55" customWidth="1"/>
+    <col min="12042" max="12287" width="9" style="55"/>
+    <col min="12288" max="12288" width="3.875" style="55" customWidth="1"/>
+    <col min="12289" max="12289" width="5.5" style="55" customWidth="1"/>
+    <col min="12290" max="12290" width="9" style="55"/>
+    <col min="12291" max="12291" width="4.875" style="55" customWidth="1"/>
+    <col min="12292" max="12292" width="11.75" style="55" customWidth="1"/>
+    <col min="12293" max="12293" width="14.375" style="55" customWidth="1"/>
+    <col min="12294" max="12294" width="52.625" style="55" customWidth="1"/>
+    <col min="12295" max="12295" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="12296" max="12296" width="5.5" style="55" customWidth="1"/>
+    <col min="12297" max="12297" width="8.625" style="55" customWidth="1"/>
+    <col min="12298" max="12543" width="9" style="55"/>
+    <col min="12544" max="12544" width="3.875" style="55" customWidth="1"/>
+    <col min="12545" max="12545" width="5.5" style="55" customWidth="1"/>
+    <col min="12546" max="12546" width="9" style="55"/>
+    <col min="12547" max="12547" width="4.875" style="55" customWidth="1"/>
+    <col min="12548" max="12548" width="11.75" style="55" customWidth="1"/>
+    <col min="12549" max="12549" width="14.375" style="55" customWidth="1"/>
+    <col min="12550" max="12550" width="52.625" style="55" customWidth="1"/>
+    <col min="12551" max="12551" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="12552" max="12552" width="5.5" style="55" customWidth="1"/>
+    <col min="12553" max="12553" width="8.625" style="55" customWidth="1"/>
+    <col min="12554" max="12799" width="9" style="55"/>
+    <col min="12800" max="12800" width="3.875" style="55" customWidth="1"/>
+    <col min="12801" max="12801" width="5.5" style="55" customWidth="1"/>
+    <col min="12802" max="12802" width="9" style="55"/>
+    <col min="12803" max="12803" width="4.875" style="55" customWidth="1"/>
+    <col min="12804" max="12804" width="11.75" style="55" customWidth="1"/>
+    <col min="12805" max="12805" width="14.375" style="55" customWidth="1"/>
+    <col min="12806" max="12806" width="52.625" style="55" customWidth="1"/>
+    <col min="12807" max="12807" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="12808" max="12808" width="5.5" style="55" customWidth="1"/>
+    <col min="12809" max="12809" width="8.625" style="55" customWidth="1"/>
+    <col min="12810" max="13055" width="9" style="55"/>
+    <col min="13056" max="13056" width="3.875" style="55" customWidth="1"/>
+    <col min="13057" max="13057" width="5.5" style="55" customWidth="1"/>
+    <col min="13058" max="13058" width="9" style="55"/>
+    <col min="13059" max="13059" width="4.875" style="55" customWidth="1"/>
+    <col min="13060" max="13060" width="11.75" style="55" customWidth="1"/>
+    <col min="13061" max="13061" width="14.375" style="55" customWidth="1"/>
+    <col min="13062" max="13062" width="52.625" style="55" customWidth="1"/>
+    <col min="13063" max="13063" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="13064" max="13064" width="5.5" style="55" customWidth="1"/>
+    <col min="13065" max="13065" width="8.625" style="55" customWidth="1"/>
+    <col min="13066" max="13311" width="9" style="55"/>
+    <col min="13312" max="13312" width="3.875" style="55" customWidth="1"/>
+    <col min="13313" max="13313" width="5.5" style="55" customWidth="1"/>
+    <col min="13314" max="13314" width="9" style="55"/>
+    <col min="13315" max="13315" width="4.875" style="55" customWidth="1"/>
+    <col min="13316" max="13316" width="11.75" style="55" customWidth="1"/>
+    <col min="13317" max="13317" width="14.375" style="55" customWidth="1"/>
+    <col min="13318" max="13318" width="52.625" style="55" customWidth="1"/>
+    <col min="13319" max="13319" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="13320" max="13320" width="5.5" style="55" customWidth="1"/>
+    <col min="13321" max="13321" width="8.625" style="55" customWidth="1"/>
+    <col min="13322" max="13567" width="9" style="55"/>
+    <col min="13568" max="13568" width="3.875" style="55" customWidth="1"/>
+    <col min="13569" max="13569" width="5.5" style="55" customWidth="1"/>
+    <col min="13570" max="13570" width="9" style="55"/>
+    <col min="13571" max="13571" width="4.875" style="55" customWidth="1"/>
+    <col min="13572" max="13572" width="11.75" style="55" customWidth="1"/>
+    <col min="13573" max="13573" width="14.375" style="55" customWidth="1"/>
+    <col min="13574" max="13574" width="52.625" style="55" customWidth="1"/>
+    <col min="13575" max="13575" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="13576" max="13576" width="5.5" style="55" customWidth="1"/>
+    <col min="13577" max="13577" width="8.625" style="55" customWidth="1"/>
+    <col min="13578" max="13823" width="9" style="55"/>
+    <col min="13824" max="13824" width="3.875" style="55" customWidth="1"/>
+    <col min="13825" max="13825" width="5.5" style="55" customWidth="1"/>
+    <col min="13826" max="13826" width="9" style="55"/>
+    <col min="13827" max="13827" width="4.875" style="55" customWidth="1"/>
+    <col min="13828" max="13828" width="11.75" style="55" customWidth="1"/>
+    <col min="13829" max="13829" width="14.375" style="55" customWidth="1"/>
+    <col min="13830" max="13830" width="52.625" style="55" customWidth="1"/>
+    <col min="13831" max="13831" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="13832" max="13832" width="5.5" style="55" customWidth="1"/>
+    <col min="13833" max="13833" width="8.625" style="55" customWidth="1"/>
+    <col min="13834" max="14079" width="9" style="55"/>
+    <col min="14080" max="14080" width="3.875" style="55" customWidth="1"/>
+    <col min="14081" max="14081" width="5.5" style="55" customWidth="1"/>
+    <col min="14082" max="14082" width="9" style="55"/>
+    <col min="14083" max="14083" width="4.875" style="55" customWidth="1"/>
+    <col min="14084" max="14084" width="11.75" style="55" customWidth="1"/>
+    <col min="14085" max="14085" width="14.375" style="55" customWidth="1"/>
+    <col min="14086" max="14086" width="52.625" style="55" customWidth="1"/>
+    <col min="14087" max="14087" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="14088" max="14088" width="5.5" style="55" customWidth="1"/>
+    <col min="14089" max="14089" width="8.625" style="55" customWidth="1"/>
+    <col min="14090" max="14335" width="9" style="55"/>
+    <col min="14336" max="14336" width="3.875" style="55" customWidth="1"/>
+    <col min="14337" max="14337" width="5.5" style="55" customWidth="1"/>
+    <col min="14338" max="14338" width="9" style="55"/>
+    <col min="14339" max="14339" width="4.875" style="55" customWidth="1"/>
+    <col min="14340" max="14340" width="11.75" style="55" customWidth="1"/>
+    <col min="14341" max="14341" width="14.375" style="55" customWidth="1"/>
+    <col min="14342" max="14342" width="52.625" style="55" customWidth="1"/>
+    <col min="14343" max="14343" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="14344" max="14344" width="5.5" style="55" customWidth="1"/>
+    <col min="14345" max="14345" width="8.625" style="55" customWidth="1"/>
+    <col min="14346" max="14591" width="9" style="55"/>
+    <col min="14592" max="14592" width="3.875" style="55" customWidth="1"/>
+    <col min="14593" max="14593" width="5.5" style="55" customWidth="1"/>
+    <col min="14594" max="14594" width="9" style="55"/>
+    <col min="14595" max="14595" width="4.875" style="55" customWidth="1"/>
+    <col min="14596" max="14596" width="11.75" style="55" customWidth="1"/>
+    <col min="14597" max="14597" width="14.375" style="55" customWidth="1"/>
+    <col min="14598" max="14598" width="52.625" style="55" customWidth="1"/>
+    <col min="14599" max="14599" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="14600" max="14600" width="5.5" style="55" customWidth="1"/>
+    <col min="14601" max="14601" width="8.625" style="55" customWidth="1"/>
+    <col min="14602" max="14847" width="9" style="55"/>
+    <col min="14848" max="14848" width="3.875" style="55" customWidth="1"/>
+    <col min="14849" max="14849" width="5.5" style="55" customWidth="1"/>
+    <col min="14850" max="14850" width="9" style="55"/>
+    <col min="14851" max="14851" width="4.875" style="55" customWidth="1"/>
+    <col min="14852" max="14852" width="11.75" style="55" customWidth="1"/>
+    <col min="14853" max="14853" width="14.375" style="55" customWidth="1"/>
+    <col min="14854" max="14854" width="52.625" style="55" customWidth="1"/>
+    <col min="14855" max="14855" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="14856" max="14856" width="5.5" style="55" customWidth="1"/>
+    <col min="14857" max="14857" width="8.625" style="55" customWidth="1"/>
+    <col min="14858" max="15103" width="9" style="55"/>
+    <col min="15104" max="15104" width="3.875" style="55" customWidth="1"/>
+    <col min="15105" max="15105" width="5.5" style="55" customWidth="1"/>
+    <col min="15106" max="15106" width="9" style="55"/>
+    <col min="15107" max="15107" width="4.875" style="55" customWidth="1"/>
+    <col min="15108" max="15108" width="11.75" style="55" customWidth="1"/>
+    <col min="15109" max="15109" width="14.375" style="55" customWidth="1"/>
+    <col min="15110" max="15110" width="52.625" style="55" customWidth="1"/>
+    <col min="15111" max="15111" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="15112" max="15112" width="5.5" style="55" customWidth="1"/>
+    <col min="15113" max="15113" width="8.625" style="55" customWidth="1"/>
+    <col min="15114" max="15359" width="9" style="55"/>
+    <col min="15360" max="15360" width="3.875" style="55" customWidth="1"/>
+    <col min="15361" max="15361" width="5.5" style="55" customWidth="1"/>
+    <col min="15362" max="15362" width="9" style="55"/>
+    <col min="15363" max="15363" width="4.875" style="55" customWidth="1"/>
+    <col min="15364" max="15364" width="11.75" style="55" customWidth="1"/>
+    <col min="15365" max="15365" width="14.375" style="55" customWidth="1"/>
+    <col min="15366" max="15366" width="52.625" style="55" customWidth="1"/>
+    <col min="15367" max="15367" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="15368" max="15368" width="5.5" style="55" customWidth="1"/>
+    <col min="15369" max="15369" width="8.625" style="55" customWidth="1"/>
+    <col min="15370" max="15615" width="9" style="55"/>
+    <col min="15616" max="15616" width="3.875" style="55" customWidth="1"/>
+    <col min="15617" max="15617" width="5.5" style="55" customWidth="1"/>
+    <col min="15618" max="15618" width="9" style="55"/>
+    <col min="15619" max="15619" width="4.875" style="55" customWidth="1"/>
+    <col min="15620" max="15620" width="11.75" style="55" customWidth="1"/>
+    <col min="15621" max="15621" width="14.375" style="55" customWidth="1"/>
+    <col min="15622" max="15622" width="52.625" style="55" customWidth="1"/>
+    <col min="15623" max="15623" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="15624" max="15624" width="5.5" style="55" customWidth="1"/>
+    <col min="15625" max="15625" width="8.625" style="55" customWidth="1"/>
+    <col min="15626" max="15871" width="9" style="55"/>
+    <col min="15872" max="15872" width="3.875" style="55" customWidth="1"/>
+    <col min="15873" max="15873" width="5.5" style="55" customWidth="1"/>
+    <col min="15874" max="15874" width="9" style="55"/>
+    <col min="15875" max="15875" width="4.875" style="55" customWidth="1"/>
+    <col min="15876" max="15876" width="11.75" style="55" customWidth="1"/>
+    <col min="15877" max="15877" width="14.375" style="55" customWidth="1"/>
+    <col min="15878" max="15878" width="52.625" style="55" customWidth="1"/>
+    <col min="15879" max="15879" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="15880" max="15880" width="5.5" style="55" customWidth="1"/>
+    <col min="15881" max="15881" width="8.625" style="55" customWidth="1"/>
+    <col min="15882" max="16127" width="9" style="55"/>
+    <col min="16128" max="16128" width="3.875" style="55" customWidth="1"/>
+    <col min="16129" max="16129" width="5.5" style="55" customWidth="1"/>
+    <col min="16130" max="16130" width="9" style="55"/>
+    <col min="16131" max="16131" width="4.875" style="55" customWidth="1"/>
+    <col min="16132" max="16132" width="11.75" style="55" customWidth="1"/>
+    <col min="16133" max="16133" width="14.375" style="55" customWidth="1"/>
+    <col min="16134" max="16134" width="52.625" style="55" customWidth="1"/>
+    <col min="16135" max="16135" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="16136" max="16136" width="5.5" style="55" customWidth="1"/>
+    <col min="16137" max="16137" width="8.625" style="55" customWidth="1"/>
+    <col min="16138" max="16384" width="9" style="55"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24.75">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="53" t="s">
         <v>216</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="74"/>
-      <c r="I1" s="74"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="55"/>
+      <c r="I1" s="55"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="75"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="74"/>
-      <c r="I2" s="74"/>
-    </row>
-    <row r="3" spans="1:9" s="76" customFormat="1">
-      <c r="A3" s="89" t="s">
+      <c r="A2" s="56"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="55"/>
+      <c r="I2" s="55"/>
+    </row>
+    <row r="3" spans="1:9" s="57" customFormat="1">
+      <c r="A3" s="70" t="s">
         <v>217</v>
       </c>
-      <c r="B3" s="89" t="s">
+      <c r="B3" s="70" t="s">
         <v>218</v>
       </c>
-      <c r="C3" s="89" t="s">
+      <c r="C3" s="70" t="s">
         <v>219</v>
       </c>
-      <c r="D3" s="89" t="s">
+      <c r="D3" s="70" t="s">
         <v>220</v>
       </c>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89" t="s">
+      <c r="E3" s="70"/>
+      <c r="F3" s="70" t="s">
         <v>221</v>
       </c>
-      <c r="G3" s="89" t="s">
+      <c r="G3" s="70" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="76" customFormat="1">
-      <c r="A4" s="89"/>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="77" t="s">
+    <row r="4" spans="1:9" s="57" customFormat="1">
+      <c r="A4" s="70"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="58" t="s">
         <v>223</v>
       </c>
-      <c r="E4" s="77" t="s">
+      <c r="E4" s="58" t="s">
         <v>224</v>
       </c>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-    </row>
-    <row r="5" spans="1:9" s="81" customFormat="1">
-      <c r="A5" s="78">
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+    </row>
+    <row r="5" spans="1:9" s="62" customFormat="1">
+      <c r="A5" s="59">
         <v>1</v>
       </c>
-      <c r="B5" s="80">
+      <c r="B5" s="61">
         <v>41547</v>
       </c>
-      <c r="C5" s="78" t="s">
+      <c r="C5" s="59" t="s">
         <v>225</v>
       </c>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="78" t="s">
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="59" t="s">
         <v>230</v>
       </c>
-      <c r="G5" s="78" t="s">
+      <c r="G5" s="59" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="83" customFormat="1">
-      <c r="A6" s="78">
+    <row r="6" spans="1:9" s="64" customFormat="1">
+      <c r="A6" s="59">
         <v>2</v>
       </c>
-      <c r="B6" s="82">
+      <c r="B6" s="63">
         <v>43949</v>
       </c>
-      <c r="C6" s="78" t="s">
+      <c r="C6" s="59" t="s">
         <v>226</v>
       </c>
-      <c r="D6" s="79" t="s">
+      <c r="D6" s="60" t="s">
         <v>232</v>
       </c>
-      <c r="E6" s="79" t="s">
+      <c r="E6" s="60" t="s">
         <v>233</v>
       </c>
-      <c r="F6" s="78" t="s">
+      <c r="F6" s="59" t="s">
         <v>227</v>
       </c>
-      <c r="G6" s="78" t="s">
+      <c r="G6" s="59" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="83" customFormat="1">
-      <c r="A7" s="78">
+    <row r="7" spans="1:9" s="64" customFormat="1">
+      <c r="A7" s="59">
         <v>3</v>
       </c>
-      <c r="B7" s="82">
+      <c r="B7" s="63">
         <v>43970</v>
       </c>
-      <c r="C7" s="78" t="s">
+      <c r="C7" s="59" t="s">
         <v>226</v>
       </c>
-      <c r="D7" s="79" t="s">
+      <c r="D7" s="60" t="s">
         <v>232</v>
       </c>
-      <c r="E7" s="79" t="s">
+      <c r="E7" s="60" t="s">
         <v>233</v>
       </c>
-      <c r="F7" s="78" t="s">
+      <c r="F7" s="59" t="s">
         <v>235</v>
       </c>
-      <c r="G7" s="78" t="s">
+      <c r="G7" s="59" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="83" customFormat="1">
-      <c r="A8" s="78">
+    <row r="8" spans="1:9" s="64" customFormat="1">
+      <c r="A8" s="59">
         <v>4</v>
       </c>
-      <c r="B8" s="82">
+      <c r="B8" s="63">
         <v>44754</v>
       </c>
-      <c r="C8" s="78" t="s">
+      <c r="C8" s="59" t="s">
         <v>226</v>
       </c>
-      <c r="D8" s="79" t="s">
+      <c r="D8" s="60" t="s">
         <v>237</v>
       </c>
-      <c r="E8" s="79" t="s">
+      <c r="E8" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="F8" s="78" t="s">
+      <c r="F8" s="59" t="s">
         <v>240</v>
       </c>
-      <c r="G8" s="78" t="s">
+      <c r="G8" s="59" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="83" customFormat="1" ht="28.5">
-      <c r="A9" s="78">
+    <row r="9" spans="1:9" s="64" customFormat="1" ht="28.5">
+      <c r="A9" s="59">
         <v>5</v>
       </c>
-      <c r="B9" s="82">
+      <c r="B9" s="63">
         <v>44754</v>
       </c>
-      <c r="C9" s="78" t="s">
+      <c r="C9" s="59" t="s">
         <v>226</v>
       </c>
-      <c r="D9" s="79" t="s">
+      <c r="D9" s="60" t="s">
         <v>232</v>
       </c>
-      <c r="E9" s="79" t="s">
+      <c r="E9" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="F9" s="78" t="s">
+      <c r="F9" s="59" t="s">
         <v>242</v>
       </c>
-      <c r="G9" s="78" t="s">
+      <c r="G9" s="59" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="83" customFormat="1">
-      <c r="A10" s="74" t="s">
+    <row r="10" spans="1:9" s="64" customFormat="1">
+      <c r="A10" s="55" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="86" customFormat="1" ht="18.75">
-      <c r="A11" s="84"/>
-      <c r="B11" s="85"/>
-      <c r="C11" s="85"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="85"/>
-      <c r="I11" s="87"/>
+    <row r="11" spans="1:9" s="67" customFormat="1" ht="18.75">
+      <c r="A11" s="65"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="I11" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5465,7 +5092,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.82677165354330717" bottom="0.86614173228346458" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="79" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="78" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;R&amp;10TISインテックグループ外秘</oddHeader>
     <oddFooter>&amp;L
@@ -5476,118 +5103,119 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59182785-6894-4709-A2E5-57E49270532F}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:J48"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="16384" width="2.625" style="21"/>
+    <col min="1" max="16384" width="2.625" style="20"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="4" spans="2:4">
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="20" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="6" spans="2:4">
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="20" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="7" spans="2:4">
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="20" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="8" spans="2:4">
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="21" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="9" spans="2:4">
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="20" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="10" spans="2:4">
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="20" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="12" spans="2:4">
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="20" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="13" spans="2:4">
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="20" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="14" spans="2:4">
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="20" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="15" spans="2:4">
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="20" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="16" spans="2:4">
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="20" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="20" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="20" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="20" spans="4:4">
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="20" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="20" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="43" spans="3:10">
-      <c r="C43" s="21" t="s">
+      <c r="C43" s="20" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="45" spans="3:10">
-      <c r="D45" s="21" t="s">
+      <c r="D45" s="20" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="47" spans="3:10">
-      <c r="F47" s="21" t="s">
+      <c r="F47" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="J47" s="21" t="s">
+      <c r="J47" s="20" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="48" spans="3:10">
-      <c r="F48" s="21" t="s">
+      <c r="F48" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="J48" s="21" t="s">
+      <c r="J48" s="20" t="s">
         <v>188</v>
       </c>
     </row>
@@ -5611,7 +5239,7 @@
       <pane xSplit="4" ySplit="8" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9:E10"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -5662,96 +5290,96 @@
     <row r="6" spans="1:12" ht="17.25" thickBot="1">
       <c r="A6" s="1"/>
       <c r="B6" s="4"/>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="24" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="B7" s="90" t="s">
+      <c r="B7" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="92" t="s">
+      <c r="C7" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="92"/>
-      <c r="E7" s="119" t="s">
+      <c r="D7" s="110"/>
+      <c r="E7" s="95" t="s">
         <v>160</v>
       </c>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="117" t="s">
+      <c r="F7" s="95"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="95"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="93" t="s">
         <v>156</v>
       </c>
-      <c r="K7" s="117" t="s">
+      <c r="K7" s="93" t="s">
         <v>159</v>
       </c>
-      <c r="L7" s="132" t="s">
+      <c r="L7" s="105" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="12.75" thickBot="1">
-      <c r="B8" s="91"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="37" t="s">
+      <c r="B8" s="109"/>
+      <c r="C8" s="111"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="37" t="s">
+      <c r="F8" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37" t="s">
+      <c r="G8" s="33"/>
+      <c r="H8" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="37" t="s">
+      <c r="I8" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="J8" s="118"/>
-      <c r="K8" s="118"/>
-      <c r="L8" s="133"/>
+      <c r="J8" s="94"/>
+      <c r="K8" s="94"/>
+      <c r="L8" s="106"/>
     </row>
     <row r="9" spans="1:12" ht="57" customHeight="1">
-      <c r="B9" s="94">
+      <c r="B9" s="79">
         <v>1</v>
       </c>
-      <c r="C9" s="109" t="s">
+      <c r="C9" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="109"/>
-      <c r="E9" s="128" t="s">
+      <c r="D9" s="74"/>
+      <c r="E9" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="130" t="s">
+      <c r="F9" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="29" t="s">
+      <c r="H9" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="30" t="s">
+      <c r="I9" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="31" t="s">
+      <c r="J9" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="K9" s="32" t="s">
+      <c r="K9" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="L9" s="100" t="s">
+      <c r="L9" s="113" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="57" customHeight="1">
-      <c r="B10" s="96"/>
-      <c r="C10" s="111"/>
-      <c r="D10" s="111"/>
-      <c r="E10" s="129"/>
-      <c r="F10" s="131"/>
-      <c r="G10" s="26" t="s">
+      <c r="B10" s="82"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="23" t="s">
         <v>16</v>
       </c>
       <c r="H10" s="5" t="s">
@@ -5760,43 +5388,43 @@
       <c r="I10" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J10" s="13" t="s">
+      <c r="J10" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="K10" s="10" t="s">
+      <c r="K10" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="L10" s="101"/>
+      <c r="L10" s="114"/>
     </row>
     <row r="11" spans="1:12" ht="57" customHeight="1">
-      <c r="B11" s="96"/>
-      <c r="C11" s="111"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="24" t="s">
+      <c r="B11" s="82"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="26"/>
+      <c r="G11" s="23"/>
       <c r="H11" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="J11" s="13" t="s">
+      <c r="J11" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="K11" s="10" t="s">
+      <c r="K11" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="L11" s="101"/>
+      <c r="L11" s="114"/>
     </row>
     <row r="12" spans="1:12" ht="36">
-      <c r="B12" s="96"/>
-      <c r="C12" s="111"/>
-      <c r="D12" s="111"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="75"/>
       <c r="E12" s="7" t="s">
         <v>3</v>
       </c>
@@ -5810,327 +5438,327 @@
       <c r="I12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J12" s="13" t="s">
+      <c r="J12" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="K12" s="10" t="s">
+      <c r="K12" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="L12" s="101"/>
+      <c r="L12" s="114"/>
     </row>
     <row r="13" spans="1:12" ht="36.75" thickBot="1">
-      <c r="B13" s="97"/>
-      <c r="C13" s="112"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="33" t="s">
+      <c r="B13" s="80"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="34" t="s">
+      <c r="F13" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="34"/>
-      <c r="H13" s="35" t="s">
+      <c r="G13" s="31"/>
+      <c r="H13" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="I13" s="33" t="s">
+      <c r="I13" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="J13" s="35" t="s">
+      <c r="J13" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="K13" s="36" t="s">
+      <c r="K13" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="L13" s="102"/>
+      <c r="L13" s="115"/>
     </row>
     <row r="14" spans="1:12" ht="36">
-      <c r="B14" s="94">
+      <c r="B14" s="79">
         <v>2</v>
       </c>
-      <c r="C14" s="109" t="s">
+      <c r="C14" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="109"/>
-      <c r="E14" s="38" t="s">
+      <c r="D14" s="74"/>
+      <c r="E14" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="28" t="s">
+      <c r="F14" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="28" t="s">
+      <c r="G14" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="29" t="s">
+      <c r="H14" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="I14" s="30" t="s">
+      <c r="I14" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="J14" s="31" t="s">
+      <c r="J14" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="K14" s="32" t="s">
+      <c r="K14" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="L14" s="98" t="s">
+      <c r="L14" s="84" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="36.75" thickBot="1">
-      <c r="B15" s="114"/>
-      <c r="C15" s="113"/>
-      <c r="D15" s="113"/>
-      <c r="E15" s="45" t="s">
+      <c r="B15" s="83"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="47" t="s">
+      <c r="F15" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="47" t="s">
+      <c r="G15" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="48" t="s">
+      <c r="H15" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="I15" s="45" t="s">
+      <c r="I15" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="J15" s="48" t="s">
+      <c r="J15" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="K15" s="49" t="s">
+      <c r="K15" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="L15" s="99"/>
+      <c r="L15" s="92"/>
     </row>
     <row r="16" spans="1:12" ht="27" customHeight="1">
-      <c r="B16" s="94">
+      <c r="B16" s="79">
         <v>3</v>
       </c>
-      <c r="C16" s="109" t="s">
+      <c r="C16" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="109"/>
-      <c r="E16" s="106" t="s">
+      <c r="D16" s="74"/>
+      <c r="E16" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="103" t="s">
+      <c r="F16" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="103" t="s">
+      <c r="G16" s="116" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="126" t="s">
+      <c r="H16" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="125" t="s">
+      <c r="I16" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="J16" s="65" t="s">
+      <c r="J16" s="49" t="s">
         <v>189</v>
       </c>
-      <c r="K16" s="121" t="s">
+      <c r="K16" s="97" t="s">
         <v>127</v>
       </c>
-      <c r="L16" s="98" t="s">
+      <c r="L16" s="84" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="17" spans="2:12" ht="27" customHeight="1">
-      <c r="B17" s="95"/>
-      <c r="C17" s="110"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="107"/>
-      <c r="F17" s="105"/>
+      <c r="B17" s="112"/>
+      <c r="C17" s="121"/>
+      <c r="D17" s="121"/>
+      <c r="E17" s="119"/>
+      <c r="F17" s="117"/>
       <c r="G17" s="104"/>
-      <c r="H17" s="124"/>
-      <c r="I17" s="122"/>
-      <c r="J17" s="64" t="s">
+      <c r="H17" s="100"/>
+      <c r="I17" s="98"/>
+      <c r="J17" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="K17" s="120"/>
-      <c r="L17" s="134"/>
+      <c r="K17" s="96"/>
+      <c r="L17" s="107"/>
     </row>
     <row r="18" spans="2:12" ht="27" customHeight="1">
-      <c r="B18" s="96"/>
-      <c r="C18" s="111"/>
-      <c r="D18" s="111"/>
-      <c r="E18" s="107"/>
-      <c r="F18" s="105"/>
-      <c r="G18" s="127" t="s">
+      <c r="B18" s="82"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="119"/>
+      <c r="F18" s="117"/>
+      <c r="G18" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="123" t="s">
+      <c r="H18" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="I18" s="122" t="s">
+      <c r="I18" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="J18" s="63" t="s">
+      <c r="J18" s="47" t="s">
         <v>189</v>
       </c>
-      <c r="K18" s="120" t="s">
+      <c r="K18" s="96" t="s">
         <v>127</v>
       </c>
-      <c r="L18" s="115"/>
+      <c r="L18" s="85"/>
     </row>
     <row r="19" spans="2:12" ht="27" customHeight="1">
-      <c r="B19" s="96"/>
-      <c r="C19" s="111"/>
-      <c r="D19" s="111"/>
-      <c r="E19" s="108"/>
+      <c r="B19" s="82"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="120"/>
       <c r="F19" s="104"/>
       <c r="G19" s="104"/>
-      <c r="H19" s="124"/>
-      <c r="I19" s="122"/>
-      <c r="J19" s="64" t="s">
+      <c r="H19" s="100"/>
+      <c r="I19" s="98"/>
+      <c r="J19" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="K19" s="120"/>
-      <c r="L19" s="115"/>
+      <c r="K19" s="96"/>
+      <c r="L19" s="85"/>
     </row>
     <row r="20" spans="2:12" ht="36">
-      <c r="B20" s="96"/>
-      <c r="C20" s="111"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="54" t="s">
+      <c r="B20" s="82"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F20" s="56" t="s">
+      <c r="F20" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="56"/>
-      <c r="H20" s="10" t="s">
+      <c r="G20" s="8"/>
+      <c r="H20" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="I20" s="61" t="s">
+      <c r="I20" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="J20" s="62" t="s">
+      <c r="J20" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="K20" s="60" t="s">
+      <c r="K20" s="45" t="s">
         <v>174</v>
       </c>
-      <c r="L20" s="115"/>
+      <c r="L20" s="85"/>
     </row>
     <row r="21" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B21" s="97"/>
-      <c r="C21" s="112"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="55" t="s">
+      <c r="B21" s="80"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="F21" s="57" t="s">
+      <c r="F21" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="G21" s="57"/>
-      <c r="H21" s="36" t="s">
+      <c r="G21" s="31"/>
+      <c r="H21" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="I21" s="55" t="s">
+      <c r="I21" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="J21" s="41" t="s">
+      <c r="J21" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="K21" s="36" t="s">
+      <c r="K21" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="L21" s="116"/>
+      <c r="L21" s="86"/>
     </row>
     <row r="22" spans="2:12" ht="36">
-      <c r="B22" s="94">
+      <c r="B22" s="79">
         <v>4</v>
       </c>
-      <c r="C22" s="109" t="s">
+      <c r="C22" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="109"/>
-      <c r="E22" s="38" t="s">
+      <c r="D22" s="74"/>
+      <c r="E22" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="28" t="s">
+      <c r="F22" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="G22" s="28"/>
-      <c r="H22" s="29" t="s">
+      <c r="G22" s="25"/>
+      <c r="H22" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="I22" s="30" t="s">
+      <c r="I22" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="J22" s="58" t="s">
+      <c r="J22" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="K22" s="32" t="s">
+      <c r="K22" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="L22" s="98" t="s">
+      <c r="L22" s="84" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="23" spans="2:12" ht="36">
-      <c r="B23" s="96"/>
-      <c r="C23" s="111"/>
-      <c r="D23" s="111"/>
-      <c r="E23" s="24" t="s">
+      <c r="B23" s="82"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="26" t="s">
+      <c r="F23" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="G23" s="26"/>
+      <c r="G23" s="23"/>
       <c r="H23" s="5" t="s">
         <v>55</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="J23" s="59" t="s">
+      <c r="J23" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="K23" s="10" t="s">
+      <c r="K23" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="L23" s="115"/>
+      <c r="L23" s="85"/>
     </row>
     <row r="24" spans="2:12" ht="36">
-      <c r="B24" s="96"/>
-      <c r="C24" s="111"/>
-      <c r="D24" s="111"/>
-      <c r="E24" s="24" t="s">
+      <c r="B24" s="82"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="26" t="s">
+      <c r="F24" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="G24" s="26"/>
+      <c r="G24" s="23"/>
       <c r="H24" s="5" t="s">
         <v>47</v>
       </c>
       <c r="I24" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="J24" s="59" t="s">
+      <c r="J24" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="K24" s="10" t="s">
+      <c r="K24" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="L24" s="115"/>
+      <c r="L24" s="85"/>
     </row>
     <row r="25" spans="2:12">
-      <c r="B25" s="96"/>
-      <c r="C25" s="111"/>
-      <c r="D25" s="111"/>
-      <c r="E25" s="129" t="s">
+      <c r="B25" s="82"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="F25" s="131" t="s">
+      <c r="F25" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="G25" s="26" t="s">
+      <c r="G25" s="23" t="s">
         <v>16</v>
       </c>
       <c r="H25" s="5" t="s">
@@ -6139,21 +5767,21 @@
       <c r="I25" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="J25" s="13" t="s">
+      <c r="J25" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="K25" s="10" t="s">
+      <c r="K25" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="L25" s="115"/>
+      <c r="L25" s="85"/>
     </row>
     <row r="26" spans="2:12" ht="24">
-      <c r="B26" s="96"/>
-      <c r="C26" s="111"/>
-      <c r="D26" s="111"/>
-      <c r="E26" s="129"/>
-      <c r="F26" s="131"/>
-      <c r="G26" s="26" t="s">
+      <c r="B26" s="82"/>
+      <c r="C26" s="75"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="23" t="s">
         <v>16</v>
       </c>
       <c r="H26" s="5" t="s">
@@ -6162,106 +5790,106 @@
       <c r="I26" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="J26" s="135" t="s">
+      <c r="J26" s="87" t="s">
         <v>177</v>
       </c>
-      <c r="K26" s="136"/>
-      <c r="L26" s="115"/>
+      <c r="K26" s="88"/>
+      <c r="L26" s="85"/>
     </row>
     <row r="27" spans="2:12" ht="36">
-      <c r="B27" s="96"/>
-      <c r="C27" s="111"/>
-      <c r="D27" s="111"/>
-      <c r="E27" s="23" t="s">
+      <c r="B27" s="82"/>
+      <c r="C27" s="75"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F27" s="25" t="s">
+      <c r="F27" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G27" s="25"/>
-      <c r="H27" s="10" t="s">
+      <c r="G27" s="8"/>
+      <c r="H27" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="I27" s="23" t="s">
+      <c r="I27" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="J27" s="59" t="s">
+      <c r="J27" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="K27" s="10" t="s">
+      <c r="K27" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="L27" s="115"/>
+      <c r="L27" s="85"/>
     </row>
     <row r="28" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B28" s="97"/>
-      <c r="C28" s="112"/>
-      <c r="D28" s="112"/>
-      <c r="E28" s="39" t="s">
+      <c r="B28" s="80"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="F28" s="40" t="s">
+      <c r="F28" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="G28" s="40"/>
-      <c r="H28" s="36" t="s">
+      <c r="G28" s="31"/>
+      <c r="H28" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="I28" s="39" t="s">
+      <c r="I28" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="J28" s="66" t="s">
+      <c r="J28" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="K28" s="36" t="s">
+      <c r="K28" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="L28" s="116"/>
+      <c r="L28" s="86"/>
     </row>
     <row r="29" spans="2:12" ht="36">
-      <c r="B29" s="94">
+      <c r="B29" s="79">
         <v>5</v>
       </c>
-      <c r="C29" s="137" t="s">
+      <c r="C29" s="89" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="109" t="s">
+      <c r="D29" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="E29" s="38" t="s">
+      <c r="E29" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="F29" s="28" t="s">
+      <c r="F29" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="G29" s="28"/>
-      <c r="H29" s="29" t="s">
+      <c r="G29" s="25"/>
+      <c r="H29" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="I29" s="30" t="s">
+      <c r="I29" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="J29" s="58" t="s">
+      <c r="J29" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="K29" s="32" t="s">
+      <c r="K29" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="L29" s="98" t="s">
+      <c r="L29" s="84" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="30" spans="2:12" ht="36">
-      <c r="B30" s="96"/>
-      <c r="C30" s="138"/>
-      <c r="D30" s="111"/>
-      <c r="E30" s="24" t="s">
+      <c r="B30" s="82"/>
+      <c r="C30" s="90"/>
+      <c r="D30" s="75"/>
+      <c r="E30" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F30" s="26" t="s">
+      <c r="F30" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="26"/>
+      <c r="G30" s="23"/>
       <c r="H30" s="5" t="s">
         <v>65</v>
       </c>
@@ -6271,22 +5899,22 @@
       <c r="J30" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="K30" s="10" t="s">
+      <c r="K30" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="L30" s="115"/>
+      <c r="L30" s="85"/>
     </row>
     <row r="31" spans="2:12" ht="36">
-      <c r="B31" s="96"/>
-      <c r="C31" s="138"/>
-      <c r="D31" s="111"/>
-      <c r="E31" s="24" t="s">
+      <c r="B31" s="82"/>
+      <c r="C31" s="90"/>
+      <c r="D31" s="75"/>
+      <c r="E31" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F31" s="26" t="s">
+      <c r="F31" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="G31" s="26"/>
+      <c r="G31" s="23"/>
       <c r="H31" s="5" t="s">
         <v>66</v>
       </c>
@@ -6296,22 +5924,22 @@
       <c r="J31" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="K31" s="10" t="s">
+      <c r="K31" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="L31" s="115"/>
+      <c r="L31" s="85"/>
     </row>
     <row r="32" spans="2:12" ht="36">
-      <c r="B32" s="96"/>
-      <c r="C32" s="138"/>
-      <c r="D32" s="111"/>
-      <c r="E32" s="24" t="s">
+      <c r="B32" s="82"/>
+      <c r="C32" s="90"/>
+      <c r="D32" s="75"/>
+      <c r="E32" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F32" s="26" t="s">
+      <c r="F32" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="G32" s="26"/>
+      <c r="G32" s="23"/>
       <c r="H32" s="5" t="s">
         <v>68</v>
       </c>
@@ -6321,49 +5949,49 @@
       <c r="J32" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="K32" s="10" t="s">
+      <c r="K32" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="L32" s="115"/>
+      <c r="L32" s="85"/>
     </row>
     <row r="33" spans="2:12" ht="36">
-      <c r="B33" s="96"/>
-      <c r="C33" s="138"/>
-      <c r="D33" s="111"/>
-      <c r="E33" s="23" t="s">
+      <c r="B33" s="82"/>
+      <c r="C33" s="90"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F33" s="25" t="s">
+      <c r="F33" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G33" s="25"/>
+      <c r="G33" s="8"/>
       <c r="H33" s="9" t="s">
         <v>70</v>
       </c>
       <c r="I33" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="J33" s="13" t="s">
+      <c r="J33" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="K33" s="10" t="s">
+      <c r="K33" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="L33" s="115"/>
+      <c r="L33" s="85"/>
     </row>
     <row r="34" spans="2:12" ht="36">
-      <c r="B34" s="96"/>
-      <c r="C34" s="138"/>
-      <c r="D34" s="111" t="s">
+      <c r="B34" s="82"/>
+      <c r="C34" s="90"/>
+      <c r="D34" s="75" t="s">
         <v>124</v>
       </c>
-      <c r="E34" s="24" t="s">
+      <c r="E34" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F34" s="26" t="s">
+      <c r="F34" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="G34" s="26"/>
+      <c r="G34" s="23"/>
       <c r="H34" s="5" t="s">
         <v>72</v>
       </c>
@@ -6373,24 +6001,24 @@
       <c r="J34" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="K34" s="10" t="s">
+      <c r="K34" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="L34" s="115" t="s">
+      <c r="L34" s="85" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="35" spans="2:12" ht="36">
-      <c r="B35" s="96"/>
-      <c r="C35" s="138"/>
-      <c r="D35" s="111"/>
-      <c r="E35" s="23" t="s">
+      <c r="B35" s="82"/>
+      <c r="C35" s="90"/>
+      <c r="D35" s="75"/>
+      <c r="E35" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F35" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G35" s="25"/>
+      <c r="G35" s="8"/>
       <c r="H35" s="9" t="s">
         <v>75</v>
       </c>
@@ -6400,51 +6028,51 @@
       <c r="J35" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="K35" s="10" t="s">
+      <c r="K35" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="L35" s="115"/>
+      <c r="L35" s="85"/>
     </row>
     <row r="36" spans="2:12" ht="36">
-      <c r="B36" s="96"/>
-      <c r="C36" s="138"/>
-      <c r="D36" s="111" t="s">
+      <c r="B36" s="82"/>
+      <c r="C36" s="90"/>
+      <c r="D36" s="75" t="s">
         <v>123</v>
       </c>
-      <c r="E36" s="24" t="s">
+      <c r="E36" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F36" s="26" t="s">
+      <c r="F36" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="G36" s="26"/>
+      <c r="G36" s="23"/>
       <c r="H36" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I36" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="J36" s="13" t="s">
+      <c r="J36" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="K36" s="10" t="s">
+      <c r="K36" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="L36" s="115" t="s">
+      <c r="L36" s="85" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="37" spans="2:12" ht="36">
-      <c r="B37" s="96"/>
-      <c r="C37" s="138"/>
-      <c r="D37" s="111"/>
-      <c r="E37" s="23" t="s">
+      <c r="B37" s="82"/>
+      <c r="C37" s="90"/>
+      <c r="D37" s="75"/>
+      <c r="E37" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F37" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="25"/>
+      <c r="G37" s="8"/>
       <c r="H37" s="9" t="s">
         <v>79</v>
       </c>
@@ -6454,176 +6082,176 @@
       <c r="J37" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="K37" s="10" t="s">
+      <c r="K37" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="L37" s="115"/>
+      <c r="L37" s="85"/>
     </row>
     <row r="38" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B38" s="97"/>
-      <c r="C38" s="139"/>
-      <c r="D38" s="112"/>
-      <c r="E38" s="39" t="s">
+      <c r="B38" s="80"/>
+      <c r="C38" s="91"/>
+      <c r="D38" s="76"/>
+      <c r="E38" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="F38" s="34" t="s">
+      <c r="F38" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="G38" s="40"/>
-      <c r="H38" s="35" t="s">
+      <c r="G38" s="31"/>
+      <c r="H38" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="I38" s="33" t="s">
+      <c r="I38" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="J38" s="41" t="s">
+      <c r="J38" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="K38" s="36" t="s">
+      <c r="K38" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="L38" s="116"/>
+      <c r="L38" s="86"/>
     </row>
     <row r="39" spans="2:12" ht="48">
-      <c r="B39" s="94">
+      <c r="B39" s="79">
         <v>6</v>
       </c>
-      <c r="C39" s="109" t="s">
+      <c r="C39" s="74" t="s">
         <v>80</v>
       </c>
-      <c r="D39" s="109"/>
-      <c r="E39" s="128" t="s">
+      <c r="D39" s="74"/>
+      <c r="E39" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="F39" s="130" t="s">
+      <c r="F39" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="G39" s="28" t="s">
+      <c r="G39" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="H39" s="42" t="s">
+      <c r="H39" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="I39" s="30" t="s">
+      <c r="I39" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="J39" s="58" t="s">
+      <c r="J39" s="28" t="s">
         <v>234</v>
       </c>
-      <c r="K39" s="32" t="s">
+      <c r="K39" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="L39" s="98" t="s">
+      <c r="L39" s="84" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="40" spans="2:12" ht="36">
-      <c r="B40" s="96"/>
-      <c r="C40" s="111"/>
-      <c r="D40" s="111"/>
-      <c r="E40" s="129"/>
-      <c r="F40" s="131"/>
-      <c r="G40" s="26" t="s">
+      <c r="B40" s="82"/>
+      <c r="C40" s="75"/>
+      <c r="D40" s="75"/>
+      <c r="E40" s="78"/>
+      <c r="F40" s="73"/>
+      <c r="G40" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="H40" s="11" t="s">
+      <c r="H40" s="10" t="s">
         <v>83</v>
       </c>
       <c r="I40" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="J40" s="135" t="s">
+      <c r="J40" s="87" t="s">
         <v>179</v>
       </c>
-      <c r="K40" s="136"/>
-      <c r="L40" s="115"/>
+      <c r="K40" s="88"/>
+      <c r="L40" s="85"/>
     </row>
     <row r="41" spans="2:12" ht="24">
-      <c r="B41" s="96"/>
-      <c r="C41" s="111"/>
-      <c r="D41" s="111"/>
-      <c r="E41" s="129"/>
-      <c r="F41" s="131"/>
-      <c r="G41" s="26" t="s">
+      <c r="B41" s="82"/>
+      <c r="C41" s="75"/>
+      <c r="D41" s="75"/>
+      <c r="E41" s="78"/>
+      <c r="F41" s="73"/>
+      <c r="G41" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="H41" s="11" t="s">
+      <c r="H41" s="10" t="s">
         <v>85</v>
       </c>
       <c r="I41" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="J41" s="135" t="s">
+      <c r="J41" s="87" t="s">
         <v>179</v>
       </c>
-      <c r="K41" s="136"/>
-      <c r="L41" s="115"/>
+      <c r="K41" s="88"/>
+      <c r="L41" s="85"/>
     </row>
     <row r="42" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B42" s="97"/>
-      <c r="C42" s="112"/>
-      <c r="D42" s="112"/>
-      <c r="E42" s="39" t="s">
+      <c r="B42" s="80"/>
+      <c r="C42" s="76"/>
+      <c r="D42" s="76"/>
+      <c r="E42" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="F42" s="40" t="s">
+      <c r="F42" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="G42" s="40"/>
-      <c r="H42" s="43" t="s">
+      <c r="G42" s="31"/>
+      <c r="H42" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I42" s="39" t="s">
+      <c r="I42" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="J42" s="35" t="s">
+      <c r="J42" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="K42" s="36" t="s">
+      <c r="K42" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="L42" s="116"/>
+      <c r="L42" s="86"/>
     </row>
     <row r="43" spans="2:12" ht="24">
-      <c r="B43" s="94">
+      <c r="B43" s="79">
         <v>7</v>
       </c>
-      <c r="C43" s="109" t="s">
+      <c r="C43" s="74" t="s">
         <v>89</v>
       </c>
-      <c r="D43" s="109"/>
-      <c r="E43" s="128" t="s">
+      <c r="D43" s="74"/>
+      <c r="E43" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="F43" s="130" t="s">
+      <c r="F43" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="G43" s="28" t="s">
+      <c r="G43" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="H43" s="29" t="s">
+      <c r="H43" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="I43" s="30" t="s">
+      <c r="I43" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="J43" s="44" t="s">
+      <c r="J43" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="K43" s="32" t="s">
+      <c r="K43" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="L43" s="98" t="s">
+      <c r="L43" s="84" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="44" spans="2:12" ht="36">
-      <c r="B44" s="96"/>
-      <c r="C44" s="111"/>
-      <c r="D44" s="111"/>
-      <c r="E44" s="129"/>
-      <c r="F44" s="131"/>
-      <c r="G44" s="26" t="s">
+      <c r="B44" s="82"/>
+      <c r="C44" s="75"/>
+      <c r="D44" s="75"/>
+      <c r="E44" s="78"/>
+      <c r="F44" s="73"/>
+      <c r="G44" s="23" t="s">
         <v>16</v>
       </c>
       <c r="H44" s="5" t="s">
@@ -6632,77 +6260,77 @@
       <c r="I44" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="J44" s="135" t="s">
+      <c r="J44" s="87" t="s">
         <v>178</v>
       </c>
-      <c r="K44" s="136"/>
-      <c r="L44" s="115"/>
+      <c r="K44" s="88"/>
+      <c r="L44" s="85"/>
     </row>
     <row r="45" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B45" s="97"/>
-      <c r="C45" s="112"/>
-      <c r="D45" s="112"/>
-      <c r="E45" s="39" t="s">
+      <c r="B45" s="80"/>
+      <c r="C45" s="76"/>
+      <c r="D45" s="76"/>
+      <c r="E45" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="F45" s="40" t="s">
+      <c r="F45" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="G45" s="40"/>
-      <c r="H45" s="35" t="s">
+      <c r="G45" s="31"/>
+      <c r="H45" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="I45" s="39" t="s">
+      <c r="I45" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="J45" s="35" t="s">
+      <c r="J45" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="K45" s="36" t="s">
+      <c r="K45" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="L45" s="116"/>
+      <c r="L45" s="86"/>
     </row>
     <row r="46" spans="2:12" ht="24">
-      <c r="B46" s="94">
+      <c r="B46" s="79">
         <v>8</v>
       </c>
-      <c r="C46" s="109" t="s">
+      <c r="C46" s="74" t="s">
         <v>105</v>
       </c>
-      <c r="D46" s="109"/>
-      <c r="E46" s="128" t="s">
+      <c r="D46" s="74"/>
+      <c r="E46" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="F46" s="130" t="s">
+      <c r="F46" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="G46" s="28" t="s">
+      <c r="G46" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="H46" s="29" t="s">
+      <c r="H46" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="I46" s="30" t="s">
+      <c r="I46" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="J46" s="31" t="s">
+      <c r="J46" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="K46" s="32" t="s">
+      <c r="K46" s="29" t="s">
         <v>165</v>
       </c>
-      <c r="L46" s="98" t="s">
+      <c r="L46" s="84" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="47" spans="2:12" ht="36">
-      <c r="B47" s="96"/>
-      <c r="C47" s="111"/>
-      <c r="D47" s="111"/>
-      <c r="E47" s="129"/>
-      <c r="F47" s="131"/>
-      <c r="G47" s="26" t="s">
+      <c r="B47" s="82"/>
+      <c r="C47" s="75"/>
+      <c r="D47" s="75"/>
+      <c r="E47" s="78"/>
+      <c r="F47" s="73"/>
+      <c r="G47" s="23" t="s">
         <v>0</v>
       </c>
       <c r="H47" s="5" t="s">
@@ -6711,25 +6339,25 @@
       <c r="I47" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="J47" s="13" t="s">
+      <c r="J47" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="K47" s="10" t="s">
+      <c r="K47" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="L47" s="115"/>
+      <c r="L47" s="85"/>
     </row>
     <row r="48" spans="2:12" ht="36">
-      <c r="B48" s="96"/>
-      <c r="C48" s="111"/>
-      <c r="D48" s="111"/>
-      <c r="E48" s="24" t="s">
+      <c r="B48" s="82"/>
+      <c r="C48" s="75"/>
+      <c r="D48" s="75"/>
+      <c r="E48" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F48" s="26" t="s">
+      <c r="F48" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="G48" s="26"/>
+      <c r="G48" s="23"/>
       <c r="H48" s="5" t="s">
         <v>100</v>
       </c>
@@ -6739,76 +6367,76 @@
       <c r="J48" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="K48" s="10" t="s">
+      <c r="K48" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="L48" s="115"/>
+      <c r="L48" s="85"/>
     </row>
     <row r="49" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B49" s="114"/>
-      <c r="C49" s="113"/>
-      <c r="D49" s="113"/>
-      <c r="E49" s="45" t="s">
+      <c r="B49" s="83"/>
+      <c r="C49" s="81"/>
+      <c r="D49" s="81"/>
+      <c r="E49" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="F49" s="46" t="s">
+      <c r="F49" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="G49" s="47"/>
-      <c r="H49" s="48" t="s">
+      <c r="G49" s="39"/>
+      <c r="H49" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="I49" s="45" t="s">
+      <c r="I49" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="J49" s="48" t="s">
+      <c r="J49" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="K49" s="49" t="s">
+      <c r="K49" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="L49" s="99"/>
+      <c r="L49" s="92"/>
     </row>
     <row r="50" spans="2:12" ht="36">
-      <c r="B50" s="94">
+      <c r="B50" s="79">
         <v>9</v>
       </c>
-      <c r="C50" s="109" t="s">
+      <c r="C50" s="74" t="s">
         <v>107</v>
       </c>
-      <c r="D50" s="109"/>
-      <c r="E50" s="128" t="s">
+      <c r="D50" s="74"/>
+      <c r="E50" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="F50" s="130" t="s">
+      <c r="F50" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="G50" s="28" t="s">
+      <c r="G50" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="H50" s="29" t="s">
+      <c r="H50" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="I50" s="30" t="s">
+      <c r="I50" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="J50" s="31" t="s">
+      <c r="J50" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="K50" s="32" t="s">
+      <c r="K50" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="L50" s="98" t="s">
+      <c r="L50" s="84" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="51" spans="2:12" ht="36">
-      <c r="B51" s="96"/>
-      <c r="C51" s="111"/>
-      <c r="D51" s="111"/>
-      <c r="E51" s="129"/>
-      <c r="F51" s="131"/>
-      <c r="G51" s="26" t="s">
+      <c r="B51" s="82"/>
+      <c r="C51" s="75"/>
+      <c r="D51" s="75"/>
+      <c r="E51" s="78"/>
+      <c r="F51" s="73"/>
+      <c r="G51" s="23" t="s">
         <v>0</v>
       </c>
       <c r="H51" s="5" t="s">
@@ -6817,77 +6445,77 @@
       <c r="I51" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="J51" s="135" t="s">
+      <c r="J51" s="87" t="s">
         <v>180</v>
       </c>
-      <c r="K51" s="136"/>
-      <c r="L51" s="115"/>
+      <c r="K51" s="88"/>
+      <c r="L51" s="85"/>
     </row>
     <row r="52" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B52" s="97"/>
-      <c r="C52" s="112"/>
-      <c r="D52" s="112"/>
-      <c r="E52" s="33" t="s">
+      <c r="B52" s="80"/>
+      <c r="C52" s="76"/>
+      <c r="D52" s="76"/>
+      <c r="E52" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="F52" s="40" t="s">
+      <c r="F52" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="G52" s="34"/>
-      <c r="H52" s="35" t="s">
+      <c r="G52" s="31"/>
+      <c r="H52" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="I52" s="33" t="s">
+      <c r="I52" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="J52" s="35" t="s">
+      <c r="J52" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="K52" s="36" t="s">
+      <c r="K52" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="L52" s="116"/>
+      <c r="L52" s="86"/>
     </row>
     <row r="53" spans="2:12">
-      <c r="B53" s="94">
+      <c r="B53" s="79">
         <v>10</v>
       </c>
-      <c r="C53" s="109" t="s">
+      <c r="C53" s="74" t="s">
         <v>114</v>
       </c>
-      <c r="D53" s="109"/>
-      <c r="E53" s="128" t="s">
+      <c r="D53" s="74"/>
+      <c r="E53" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="F53" s="130" t="s">
+      <c r="F53" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="G53" s="28" t="s">
+      <c r="G53" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="H53" s="29" t="s">
+      <c r="H53" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="I53" s="30" t="s">
+      <c r="I53" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="J53" s="44" t="s">
+      <c r="J53" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="K53" s="32" t="s">
+      <c r="K53" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="L53" s="98" t="s">
+      <c r="L53" s="84" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="54" spans="2:12" ht="30.75" customHeight="1">
-      <c r="B54" s="96"/>
-      <c r="C54" s="111"/>
-      <c r="D54" s="111"/>
-      <c r="E54" s="129"/>
-      <c r="F54" s="131"/>
-      <c r="G54" s="26" t="s">
+      <c r="B54" s="82"/>
+      <c r="C54" s="75"/>
+      <c r="D54" s="75"/>
+      <c r="E54" s="78"/>
+      <c r="F54" s="73"/>
+      <c r="G54" s="23" t="s">
         <v>0</v>
       </c>
       <c r="H54" s="5" t="s">
@@ -6899,100 +6527,100 @@
       <c r="J54" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="K54" s="10" t="s">
+      <c r="K54" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="L54" s="115"/>
+      <c r="L54" s="85"/>
     </row>
     <row r="55" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B55" s="97"/>
-      <c r="C55" s="112"/>
-      <c r="D55" s="112"/>
-      <c r="E55" s="50" t="s">
+      <c r="B55" s="80"/>
+      <c r="C55" s="76"/>
+      <c r="D55" s="76"/>
+      <c r="E55" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="F55" s="51" t="s">
+      <c r="F55" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="G55" s="51"/>
-      <c r="H55" s="52" t="s">
+      <c r="G55" s="42"/>
+      <c r="H55" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="I55" s="53" t="s">
+      <c r="I55" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="J55" s="35" t="s">
+      <c r="J55" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="K55" s="36" t="s">
+      <c r="K55" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="L55" s="116"/>
+      <c r="L55" s="86"/>
     </row>
     <row r="56" spans="2:12" ht="36">
-      <c r="B56" s="94">
+      <c r="B56" s="79">
         <v>11</v>
       </c>
-      <c r="C56" s="109" t="s">
+      <c r="C56" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="D56" s="109"/>
-      <c r="E56" s="38" t="s">
+      <c r="D56" s="74"/>
+      <c r="E56" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F56" s="28" t="s">
+      <c r="F56" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="G56" s="28"/>
-      <c r="H56" s="29" t="s">
+      <c r="G56" s="25"/>
+      <c r="H56" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="I56" s="30" t="s">
+      <c r="I56" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="J56" s="31" t="s">
+      <c r="J56" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="K56" s="32" t="s">
+      <c r="K56" s="29" t="s">
         <v>176</v>
       </c>
-      <c r="L56" s="98" t="s">
+      <c r="L56" s="84" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="57" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B57" s="97"/>
-      <c r="C57" s="112"/>
-      <c r="D57" s="112"/>
-      <c r="E57" s="50" t="s">
+      <c r="B57" s="80"/>
+      <c r="C57" s="76"/>
+      <c r="D57" s="76"/>
+      <c r="E57" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="F57" s="51" t="s">
+      <c r="F57" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="G57" s="51"/>
-      <c r="H57" s="52" t="s">
+      <c r="G57" s="42"/>
+      <c r="H57" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="I57" s="53" t="s">
+      <c r="I57" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="J57" s="41" t="s">
+      <c r="J57" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="K57" s="36" t="s">
+      <c r="K57" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="L57" s="116"/>
+      <c r="L57" s="86"/>
     </row>
     <row r="58" spans="2:12">
-      <c r="F58" s="140" t="s">
+      <c r="F58" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="G58" s="140"/>
-      <c r="H58" s="140"/>
-      <c r="I58" s="140"/>
-      <c r="J58" s="12"/>
+      <c r="G58" s="71"/>
+      <c r="H58" s="71"/>
+      <c r="I58" s="71"/>
+      <c r="J58" s="11"/>
     </row>
     <row r="59" spans="2:12">
       <c r="B59" s="4"/>
@@ -7005,13 +6633,57 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="F58:I58"/>
-    <mergeCell ref="F39:F41"/>
-    <mergeCell ref="C39:D42"/>
-    <mergeCell ref="D29:D33"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="L9:L13"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="C16:D21"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:D13"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="L39:L42"/>
+    <mergeCell ref="L46:L49"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="L16:L21"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="L56:L57"/>
+    <mergeCell ref="L53:L55"/>
+    <mergeCell ref="L50:L52"/>
+    <mergeCell ref="L43:L45"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="B29:B38"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="L22:L28"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="C29:C38"/>
+    <mergeCell ref="C22:D28"/>
+    <mergeCell ref="B22:B28"/>
+    <mergeCell ref="L29:L33"/>
+    <mergeCell ref="L36:L38"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="J41:K41"/>
     <mergeCell ref="B56:B57"/>
     <mergeCell ref="C56:D57"/>
     <mergeCell ref="F43:F44"/>
@@ -7028,57 +6700,13 @@
     <mergeCell ref="E53:E54"/>
     <mergeCell ref="F53:F54"/>
     <mergeCell ref="F46:F47"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="B29:B38"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="L22:L28"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="C29:C38"/>
-    <mergeCell ref="C22:D28"/>
-    <mergeCell ref="B22:B28"/>
-    <mergeCell ref="L29:L33"/>
-    <mergeCell ref="L36:L38"/>
-    <mergeCell ref="L34:L35"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="L56:L57"/>
-    <mergeCell ref="L53:L55"/>
-    <mergeCell ref="L50:L52"/>
-    <mergeCell ref="L43:L45"/>
-    <mergeCell ref="L39:L42"/>
-    <mergeCell ref="L46:L49"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="L16:L21"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="L9:L13"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="F16:F19"/>
-    <mergeCell ref="E16:E19"/>
-    <mergeCell ref="C16:D21"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:D13"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="F58:I58"/>
+    <mergeCell ref="F39:F41"/>
+    <mergeCell ref="C39:D42"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="E46:E47"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -7118,127 +6746,128 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28E862B2-6DD6-4D95-991A-DE6699BF028C}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="2.5" style="20" customWidth="1"/>
-    <col min="2" max="2" width="11.875" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.875" style="15" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="15"/>
+    <col min="1" max="1" width="2.5" style="19" customWidth="1"/>
+    <col min="2" max="2" width="11.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.875" style="14" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="52" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="19"/>
-      <c r="B5" s="14"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="13"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="C6" s="67" t="s">
+      <c r="C6" s="50" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="84">
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="C7" s="68" t="s">
+      <c r="C7" s="17" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="B8" s="69" t="s">
+      <c r="B8" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="C8" s="69" t="s">
+      <c r="C8" s="16" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="B9" s="69" t="s">
+      <c r="B9" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="C9" s="68" t="s">
+      <c r="C9" s="17" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="17" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="72">
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="17" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="17" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="B13" s="69" t="s">
+      <c r="B13" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="C13" s="69" t="s">
+      <c r="C13" s="16" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="72">
-      <c r="B14" s="69" t="s">
+      <c r="B14" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="C14" s="68" t="s">
+      <c r="C14" s="17" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="C15" s="69" t="s">
+      <c r="C15" s="16" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="36">
-      <c r="B16" s="70" t="s">
+      <c r="B16" s="51" t="s">
         <v>201</v>
       </c>
-      <c r="C16" s="70" t="s">
+      <c r="C16" s="51" t="s">
         <v>205</v>
       </c>
     </row>

--- a/サンプルプロジェクト/設計書/Nablarch機能のセキュリティ対応表.xlsx
+++ b/サンプルプロジェクト/設計書/Nablarch機能のセキュリティ対応表.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD1AB97-7AFC-4CED-AACF-134AC286C68D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E880971-B7C7-422C-A0A3-B9F14324309E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="360" windowWidth="29040" windowHeight="15960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="9" r:id="rId1"/>
@@ -13,96 +13,22 @@
     <sheet name="2.チェックリスト" sheetId="6" r:id="rId3"/>
     <sheet name="3.PCIDSS対応表" sheetId="7" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-    <externalReference r:id="rId6"/>
-    <externalReference r:id="rId7"/>
-  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">改訂履歴!$A$1:$I$2</definedName>
-    <definedName name="_Regression_X" hidden="1">#REF!</definedName>
-    <definedName name="①">#REF!</definedName>
-    <definedName name="②">#REF!</definedName>
-    <definedName name="aaa">#REF!</definedName>
-    <definedName name="aaaaa">#REF!</definedName>
-    <definedName name="Action">#REF!</definedName>
-    <definedName name="ActionForm">#REF!</definedName>
-    <definedName name="boundary">#REF!</definedName>
-    <definedName name="btnSakusei_click">[1]!btnSakusei_click</definedName>
-    <definedName name="BusinessService">#REF!</definedName>
-    <definedName name="Crisテーブル一覧">#REF!</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="0">改訂履歴!#REF!</definedName>
-    <definedName name="DBI">#REF!</definedName>
-    <definedName name="DB名">#REF!</definedName>
-    <definedName name="ENID">#REF!</definedName>
-    <definedName name="ha">#REF!</definedName>
-    <definedName name="hahaha">#REF!</definedName>
-    <definedName name="hahahaha">#REF!</definedName>
-    <definedName name="NOTNULL">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'1.概要'!$A$1:$AR$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">改訂履歴!$A$1:$I$2</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'1.概要'!$A$1:$AQ$52</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'2.チェックリスト'!$A$1:$L$59</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">改訂履歴!$A$1:$H$11</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">改訂履歴!$A$1:$H$13</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">改訂履歴!$1:$4</definedName>
-    <definedName name="RuleComponent">#REF!</definedName>
-    <definedName name="ｓｄ">#REF!</definedName>
-    <definedName name="ServiceComponent">#REF!</definedName>
-    <definedName name="sss">#REF!</definedName>
-    <definedName name="utility">#REF!</definedName>
-    <definedName name="ｖｖｖ">#REF!</definedName>
-    <definedName name="x">[2]画面対応表!$B$2:$E$12</definedName>
-    <definedName name="あ">#REF!</definedName>
-    <definedName name="ああああ">'[3]３．２．１．５．リアルタイム_ステレオタイプ'!$D$185</definedName>
-    <definedName name="あああああ">'[3]３．２．１．５．リアルタイム_ステレオタイプ'!$D$260</definedName>
-    <definedName name="ｲﾝｽﾀﾝｽ一覧0930">#REF!</definedName>
-    <definedName name="クエリ1">#REF!</definedName>
-    <definedName name="サブシステム名">#REF!</definedName>
-    <definedName name="システム名">#REF!</definedName>
-    <definedName name="ﾄﾞﾒｲﾝ一覧0930">#REF!</definedName>
-    <definedName name="ﾏｯﾋﾟﾝｸﾞ_実体･分析対象対応_0930">#REF!</definedName>
-    <definedName name="ﾏｯﾋﾟﾝｸﾞ_分析対象ﾌｨｰﾙﾄﾞ･情報項目対応_0930">#REF!</definedName>
-    <definedName name="画面一覧">#REF!</definedName>
-    <definedName name="画面一覧２">#REF!</definedName>
-    <definedName name="関連表" hidden="1">#REF!</definedName>
-    <definedName name="基本キー">#REF!</definedName>
-    <definedName name="基本用語一覧0930">#REF!</definedName>
-    <definedName name="更新者">#REF!</definedName>
-    <definedName name="更新日">#REF!</definedName>
-    <definedName name="行長">#REF!</definedName>
-    <definedName name="項目ID">#REF!</definedName>
-    <definedName name="項目No">#REF!</definedName>
-    <definedName name="項目名">#REF!</definedName>
-    <definedName name="最新版日本語名称基本">#REF!</definedName>
-    <definedName name="最新版日本語名称基本の重複レコード2">#REF!</definedName>
-    <definedName name="作成者">#REF!</definedName>
-    <definedName name="作成日">#REF!</definedName>
-    <definedName name="索引1">#REF!</definedName>
-    <definedName name="索引2">#REF!</definedName>
-    <definedName name="索引3">#REF!</definedName>
-    <definedName name="索引4">#REF!</definedName>
-    <definedName name="索引5">#REF!</definedName>
-    <definedName name="索引6">#REF!</definedName>
-    <definedName name="索引7">#REF!</definedName>
-    <definedName name="索引P">#REF!</definedName>
-    <definedName name="実体一覧0930">#REF!</definedName>
-    <definedName name="小数桁数">#REF!</definedName>
-    <definedName name="情報項目一覧0930">#REF!</definedName>
-    <definedName name="成果物一覧２" hidden="1">#REF!</definedName>
-    <definedName name="属性">#REF!</definedName>
-    <definedName name="備考">#REF!</definedName>
-    <definedName name="表ID">#REF!</definedName>
-    <definedName name="表の備考">#REF!</definedName>
-    <definedName name="表名">#REF!</definedName>
-    <definedName name="文書名">#REF!</definedName>
-    <definedName name="明細エリア">#REF!</definedName>
-    <definedName name="有効桁数">#REF!</definedName>
-    <definedName name="列長">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -110,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="243">
   <si>
     <t>□</t>
     <phoneticPr fontId="2"/>
@@ -1144,10 +1070,6 @@
     <rPh sb="448" eb="450">
       <t>カイシ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>HTMLエスケープせずに値を出力する</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1780,28 +1702,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>PCI DDSSで定義された要件のうち 要件6.5. についてのみ以下にチェックリストとの対応を記載します。</t>
-    <rPh sb="9" eb="11">
-      <t>テイギ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヨウケン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ヨウケン</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>キサイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>※他に 要件8 などもアプリケーション実装に関するものですが、Nablarchでは対応していないため各プロジェクトで個別に対応してください。</t>
     <rPh sb="1" eb="2">
       <t>ホカ</t>
@@ -1943,11 +1843,6 @@
     <rPh sb="26" eb="28">
       <t>ハンダン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Nablarchカスタムタグで提供するprettyPrintタグは使用可能なタグおよび属性を指定して、エスケープなしに値を出力することができます。
-https://nablarch.github.io/docs/LATEST/doc/application_framework/application_framework/libraries/tag.html#tag-html-unescape</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -2282,6 +2177,101 @@
     </rPh>
     <rPh sb="367" eb="369">
       <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3.PCIDSS対応表</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TIS田中</t>
+    <rPh sb="3" eb="5">
+      <t>タナカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PCI DSSで定義された要件のうち 要件6.5. についてのみ以下にチェックリストとの対応を記載します。</t>
+    <rPh sb="8" eb="10">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヨウケン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヨウケン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PCI DDSS と誤記していたところを修正</t>
+    <rPh sb="10" eb="12">
+      <t>ゴキ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>以下のような方法での対応を検討してください。
+・OSSのHTMLパーサを使用して入力された値をパースし、使用できないHTMLタグが含まれていないかをバリデーションする
+・簡易的な装飾であれば、利用者にはMarkdownで入力してもらい、 OSSのJavaScriptライブラリを使用してクライアントサイドでMarkdownからHTMLに変換する</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ケントウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>prettyPrintタグの使用は非推奨としているので、Nablarchの対応状況を×に変更しOSSを利用した対応方法に解説を修正。</t>
+    <rPh sb="14" eb="16">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ヒスイショウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>カイセツ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>シュウセイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2825,7 +2815,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2845,14 +2835,11 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2863,7 +2850,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1">
@@ -2888,16 +2875,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -2913,20 +2894,17 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2937,13 +2915,7 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2952,21 +2924,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2982,53 +2945,23 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3086,6 +3019,117 @@
     <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3098,24 +3142,9 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3128,9 +3157,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -3143,101 +3169,8 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3932,245 +3865,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="WorkingLisKANJIt"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="btnSakusei_click"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="TRO管理"/>
-      <sheetName val="画面対応表"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="2">
-          <cell r="B2" t="str">
-            <v>MG111-01</v>
-          </cell>
-          <cell r="C2" t="str">
-            <v>MG111_default</v>
-          </cell>
-          <cell r="D2" t="str">
-            <v>給与指数キー指定画面</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3" t="str">
-            <v>MG111-10</v>
-          </cell>
-          <cell r="C3" t="str">
-            <v>MG111_regist</v>
-          </cell>
-          <cell r="D3" t="str">
-            <v>給与指数詳細登録画面</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4" t="str">
-            <v>MG111-11</v>
-          </cell>
-          <cell r="C4" t="str">
-            <v>MG111_regresult</v>
-          </cell>
-          <cell r="D4" t="str">
-            <v>給与指数登録結果画面</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5" t="str">
-            <v>MG111-20</v>
-          </cell>
-          <cell r="C5" t="str">
-            <v>MG111_copykey</v>
-          </cell>
-          <cell r="D5" t="str">
-            <v>給与指数コピー元指定画面</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6" t="str">
-            <v>MG111-21</v>
-          </cell>
-          <cell r="C6" t="str">
-            <v>MG111_modentry</v>
-          </cell>
-          <cell r="D6" t="str">
-            <v>給与指数詳細コピー登録画面</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7" t="str">
-            <v>MG111-22</v>
-          </cell>
-          <cell r="C7" t="str">
-            <v>MG111_regresult</v>
-          </cell>
-          <cell r="D7" t="str">
-            <v>給与指数コピー登録結果画面</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8" t="str">
-            <v>MG111-30</v>
-          </cell>
-          <cell r="C8" t="str">
-            <v>MG111_modentry</v>
-          </cell>
-          <cell r="D8" t="str">
-            <v>給与指数詳細変更画面</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9" t="str">
-            <v>MG111-31</v>
-          </cell>
-          <cell r="C9" t="str">
-            <v>MG111_regresult</v>
-          </cell>
-          <cell r="D9" t="str">
-            <v>給与指数変更結果画面</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10" t="str">
-            <v>MG111-40</v>
-          </cell>
-          <cell r="C10" t="str">
-            <v>MG111_inquiry</v>
-          </cell>
-          <cell r="D10" t="str">
-            <v>給与指数詳細照会画面</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11" t="str">
-            <v>MG111-50</v>
-          </cell>
-          <cell r="C11" t="str">
-            <v>MG111_delentry</v>
-          </cell>
-          <cell r="D11" t="str">
-            <v>給与指数詳細削除画面</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12" t="str">
-            <v>MG111-51</v>
-          </cell>
-          <cell r="C12" t="str">
-            <v>MG111_delresult</v>
-          </cell>
-          <cell r="D12" t="str">
-            <v>給与指数削除結果画面</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="表紙"/>
-      <sheetName val="変更履歴"/>
-      <sheetName val="目次"/>
-      <sheetName val="１．当資料の位置付け"/>
-      <sheetName val="２．プラットフォーム"/>
-      <sheetName val="３．処理パターン"/>
-      <sheetName val="３．１．処理パターン一覧"/>
-      <sheetName val="３．２．処理方式別パターン詳細"/>
-      <sheetName val="３．２．１．リアルタイム処理"/>
-      <sheetName val="３．２．１．５．リアルタイム_ステレオタイプ"/>
-      <sheetName val="３．２．２．バッチ処理"/>
-      <sheetName val="３．２．３．センターカット処理"/>
-      <sheetName val="３．２．４．システム間連携処理"/>
-      <sheetName val="３．２．５．ディレード処理"/>
-      <sheetName val="３．２．６．ワークフロー処理"/>
-      <sheetName val="３．２．７．帳票処理"/>
-      <sheetName val="３．２．８．ＦＡＸ処理"/>
-      <sheetName val="３．２．９．イメージ処理"/>
-      <sheetName val="３．２．１０．ファイルアップロード"/>
-      <sheetName val="４．処理パターン組み合わせ"/>
-      <sheetName val="別紙１－１　画面オンライン（更新）の処理フロー"/>
-      <sheetName val="別紙１－２　画面オンライン（会話型）の処理フロー"/>
-      <sheetName val="別紙２ WF（案件情報新規登録パターン）の処理フロー"/>
-      <sheetName val="別紙３ WF（前進パターン）の処理フロー"/>
-      <sheetName val="別紙４ WF（承認パターン）の処理フロー"/>
-      <sheetName val="別紙５ WF(選択・ｽｷｯﾌﾟ）ﾊﾟﾀﾝの処理フロー"/>
-      <sheetName val="別紙６ WF（保留パターン）の処理フロー"/>
-      <sheetName val="別紙７ WF（破棄パターン）の処理フロー"/>
-      <sheetName val="別紙８ CC_WF（案件新規一括登録パターン）の処理フロー"/>
-      <sheetName val="別紙９－１　ファイルアップロード（リクエスト）の処理フロー"/>
-      <sheetName val="別紙９－２　ファイルアップロード（業務）の処理フロー"/>
-      <sheetName val="テンプレート"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9">
-        <row r="185">
-          <cell r="D185" t="str">
-            <v>（６）　《Service Component》ステレオタイプ</v>
-          </cell>
-        </row>
-        <row r="260">
-          <cell r="D260" t="str">
-            <v>（９）　《utility Component》ステレオタイプ</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -4492,849 +4186,895 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB25FAB2-DFB9-4E29-A9AD-B28991A70D4E}">
-  <sheetPr>
+  <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="3.875" style="74" customWidth="1"/>
-    <col min="2" max="2" width="9" style="74" customWidth="1"/>
-    <col min="3" max="3" width="4.875" style="88" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="88" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.375" style="74" customWidth="1"/>
-    <col min="6" max="6" width="52.625" style="74" customWidth="1"/>
-    <col min="7" max="7" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.5" style="74" customWidth="1"/>
-    <col min="9" max="9" width="8.625" style="88" customWidth="1"/>
-    <col min="10" max="255" width="9" style="74"/>
-    <col min="256" max="256" width="3.875" style="74" customWidth="1"/>
-    <col min="257" max="257" width="5.5" style="74" customWidth="1"/>
-    <col min="258" max="258" width="9" style="74"/>
-    <col min="259" max="259" width="4.875" style="74" customWidth="1"/>
-    <col min="260" max="260" width="11.75" style="74" customWidth="1"/>
-    <col min="261" max="261" width="14.375" style="74" customWidth="1"/>
-    <col min="262" max="262" width="52.625" style="74" customWidth="1"/>
-    <col min="263" max="263" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="264" max="264" width="5.5" style="74" customWidth="1"/>
-    <col min="265" max="265" width="8.625" style="74" customWidth="1"/>
-    <col min="266" max="511" width="9" style="74"/>
-    <col min="512" max="512" width="3.875" style="74" customWidth="1"/>
-    <col min="513" max="513" width="5.5" style="74" customWidth="1"/>
-    <col min="514" max="514" width="9" style="74"/>
-    <col min="515" max="515" width="4.875" style="74" customWidth="1"/>
-    <col min="516" max="516" width="11.75" style="74" customWidth="1"/>
-    <col min="517" max="517" width="14.375" style="74" customWidth="1"/>
-    <col min="518" max="518" width="52.625" style="74" customWidth="1"/>
-    <col min="519" max="519" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="520" max="520" width="5.5" style="74" customWidth="1"/>
-    <col min="521" max="521" width="8.625" style="74" customWidth="1"/>
-    <col min="522" max="767" width="9" style="74"/>
-    <col min="768" max="768" width="3.875" style="74" customWidth="1"/>
-    <col min="769" max="769" width="5.5" style="74" customWidth="1"/>
-    <col min="770" max="770" width="9" style="74"/>
-    <col min="771" max="771" width="4.875" style="74" customWidth="1"/>
-    <col min="772" max="772" width="11.75" style="74" customWidth="1"/>
-    <col min="773" max="773" width="14.375" style="74" customWidth="1"/>
-    <col min="774" max="774" width="52.625" style="74" customWidth="1"/>
-    <col min="775" max="775" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="776" max="776" width="5.5" style="74" customWidth="1"/>
-    <col min="777" max="777" width="8.625" style="74" customWidth="1"/>
-    <col min="778" max="1023" width="9" style="74"/>
-    <col min="1024" max="1024" width="3.875" style="74" customWidth="1"/>
-    <col min="1025" max="1025" width="5.5" style="74" customWidth="1"/>
-    <col min="1026" max="1026" width="9" style="74"/>
-    <col min="1027" max="1027" width="4.875" style="74" customWidth="1"/>
-    <col min="1028" max="1028" width="11.75" style="74" customWidth="1"/>
-    <col min="1029" max="1029" width="14.375" style="74" customWidth="1"/>
-    <col min="1030" max="1030" width="52.625" style="74" customWidth="1"/>
-    <col min="1031" max="1031" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="1032" max="1032" width="5.5" style="74" customWidth="1"/>
-    <col min="1033" max="1033" width="8.625" style="74" customWidth="1"/>
-    <col min="1034" max="1279" width="9" style="74"/>
-    <col min="1280" max="1280" width="3.875" style="74" customWidth="1"/>
-    <col min="1281" max="1281" width="5.5" style="74" customWidth="1"/>
-    <col min="1282" max="1282" width="9" style="74"/>
-    <col min="1283" max="1283" width="4.875" style="74" customWidth="1"/>
-    <col min="1284" max="1284" width="11.75" style="74" customWidth="1"/>
-    <col min="1285" max="1285" width="14.375" style="74" customWidth="1"/>
-    <col min="1286" max="1286" width="52.625" style="74" customWidth="1"/>
-    <col min="1287" max="1287" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="1288" max="1288" width="5.5" style="74" customWidth="1"/>
-    <col min="1289" max="1289" width="8.625" style="74" customWidth="1"/>
-    <col min="1290" max="1535" width="9" style="74"/>
-    <col min="1536" max="1536" width="3.875" style="74" customWidth="1"/>
-    <col min="1537" max="1537" width="5.5" style="74" customWidth="1"/>
-    <col min="1538" max="1538" width="9" style="74"/>
-    <col min="1539" max="1539" width="4.875" style="74" customWidth="1"/>
-    <col min="1540" max="1540" width="11.75" style="74" customWidth="1"/>
-    <col min="1541" max="1541" width="14.375" style="74" customWidth="1"/>
-    <col min="1542" max="1542" width="52.625" style="74" customWidth="1"/>
-    <col min="1543" max="1543" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="1544" max="1544" width="5.5" style="74" customWidth="1"/>
-    <col min="1545" max="1545" width="8.625" style="74" customWidth="1"/>
-    <col min="1546" max="1791" width="9" style="74"/>
-    <col min="1792" max="1792" width="3.875" style="74" customWidth="1"/>
-    <col min="1793" max="1793" width="5.5" style="74" customWidth="1"/>
-    <col min="1794" max="1794" width="9" style="74"/>
-    <col min="1795" max="1795" width="4.875" style="74" customWidth="1"/>
-    <col min="1796" max="1796" width="11.75" style="74" customWidth="1"/>
-    <col min="1797" max="1797" width="14.375" style="74" customWidth="1"/>
-    <col min="1798" max="1798" width="52.625" style="74" customWidth="1"/>
-    <col min="1799" max="1799" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="1800" max="1800" width="5.5" style="74" customWidth="1"/>
-    <col min="1801" max="1801" width="8.625" style="74" customWidth="1"/>
-    <col min="1802" max="2047" width="9" style="74"/>
-    <col min="2048" max="2048" width="3.875" style="74" customWidth="1"/>
-    <col min="2049" max="2049" width="5.5" style="74" customWidth="1"/>
-    <col min="2050" max="2050" width="9" style="74"/>
-    <col min="2051" max="2051" width="4.875" style="74" customWidth="1"/>
-    <col min="2052" max="2052" width="11.75" style="74" customWidth="1"/>
-    <col min="2053" max="2053" width="14.375" style="74" customWidth="1"/>
-    <col min="2054" max="2054" width="52.625" style="74" customWidth="1"/>
-    <col min="2055" max="2055" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="2056" max="2056" width="5.5" style="74" customWidth="1"/>
-    <col min="2057" max="2057" width="8.625" style="74" customWidth="1"/>
-    <col min="2058" max="2303" width="9" style="74"/>
-    <col min="2304" max="2304" width="3.875" style="74" customWidth="1"/>
-    <col min="2305" max="2305" width="5.5" style="74" customWidth="1"/>
-    <col min="2306" max="2306" width="9" style="74"/>
-    <col min="2307" max="2307" width="4.875" style="74" customWidth="1"/>
-    <col min="2308" max="2308" width="11.75" style="74" customWidth="1"/>
-    <col min="2309" max="2309" width="14.375" style="74" customWidth="1"/>
-    <col min="2310" max="2310" width="52.625" style="74" customWidth="1"/>
-    <col min="2311" max="2311" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="2312" max="2312" width="5.5" style="74" customWidth="1"/>
-    <col min="2313" max="2313" width="8.625" style="74" customWidth="1"/>
-    <col min="2314" max="2559" width="9" style="74"/>
-    <col min="2560" max="2560" width="3.875" style="74" customWidth="1"/>
-    <col min="2561" max="2561" width="5.5" style="74" customWidth="1"/>
-    <col min="2562" max="2562" width="9" style="74"/>
-    <col min="2563" max="2563" width="4.875" style="74" customWidth="1"/>
-    <col min="2564" max="2564" width="11.75" style="74" customWidth="1"/>
-    <col min="2565" max="2565" width="14.375" style="74" customWidth="1"/>
-    <col min="2566" max="2566" width="52.625" style="74" customWidth="1"/>
-    <col min="2567" max="2567" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="2568" max="2568" width="5.5" style="74" customWidth="1"/>
-    <col min="2569" max="2569" width="8.625" style="74" customWidth="1"/>
-    <col min="2570" max="2815" width="9" style="74"/>
-    <col min="2816" max="2816" width="3.875" style="74" customWidth="1"/>
-    <col min="2817" max="2817" width="5.5" style="74" customWidth="1"/>
-    <col min="2818" max="2818" width="9" style="74"/>
-    <col min="2819" max="2819" width="4.875" style="74" customWidth="1"/>
-    <col min="2820" max="2820" width="11.75" style="74" customWidth="1"/>
-    <col min="2821" max="2821" width="14.375" style="74" customWidth="1"/>
-    <col min="2822" max="2822" width="52.625" style="74" customWidth="1"/>
-    <col min="2823" max="2823" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="2824" max="2824" width="5.5" style="74" customWidth="1"/>
-    <col min="2825" max="2825" width="8.625" style="74" customWidth="1"/>
-    <col min="2826" max="3071" width="9" style="74"/>
-    <col min="3072" max="3072" width="3.875" style="74" customWidth="1"/>
-    <col min="3073" max="3073" width="5.5" style="74" customWidth="1"/>
-    <col min="3074" max="3074" width="9" style="74"/>
-    <col min="3075" max="3075" width="4.875" style="74" customWidth="1"/>
-    <col min="3076" max="3076" width="11.75" style="74" customWidth="1"/>
-    <col min="3077" max="3077" width="14.375" style="74" customWidth="1"/>
-    <col min="3078" max="3078" width="52.625" style="74" customWidth="1"/>
-    <col min="3079" max="3079" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="3080" max="3080" width="5.5" style="74" customWidth="1"/>
-    <col min="3081" max="3081" width="8.625" style="74" customWidth="1"/>
-    <col min="3082" max="3327" width="9" style="74"/>
-    <col min="3328" max="3328" width="3.875" style="74" customWidth="1"/>
-    <col min="3329" max="3329" width="5.5" style="74" customWidth="1"/>
-    <col min="3330" max="3330" width="9" style="74"/>
-    <col min="3331" max="3331" width="4.875" style="74" customWidth="1"/>
-    <col min="3332" max="3332" width="11.75" style="74" customWidth="1"/>
-    <col min="3333" max="3333" width="14.375" style="74" customWidth="1"/>
-    <col min="3334" max="3334" width="52.625" style="74" customWidth="1"/>
-    <col min="3335" max="3335" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="3336" max="3336" width="5.5" style="74" customWidth="1"/>
-    <col min="3337" max="3337" width="8.625" style="74" customWidth="1"/>
-    <col min="3338" max="3583" width="9" style="74"/>
-    <col min="3584" max="3584" width="3.875" style="74" customWidth="1"/>
-    <col min="3585" max="3585" width="5.5" style="74" customWidth="1"/>
-    <col min="3586" max="3586" width="9" style="74"/>
-    <col min="3587" max="3587" width="4.875" style="74" customWidth="1"/>
-    <col min="3588" max="3588" width="11.75" style="74" customWidth="1"/>
-    <col min="3589" max="3589" width="14.375" style="74" customWidth="1"/>
-    <col min="3590" max="3590" width="52.625" style="74" customWidth="1"/>
-    <col min="3591" max="3591" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="3592" max="3592" width="5.5" style="74" customWidth="1"/>
-    <col min="3593" max="3593" width="8.625" style="74" customWidth="1"/>
-    <col min="3594" max="3839" width="9" style="74"/>
-    <col min="3840" max="3840" width="3.875" style="74" customWidth="1"/>
-    <col min="3841" max="3841" width="5.5" style="74" customWidth="1"/>
-    <col min="3842" max="3842" width="9" style="74"/>
-    <col min="3843" max="3843" width="4.875" style="74" customWidth="1"/>
-    <col min="3844" max="3844" width="11.75" style="74" customWidth="1"/>
-    <col min="3845" max="3845" width="14.375" style="74" customWidth="1"/>
-    <col min="3846" max="3846" width="52.625" style="74" customWidth="1"/>
-    <col min="3847" max="3847" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="3848" max="3848" width="5.5" style="74" customWidth="1"/>
-    <col min="3849" max="3849" width="8.625" style="74" customWidth="1"/>
-    <col min="3850" max="4095" width="9" style="74"/>
-    <col min="4096" max="4096" width="3.875" style="74" customWidth="1"/>
-    <col min="4097" max="4097" width="5.5" style="74" customWidth="1"/>
-    <col min="4098" max="4098" width="9" style="74"/>
-    <col min="4099" max="4099" width="4.875" style="74" customWidth="1"/>
-    <col min="4100" max="4100" width="11.75" style="74" customWidth="1"/>
-    <col min="4101" max="4101" width="14.375" style="74" customWidth="1"/>
-    <col min="4102" max="4102" width="52.625" style="74" customWidth="1"/>
-    <col min="4103" max="4103" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="4104" max="4104" width="5.5" style="74" customWidth="1"/>
-    <col min="4105" max="4105" width="8.625" style="74" customWidth="1"/>
-    <col min="4106" max="4351" width="9" style="74"/>
-    <col min="4352" max="4352" width="3.875" style="74" customWidth="1"/>
-    <col min="4353" max="4353" width="5.5" style="74" customWidth="1"/>
-    <col min="4354" max="4354" width="9" style="74"/>
-    <col min="4355" max="4355" width="4.875" style="74" customWidth="1"/>
-    <col min="4356" max="4356" width="11.75" style="74" customWidth="1"/>
-    <col min="4357" max="4357" width="14.375" style="74" customWidth="1"/>
-    <col min="4358" max="4358" width="52.625" style="74" customWidth="1"/>
-    <col min="4359" max="4359" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="4360" max="4360" width="5.5" style="74" customWidth="1"/>
-    <col min="4361" max="4361" width="8.625" style="74" customWidth="1"/>
-    <col min="4362" max="4607" width="9" style="74"/>
-    <col min="4608" max="4608" width="3.875" style="74" customWidth="1"/>
-    <col min="4609" max="4609" width="5.5" style="74" customWidth="1"/>
-    <col min="4610" max="4610" width="9" style="74"/>
-    <col min="4611" max="4611" width="4.875" style="74" customWidth="1"/>
-    <col min="4612" max="4612" width="11.75" style="74" customWidth="1"/>
-    <col min="4613" max="4613" width="14.375" style="74" customWidth="1"/>
-    <col min="4614" max="4614" width="52.625" style="74" customWidth="1"/>
-    <col min="4615" max="4615" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="4616" max="4616" width="5.5" style="74" customWidth="1"/>
-    <col min="4617" max="4617" width="8.625" style="74" customWidth="1"/>
-    <col min="4618" max="4863" width="9" style="74"/>
-    <col min="4864" max="4864" width="3.875" style="74" customWidth="1"/>
-    <col min="4865" max="4865" width="5.5" style="74" customWidth="1"/>
-    <col min="4866" max="4866" width="9" style="74"/>
-    <col min="4867" max="4867" width="4.875" style="74" customWidth="1"/>
-    <col min="4868" max="4868" width="11.75" style="74" customWidth="1"/>
-    <col min="4869" max="4869" width="14.375" style="74" customWidth="1"/>
-    <col min="4870" max="4870" width="52.625" style="74" customWidth="1"/>
-    <col min="4871" max="4871" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="4872" max="4872" width="5.5" style="74" customWidth="1"/>
-    <col min="4873" max="4873" width="8.625" style="74" customWidth="1"/>
-    <col min="4874" max="5119" width="9" style="74"/>
-    <col min="5120" max="5120" width="3.875" style="74" customWidth="1"/>
-    <col min="5121" max="5121" width="5.5" style="74" customWidth="1"/>
-    <col min="5122" max="5122" width="9" style="74"/>
-    <col min="5123" max="5123" width="4.875" style="74" customWidth="1"/>
-    <col min="5124" max="5124" width="11.75" style="74" customWidth="1"/>
-    <col min="5125" max="5125" width="14.375" style="74" customWidth="1"/>
-    <col min="5126" max="5126" width="52.625" style="74" customWidth="1"/>
-    <col min="5127" max="5127" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="5128" max="5128" width="5.5" style="74" customWidth="1"/>
-    <col min="5129" max="5129" width="8.625" style="74" customWidth="1"/>
-    <col min="5130" max="5375" width="9" style="74"/>
-    <col min="5376" max="5376" width="3.875" style="74" customWidth="1"/>
-    <col min="5377" max="5377" width="5.5" style="74" customWidth="1"/>
-    <col min="5378" max="5378" width="9" style="74"/>
-    <col min="5379" max="5379" width="4.875" style="74" customWidth="1"/>
-    <col min="5380" max="5380" width="11.75" style="74" customWidth="1"/>
-    <col min="5381" max="5381" width="14.375" style="74" customWidth="1"/>
-    <col min="5382" max="5382" width="52.625" style="74" customWidth="1"/>
-    <col min="5383" max="5383" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="5384" max="5384" width="5.5" style="74" customWidth="1"/>
-    <col min="5385" max="5385" width="8.625" style="74" customWidth="1"/>
-    <col min="5386" max="5631" width="9" style="74"/>
-    <col min="5632" max="5632" width="3.875" style="74" customWidth="1"/>
-    <col min="5633" max="5633" width="5.5" style="74" customWidth="1"/>
-    <col min="5634" max="5634" width="9" style="74"/>
-    <col min="5635" max="5635" width="4.875" style="74" customWidth="1"/>
-    <col min="5636" max="5636" width="11.75" style="74" customWidth="1"/>
-    <col min="5637" max="5637" width="14.375" style="74" customWidth="1"/>
-    <col min="5638" max="5638" width="52.625" style="74" customWidth="1"/>
-    <col min="5639" max="5639" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="5640" max="5640" width="5.5" style="74" customWidth="1"/>
-    <col min="5641" max="5641" width="8.625" style="74" customWidth="1"/>
-    <col min="5642" max="5887" width="9" style="74"/>
-    <col min="5888" max="5888" width="3.875" style="74" customWidth="1"/>
-    <col min="5889" max="5889" width="5.5" style="74" customWidth="1"/>
-    <col min="5890" max="5890" width="9" style="74"/>
-    <col min="5891" max="5891" width="4.875" style="74" customWidth="1"/>
-    <col min="5892" max="5892" width="11.75" style="74" customWidth="1"/>
-    <col min="5893" max="5893" width="14.375" style="74" customWidth="1"/>
-    <col min="5894" max="5894" width="52.625" style="74" customWidth="1"/>
-    <col min="5895" max="5895" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="5896" max="5896" width="5.5" style="74" customWidth="1"/>
-    <col min="5897" max="5897" width="8.625" style="74" customWidth="1"/>
-    <col min="5898" max="6143" width="9" style="74"/>
-    <col min="6144" max="6144" width="3.875" style="74" customWidth="1"/>
-    <col min="6145" max="6145" width="5.5" style="74" customWidth="1"/>
-    <col min="6146" max="6146" width="9" style="74"/>
-    <col min="6147" max="6147" width="4.875" style="74" customWidth="1"/>
-    <col min="6148" max="6148" width="11.75" style="74" customWidth="1"/>
-    <col min="6149" max="6149" width="14.375" style="74" customWidth="1"/>
-    <col min="6150" max="6150" width="52.625" style="74" customWidth="1"/>
-    <col min="6151" max="6151" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="6152" max="6152" width="5.5" style="74" customWidth="1"/>
-    <col min="6153" max="6153" width="8.625" style="74" customWidth="1"/>
-    <col min="6154" max="6399" width="9" style="74"/>
-    <col min="6400" max="6400" width="3.875" style="74" customWidth="1"/>
-    <col min="6401" max="6401" width="5.5" style="74" customWidth="1"/>
-    <col min="6402" max="6402" width="9" style="74"/>
-    <col min="6403" max="6403" width="4.875" style="74" customWidth="1"/>
-    <col min="6404" max="6404" width="11.75" style="74" customWidth="1"/>
-    <col min="6405" max="6405" width="14.375" style="74" customWidth="1"/>
-    <col min="6406" max="6406" width="52.625" style="74" customWidth="1"/>
-    <col min="6407" max="6407" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="6408" max="6408" width="5.5" style="74" customWidth="1"/>
-    <col min="6409" max="6409" width="8.625" style="74" customWidth="1"/>
-    <col min="6410" max="6655" width="9" style="74"/>
-    <col min="6656" max="6656" width="3.875" style="74" customWidth="1"/>
-    <col min="6657" max="6657" width="5.5" style="74" customWidth="1"/>
-    <col min="6658" max="6658" width="9" style="74"/>
-    <col min="6659" max="6659" width="4.875" style="74" customWidth="1"/>
-    <col min="6660" max="6660" width="11.75" style="74" customWidth="1"/>
-    <col min="6661" max="6661" width="14.375" style="74" customWidth="1"/>
-    <col min="6662" max="6662" width="52.625" style="74" customWidth="1"/>
-    <col min="6663" max="6663" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="6664" max="6664" width="5.5" style="74" customWidth="1"/>
-    <col min="6665" max="6665" width="8.625" style="74" customWidth="1"/>
-    <col min="6666" max="6911" width="9" style="74"/>
-    <col min="6912" max="6912" width="3.875" style="74" customWidth="1"/>
-    <col min="6913" max="6913" width="5.5" style="74" customWidth="1"/>
-    <col min="6914" max="6914" width="9" style="74"/>
-    <col min="6915" max="6915" width="4.875" style="74" customWidth="1"/>
-    <col min="6916" max="6916" width="11.75" style="74" customWidth="1"/>
-    <col min="6917" max="6917" width="14.375" style="74" customWidth="1"/>
-    <col min="6918" max="6918" width="52.625" style="74" customWidth="1"/>
-    <col min="6919" max="6919" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="6920" max="6920" width="5.5" style="74" customWidth="1"/>
-    <col min="6921" max="6921" width="8.625" style="74" customWidth="1"/>
-    <col min="6922" max="7167" width="9" style="74"/>
-    <col min="7168" max="7168" width="3.875" style="74" customWidth="1"/>
-    <col min="7169" max="7169" width="5.5" style="74" customWidth="1"/>
-    <col min="7170" max="7170" width="9" style="74"/>
-    <col min="7171" max="7171" width="4.875" style="74" customWidth="1"/>
-    <col min="7172" max="7172" width="11.75" style="74" customWidth="1"/>
-    <col min="7173" max="7173" width="14.375" style="74" customWidth="1"/>
-    <col min="7174" max="7174" width="52.625" style="74" customWidth="1"/>
-    <col min="7175" max="7175" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="7176" max="7176" width="5.5" style="74" customWidth="1"/>
-    <col min="7177" max="7177" width="8.625" style="74" customWidth="1"/>
-    <col min="7178" max="7423" width="9" style="74"/>
-    <col min="7424" max="7424" width="3.875" style="74" customWidth="1"/>
-    <col min="7425" max="7425" width="5.5" style="74" customWidth="1"/>
-    <col min="7426" max="7426" width="9" style="74"/>
-    <col min="7427" max="7427" width="4.875" style="74" customWidth="1"/>
-    <col min="7428" max="7428" width="11.75" style="74" customWidth="1"/>
-    <col min="7429" max="7429" width="14.375" style="74" customWidth="1"/>
-    <col min="7430" max="7430" width="52.625" style="74" customWidth="1"/>
-    <col min="7431" max="7431" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="7432" max="7432" width="5.5" style="74" customWidth="1"/>
-    <col min="7433" max="7433" width="8.625" style="74" customWidth="1"/>
-    <col min="7434" max="7679" width="9" style="74"/>
-    <col min="7680" max="7680" width="3.875" style="74" customWidth="1"/>
-    <col min="7681" max="7681" width="5.5" style="74" customWidth="1"/>
-    <col min="7682" max="7682" width="9" style="74"/>
-    <col min="7683" max="7683" width="4.875" style="74" customWidth="1"/>
-    <col min="7684" max="7684" width="11.75" style="74" customWidth="1"/>
-    <col min="7685" max="7685" width="14.375" style="74" customWidth="1"/>
-    <col min="7686" max="7686" width="52.625" style="74" customWidth="1"/>
-    <col min="7687" max="7687" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="7688" max="7688" width="5.5" style="74" customWidth="1"/>
-    <col min="7689" max="7689" width="8.625" style="74" customWidth="1"/>
-    <col min="7690" max="7935" width="9" style="74"/>
-    <col min="7936" max="7936" width="3.875" style="74" customWidth="1"/>
-    <col min="7937" max="7937" width="5.5" style="74" customWidth="1"/>
-    <col min="7938" max="7938" width="9" style="74"/>
-    <col min="7939" max="7939" width="4.875" style="74" customWidth="1"/>
-    <col min="7940" max="7940" width="11.75" style="74" customWidth="1"/>
-    <col min="7941" max="7941" width="14.375" style="74" customWidth="1"/>
-    <col min="7942" max="7942" width="52.625" style="74" customWidth="1"/>
-    <col min="7943" max="7943" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="7944" max="7944" width="5.5" style="74" customWidth="1"/>
-    <col min="7945" max="7945" width="8.625" style="74" customWidth="1"/>
-    <col min="7946" max="8191" width="9" style="74"/>
-    <col min="8192" max="8192" width="3.875" style="74" customWidth="1"/>
-    <col min="8193" max="8193" width="5.5" style="74" customWidth="1"/>
-    <col min="8194" max="8194" width="9" style="74"/>
-    <col min="8195" max="8195" width="4.875" style="74" customWidth="1"/>
-    <col min="8196" max="8196" width="11.75" style="74" customWidth="1"/>
-    <col min="8197" max="8197" width="14.375" style="74" customWidth="1"/>
-    <col min="8198" max="8198" width="52.625" style="74" customWidth="1"/>
-    <col min="8199" max="8199" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="8200" max="8200" width="5.5" style="74" customWidth="1"/>
-    <col min="8201" max="8201" width="8.625" style="74" customWidth="1"/>
-    <col min="8202" max="8447" width="9" style="74"/>
-    <col min="8448" max="8448" width="3.875" style="74" customWidth="1"/>
-    <col min="8449" max="8449" width="5.5" style="74" customWidth="1"/>
-    <col min="8450" max="8450" width="9" style="74"/>
-    <col min="8451" max="8451" width="4.875" style="74" customWidth="1"/>
-    <col min="8452" max="8452" width="11.75" style="74" customWidth="1"/>
-    <col min="8453" max="8453" width="14.375" style="74" customWidth="1"/>
-    <col min="8454" max="8454" width="52.625" style="74" customWidth="1"/>
-    <col min="8455" max="8455" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="8456" max="8456" width="5.5" style="74" customWidth="1"/>
-    <col min="8457" max="8457" width="8.625" style="74" customWidth="1"/>
-    <col min="8458" max="8703" width="9" style="74"/>
-    <col min="8704" max="8704" width="3.875" style="74" customWidth="1"/>
-    <col min="8705" max="8705" width="5.5" style="74" customWidth="1"/>
-    <col min="8706" max="8706" width="9" style="74"/>
-    <col min="8707" max="8707" width="4.875" style="74" customWidth="1"/>
-    <col min="8708" max="8708" width="11.75" style="74" customWidth="1"/>
-    <col min="8709" max="8709" width="14.375" style="74" customWidth="1"/>
-    <col min="8710" max="8710" width="52.625" style="74" customWidth="1"/>
-    <col min="8711" max="8711" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="8712" max="8712" width="5.5" style="74" customWidth="1"/>
-    <col min="8713" max="8713" width="8.625" style="74" customWidth="1"/>
-    <col min="8714" max="8959" width="9" style="74"/>
-    <col min="8960" max="8960" width="3.875" style="74" customWidth="1"/>
-    <col min="8961" max="8961" width="5.5" style="74" customWidth="1"/>
-    <col min="8962" max="8962" width="9" style="74"/>
-    <col min="8963" max="8963" width="4.875" style="74" customWidth="1"/>
-    <col min="8964" max="8964" width="11.75" style="74" customWidth="1"/>
-    <col min="8965" max="8965" width="14.375" style="74" customWidth="1"/>
-    <col min="8966" max="8966" width="52.625" style="74" customWidth="1"/>
-    <col min="8967" max="8967" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="8968" max="8968" width="5.5" style="74" customWidth="1"/>
-    <col min="8969" max="8969" width="8.625" style="74" customWidth="1"/>
-    <col min="8970" max="9215" width="9" style="74"/>
-    <col min="9216" max="9216" width="3.875" style="74" customWidth="1"/>
-    <col min="9217" max="9217" width="5.5" style="74" customWidth="1"/>
-    <col min="9218" max="9218" width="9" style="74"/>
-    <col min="9219" max="9219" width="4.875" style="74" customWidth="1"/>
-    <col min="9220" max="9220" width="11.75" style="74" customWidth="1"/>
-    <col min="9221" max="9221" width="14.375" style="74" customWidth="1"/>
-    <col min="9222" max="9222" width="52.625" style="74" customWidth="1"/>
-    <col min="9223" max="9223" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="9224" max="9224" width="5.5" style="74" customWidth="1"/>
-    <col min="9225" max="9225" width="8.625" style="74" customWidth="1"/>
-    <col min="9226" max="9471" width="9" style="74"/>
-    <col min="9472" max="9472" width="3.875" style="74" customWidth="1"/>
-    <col min="9473" max="9473" width="5.5" style="74" customWidth="1"/>
-    <col min="9474" max="9474" width="9" style="74"/>
-    <col min="9475" max="9475" width="4.875" style="74" customWidth="1"/>
-    <col min="9476" max="9476" width="11.75" style="74" customWidth="1"/>
-    <col min="9477" max="9477" width="14.375" style="74" customWidth="1"/>
-    <col min="9478" max="9478" width="52.625" style="74" customWidth="1"/>
-    <col min="9479" max="9479" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="9480" max="9480" width="5.5" style="74" customWidth="1"/>
-    <col min="9481" max="9481" width="8.625" style="74" customWidth="1"/>
-    <col min="9482" max="9727" width="9" style="74"/>
-    <col min="9728" max="9728" width="3.875" style="74" customWidth="1"/>
-    <col min="9729" max="9729" width="5.5" style="74" customWidth="1"/>
-    <col min="9730" max="9730" width="9" style="74"/>
-    <col min="9731" max="9731" width="4.875" style="74" customWidth="1"/>
-    <col min="9732" max="9732" width="11.75" style="74" customWidth="1"/>
-    <col min="9733" max="9733" width="14.375" style="74" customWidth="1"/>
-    <col min="9734" max="9734" width="52.625" style="74" customWidth="1"/>
-    <col min="9735" max="9735" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="9736" max="9736" width="5.5" style="74" customWidth="1"/>
-    <col min="9737" max="9737" width="8.625" style="74" customWidth="1"/>
-    <col min="9738" max="9983" width="9" style="74"/>
-    <col min="9984" max="9984" width="3.875" style="74" customWidth="1"/>
-    <col min="9985" max="9985" width="5.5" style="74" customWidth="1"/>
-    <col min="9986" max="9986" width="9" style="74"/>
-    <col min="9987" max="9987" width="4.875" style="74" customWidth="1"/>
-    <col min="9988" max="9988" width="11.75" style="74" customWidth="1"/>
-    <col min="9989" max="9989" width="14.375" style="74" customWidth="1"/>
-    <col min="9990" max="9990" width="52.625" style="74" customWidth="1"/>
-    <col min="9991" max="9991" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="9992" max="9992" width="5.5" style="74" customWidth="1"/>
-    <col min="9993" max="9993" width="8.625" style="74" customWidth="1"/>
-    <col min="9994" max="10239" width="9" style="74"/>
-    <col min="10240" max="10240" width="3.875" style="74" customWidth="1"/>
-    <col min="10241" max="10241" width="5.5" style="74" customWidth="1"/>
-    <col min="10242" max="10242" width="9" style="74"/>
-    <col min="10243" max="10243" width="4.875" style="74" customWidth="1"/>
-    <col min="10244" max="10244" width="11.75" style="74" customWidth="1"/>
-    <col min="10245" max="10245" width="14.375" style="74" customWidth="1"/>
-    <col min="10246" max="10246" width="52.625" style="74" customWidth="1"/>
-    <col min="10247" max="10247" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="10248" max="10248" width="5.5" style="74" customWidth="1"/>
-    <col min="10249" max="10249" width="8.625" style="74" customWidth="1"/>
-    <col min="10250" max="10495" width="9" style="74"/>
-    <col min="10496" max="10496" width="3.875" style="74" customWidth="1"/>
-    <col min="10497" max="10497" width="5.5" style="74" customWidth="1"/>
-    <col min="10498" max="10498" width="9" style="74"/>
-    <col min="10499" max="10499" width="4.875" style="74" customWidth="1"/>
-    <col min="10500" max="10500" width="11.75" style="74" customWidth="1"/>
-    <col min="10501" max="10501" width="14.375" style="74" customWidth="1"/>
-    <col min="10502" max="10502" width="52.625" style="74" customWidth="1"/>
-    <col min="10503" max="10503" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="10504" max="10504" width="5.5" style="74" customWidth="1"/>
-    <col min="10505" max="10505" width="8.625" style="74" customWidth="1"/>
-    <col min="10506" max="10751" width="9" style="74"/>
-    <col min="10752" max="10752" width="3.875" style="74" customWidth="1"/>
-    <col min="10753" max="10753" width="5.5" style="74" customWidth="1"/>
-    <col min="10754" max="10754" width="9" style="74"/>
-    <col min="10755" max="10755" width="4.875" style="74" customWidth="1"/>
-    <col min="10756" max="10756" width="11.75" style="74" customWidth="1"/>
-    <col min="10757" max="10757" width="14.375" style="74" customWidth="1"/>
-    <col min="10758" max="10758" width="52.625" style="74" customWidth="1"/>
-    <col min="10759" max="10759" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="10760" max="10760" width="5.5" style="74" customWidth="1"/>
-    <col min="10761" max="10761" width="8.625" style="74" customWidth="1"/>
-    <col min="10762" max="11007" width="9" style="74"/>
-    <col min="11008" max="11008" width="3.875" style="74" customWidth="1"/>
-    <col min="11009" max="11009" width="5.5" style="74" customWidth="1"/>
-    <col min="11010" max="11010" width="9" style="74"/>
-    <col min="11011" max="11011" width="4.875" style="74" customWidth="1"/>
-    <col min="11012" max="11012" width="11.75" style="74" customWidth="1"/>
-    <col min="11013" max="11013" width="14.375" style="74" customWidth="1"/>
-    <col min="11014" max="11014" width="52.625" style="74" customWidth="1"/>
-    <col min="11015" max="11015" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="11016" max="11016" width="5.5" style="74" customWidth="1"/>
-    <col min="11017" max="11017" width="8.625" style="74" customWidth="1"/>
-    <col min="11018" max="11263" width="9" style="74"/>
-    <col min="11264" max="11264" width="3.875" style="74" customWidth="1"/>
-    <col min="11265" max="11265" width="5.5" style="74" customWidth="1"/>
-    <col min="11266" max="11266" width="9" style="74"/>
-    <col min="11267" max="11267" width="4.875" style="74" customWidth="1"/>
-    <col min="11268" max="11268" width="11.75" style="74" customWidth="1"/>
-    <col min="11269" max="11269" width="14.375" style="74" customWidth="1"/>
-    <col min="11270" max="11270" width="52.625" style="74" customWidth="1"/>
-    <col min="11271" max="11271" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="11272" max="11272" width="5.5" style="74" customWidth="1"/>
-    <col min="11273" max="11273" width="8.625" style="74" customWidth="1"/>
-    <col min="11274" max="11519" width="9" style="74"/>
-    <col min="11520" max="11520" width="3.875" style="74" customWidth="1"/>
-    <col min="11521" max="11521" width="5.5" style="74" customWidth="1"/>
-    <col min="11522" max="11522" width="9" style="74"/>
-    <col min="11523" max="11523" width="4.875" style="74" customWidth="1"/>
-    <col min="11524" max="11524" width="11.75" style="74" customWidth="1"/>
-    <col min="11525" max="11525" width="14.375" style="74" customWidth="1"/>
-    <col min="11526" max="11526" width="52.625" style="74" customWidth="1"/>
-    <col min="11527" max="11527" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="11528" max="11528" width="5.5" style="74" customWidth="1"/>
-    <col min="11529" max="11529" width="8.625" style="74" customWidth="1"/>
-    <col min="11530" max="11775" width="9" style="74"/>
-    <col min="11776" max="11776" width="3.875" style="74" customWidth="1"/>
-    <col min="11777" max="11777" width="5.5" style="74" customWidth="1"/>
-    <col min="11778" max="11778" width="9" style="74"/>
-    <col min="11779" max="11779" width="4.875" style="74" customWidth="1"/>
-    <col min="11780" max="11780" width="11.75" style="74" customWidth="1"/>
-    <col min="11781" max="11781" width="14.375" style="74" customWidth="1"/>
-    <col min="11782" max="11782" width="52.625" style="74" customWidth="1"/>
-    <col min="11783" max="11783" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="11784" max="11784" width="5.5" style="74" customWidth="1"/>
-    <col min="11785" max="11785" width="8.625" style="74" customWidth="1"/>
-    <col min="11786" max="12031" width="9" style="74"/>
-    <col min="12032" max="12032" width="3.875" style="74" customWidth="1"/>
-    <col min="12033" max="12033" width="5.5" style="74" customWidth="1"/>
-    <col min="12034" max="12034" width="9" style="74"/>
-    <col min="12035" max="12035" width="4.875" style="74" customWidth="1"/>
-    <col min="12036" max="12036" width="11.75" style="74" customWidth="1"/>
-    <col min="12037" max="12037" width="14.375" style="74" customWidth="1"/>
-    <col min="12038" max="12038" width="52.625" style="74" customWidth="1"/>
-    <col min="12039" max="12039" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="12040" max="12040" width="5.5" style="74" customWidth="1"/>
-    <col min="12041" max="12041" width="8.625" style="74" customWidth="1"/>
-    <col min="12042" max="12287" width="9" style="74"/>
-    <col min="12288" max="12288" width="3.875" style="74" customWidth="1"/>
-    <col min="12289" max="12289" width="5.5" style="74" customWidth="1"/>
-    <col min="12290" max="12290" width="9" style="74"/>
-    <col min="12291" max="12291" width="4.875" style="74" customWidth="1"/>
-    <col min="12292" max="12292" width="11.75" style="74" customWidth="1"/>
-    <col min="12293" max="12293" width="14.375" style="74" customWidth="1"/>
-    <col min="12294" max="12294" width="52.625" style="74" customWidth="1"/>
-    <col min="12295" max="12295" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="12296" max="12296" width="5.5" style="74" customWidth="1"/>
-    <col min="12297" max="12297" width="8.625" style="74" customWidth="1"/>
-    <col min="12298" max="12543" width="9" style="74"/>
-    <col min="12544" max="12544" width="3.875" style="74" customWidth="1"/>
-    <col min="12545" max="12545" width="5.5" style="74" customWidth="1"/>
-    <col min="12546" max="12546" width="9" style="74"/>
-    <col min="12547" max="12547" width="4.875" style="74" customWidth="1"/>
-    <col min="12548" max="12548" width="11.75" style="74" customWidth="1"/>
-    <col min="12549" max="12549" width="14.375" style="74" customWidth="1"/>
-    <col min="12550" max="12550" width="52.625" style="74" customWidth="1"/>
-    <col min="12551" max="12551" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="12552" max="12552" width="5.5" style="74" customWidth="1"/>
-    <col min="12553" max="12553" width="8.625" style="74" customWidth="1"/>
-    <col min="12554" max="12799" width="9" style="74"/>
-    <col min="12800" max="12800" width="3.875" style="74" customWidth="1"/>
-    <col min="12801" max="12801" width="5.5" style="74" customWidth="1"/>
-    <col min="12802" max="12802" width="9" style="74"/>
-    <col min="12803" max="12803" width="4.875" style="74" customWidth="1"/>
-    <col min="12804" max="12804" width="11.75" style="74" customWidth="1"/>
-    <col min="12805" max="12805" width="14.375" style="74" customWidth="1"/>
-    <col min="12806" max="12806" width="52.625" style="74" customWidth="1"/>
-    <col min="12807" max="12807" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="12808" max="12808" width="5.5" style="74" customWidth="1"/>
-    <col min="12809" max="12809" width="8.625" style="74" customWidth="1"/>
-    <col min="12810" max="13055" width="9" style="74"/>
-    <col min="13056" max="13056" width="3.875" style="74" customWidth="1"/>
-    <col min="13057" max="13057" width="5.5" style="74" customWidth="1"/>
-    <col min="13058" max="13058" width="9" style="74"/>
-    <col min="13059" max="13059" width="4.875" style="74" customWidth="1"/>
-    <col min="13060" max="13060" width="11.75" style="74" customWidth="1"/>
-    <col min="13061" max="13061" width="14.375" style="74" customWidth="1"/>
-    <col min="13062" max="13062" width="52.625" style="74" customWidth="1"/>
-    <col min="13063" max="13063" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="13064" max="13064" width="5.5" style="74" customWidth="1"/>
-    <col min="13065" max="13065" width="8.625" style="74" customWidth="1"/>
-    <col min="13066" max="13311" width="9" style="74"/>
-    <col min="13312" max="13312" width="3.875" style="74" customWidth="1"/>
-    <col min="13313" max="13313" width="5.5" style="74" customWidth="1"/>
-    <col min="13314" max="13314" width="9" style="74"/>
-    <col min="13315" max="13315" width="4.875" style="74" customWidth="1"/>
-    <col min="13316" max="13316" width="11.75" style="74" customWidth="1"/>
-    <col min="13317" max="13317" width="14.375" style="74" customWidth="1"/>
-    <col min="13318" max="13318" width="52.625" style="74" customWidth="1"/>
-    <col min="13319" max="13319" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="13320" max="13320" width="5.5" style="74" customWidth="1"/>
-    <col min="13321" max="13321" width="8.625" style="74" customWidth="1"/>
-    <col min="13322" max="13567" width="9" style="74"/>
-    <col min="13568" max="13568" width="3.875" style="74" customWidth="1"/>
-    <col min="13569" max="13569" width="5.5" style="74" customWidth="1"/>
-    <col min="13570" max="13570" width="9" style="74"/>
-    <col min="13571" max="13571" width="4.875" style="74" customWidth="1"/>
-    <col min="13572" max="13572" width="11.75" style="74" customWidth="1"/>
-    <col min="13573" max="13573" width="14.375" style="74" customWidth="1"/>
-    <col min="13574" max="13574" width="52.625" style="74" customWidth="1"/>
-    <col min="13575" max="13575" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="13576" max="13576" width="5.5" style="74" customWidth="1"/>
-    <col min="13577" max="13577" width="8.625" style="74" customWidth="1"/>
-    <col min="13578" max="13823" width="9" style="74"/>
-    <col min="13824" max="13824" width="3.875" style="74" customWidth="1"/>
-    <col min="13825" max="13825" width="5.5" style="74" customWidth="1"/>
-    <col min="13826" max="13826" width="9" style="74"/>
-    <col min="13827" max="13827" width="4.875" style="74" customWidth="1"/>
-    <col min="13828" max="13828" width="11.75" style="74" customWidth="1"/>
-    <col min="13829" max="13829" width="14.375" style="74" customWidth="1"/>
-    <col min="13830" max="13830" width="52.625" style="74" customWidth="1"/>
-    <col min="13831" max="13831" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="13832" max="13832" width="5.5" style="74" customWidth="1"/>
-    <col min="13833" max="13833" width="8.625" style="74" customWidth="1"/>
-    <col min="13834" max="14079" width="9" style="74"/>
-    <col min="14080" max="14080" width="3.875" style="74" customWidth="1"/>
-    <col min="14081" max="14081" width="5.5" style="74" customWidth="1"/>
-    <col min="14082" max="14082" width="9" style="74"/>
-    <col min="14083" max="14083" width="4.875" style="74" customWidth="1"/>
-    <col min="14084" max="14084" width="11.75" style="74" customWidth="1"/>
-    <col min="14085" max="14085" width="14.375" style="74" customWidth="1"/>
-    <col min="14086" max="14086" width="52.625" style="74" customWidth="1"/>
-    <col min="14087" max="14087" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="14088" max="14088" width="5.5" style="74" customWidth="1"/>
-    <col min="14089" max="14089" width="8.625" style="74" customWidth="1"/>
-    <col min="14090" max="14335" width="9" style="74"/>
-    <col min="14336" max="14336" width="3.875" style="74" customWidth="1"/>
-    <col min="14337" max="14337" width="5.5" style="74" customWidth="1"/>
-    <col min="14338" max="14338" width="9" style="74"/>
-    <col min="14339" max="14339" width="4.875" style="74" customWidth="1"/>
-    <col min="14340" max="14340" width="11.75" style="74" customWidth="1"/>
-    <col min="14341" max="14341" width="14.375" style="74" customWidth="1"/>
-    <col min="14342" max="14342" width="52.625" style="74" customWidth="1"/>
-    <col min="14343" max="14343" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="14344" max="14344" width="5.5" style="74" customWidth="1"/>
-    <col min="14345" max="14345" width="8.625" style="74" customWidth="1"/>
-    <col min="14346" max="14591" width="9" style="74"/>
-    <col min="14592" max="14592" width="3.875" style="74" customWidth="1"/>
-    <col min="14593" max="14593" width="5.5" style="74" customWidth="1"/>
-    <col min="14594" max="14594" width="9" style="74"/>
-    <col min="14595" max="14595" width="4.875" style="74" customWidth="1"/>
-    <col min="14596" max="14596" width="11.75" style="74" customWidth="1"/>
-    <col min="14597" max="14597" width="14.375" style="74" customWidth="1"/>
-    <col min="14598" max="14598" width="52.625" style="74" customWidth="1"/>
-    <col min="14599" max="14599" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="14600" max="14600" width="5.5" style="74" customWidth="1"/>
-    <col min="14601" max="14601" width="8.625" style="74" customWidth="1"/>
-    <col min="14602" max="14847" width="9" style="74"/>
-    <col min="14848" max="14848" width="3.875" style="74" customWidth="1"/>
-    <col min="14849" max="14849" width="5.5" style="74" customWidth="1"/>
-    <col min="14850" max="14850" width="9" style="74"/>
-    <col min="14851" max="14851" width="4.875" style="74" customWidth="1"/>
-    <col min="14852" max="14852" width="11.75" style="74" customWidth="1"/>
-    <col min="14853" max="14853" width="14.375" style="74" customWidth="1"/>
-    <col min="14854" max="14854" width="52.625" style="74" customWidth="1"/>
-    <col min="14855" max="14855" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="14856" max="14856" width="5.5" style="74" customWidth="1"/>
-    <col min="14857" max="14857" width="8.625" style="74" customWidth="1"/>
-    <col min="14858" max="15103" width="9" style="74"/>
-    <col min="15104" max="15104" width="3.875" style="74" customWidth="1"/>
-    <col min="15105" max="15105" width="5.5" style="74" customWidth="1"/>
-    <col min="15106" max="15106" width="9" style="74"/>
-    <col min="15107" max="15107" width="4.875" style="74" customWidth="1"/>
-    <col min="15108" max="15108" width="11.75" style="74" customWidth="1"/>
-    <col min="15109" max="15109" width="14.375" style="74" customWidth="1"/>
-    <col min="15110" max="15110" width="52.625" style="74" customWidth="1"/>
-    <col min="15111" max="15111" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="15112" max="15112" width="5.5" style="74" customWidth="1"/>
-    <col min="15113" max="15113" width="8.625" style="74" customWidth="1"/>
-    <col min="15114" max="15359" width="9" style="74"/>
-    <col min="15360" max="15360" width="3.875" style="74" customWidth="1"/>
-    <col min="15361" max="15361" width="5.5" style="74" customWidth="1"/>
-    <col min="15362" max="15362" width="9" style="74"/>
-    <col min="15363" max="15363" width="4.875" style="74" customWidth="1"/>
-    <col min="15364" max="15364" width="11.75" style="74" customWidth="1"/>
-    <col min="15365" max="15365" width="14.375" style="74" customWidth="1"/>
-    <col min="15366" max="15366" width="52.625" style="74" customWidth="1"/>
-    <col min="15367" max="15367" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="15368" max="15368" width="5.5" style="74" customWidth="1"/>
-    <col min="15369" max="15369" width="8.625" style="74" customWidth="1"/>
-    <col min="15370" max="15615" width="9" style="74"/>
-    <col min="15616" max="15616" width="3.875" style="74" customWidth="1"/>
-    <col min="15617" max="15617" width="5.5" style="74" customWidth="1"/>
-    <col min="15618" max="15618" width="9" style="74"/>
-    <col min="15619" max="15619" width="4.875" style="74" customWidth="1"/>
-    <col min="15620" max="15620" width="11.75" style="74" customWidth="1"/>
-    <col min="15621" max="15621" width="14.375" style="74" customWidth="1"/>
-    <col min="15622" max="15622" width="52.625" style="74" customWidth="1"/>
-    <col min="15623" max="15623" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="15624" max="15624" width="5.5" style="74" customWidth="1"/>
-    <col min="15625" max="15625" width="8.625" style="74" customWidth="1"/>
-    <col min="15626" max="15871" width="9" style="74"/>
-    <col min="15872" max="15872" width="3.875" style="74" customWidth="1"/>
-    <col min="15873" max="15873" width="5.5" style="74" customWidth="1"/>
-    <col min="15874" max="15874" width="9" style="74"/>
-    <col min="15875" max="15875" width="4.875" style="74" customWidth="1"/>
-    <col min="15876" max="15876" width="11.75" style="74" customWidth="1"/>
-    <col min="15877" max="15877" width="14.375" style="74" customWidth="1"/>
-    <col min="15878" max="15878" width="52.625" style="74" customWidth="1"/>
-    <col min="15879" max="15879" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="15880" max="15880" width="5.5" style="74" customWidth="1"/>
-    <col min="15881" max="15881" width="8.625" style="74" customWidth="1"/>
-    <col min="15882" max="16127" width="9" style="74"/>
-    <col min="16128" max="16128" width="3.875" style="74" customWidth="1"/>
-    <col min="16129" max="16129" width="5.5" style="74" customWidth="1"/>
-    <col min="16130" max="16130" width="9" style="74"/>
-    <col min="16131" max="16131" width="4.875" style="74" customWidth="1"/>
-    <col min="16132" max="16132" width="11.75" style="74" customWidth="1"/>
-    <col min="16133" max="16133" width="14.375" style="74" customWidth="1"/>
-    <col min="16134" max="16134" width="52.625" style="74" customWidth="1"/>
-    <col min="16135" max="16135" width="6.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="16136" max="16136" width="5.5" style="74" customWidth="1"/>
-    <col min="16137" max="16137" width="8.625" style="74" customWidth="1"/>
-    <col min="16138" max="16384" width="9" style="74"/>
+    <col min="1" max="1" width="3.875" style="55" customWidth="1"/>
+    <col min="2" max="2" width="9" style="55" customWidth="1"/>
+    <col min="3" max="3" width="4.875" style="69" customWidth="1"/>
+    <col min="4" max="4" width="12.75" style="69" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.375" style="55" customWidth="1"/>
+    <col min="6" max="6" width="52.625" style="55" customWidth="1"/>
+    <col min="7" max="7" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5" style="55" customWidth="1"/>
+    <col min="9" max="9" width="8.625" style="69" customWidth="1"/>
+    <col min="10" max="255" width="9" style="55"/>
+    <col min="256" max="256" width="3.875" style="55" customWidth="1"/>
+    <col min="257" max="257" width="5.5" style="55" customWidth="1"/>
+    <col min="258" max="258" width="9" style="55"/>
+    <col min="259" max="259" width="4.875" style="55" customWidth="1"/>
+    <col min="260" max="260" width="11.75" style="55" customWidth="1"/>
+    <col min="261" max="261" width="14.375" style="55" customWidth="1"/>
+    <col min="262" max="262" width="52.625" style="55" customWidth="1"/>
+    <col min="263" max="263" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="5.5" style="55" customWidth="1"/>
+    <col min="265" max="265" width="8.625" style="55" customWidth="1"/>
+    <col min="266" max="511" width="9" style="55"/>
+    <col min="512" max="512" width="3.875" style="55" customWidth="1"/>
+    <col min="513" max="513" width="5.5" style="55" customWidth="1"/>
+    <col min="514" max="514" width="9" style="55"/>
+    <col min="515" max="515" width="4.875" style="55" customWidth="1"/>
+    <col min="516" max="516" width="11.75" style="55" customWidth="1"/>
+    <col min="517" max="517" width="14.375" style="55" customWidth="1"/>
+    <col min="518" max="518" width="52.625" style="55" customWidth="1"/>
+    <col min="519" max="519" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="520" max="520" width="5.5" style="55" customWidth="1"/>
+    <col min="521" max="521" width="8.625" style="55" customWidth="1"/>
+    <col min="522" max="767" width="9" style="55"/>
+    <col min="768" max="768" width="3.875" style="55" customWidth="1"/>
+    <col min="769" max="769" width="5.5" style="55" customWidth="1"/>
+    <col min="770" max="770" width="9" style="55"/>
+    <col min="771" max="771" width="4.875" style="55" customWidth="1"/>
+    <col min="772" max="772" width="11.75" style="55" customWidth="1"/>
+    <col min="773" max="773" width="14.375" style="55" customWidth="1"/>
+    <col min="774" max="774" width="52.625" style="55" customWidth="1"/>
+    <col min="775" max="775" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="776" max="776" width="5.5" style="55" customWidth="1"/>
+    <col min="777" max="777" width="8.625" style="55" customWidth="1"/>
+    <col min="778" max="1023" width="9" style="55"/>
+    <col min="1024" max="1024" width="3.875" style="55" customWidth="1"/>
+    <col min="1025" max="1025" width="5.5" style="55" customWidth="1"/>
+    <col min="1026" max="1026" width="9" style="55"/>
+    <col min="1027" max="1027" width="4.875" style="55" customWidth="1"/>
+    <col min="1028" max="1028" width="11.75" style="55" customWidth="1"/>
+    <col min="1029" max="1029" width="14.375" style="55" customWidth="1"/>
+    <col min="1030" max="1030" width="52.625" style="55" customWidth="1"/>
+    <col min="1031" max="1031" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="1032" max="1032" width="5.5" style="55" customWidth="1"/>
+    <col min="1033" max="1033" width="8.625" style="55" customWidth="1"/>
+    <col min="1034" max="1279" width="9" style="55"/>
+    <col min="1280" max="1280" width="3.875" style="55" customWidth="1"/>
+    <col min="1281" max="1281" width="5.5" style="55" customWidth="1"/>
+    <col min="1282" max="1282" width="9" style="55"/>
+    <col min="1283" max="1283" width="4.875" style="55" customWidth="1"/>
+    <col min="1284" max="1284" width="11.75" style="55" customWidth="1"/>
+    <col min="1285" max="1285" width="14.375" style="55" customWidth="1"/>
+    <col min="1286" max="1286" width="52.625" style="55" customWidth="1"/>
+    <col min="1287" max="1287" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="1288" max="1288" width="5.5" style="55" customWidth="1"/>
+    <col min="1289" max="1289" width="8.625" style="55" customWidth="1"/>
+    <col min="1290" max="1535" width="9" style="55"/>
+    <col min="1536" max="1536" width="3.875" style="55" customWidth="1"/>
+    <col min="1537" max="1537" width="5.5" style="55" customWidth="1"/>
+    <col min="1538" max="1538" width="9" style="55"/>
+    <col min="1539" max="1539" width="4.875" style="55" customWidth="1"/>
+    <col min="1540" max="1540" width="11.75" style="55" customWidth="1"/>
+    <col min="1541" max="1541" width="14.375" style="55" customWidth="1"/>
+    <col min="1542" max="1542" width="52.625" style="55" customWidth="1"/>
+    <col min="1543" max="1543" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="1544" max="1544" width="5.5" style="55" customWidth="1"/>
+    <col min="1545" max="1545" width="8.625" style="55" customWidth="1"/>
+    <col min="1546" max="1791" width="9" style="55"/>
+    <col min="1792" max="1792" width="3.875" style="55" customWidth="1"/>
+    <col min="1793" max="1793" width="5.5" style="55" customWidth="1"/>
+    <col min="1794" max="1794" width="9" style="55"/>
+    <col min="1795" max="1795" width="4.875" style="55" customWidth="1"/>
+    <col min="1796" max="1796" width="11.75" style="55" customWidth="1"/>
+    <col min="1797" max="1797" width="14.375" style="55" customWidth="1"/>
+    <col min="1798" max="1798" width="52.625" style="55" customWidth="1"/>
+    <col min="1799" max="1799" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="1800" max="1800" width="5.5" style="55" customWidth="1"/>
+    <col min="1801" max="1801" width="8.625" style="55" customWidth="1"/>
+    <col min="1802" max="2047" width="9" style="55"/>
+    <col min="2048" max="2048" width="3.875" style="55" customWidth="1"/>
+    <col min="2049" max="2049" width="5.5" style="55" customWidth="1"/>
+    <col min="2050" max="2050" width="9" style="55"/>
+    <col min="2051" max="2051" width="4.875" style="55" customWidth="1"/>
+    <col min="2052" max="2052" width="11.75" style="55" customWidth="1"/>
+    <col min="2053" max="2053" width="14.375" style="55" customWidth="1"/>
+    <col min="2054" max="2054" width="52.625" style="55" customWidth="1"/>
+    <col min="2055" max="2055" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="2056" max="2056" width="5.5" style="55" customWidth="1"/>
+    <col min="2057" max="2057" width="8.625" style="55" customWidth="1"/>
+    <col min="2058" max="2303" width="9" style="55"/>
+    <col min="2304" max="2304" width="3.875" style="55" customWidth="1"/>
+    <col min="2305" max="2305" width="5.5" style="55" customWidth="1"/>
+    <col min="2306" max="2306" width="9" style="55"/>
+    <col min="2307" max="2307" width="4.875" style="55" customWidth="1"/>
+    <col min="2308" max="2308" width="11.75" style="55" customWidth="1"/>
+    <col min="2309" max="2309" width="14.375" style="55" customWidth="1"/>
+    <col min="2310" max="2310" width="52.625" style="55" customWidth="1"/>
+    <col min="2311" max="2311" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="2312" max="2312" width="5.5" style="55" customWidth="1"/>
+    <col min="2313" max="2313" width="8.625" style="55" customWidth="1"/>
+    <col min="2314" max="2559" width="9" style="55"/>
+    <col min="2560" max="2560" width="3.875" style="55" customWidth="1"/>
+    <col min="2561" max="2561" width="5.5" style="55" customWidth="1"/>
+    <col min="2562" max="2562" width="9" style="55"/>
+    <col min="2563" max="2563" width="4.875" style="55" customWidth="1"/>
+    <col min="2564" max="2564" width="11.75" style="55" customWidth="1"/>
+    <col min="2565" max="2565" width="14.375" style="55" customWidth="1"/>
+    <col min="2566" max="2566" width="52.625" style="55" customWidth="1"/>
+    <col min="2567" max="2567" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="2568" max="2568" width="5.5" style="55" customWidth="1"/>
+    <col min="2569" max="2569" width="8.625" style="55" customWidth="1"/>
+    <col min="2570" max="2815" width="9" style="55"/>
+    <col min="2816" max="2816" width="3.875" style="55" customWidth="1"/>
+    <col min="2817" max="2817" width="5.5" style="55" customWidth="1"/>
+    <col min="2818" max="2818" width="9" style="55"/>
+    <col min="2819" max="2819" width="4.875" style="55" customWidth="1"/>
+    <col min="2820" max="2820" width="11.75" style="55" customWidth="1"/>
+    <col min="2821" max="2821" width="14.375" style="55" customWidth="1"/>
+    <col min="2822" max="2822" width="52.625" style="55" customWidth="1"/>
+    <col min="2823" max="2823" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="2824" max="2824" width="5.5" style="55" customWidth="1"/>
+    <col min="2825" max="2825" width="8.625" style="55" customWidth="1"/>
+    <col min="2826" max="3071" width="9" style="55"/>
+    <col min="3072" max="3072" width="3.875" style="55" customWidth="1"/>
+    <col min="3073" max="3073" width="5.5" style="55" customWidth="1"/>
+    <col min="3074" max="3074" width="9" style="55"/>
+    <col min="3075" max="3075" width="4.875" style="55" customWidth="1"/>
+    <col min="3076" max="3076" width="11.75" style="55" customWidth="1"/>
+    <col min="3077" max="3077" width="14.375" style="55" customWidth="1"/>
+    <col min="3078" max="3078" width="52.625" style="55" customWidth="1"/>
+    <col min="3079" max="3079" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="3080" max="3080" width="5.5" style="55" customWidth="1"/>
+    <col min="3081" max="3081" width="8.625" style="55" customWidth="1"/>
+    <col min="3082" max="3327" width="9" style="55"/>
+    <col min="3328" max="3328" width="3.875" style="55" customWidth="1"/>
+    <col min="3329" max="3329" width="5.5" style="55" customWidth="1"/>
+    <col min="3330" max="3330" width="9" style="55"/>
+    <col min="3331" max="3331" width="4.875" style="55" customWidth="1"/>
+    <col min="3332" max="3332" width="11.75" style="55" customWidth="1"/>
+    <col min="3333" max="3333" width="14.375" style="55" customWidth="1"/>
+    <col min="3334" max="3334" width="52.625" style="55" customWidth="1"/>
+    <col min="3335" max="3335" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="3336" max="3336" width="5.5" style="55" customWidth="1"/>
+    <col min="3337" max="3337" width="8.625" style="55" customWidth="1"/>
+    <col min="3338" max="3583" width="9" style="55"/>
+    <col min="3584" max="3584" width="3.875" style="55" customWidth="1"/>
+    <col min="3585" max="3585" width="5.5" style="55" customWidth="1"/>
+    <col min="3586" max="3586" width="9" style="55"/>
+    <col min="3587" max="3587" width="4.875" style="55" customWidth="1"/>
+    <col min="3588" max="3588" width="11.75" style="55" customWidth="1"/>
+    <col min="3589" max="3589" width="14.375" style="55" customWidth="1"/>
+    <col min="3590" max="3590" width="52.625" style="55" customWidth="1"/>
+    <col min="3591" max="3591" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="3592" max="3592" width="5.5" style="55" customWidth="1"/>
+    <col min="3593" max="3593" width="8.625" style="55" customWidth="1"/>
+    <col min="3594" max="3839" width="9" style="55"/>
+    <col min="3840" max="3840" width="3.875" style="55" customWidth="1"/>
+    <col min="3841" max="3841" width="5.5" style="55" customWidth="1"/>
+    <col min="3842" max="3842" width="9" style="55"/>
+    <col min="3843" max="3843" width="4.875" style="55" customWidth="1"/>
+    <col min="3844" max="3844" width="11.75" style="55" customWidth="1"/>
+    <col min="3845" max="3845" width="14.375" style="55" customWidth="1"/>
+    <col min="3846" max="3846" width="52.625" style="55" customWidth="1"/>
+    <col min="3847" max="3847" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="3848" max="3848" width="5.5" style="55" customWidth="1"/>
+    <col min="3849" max="3849" width="8.625" style="55" customWidth="1"/>
+    <col min="3850" max="4095" width="9" style="55"/>
+    <col min="4096" max="4096" width="3.875" style="55" customWidth="1"/>
+    <col min="4097" max="4097" width="5.5" style="55" customWidth="1"/>
+    <col min="4098" max="4098" width="9" style="55"/>
+    <col min="4099" max="4099" width="4.875" style="55" customWidth="1"/>
+    <col min="4100" max="4100" width="11.75" style="55" customWidth="1"/>
+    <col min="4101" max="4101" width="14.375" style="55" customWidth="1"/>
+    <col min="4102" max="4102" width="52.625" style="55" customWidth="1"/>
+    <col min="4103" max="4103" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="4104" max="4104" width="5.5" style="55" customWidth="1"/>
+    <col min="4105" max="4105" width="8.625" style="55" customWidth="1"/>
+    <col min="4106" max="4351" width="9" style="55"/>
+    <col min="4352" max="4352" width="3.875" style="55" customWidth="1"/>
+    <col min="4353" max="4353" width="5.5" style="55" customWidth="1"/>
+    <col min="4354" max="4354" width="9" style="55"/>
+    <col min="4355" max="4355" width="4.875" style="55" customWidth="1"/>
+    <col min="4356" max="4356" width="11.75" style="55" customWidth="1"/>
+    <col min="4357" max="4357" width="14.375" style="55" customWidth="1"/>
+    <col min="4358" max="4358" width="52.625" style="55" customWidth="1"/>
+    <col min="4359" max="4359" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="4360" max="4360" width="5.5" style="55" customWidth="1"/>
+    <col min="4361" max="4361" width="8.625" style="55" customWidth="1"/>
+    <col min="4362" max="4607" width="9" style="55"/>
+    <col min="4608" max="4608" width="3.875" style="55" customWidth="1"/>
+    <col min="4609" max="4609" width="5.5" style="55" customWidth="1"/>
+    <col min="4610" max="4610" width="9" style="55"/>
+    <col min="4611" max="4611" width="4.875" style="55" customWidth="1"/>
+    <col min="4612" max="4612" width="11.75" style="55" customWidth="1"/>
+    <col min="4613" max="4613" width="14.375" style="55" customWidth="1"/>
+    <col min="4614" max="4614" width="52.625" style="55" customWidth="1"/>
+    <col min="4615" max="4615" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="4616" max="4616" width="5.5" style="55" customWidth="1"/>
+    <col min="4617" max="4617" width="8.625" style="55" customWidth="1"/>
+    <col min="4618" max="4863" width="9" style="55"/>
+    <col min="4864" max="4864" width="3.875" style="55" customWidth="1"/>
+    <col min="4865" max="4865" width="5.5" style="55" customWidth="1"/>
+    <col min="4866" max="4866" width="9" style="55"/>
+    <col min="4867" max="4867" width="4.875" style="55" customWidth="1"/>
+    <col min="4868" max="4868" width="11.75" style="55" customWidth="1"/>
+    <col min="4869" max="4869" width="14.375" style="55" customWidth="1"/>
+    <col min="4870" max="4870" width="52.625" style="55" customWidth="1"/>
+    <col min="4871" max="4871" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="4872" max="4872" width="5.5" style="55" customWidth="1"/>
+    <col min="4873" max="4873" width="8.625" style="55" customWidth="1"/>
+    <col min="4874" max="5119" width="9" style="55"/>
+    <col min="5120" max="5120" width="3.875" style="55" customWidth="1"/>
+    <col min="5121" max="5121" width="5.5" style="55" customWidth="1"/>
+    <col min="5122" max="5122" width="9" style="55"/>
+    <col min="5123" max="5123" width="4.875" style="55" customWidth="1"/>
+    <col min="5124" max="5124" width="11.75" style="55" customWidth="1"/>
+    <col min="5125" max="5125" width="14.375" style="55" customWidth="1"/>
+    <col min="5126" max="5126" width="52.625" style="55" customWidth="1"/>
+    <col min="5127" max="5127" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="5128" max="5128" width="5.5" style="55" customWidth="1"/>
+    <col min="5129" max="5129" width="8.625" style="55" customWidth="1"/>
+    <col min="5130" max="5375" width="9" style="55"/>
+    <col min="5376" max="5376" width="3.875" style="55" customWidth="1"/>
+    <col min="5377" max="5377" width="5.5" style="55" customWidth="1"/>
+    <col min="5378" max="5378" width="9" style="55"/>
+    <col min="5379" max="5379" width="4.875" style="55" customWidth="1"/>
+    <col min="5380" max="5380" width="11.75" style="55" customWidth="1"/>
+    <col min="5381" max="5381" width="14.375" style="55" customWidth="1"/>
+    <col min="5382" max="5382" width="52.625" style="55" customWidth="1"/>
+    <col min="5383" max="5383" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="5384" max="5384" width="5.5" style="55" customWidth="1"/>
+    <col min="5385" max="5385" width="8.625" style="55" customWidth="1"/>
+    <col min="5386" max="5631" width="9" style="55"/>
+    <col min="5632" max="5632" width="3.875" style="55" customWidth="1"/>
+    <col min="5633" max="5633" width="5.5" style="55" customWidth="1"/>
+    <col min="5634" max="5634" width="9" style="55"/>
+    <col min="5635" max="5635" width="4.875" style="55" customWidth="1"/>
+    <col min="5636" max="5636" width="11.75" style="55" customWidth="1"/>
+    <col min="5637" max="5637" width="14.375" style="55" customWidth="1"/>
+    <col min="5638" max="5638" width="52.625" style="55" customWidth="1"/>
+    <col min="5639" max="5639" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="5640" max="5640" width="5.5" style="55" customWidth="1"/>
+    <col min="5641" max="5641" width="8.625" style="55" customWidth="1"/>
+    <col min="5642" max="5887" width="9" style="55"/>
+    <col min="5888" max="5888" width="3.875" style="55" customWidth="1"/>
+    <col min="5889" max="5889" width="5.5" style="55" customWidth="1"/>
+    <col min="5890" max="5890" width="9" style="55"/>
+    <col min="5891" max="5891" width="4.875" style="55" customWidth="1"/>
+    <col min="5892" max="5892" width="11.75" style="55" customWidth="1"/>
+    <col min="5893" max="5893" width="14.375" style="55" customWidth="1"/>
+    <col min="5894" max="5894" width="52.625" style="55" customWidth="1"/>
+    <col min="5895" max="5895" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="5896" max="5896" width="5.5" style="55" customWidth="1"/>
+    <col min="5897" max="5897" width="8.625" style="55" customWidth="1"/>
+    <col min="5898" max="6143" width="9" style="55"/>
+    <col min="6144" max="6144" width="3.875" style="55" customWidth="1"/>
+    <col min="6145" max="6145" width="5.5" style="55" customWidth="1"/>
+    <col min="6146" max="6146" width="9" style="55"/>
+    <col min="6147" max="6147" width="4.875" style="55" customWidth="1"/>
+    <col min="6148" max="6148" width="11.75" style="55" customWidth="1"/>
+    <col min="6149" max="6149" width="14.375" style="55" customWidth="1"/>
+    <col min="6150" max="6150" width="52.625" style="55" customWidth="1"/>
+    <col min="6151" max="6151" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="6152" max="6152" width="5.5" style="55" customWidth="1"/>
+    <col min="6153" max="6153" width="8.625" style="55" customWidth="1"/>
+    <col min="6154" max="6399" width="9" style="55"/>
+    <col min="6400" max="6400" width="3.875" style="55" customWidth="1"/>
+    <col min="6401" max="6401" width="5.5" style="55" customWidth="1"/>
+    <col min="6402" max="6402" width="9" style="55"/>
+    <col min="6403" max="6403" width="4.875" style="55" customWidth="1"/>
+    <col min="6404" max="6404" width="11.75" style="55" customWidth="1"/>
+    <col min="6405" max="6405" width="14.375" style="55" customWidth="1"/>
+    <col min="6406" max="6406" width="52.625" style="55" customWidth="1"/>
+    <col min="6407" max="6407" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="6408" max="6408" width="5.5" style="55" customWidth="1"/>
+    <col min="6409" max="6409" width="8.625" style="55" customWidth="1"/>
+    <col min="6410" max="6655" width="9" style="55"/>
+    <col min="6656" max="6656" width="3.875" style="55" customWidth="1"/>
+    <col min="6657" max="6657" width="5.5" style="55" customWidth="1"/>
+    <col min="6658" max="6658" width="9" style="55"/>
+    <col min="6659" max="6659" width="4.875" style="55" customWidth="1"/>
+    <col min="6660" max="6660" width="11.75" style="55" customWidth="1"/>
+    <col min="6661" max="6661" width="14.375" style="55" customWidth="1"/>
+    <col min="6662" max="6662" width="52.625" style="55" customWidth="1"/>
+    <col min="6663" max="6663" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="6664" max="6664" width="5.5" style="55" customWidth="1"/>
+    <col min="6665" max="6665" width="8.625" style="55" customWidth="1"/>
+    <col min="6666" max="6911" width="9" style="55"/>
+    <col min="6912" max="6912" width="3.875" style="55" customWidth="1"/>
+    <col min="6913" max="6913" width="5.5" style="55" customWidth="1"/>
+    <col min="6914" max="6914" width="9" style="55"/>
+    <col min="6915" max="6915" width="4.875" style="55" customWidth="1"/>
+    <col min="6916" max="6916" width="11.75" style="55" customWidth="1"/>
+    <col min="6917" max="6917" width="14.375" style="55" customWidth="1"/>
+    <col min="6918" max="6918" width="52.625" style="55" customWidth="1"/>
+    <col min="6919" max="6919" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="6920" max="6920" width="5.5" style="55" customWidth="1"/>
+    <col min="6921" max="6921" width="8.625" style="55" customWidth="1"/>
+    <col min="6922" max="7167" width="9" style="55"/>
+    <col min="7168" max="7168" width="3.875" style="55" customWidth="1"/>
+    <col min="7169" max="7169" width="5.5" style="55" customWidth="1"/>
+    <col min="7170" max="7170" width="9" style="55"/>
+    <col min="7171" max="7171" width="4.875" style="55" customWidth="1"/>
+    <col min="7172" max="7172" width="11.75" style="55" customWidth="1"/>
+    <col min="7173" max="7173" width="14.375" style="55" customWidth="1"/>
+    <col min="7174" max="7174" width="52.625" style="55" customWidth="1"/>
+    <col min="7175" max="7175" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="7176" max="7176" width="5.5" style="55" customWidth="1"/>
+    <col min="7177" max="7177" width="8.625" style="55" customWidth="1"/>
+    <col min="7178" max="7423" width="9" style="55"/>
+    <col min="7424" max="7424" width="3.875" style="55" customWidth="1"/>
+    <col min="7425" max="7425" width="5.5" style="55" customWidth="1"/>
+    <col min="7426" max="7426" width="9" style="55"/>
+    <col min="7427" max="7427" width="4.875" style="55" customWidth="1"/>
+    <col min="7428" max="7428" width="11.75" style="55" customWidth="1"/>
+    <col min="7429" max="7429" width="14.375" style="55" customWidth="1"/>
+    <col min="7430" max="7430" width="52.625" style="55" customWidth="1"/>
+    <col min="7431" max="7431" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="7432" max="7432" width="5.5" style="55" customWidth="1"/>
+    <col min="7433" max="7433" width="8.625" style="55" customWidth="1"/>
+    <col min="7434" max="7679" width="9" style="55"/>
+    <col min="7680" max="7680" width="3.875" style="55" customWidth="1"/>
+    <col min="7681" max="7681" width="5.5" style="55" customWidth="1"/>
+    <col min="7682" max="7682" width="9" style="55"/>
+    <col min="7683" max="7683" width="4.875" style="55" customWidth="1"/>
+    <col min="7684" max="7684" width="11.75" style="55" customWidth="1"/>
+    <col min="7685" max="7685" width="14.375" style="55" customWidth="1"/>
+    <col min="7686" max="7686" width="52.625" style="55" customWidth="1"/>
+    <col min="7687" max="7687" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="7688" max="7688" width="5.5" style="55" customWidth="1"/>
+    <col min="7689" max="7689" width="8.625" style="55" customWidth="1"/>
+    <col min="7690" max="7935" width="9" style="55"/>
+    <col min="7936" max="7936" width="3.875" style="55" customWidth="1"/>
+    <col min="7937" max="7937" width="5.5" style="55" customWidth="1"/>
+    <col min="7938" max="7938" width="9" style="55"/>
+    <col min="7939" max="7939" width="4.875" style="55" customWidth="1"/>
+    <col min="7940" max="7940" width="11.75" style="55" customWidth="1"/>
+    <col min="7941" max="7941" width="14.375" style="55" customWidth="1"/>
+    <col min="7942" max="7942" width="52.625" style="55" customWidth="1"/>
+    <col min="7943" max="7943" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="7944" max="7944" width="5.5" style="55" customWidth="1"/>
+    <col min="7945" max="7945" width="8.625" style="55" customWidth="1"/>
+    <col min="7946" max="8191" width="9" style="55"/>
+    <col min="8192" max="8192" width="3.875" style="55" customWidth="1"/>
+    <col min="8193" max="8193" width="5.5" style="55" customWidth="1"/>
+    <col min="8194" max="8194" width="9" style="55"/>
+    <col min="8195" max="8195" width="4.875" style="55" customWidth="1"/>
+    <col min="8196" max="8196" width="11.75" style="55" customWidth="1"/>
+    <col min="8197" max="8197" width="14.375" style="55" customWidth="1"/>
+    <col min="8198" max="8198" width="52.625" style="55" customWidth="1"/>
+    <col min="8199" max="8199" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="8200" max="8200" width="5.5" style="55" customWidth="1"/>
+    <col min="8201" max="8201" width="8.625" style="55" customWidth="1"/>
+    <col min="8202" max="8447" width="9" style="55"/>
+    <col min="8448" max="8448" width="3.875" style="55" customWidth="1"/>
+    <col min="8449" max="8449" width="5.5" style="55" customWidth="1"/>
+    <col min="8450" max="8450" width="9" style="55"/>
+    <col min="8451" max="8451" width="4.875" style="55" customWidth="1"/>
+    <col min="8452" max="8452" width="11.75" style="55" customWidth="1"/>
+    <col min="8453" max="8453" width="14.375" style="55" customWidth="1"/>
+    <col min="8454" max="8454" width="52.625" style="55" customWidth="1"/>
+    <col min="8455" max="8455" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="8456" max="8456" width="5.5" style="55" customWidth="1"/>
+    <col min="8457" max="8457" width="8.625" style="55" customWidth="1"/>
+    <col min="8458" max="8703" width="9" style="55"/>
+    <col min="8704" max="8704" width="3.875" style="55" customWidth="1"/>
+    <col min="8705" max="8705" width="5.5" style="55" customWidth="1"/>
+    <col min="8706" max="8706" width="9" style="55"/>
+    <col min="8707" max="8707" width="4.875" style="55" customWidth="1"/>
+    <col min="8708" max="8708" width="11.75" style="55" customWidth="1"/>
+    <col min="8709" max="8709" width="14.375" style="55" customWidth="1"/>
+    <col min="8710" max="8710" width="52.625" style="55" customWidth="1"/>
+    <col min="8711" max="8711" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="8712" max="8712" width="5.5" style="55" customWidth="1"/>
+    <col min="8713" max="8713" width="8.625" style="55" customWidth="1"/>
+    <col min="8714" max="8959" width="9" style="55"/>
+    <col min="8960" max="8960" width="3.875" style="55" customWidth="1"/>
+    <col min="8961" max="8961" width="5.5" style="55" customWidth="1"/>
+    <col min="8962" max="8962" width="9" style="55"/>
+    <col min="8963" max="8963" width="4.875" style="55" customWidth="1"/>
+    <col min="8964" max="8964" width="11.75" style="55" customWidth="1"/>
+    <col min="8965" max="8965" width="14.375" style="55" customWidth="1"/>
+    <col min="8966" max="8966" width="52.625" style="55" customWidth="1"/>
+    <col min="8967" max="8967" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="8968" max="8968" width="5.5" style="55" customWidth="1"/>
+    <col min="8969" max="8969" width="8.625" style="55" customWidth="1"/>
+    <col min="8970" max="9215" width="9" style="55"/>
+    <col min="9216" max="9216" width="3.875" style="55" customWidth="1"/>
+    <col min="9217" max="9217" width="5.5" style="55" customWidth="1"/>
+    <col min="9218" max="9218" width="9" style="55"/>
+    <col min="9219" max="9219" width="4.875" style="55" customWidth="1"/>
+    <col min="9220" max="9220" width="11.75" style="55" customWidth="1"/>
+    <col min="9221" max="9221" width="14.375" style="55" customWidth="1"/>
+    <col min="9222" max="9222" width="52.625" style="55" customWidth="1"/>
+    <col min="9223" max="9223" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="9224" max="9224" width="5.5" style="55" customWidth="1"/>
+    <col min="9225" max="9225" width="8.625" style="55" customWidth="1"/>
+    <col min="9226" max="9471" width="9" style="55"/>
+    <col min="9472" max="9472" width="3.875" style="55" customWidth="1"/>
+    <col min="9473" max="9473" width="5.5" style="55" customWidth="1"/>
+    <col min="9474" max="9474" width="9" style="55"/>
+    <col min="9475" max="9475" width="4.875" style="55" customWidth="1"/>
+    <col min="9476" max="9476" width="11.75" style="55" customWidth="1"/>
+    <col min="9477" max="9477" width="14.375" style="55" customWidth="1"/>
+    <col min="9478" max="9478" width="52.625" style="55" customWidth="1"/>
+    <col min="9479" max="9479" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="9480" max="9480" width="5.5" style="55" customWidth="1"/>
+    <col min="9481" max="9481" width="8.625" style="55" customWidth="1"/>
+    <col min="9482" max="9727" width="9" style="55"/>
+    <col min="9728" max="9728" width="3.875" style="55" customWidth="1"/>
+    <col min="9729" max="9729" width="5.5" style="55" customWidth="1"/>
+    <col min="9730" max="9730" width="9" style="55"/>
+    <col min="9731" max="9731" width="4.875" style="55" customWidth="1"/>
+    <col min="9732" max="9732" width="11.75" style="55" customWidth="1"/>
+    <col min="9733" max="9733" width="14.375" style="55" customWidth="1"/>
+    <col min="9734" max="9734" width="52.625" style="55" customWidth="1"/>
+    <col min="9735" max="9735" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="9736" max="9736" width="5.5" style="55" customWidth="1"/>
+    <col min="9737" max="9737" width="8.625" style="55" customWidth="1"/>
+    <col min="9738" max="9983" width="9" style="55"/>
+    <col min="9984" max="9984" width="3.875" style="55" customWidth="1"/>
+    <col min="9985" max="9985" width="5.5" style="55" customWidth="1"/>
+    <col min="9986" max="9986" width="9" style="55"/>
+    <col min="9987" max="9987" width="4.875" style="55" customWidth="1"/>
+    <col min="9988" max="9988" width="11.75" style="55" customWidth="1"/>
+    <col min="9989" max="9989" width="14.375" style="55" customWidth="1"/>
+    <col min="9990" max="9990" width="52.625" style="55" customWidth="1"/>
+    <col min="9991" max="9991" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="9992" max="9992" width="5.5" style="55" customWidth="1"/>
+    <col min="9993" max="9993" width="8.625" style="55" customWidth="1"/>
+    <col min="9994" max="10239" width="9" style="55"/>
+    <col min="10240" max="10240" width="3.875" style="55" customWidth="1"/>
+    <col min="10241" max="10241" width="5.5" style="55" customWidth="1"/>
+    <col min="10242" max="10242" width="9" style="55"/>
+    <col min="10243" max="10243" width="4.875" style="55" customWidth="1"/>
+    <col min="10244" max="10244" width="11.75" style="55" customWidth="1"/>
+    <col min="10245" max="10245" width="14.375" style="55" customWidth="1"/>
+    <col min="10246" max="10246" width="52.625" style="55" customWidth="1"/>
+    <col min="10247" max="10247" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="10248" max="10248" width="5.5" style="55" customWidth="1"/>
+    <col min="10249" max="10249" width="8.625" style="55" customWidth="1"/>
+    <col min="10250" max="10495" width="9" style="55"/>
+    <col min="10496" max="10496" width="3.875" style="55" customWidth="1"/>
+    <col min="10497" max="10497" width="5.5" style="55" customWidth="1"/>
+    <col min="10498" max="10498" width="9" style="55"/>
+    <col min="10499" max="10499" width="4.875" style="55" customWidth="1"/>
+    <col min="10500" max="10500" width="11.75" style="55" customWidth="1"/>
+    <col min="10501" max="10501" width="14.375" style="55" customWidth="1"/>
+    <col min="10502" max="10502" width="52.625" style="55" customWidth="1"/>
+    <col min="10503" max="10503" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="10504" max="10504" width="5.5" style="55" customWidth="1"/>
+    <col min="10505" max="10505" width="8.625" style="55" customWidth="1"/>
+    <col min="10506" max="10751" width="9" style="55"/>
+    <col min="10752" max="10752" width="3.875" style="55" customWidth="1"/>
+    <col min="10753" max="10753" width="5.5" style="55" customWidth="1"/>
+    <col min="10754" max="10754" width="9" style="55"/>
+    <col min="10755" max="10755" width="4.875" style="55" customWidth="1"/>
+    <col min="10756" max="10756" width="11.75" style="55" customWidth="1"/>
+    <col min="10757" max="10757" width="14.375" style="55" customWidth="1"/>
+    <col min="10758" max="10758" width="52.625" style="55" customWidth="1"/>
+    <col min="10759" max="10759" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="10760" max="10760" width="5.5" style="55" customWidth="1"/>
+    <col min="10761" max="10761" width="8.625" style="55" customWidth="1"/>
+    <col min="10762" max="11007" width="9" style="55"/>
+    <col min="11008" max="11008" width="3.875" style="55" customWidth="1"/>
+    <col min="11009" max="11009" width="5.5" style="55" customWidth="1"/>
+    <col min="11010" max="11010" width="9" style="55"/>
+    <col min="11011" max="11011" width="4.875" style="55" customWidth="1"/>
+    <col min="11012" max="11012" width="11.75" style="55" customWidth="1"/>
+    <col min="11013" max="11013" width="14.375" style="55" customWidth="1"/>
+    <col min="11014" max="11014" width="52.625" style="55" customWidth="1"/>
+    <col min="11015" max="11015" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="11016" max="11016" width="5.5" style="55" customWidth="1"/>
+    <col min="11017" max="11017" width="8.625" style="55" customWidth="1"/>
+    <col min="11018" max="11263" width="9" style="55"/>
+    <col min="11264" max="11264" width="3.875" style="55" customWidth="1"/>
+    <col min="11265" max="11265" width="5.5" style="55" customWidth="1"/>
+    <col min="11266" max="11266" width="9" style="55"/>
+    <col min="11267" max="11267" width="4.875" style="55" customWidth="1"/>
+    <col min="11268" max="11268" width="11.75" style="55" customWidth="1"/>
+    <col min="11269" max="11269" width="14.375" style="55" customWidth="1"/>
+    <col min="11270" max="11270" width="52.625" style="55" customWidth="1"/>
+    <col min="11271" max="11271" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="11272" max="11272" width="5.5" style="55" customWidth="1"/>
+    <col min="11273" max="11273" width="8.625" style="55" customWidth="1"/>
+    <col min="11274" max="11519" width="9" style="55"/>
+    <col min="11520" max="11520" width="3.875" style="55" customWidth="1"/>
+    <col min="11521" max="11521" width="5.5" style="55" customWidth="1"/>
+    <col min="11522" max="11522" width="9" style="55"/>
+    <col min="11523" max="11523" width="4.875" style="55" customWidth="1"/>
+    <col min="11524" max="11524" width="11.75" style="55" customWidth="1"/>
+    <col min="11525" max="11525" width="14.375" style="55" customWidth="1"/>
+    <col min="11526" max="11526" width="52.625" style="55" customWidth="1"/>
+    <col min="11527" max="11527" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="11528" max="11528" width="5.5" style="55" customWidth="1"/>
+    <col min="11529" max="11529" width="8.625" style="55" customWidth="1"/>
+    <col min="11530" max="11775" width="9" style="55"/>
+    <col min="11776" max="11776" width="3.875" style="55" customWidth="1"/>
+    <col min="11777" max="11777" width="5.5" style="55" customWidth="1"/>
+    <col min="11778" max="11778" width="9" style="55"/>
+    <col min="11779" max="11779" width="4.875" style="55" customWidth="1"/>
+    <col min="11780" max="11780" width="11.75" style="55" customWidth="1"/>
+    <col min="11781" max="11781" width="14.375" style="55" customWidth="1"/>
+    <col min="11782" max="11782" width="52.625" style="55" customWidth="1"/>
+    <col min="11783" max="11783" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="11784" max="11784" width="5.5" style="55" customWidth="1"/>
+    <col min="11785" max="11785" width="8.625" style="55" customWidth="1"/>
+    <col min="11786" max="12031" width="9" style="55"/>
+    <col min="12032" max="12032" width="3.875" style="55" customWidth="1"/>
+    <col min="12033" max="12033" width="5.5" style="55" customWidth="1"/>
+    <col min="12034" max="12034" width="9" style="55"/>
+    <col min="12035" max="12035" width="4.875" style="55" customWidth="1"/>
+    <col min="12036" max="12036" width="11.75" style="55" customWidth="1"/>
+    <col min="12037" max="12037" width="14.375" style="55" customWidth="1"/>
+    <col min="12038" max="12038" width="52.625" style="55" customWidth="1"/>
+    <col min="12039" max="12039" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="12040" max="12040" width="5.5" style="55" customWidth="1"/>
+    <col min="12041" max="12041" width="8.625" style="55" customWidth="1"/>
+    <col min="12042" max="12287" width="9" style="55"/>
+    <col min="12288" max="12288" width="3.875" style="55" customWidth="1"/>
+    <col min="12289" max="12289" width="5.5" style="55" customWidth="1"/>
+    <col min="12290" max="12290" width="9" style="55"/>
+    <col min="12291" max="12291" width="4.875" style="55" customWidth="1"/>
+    <col min="12292" max="12292" width="11.75" style="55" customWidth="1"/>
+    <col min="12293" max="12293" width="14.375" style="55" customWidth="1"/>
+    <col min="12294" max="12294" width="52.625" style="55" customWidth="1"/>
+    <col min="12295" max="12295" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="12296" max="12296" width="5.5" style="55" customWidth="1"/>
+    <col min="12297" max="12297" width="8.625" style="55" customWidth="1"/>
+    <col min="12298" max="12543" width="9" style="55"/>
+    <col min="12544" max="12544" width="3.875" style="55" customWidth="1"/>
+    <col min="12545" max="12545" width="5.5" style="55" customWidth="1"/>
+    <col min="12546" max="12546" width="9" style="55"/>
+    <col min="12547" max="12547" width="4.875" style="55" customWidth="1"/>
+    <col min="12548" max="12548" width="11.75" style="55" customWidth="1"/>
+    <col min="12549" max="12549" width="14.375" style="55" customWidth="1"/>
+    <col min="12550" max="12550" width="52.625" style="55" customWidth="1"/>
+    <col min="12551" max="12551" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="12552" max="12552" width="5.5" style="55" customWidth="1"/>
+    <col min="12553" max="12553" width="8.625" style="55" customWidth="1"/>
+    <col min="12554" max="12799" width="9" style="55"/>
+    <col min="12800" max="12800" width="3.875" style="55" customWidth="1"/>
+    <col min="12801" max="12801" width="5.5" style="55" customWidth="1"/>
+    <col min="12802" max="12802" width="9" style="55"/>
+    <col min="12803" max="12803" width="4.875" style="55" customWidth="1"/>
+    <col min="12804" max="12804" width="11.75" style="55" customWidth="1"/>
+    <col min="12805" max="12805" width="14.375" style="55" customWidth="1"/>
+    <col min="12806" max="12806" width="52.625" style="55" customWidth="1"/>
+    <col min="12807" max="12807" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="12808" max="12808" width="5.5" style="55" customWidth="1"/>
+    <col min="12809" max="12809" width="8.625" style="55" customWidth="1"/>
+    <col min="12810" max="13055" width="9" style="55"/>
+    <col min="13056" max="13056" width="3.875" style="55" customWidth="1"/>
+    <col min="13057" max="13057" width="5.5" style="55" customWidth="1"/>
+    <col min="13058" max="13058" width="9" style="55"/>
+    <col min="13059" max="13059" width="4.875" style="55" customWidth="1"/>
+    <col min="13060" max="13060" width="11.75" style="55" customWidth="1"/>
+    <col min="13061" max="13061" width="14.375" style="55" customWidth="1"/>
+    <col min="13062" max="13062" width="52.625" style="55" customWidth="1"/>
+    <col min="13063" max="13063" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="13064" max="13064" width="5.5" style="55" customWidth="1"/>
+    <col min="13065" max="13065" width="8.625" style="55" customWidth="1"/>
+    <col min="13066" max="13311" width="9" style="55"/>
+    <col min="13312" max="13312" width="3.875" style="55" customWidth="1"/>
+    <col min="13313" max="13313" width="5.5" style="55" customWidth="1"/>
+    <col min="13314" max="13314" width="9" style="55"/>
+    <col min="13315" max="13315" width="4.875" style="55" customWidth="1"/>
+    <col min="13316" max="13316" width="11.75" style="55" customWidth="1"/>
+    <col min="13317" max="13317" width="14.375" style="55" customWidth="1"/>
+    <col min="13318" max="13318" width="52.625" style="55" customWidth="1"/>
+    <col min="13319" max="13319" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="13320" max="13320" width="5.5" style="55" customWidth="1"/>
+    <col min="13321" max="13321" width="8.625" style="55" customWidth="1"/>
+    <col min="13322" max="13567" width="9" style="55"/>
+    <col min="13568" max="13568" width="3.875" style="55" customWidth="1"/>
+    <col min="13569" max="13569" width="5.5" style="55" customWidth="1"/>
+    <col min="13570" max="13570" width="9" style="55"/>
+    <col min="13571" max="13571" width="4.875" style="55" customWidth="1"/>
+    <col min="13572" max="13572" width="11.75" style="55" customWidth="1"/>
+    <col min="13573" max="13573" width="14.375" style="55" customWidth="1"/>
+    <col min="13574" max="13574" width="52.625" style="55" customWidth="1"/>
+    <col min="13575" max="13575" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="13576" max="13576" width="5.5" style="55" customWidth="1"/>
+    <col min="13577" max="13577" width="8.625" style="55" customWidth="1"/>
+    <col min="13578" max="13823" width="9" style="55"/>
+    <col min="13824" max="13824" width="3.875" style="55" customWidth="1"/>
+    <col min="13825" max="13825" width="5.5" style="55" customWidth="1"/>
+    <col min="13826" max="13826" width="9" style="55"/>
+    <col min="13827" max="13827" width="4.875" style="55" customWidth="1"/>
+    <col min="13828" max="13828" width="11.75" style="55" customWidth="1"/>
+    <col min="13829" max="13829" width="14.375" style="55" customWidth="1"/>
+    <col min="13830" max="13830" width="52.625" style="55" customWidth="1"/>
+    <col min="13831" max="13831" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="13832" max="13832" width="5.5" style="55" customWidth="1"/>
+    <col min="13833" max="13833" width="8.625" style="55" customWidth="1"/>
+    <col min="13834" max="14079" width="9" style="55"/>
+    <col min="14080" max="14080" width="3.875" style="55" customWidth="1"/>
+    <col min="14081" max="14081" width="5.5" style="55" customWidth="1"/>
+    <col min="14082" max="14082" width="9" style="55"/>
+    <col min="14083" max="14083" width="4.875" style="55" customWidth="1"/>
+    <col min="14084" max="14084" width="11.75" style="55" customWidth="1"/>
+    <col min="14085" max="14085" width="14.375" style="55" customWidth="1"/>
+    <col min="14086" max="14086" width="52.625" style="55" customWidth="1"/>
+    <col min="14087" max="14087" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="14088" max="14088" width="5.5" style="55" customWidth="1"/>
+    <col min="14089" max="14089" width="8.625" style="55" customWidth="1"/>
+    <col min="14090" max="14335" width="9" style="55"/>
+    <col min="14336" max="14336" width="3.875" style="55" customWidth="1"/>
+    <col min="14337" max="14337" width="5.5" style="55" customWidth="1"/>
+    <col min="14338" max="14338" width="9" style="55"/>
+    <col min="14339" max="14339" width="4.875" style="55" customWidth="1"/>
+    <col min="14340" max="14340" width="11.75" style="55" customWidth="1"/>
+    <col min="14341" max="14341" width="14.375" style="55" customWidth="1"/>
+    <col min="14342" max="14342" width="52.625" style="55" customWidth="1"/>
+    <col min="14343" max="14343" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="14344" max="14344" width="5.5" style="55" customWidth="1"/>
+    <col min="14345" max="14345" width="8.625" style="55" customWidth="1"/>
+    <col min="14346" max="14591" width="9" style="55"/>
+    <col min="14592" max="14592" width="3.875" style="55" customWidth="1"/>
+    <col min="14593" max="14593" width="5.5" style="55" customWidth="1"/>
+    <col min="14594" max="14594" width="9" style="55"/>
+    <col min="14595" max="14595" width="4.875" style="55" customWidth="1"/>
+    <col min="14596" max="14596" width="11.75" style="55" customWidth="1"/>
+    <col min="14597" max="14597" width="14.375" style="55" customWidth="1"/>
+    <col min="14598" max="14598" width="52.625" style="55" customWidth="1"/>
+    <col min="14599" max="14599" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="14600" max="14600" width="5.5" style="55" customWidth="1"/>
+    <col min="14601" max="14601" width="8.625" style="55" customWidth="1"/>
+    <col min="14602" max="14847" width="9" style="55"/>
+    <col min="14848" max="14848" width="3.875" style="55" customWidth="1"/>
+    <col min="14849" max="14849" width="5.5" style="55" customWidth="1"/>
+    <col min="14850" max="14850" width="9" style="55"/>
+    <col min="14851" max="14851" width="4.875" style="55" customWidth="1"/>
+    <col min="14852" max="14852" width="11.75" style="55" customWidth="1"/>
+    <col min="14853" max="14853" width="14.375" style="55" customWidth="1"/>
+    <col min="14854" max="14854" width="52.625" style="55" customWidth="1"/>
+    <col min="14855" max="14855" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="14856" max="14856" width="5.5" style="55" customWidth="1"/>
+    <col min="14857" max="14857" width="8.625" style="55" customWidth="1"/>
+    <col min="14858" max="15103" width="9" style="55"/>
+    <col min="15104" max="15104" width="3.875" style="55" customWidth="1"/>
+    <col min="15105" max="15105" width="5.5" style="55" customWidth="1"/>
+    <col min="15106" max="15106" width="9" style="55"/>
+    <col min="15107" max="15107" width="4.875" style="55" customWidth="1"/>
+    <col min="15108" max="15108" width="11.75" style="55" customWidth="1"/>
+    <col min="15109" max="15109" width="14.375" style="55" customWidth="1"/>
+    <col min="15110" max="15110" width="52.625" style="55" customWidth="1"/>
+    <col min="15111" max="15111" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="15112" max="15112" width="5.5" style="55" customWidth="1"/>
+    <col min="15113" max="15113" width="8.625" style="55" customWidth="1"/>
+    <col min="15114" max="15359" width="9" style="55"/>
+    <col min="15360" max="15360" width="3.875" style="55" customWidth="1"/>
+    <col min="15361" max="15361" width="5.5" style="55" customWidth="1"/>
+    <col min="15362" max="15362" width="9" style="55"/>
+    <col min="15363" max="15363" width="4.875" style="55" customWidth="1"/>
+    <col min="15364" max="15364" width="11.75" style="55" customWidth="1"/>
+    <col min="15365" max="15365" width="14.375" style="55" customWidth="1"/>
+    <col min="15366" max="15366" width="52.625" style="55" customWidth="1"/>
+    <col min="15367" max="15367" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="15368" max="15368" width="5.5" style="55" customWidth="1"/>
+    <col min="15369" max="15369" width="8.625" style="55" customWidth="1"/>
+    <col min="15370" max="15615" width="9" style="55"/>
+    <col min="15616" max="15616" width="3.875" style="55" customWidth="1"/>
+    <col min="15617" max="15617" width="5.5" style="55" customWidth="1"/>
+    <col min="15618" max="15618" width="9" style="55"/>
+    <col min="15619" max="15619" width="4.875" style="55" customWidth="1"/>
+    <col min="15620" max="15620" width="11.75" style="55" customWidth="1"/>
+    <col min="15621" max="15621" width="14.375" style="55" customWidth="1"/>
+    <col min="15622" max="15622" width="52.625" style="55" customWidth="1"/>
+    <col min="15623" max="15623" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="15624" max="15624" width="5.5" style="55" customWidth="1"/>
+    <col min="15625" max="15625" width="8.625" style="55" customWidth="1"/>
+    <col min="15626" max="15871" width="9" style="55"/>
+    <col min="15872" max="15872" width="3.875" style="55" customWidth="1"/>
+    <col min="15873" max="15873" width="5.5" style="55" customWidth="1"/>
+    <col min="15874" max="15874" width="9" style="55"/>
+    <col min="15875" max="15875" width="4.875" style="55" customWidth="1"/>
+    <col min="15876" max="15876" width="11.75" style="55" customWidth="1"/>
+    <col min="15877" max="15877" width="14.375" style="55" customWidth="1"/>
+    <col min="15878" max="15878" width="52.625" style="55" customWidth="1"/>
+    <col min="15879" max="15879" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="15880" max="15880" width="5.5" style="55" customWidth="1"/>
+    <col min="15881" max="15881" width="8.625" style="55" customWidth="1"/>
+    <col min="15882" max="16127" width="9" style="55"/>
+    <col min="16128" max="16128" width="3.875" style="55" customWidth="1"/>
+    <col min="16129" max="16129" width="5.5" style="55" customWidth="1"/>
+    <col min="16130" max="16130" width="9" style="55"/>
+    <col min="16131" max="16131" width="4.875" style="55" customWidth="1"/>
+    <col min="16132" max="16132" width="11.75" style="55" customWidth="1"/>
+    <col min="16133" max="16133" width="14.375" style="55" customWidth="1"/>
+    <col min="16134" max="16134" width="52.625" style="55" customWidth="1"/>
+    <col min="16135" max="16135" width="6.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="16136" max="16136" width="5.5" style="55" customWidth="1"/>
+    <col min="16137" max="16137" width="8.625" style="55" customWidth="1"/>
+    <col min="16138" max="16384" width="9" style="55"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24.75">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="53" t="s">
+        <v>216</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="55"/>
+      <c r="I1" s="55"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="56"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="55"/>
+      <c r="I2" s="55"/>
+    </row>
+    <row r="3" spans="1:9" s="57" customFormat="1">
+      <c r="A3" s="70" t="s">
+        <v>217</v>
+      </c>
+      <c r="B3" s="70" t="s">
+        <v>218</v>
+      </c>
+      <c r="C3" s="70" t="s">
         <v>219</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="74"/>
-      <c r="I1" s="74"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="75"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="74"/>
-      <c r="I2" s="74"/>
-    </row>
-    <row r="3" spans="1:9" s="76" customFormat="1">
-      <c r="A3" s="89" t="s">
+      <c r="D3" s="70" t="s">
         <v>220</v>
       </c>
-      <c r="B3" s="89" t="s">
+      <c r="E3" s="70"/>
+      <c r="F3" s="70" t="s">
         <v>221</v>
       </c>
-      <c r="C3" s="89" t="s">
+      <c r="G3" s="70" t="s">
         <v>222</v>
       </c>
-      <c r="D3" s="89" t="s">
+    </row>
+    <row r="4" spans="1:9" s="57" customFormat="1">
+      <c r="A4" s="70"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="58" t="s">
         <v>223</v>
       </c>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89" t="s">
+      <c r="E4" s="58" t="s">
         <v>224</v>
       </c>
-      <c r="G3" s="89" t="s">
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+    </row>
+    <row r="5" spans="1:9" s="62" customFormat="1">
+      <c r="A5" s="59">
+        <v>1</v>
+      </c>
+      <c r="B5" s="61">
+        <v>41547</v>
+      </c>
+      <c r="C5" s="59" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" s="76" customFormat="1">
-      <c r="A4" s="89"/>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="77" t="s">
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="59" t="s">
+        <v>230</v>
+      </c>
+      <c r="G5" s="59" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="64" customFormat="1">
+      <c r="A6" s="59">
+        <v>2</v>
+      </c>
+      <c r="B6" s="63">
+        <v>43949</v>
+      </c>
+      <c r="C6" s="59" t="s">
         <v>226</v>
       </c>
-      <c r="E4" s="77" t="s">
+      <c r="D6" s="60" t="s">
+        <v>232</v>
+      </c>
+      <c r="E6" s="60" t="s">
+        <v>233</v>
+      </c>
+      <c r="F6" s="59" t="s">
         <v>227</v>
       </c>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-    </row>
-    <row r="5" spans="1:9" s="81" customFormat="1">
-      <c r="A5" s="78">
-        <v>1</v>
-      </c>
-      <c r="B5" s="80">
-        <v>41547</v>
-      </c>
-      <c r="C5" s="78" t="s">
+      <c r="G6" s="59" t="s">
         <v>228</v>
       </c>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="78" t="s">
+    </row>
+    <row r="7" spans="1:9" s="64" customFormat="1">
+      <c r="A7" s="59">
+        <v>3</v>
+      </c>
+      <c r="B7" s="63">
+        <v>43970</v>
+      </c>
+      <c r="C7" s="59" t="s">
+        <v>226</v>
+      </c>
+      <c r="D7" s="60" t="s">
+        <v>232</v>
+      </c>
+      <c r="E7" s="60" t="s">
         <v>233</v>
       </c>
-      <c r="G5" s="78" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="83" customFormat="1">
-      <c r="A6" s="78">
-        <v>2</v>
-      </c>
-      <c r="B6" s="82">
-        <v>43949</v>
-      </c>
-      <c r="C6" s="78" t="s">
+      <c r="F7" s="59" t="s">
+        <v>235</v>
+      </c>
+      <c r="G7" s="59" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="64" customFormat="1">
+      <c r="A8" s="59">
+        <v>4</v>
+      </c>
+      <c r="B8" s="63">
+        <v>44754</v>
+      </c>
+      <c r="C8" s="59" t="s">
+        <v>226</v>
+      </c>
+      <c r="D8" s="60" t="s">
+        <v>237</v>
+      </c>
+      <c r="E8" s="60" t="s">
+        <v>128</v>
+      </c>
+      <c r="F8" s="59" t="s">
+        <v>240</v>
+      </c>
+      <c r="G8" s="59" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="64" customFormat="1" ht="28.5">
+      <c r="A9" s="59">
+        <v>5</v>
+      </c>
+      <c r="B9" s="63">
+        <v>44754</v>
+      </c>
+      <c r="C9" s="59" t="s">
+        <v>226</v>
+      </c>
+      <c r="D9" s="60" t="s">
+        <v>232</v>
+      </c>
+      <c r="E9" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="59" t="s">
+        <v>242</v>
+      </c>
+      <c r="G9" s="59" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="64" customFormat="1">
+      <c r="A10" s="55" t="s">
         <v>229</v>
       </c>
-      <c r="D6" s="79" t="s">
-        <v>235</v>
-      </c>
-      <c r="E6" s="79" t="s">
-        <v>236</v>
-      </c>
-      <c r="F6" s="78" t="s">
-        <v>230</v>
-      </c>
-      <c r="G6" s="78" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="83" customFormat="1">
-      <c r="A7" s="78">
-        <v>3</v>
-      </c>
-      <c r="B7" s="82">
-        <v>43970</v>
-      </c>
-      <c r="C7" s="78" t="s">
-        <v>229</v>
-      </c>
-      <c r="D7" s="79" t="s">
-        <v>235</v>
-      </c>
-      <c r="E7" s="79" t="s">
-        <v>236</v>
-      </c>
-      <c r="F7" s="78" t="s">
-        <v>238</v>
-      </c>
-      <c r="G7" s="78" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="83" customFormat="1">
-      <c r="A8" s="74" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="86" customFormat="1" ht="18.75">
-      <c r="A9" s="84"/>
-      <c r="B9" s="85"/>
-      <c r="C9" s="85"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="85"/>
-      <c r="I9" s="87"/>
+    </row>
+    <row r="11" spans="1:9" s="67" customFormat="1" ht="18.75">
+      <c r="A11" s="65"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="I11" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5346,13 +5086,13 @@
     <mergeCell ref="F3:F4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="G1:G2 G10:G65360">
+  <conditionalFormatting sqref="G1:G2 G12:G65362">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>"S"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.82677165354330717" bottom="0.86614173228346458" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="79" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="78" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;R&amp;10TISインテックグループ外秘</oddHeader>
     <oddFooter>&amp;L
@@ -5363,119 +5103,120 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59182785-6894-4709-A2E5-57E49270532F}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:J48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="16384" width="2.625" style="21"/>
+    <col min="1" max="16384" width="2.625" style="20"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="4" spans="2:4">
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="20" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="6" spans="2:4">
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="20" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="7" spans="2:4">
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="20" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="8" spans="2:4">
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="21" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="9" spans="2:4">
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="20" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="10" spans="2:4">
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="20" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="D12" s="20" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="D13" s="20" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="D14" s="20" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="D15" s="20" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="D16" s="20" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="12" spans="2:4">
-      <c r="D12" s="21" t="s">
+    <row r="18" spans="4:4">
+      <c r="D18" s="20" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4">
+      <c r="D19" s="20" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4">
+      <c r="D20" s="20" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="13" spans="2:4">
-      <c r="D13" s="21" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4">
-      <c r="D14" s="21" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4">
-      <c r="D15" s="21" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4">
-      <c r="D16" s="21" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="18" spans="4:4">
-      <c r="D18" s="21" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="19" spans="4:4">
-      <c r="D19" s="21" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="20" spans="4:4">
-      <c r="D20" s="21" t="s">
-        <v>169</v>
-      </c>
-    </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="21" t="s">
-        <v>171</v>
+      <c r="D21" s="20" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="43" spans="3:10">
-      <c r="C43" s="21" t="s">
+      <c r="C43" s="20" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="45" spans="3:10">
+      <c r="D45" s="20" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="45" spans="3:10">
-      <c r="D45" s="21" t="s">
+    <row r="47" spans="3:10">
+      <c r="F47" s="20" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="47" spans="3:10">
-      <c r="F47" s="21" t="s">
+      <c r="J47" s="20" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="48" spans="3:10">
+      <c r="F48" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="J47" s="21" t="s">
+      <c r="J48" s="20" t="s">
         <v>188</v>
-      </c>
-    </row>
-    <row r="48" spans="3:10">
-      <c r="F48" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="J48" s="21" t="s">
-        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -5495,7 +5236,7 @@
   <dimension ref="A1:L59"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="8" topLeftCell="E34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="8" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
       <selection pane="bottomRight"/>
@@ -5520,25 +5261,25 @@
   <sheetData>
     <row r="1" spans="1:12" ht="16.5">
       <c r="A1" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B1" s="4"/>
     </row>
     <row r="2" spans="1:12" ht="16.5">
       <c r="A2" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:12" ht="16.5">
       <c r="A3" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:12" ht="16.5">
       <c r="A4" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B4" s="4"/>
     </row>
@@ -5549,96 +5290,96 @@
     <row r="6" spans="1:12" ht="17.25" thickBot="1">
       <c r="A6" s="1"/>
       <c r="B6" s="4"/>
-      <c r="F6" s="27" t="s">
-        <v>182</v>
+      <c r="F6" s="24" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="B7" s="90" t="s">
+      <c r="B7" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="92" t="s">
+      <c r="C7" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="92"/>
-      <c r="E7" s="119" t="s">
+      <c r="D7" s="110"/>
+      <c r="E7" s="95" t="s">
         <v>160</v>
       </c>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="117" t="s">
+      <c r="F7" s="95"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="95"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="93" t="s">
         <v>156</v>
       </c>
-      <c r="K7" s="117" t="s">
+      <c r="K7" s="93" t="s">
         <v>159</v>
       </c>
-      <c r="L7" s="132" t="s">
+      <c r="L7" s="105" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="12.75" thickBot="1">
-      <c r="B8" s="91"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="37" t="s">
+      <c r="B8" s="109"/>
+      <c r="C8" s="111"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="37" t="s">
+      <c r="F8" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37" t="s">
+      <c r="G8" s="33"/>
+      <c r="H8" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="37" t="s">
+      <c r="I8" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="J8" s="118"/>
-      <c r="K8" s="118"/>
-      <c r="L8" s="133"/>
+      <c r="J8" s="94"/>
+      <c r="K8" s="94"/>
+      <c r="L8" s="106"/>
     </row>
     <row r="9" spans="1:12" ht="57" customHeight="1">
-      <c r="B9" s="94">
+      <c r="B9" s="79">
         <v>1</v>
       </c>
-      <c r="C9" s="109" t="s">
+      <c r="C9" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="109"/>
-      <c r="E9" s="128" t="s">
+      <c r="D9" s="74"/>
+      <c r="E9" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="130" t="s">
+      <c r="F9" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="29" t="s">
+      <c r="H9" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="30" t="s">
+      <c r="I9" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="31" t="s">
+      <c r="J9" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="K9" s="32" t="s">
+      <c r="K9" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="L9" s="100" t="s">
+      <c r="L9" s="113" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="57" customHeight="1">
-      <c r="B10" s="96"/>
-      <c r="C10" s="111"/>
-      <c r="D10" s="111"/>
-      <c r="E10" s="129"/>
-      <c r="F10" s="131"/>
-      <c r="G10" s="26" t="s">
+      <c r="B10" s="82"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="23" t="s">
         <v>16</v>
       </c>
       <c r="H10" s="5" t="s">
@@ -5647,43 +5388,43 @@
       <c r="I10" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J10" s="13" t="s">
+      <c r="J10" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="K10" s="10" t="s">
+      <c r="K10" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="L10" s="101"/>
+      <c r="L10" s="114"/>
     </row>
     <row r="11" spans="1:12" ht="57" customHeight="1">
-      <c r="B11" s="96"/>
-      <c r="C11" s="111"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="24" t="s">
+      <c r="B11" s="82"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="26"/>
+      <c r="G11" s="23"/>
       <c r="H11" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="J11" s="13" t="s">
+      <c r="J11" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="K11" s="10" t="s">
+      <c r="K11" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="L11" s="101"/>
+      <c r="L11" s="114"/>
     </row>
     <row r="12" spans="1:12" ht="36">
-      <c r="B12" s="96"/>
-      <c r="C12" s="111"/>
-      <c r="D12" s="111"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="75"/>
       <c r="E12" s="7" t="s">
         <v>3</v>
       </c>
@@ -5697,327 +5438,327 @@
       <c r="I12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J12" s="13" t="s">
+      <c r="J12" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="K12" s="10" t="s">
+      <c r="K12" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="L12" s="101"/>
+      <c r="L12" s="114"/>
     </row>
     <row r="13" spans="1:12" ht="36.75" thickBot="1">
-      <c r="B13" s="97"/>
-      <c r="C13" s="112"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="33" t="s">
+      <c r="B13" s="80"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="34" t="s">
+      <c r="F13" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="34"/>
-      <c r="H13" s="35" t="s">
+      <c r="G13" s="31"/>
+      <c r="H13" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="I13" s="33" t="s">
+      <c r="I13" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="J13" s="35" t="s">
+      <c r="J13" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="K13" s="36" t="s">
-        <v>176</v>
-      </c>
-      <c r="L13" s="102"/>
+      <c r="K13" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="L13" s="115"/>
     </row>
     <row r="14" spans="1:12" ht="36">
-      <c r="B14" s="94">
+      <c r="B14" s="79">
         <v>2</v>
       </c>
-      <c r="C14" s="109" t="s">
+      <c r="C14" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="109"/>
-      <c r="E14" s="38" t="s">
+      <c r="D14" s="74"/>
+      <c r="E14" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="28" t="s">
+      <c r="F14" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="28" t="s">
+      <c r="G14" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="29" t="s">
+      <c r="H14" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="I14" s="30" t="s">
+      <c r="I14" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="J14" s="31" t="s">
+      <c r="J14" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="K14" s="32" t="s">
+      <c r="K14" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="L14" s="98" t="s">
+      <c r="L14" s="84" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="36.75" thickBot="1">
-      <c r="B15" s="114"/>
-      <c r="C15" s="113"/>
-      <c r="D15" s="113"/>
-      <c r="E15" s="45" t="s">
+      <c r="B15" s="83"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="47" t="s">
+      <c r="F15" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="47" t="s">
+      <c r="G15" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="48" t="s">
+      <c r="H15" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="I15" s="45" t="s">
+      <c r="I15" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="J15" s="48" t="s">
+      <c r="J15" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="K15" s="49" t="s">
-        <v>175</v>
-      </c>
-      <c r="L15" s="99"/>
+      <c r="K15" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="L15" s="92"/>
     </row>
     <row r="16" spans="1:12" ht="27" customHeight="1">
-      <c r="B16" s="94">
+      <c r="B16" s="79">
         <v>3</v>
       </c>
-      <c r="C16" s="109" t="s">
+      <c r="C16" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="109"/>
-      <c r="E16" s="106" t="s">
+      <c r="D16" s="74"/>
+      <c r="E16" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="103" t="s">
+      <c r="F16" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="103" t="s">
+      <c r="G16" s="116" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="126" t="s">
+      <c r="H16" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="125" t="s">
+      <c r="I16" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="J16" s="65" t="s">
-        <v>190</v>
-      </c>
-      <c r="K16" s="121" t="s">
+      <c r="J16" s="49" t="s">
+        <v>189</v>
+      </c>
+      <c r="K16" s="97" t="s">
         <v>127</v>
       </c>
-      <c r="L16" s="98" t="s">
-        <v>183</v>
+      <c r="L16" s="84" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="2:12" ht="27" customHeight="1">
-      <c r="B17" s="95"/>
-      <c r="C17" s="110"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="107"/>
-      <c r="F17" s="105"/>
+      <c r="B17" s="112"/>
+      <c r="C17" s="121"/>
+      <c r="D17" s="121"/>
+      <c r="E17" s="119"/>
+      <c r="F17" s="117"/>
       <c r="G17" s="104"/>
-      <c r="H17" s="124"/>
-      <c r="I17" s="122"/>
-      <c r="J17" s="64" t="s">
+      <c r="H17" s="100"/>
+      <c r="I17" s="98"/>
+      <c r="J17" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="K17" s="120"/>
-      <c r="L17" s="134"/>
+      <c r="K17" s="96"/>
+      <c r="L17" s="107"/>
     </row>
     <row r="18" spans="2:12" ht="27" customHeight="1">
-      <c r="B18" s="96"/>
-      <c r="C18" s="111"/>
-      <c r="D18" s="111"/>
-      <c r="E18" s="107"/>
-      <c r="F18" s="105"/>
-      <c r="G18" s="127" t="s">
+      <c r="B18" s="82"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="119"/>
+      <c r="F18" s="117"/>
+      <c r="G18" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="123" t="s">
+      <c r="H18" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="I18" s="122" t="s">
+      <c r="I18" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="J18" s="63" t="s">
-        <v>190</v>
-      </c>
-      <c r="K18" s="120" t="s">
+      <c r="J18" s="47" t="s">
+        <v>189</v>
+      </c>
+      <c r="K18" s="96" t="s">
         <v>127</v>
       </c>
-      <c r="L18" s="115"/>
+      <c r="L18" s="85"/>
     </row>
     <row r="19" spans="2:12" ht="27" customHeight="1">
-      <c r="B19" s="96"/>
-      <c r="C19" s="111"/>
-      <c r="D19" s="111"/>
-      <c r="E19" s="108"/>
+      <c r="B19" s="82"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="120"/>
       <c r="F19" s="104"/>
       <c r="G19" s="104"/>
-      <c r="H19" s="124"/>
-      <c r="I19" s="122"/>
-      <c r="J19" s="64" t="s">
+      <c r="H19" s="100"/>
+      <c r="I19" s="98"/>
+      <c r="J19" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="K19" s="120"/>
-      <c r="L19" s="115"/>
+      <c r="K19" s="96"/>
+      <c r="L19" s="85"/>
     </row>
     <row r="20" spans="2:12" ht="36">
-      <c r="B20" s="96"/>
-      <c r="C20" s="111"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="54" t="s">
+      <c r="B20" s="82"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F20" s="56" t="s">
+      <c r="F20" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="56"/>
-      <c r="H20" s="10" t="s">
+      <c r="G20" s="8"/>
+      <c r="H20" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="I20" s="61" t="s">
+      <c r="I20" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="J20" s="62" t="s">
+      <c r="J20" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="K20" s="60" t="s">
-        <v>175</v>
-      </c>
-      <c r="L20" s="115"/>
+      <c r="K20" s="45" t="s">
+        <v>174</v>
+      </c>
+      <c r="L20" s="85"/>
     </row>
     <row r="21" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B21" s="97"/>
-      <c r="C21" s="112"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="55" t="s">
+      <c r="B21" s="80"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="F21" s="57" t="s">
+      <c r="F21" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="G21" s="57"/>
-      <c r="H21" s="36" t="s">
+      <c r="G21" s="31"/>
+      <c r="H21" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="I21" s="55" t="s">
+      <c r="I21" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="J21" s="41" t="s">
+      <c r="J21" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="K21" s="36" t="s">
+      <c r="K21" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="L21" s="116"/>
+      <c r="L21" s="86"/>
     </row>
     <row r="22" spans="2:12" ht="36">
-      <c r="B22" s="94">
+      <c r="B22" s="79">
         <v>4</v>
       </c>
-      <c r="C22" s="109" t="s">
+      <c r="C22" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="109"/>
-      <c r="E22" s="38" t="s">
+      <c r="D22" s="74"/>
+      <c r="E22" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="28" t="s">
+      <c r="F22" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="G22" s="28"/>
-      <c r="H22" s="29" t="s">
+      <c r="G22" s="25"/>
+      <c r="H22" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="I22" s="30" t="s">
+      <c r="I22" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="J22" s="58" t="s">
+      <c r="J22" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="K22" s="32" t="s">
+      <c r="K22" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="L22" s="98" t="s">
+      <c r="L22" s="84" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="23" spans="2:12" ht="36">
-      <c r="B23" s="96"/>
-      <c r="C23" s="111"/>
-      <c r="D23" s="111"/>
-      <c r="E23" s="24" t="s">
+      <c r="B23" s="82"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="26" t="s">
+      <c r="F23" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="G23" s="26"/>
+      <c r="G23" s="23"/>
       <c r="H23" s="5" t="s">
         <v>55</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="J23" s="59" t="s">
+      <c r="J23" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="K23" s="10" t="s">
+      <c r="K23" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="L23" s="115"/>
+      <c r="L23" s="85"/>
     </row>
     <row r="24" spans="2:12" ht="36">
-      <c r="B24" s="96"/>
-      <c r="C24" s="111"/>
-      <c r="D24" s="111"/>
-      <c r="E24" s="24" t="s">
+      <c r="B24" s="82"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="26" t="s">
+      <c r="F24" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="G24" s="26"/>
+      <c r="G24" s="23"/>
       <c r="H24" s="5" t="s">
         <v>47</v>
       </c>
       <c r="I24" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="J24" s="59" t="s">
+      <c r="J24" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="K24" s="10" t="s">
+      <c r="K24" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="L24" s="115"/>
+      <c r="L24" s="85"/>
     </row>
     <row r="25" spans="2:12">
-      <c r="B25" s="96"/>
-      <c r="C25" s="111"/>
-      <c r="D25" s="111"/>
-      <c r="E25" s="129" t="s">
+      <c r="B25" s="82"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="F25" s="131" t="s">
+      <c r="F25" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="G25" s="26" t="s">
+      <c r="G25" s="23" t="s">
         <v>16</v>
       </c>
       <c r="H25" s="5" t="s">
@@ -6026,21 +5767,21 @@
       <c r="I25" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="J25" s="13" t="s">
+      <c r="J25" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="K25" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="L25" s="115"/>
+      <c r="K25" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="L25" s="85"/>
     </row>
     <row r="26" spans="2:12" ht="24">
-      <c r="B26" s="96"/>
-      <c r="C26" s="111"/>
-      <c r="D26" s="111"/>
-      <c r="E26" s="129"/>
-      <c r="F26" s="131"/>
-      <c r="G26" s="26" t="s">
+      <c r="B26" s="82"/>
+      <c r="C26" s="75"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="23" t="s">
         <v>16</v>
       </c>
       <c r="H26" s="5" t="s">
@@ -6049,106 +5790,106 @@
       <c r="I26" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="J26" s="135" t="s">
-        <v>178</v>
-      </c>
-      <c r="K26" s="136"/>
-      <c r="L26" s="115"/>
+      <c r="J26" s="87" t="s">
+        <v>177</v>
+      </c>
+      <c r="K26" s="88"/>
+      <c r="L26" s="85"/>
     </row>
     <row r="27" spans="2:12" ht="36">
-      <c r="B27" s="96"/>
-      <c r="C27" s="111"/>
-      <c r="D27" s="111"/>
-      <c r="E27" s="23" t="s">
+      <c r="B27" s="82"/>
+      <c r="C27" s="75"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F27" s="25" t="s">
+      <c r="F27" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G27" s="25"/>
-      <c r="H27" s="10" t="s">
+      <c r="G27" s="8"/>
+      <c r="H27" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="I27" s="23" t="s">
+      <c r="I27" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="J27" s="59" t="s">
+      <c r="J27" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="K27" s="10" t="s">
+      <c r="K27" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="L27" s="115"/>
+      <c r="L27" s="85"/>
     </row>
     <row r="28" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B28" s="97"/>
-      <c r="C28" s="112"/>
-      <c r="D28" s="112"/>
-      <c r="E28" s="39" t="s">
+      <c r="B28" s="80"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="F28" s="40" t="s">
+      <c r="F28" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="G28" s="40"/>
-      <c r="H28" s="36" t="s">
+      <c r="G28" s="31"/>
+      <c r="H28" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="I28" s="39" t="s">
+      <c r="I28" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="J28" s="66" t="s">
+      <c r="J28" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="K28" s="36" t="s">
+      <c r="K28" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="L28" s="116"/>
+      <c r="L28" s="86"/>
     </row>
     <row r="29" spans="2:12" ht="36">
-      <c r="B29" s="94">
+      <c r="B29" s="79">
         <v>5</v>
       </c>
-      <c r="C29" s="137" t="s">
+      <c r="C29" s="89" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="109" t="s">
+      <c r="D29" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="E29" s="38" t="s">
+      <c r="E29" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="F29" s="28" t="s">
+      <c r="F29" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="G29" s="28"/>
-      <c r="H29" s="29" t="s">
+      <c r="G29" s="25"/>
+      <c r="H29" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="I29" s="30" t="s">
+      <c r="I29" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="J29" s="58" t="s">
+      <c r="J29" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="K29" s="32" t="s">
+      <c r="K29" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="L29" s="98" t="s">
-        <v>215</v>
+      <c r="L29" s="84" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="30" spans="2:12" ht="36">
-      <c r="B30" s="96"/>
-      <c r="C30" s="138"/>
-      <c r="D30" s="111"/>
-      <c r="E30" s="24" t="s">
+      <c r="B30" s="82"/>
+      <c r="C30" s="90"/>
+      <c r="D30" s="75"/>
+      <c r="E30" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F30" s="26" t="s">
+      <c r="F30" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="26"/>
+      <c r="G30" s="23"/>
       <c r="H30" s="5" t="s">
         <v>65</v>
       </c>
@@ -6158,22 +5899,22 @@
       <c r="J30" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="K30" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="L30" s="115"/>
+      <c r="K30" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="L30" s="85"/>
     </row>
     <row r="31" spans="2:12" ht="36">
-      <c r="B31" s="96"/>
-      <c r="C31" s="138"/>
-      <c r="D31" s="111"/>
-      <c r="E31" s="24" t="s">
+      <c r="B31" s="82"/>
+      <c r="C31" s="90"/>
+      <c r="D31" s="75"/>
+      <c r="E31" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F31" s="26" t="s">
+      <c r="F31" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="G31" s="26"/>
+      <c r="G31" s="23"/>
       <c r="H31" s="5" t="s">
         <v>66</v>
       </c>
@@ -6183,22 +5924,22 @@
       <c r="J31" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="K31" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="L31" s="115"/>
+      <c r="K31" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="L31" s="85"/>
     </row>
     <row r="32" spans="2:12" ht="36">
-      <c r="B32" s="96"/>
-      <c r="C32" s="138"/>
-      <c r="D32" s="111"/>
-      <c r="E32" s="24" t="s">
+      <c r="B32" s="82"/>
+      <c r="C32" s="90"/>
+      <c r="D32" s="75"/>
+      <c r="E32" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F32" s="26" t="s">
+      <c r="F32" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="G32" s="26"/>
+      <c r="G32" s="23"/>
       <c r="H32" s="5" t="s">
         <v>68</v>
       </c>
@@ -6208,76 +5949,76 @@
       <c r="J32" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="K32" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="L32" s="115"/>
+      <c r="K32" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="L32" s="85"/>
     </row>
     <row r="33" spans="2:12" ht="36">
-      <c r="B33" s="96"/>
-      <c r="C33" s="138"/>
-      <c r="D33" s="111"/>
-      <c r="E33" s="23" t="s">
+      <c r="B33" s="82"/>
+      <c r="C33" s="90"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F33" s="25" t="s">
+      <c r="F33" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G33" s="25"/>
+      <c r="G33" s="8"/>
       <c r="H33" s="9" t="s">
         <v>70</v>
       </c>
       <c r="I33" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="J33" s="13" t="s">
+      <c r="J33" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="K33" s="10" t="s">
+      <c r="K33" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="L33" s="115"/>
+      <c r="L33" s="85"/>
     </row>
     <row r="34" spans="2:12" ht="36">
-      <c r="B34" s="96"/>
-      <c r="C34" s="138"/>
-      <c r="D34" s="111" t="s">
+      <c r="B34" s="82"/>
+      <c r="C34" s="90"/>
+      <c r="D34" s="75" t="s">
         <v>124</v>
       </c>
-      <c r="E34" s="24" t="s">
+      <c r="E34" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F34" s="26" t="s">
+      <c r="F34" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="G34" s="26"/>
+      <c r="G34" s="23"/>
       <c r="H34" s="5" t="s">
         <v>72</v>
       </c>
       <c r="I34" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="J34" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="K34" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="L34" s="115" t="s">
-        <v>214</v>
+      <c r="J34" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="K34" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="L34" s="85" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="35" spans="2:12" ht="36">
-      <c r="B35" s="96"/>
-      <c r="C35" s="138"/>
-      <c r="D35" s="111"/>
-      <c r="E35" s="23" t="s">
+      <c r="B35" s="82"/>
+      <c r="C35" s="90"/>
+      <c r="D35" s="75"/>
+      <c r="E35" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F35" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G35" s="25"/>
+      <c r="G35" s="8"/>
       <c r="H35" s="9" t="s">
         <v>75</v>
       </c>
@@ -6287,51 +6028,51 @@
       <c r="J35" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="K35" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="L35" s="115"/>
+      <c r="K35" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="L35" s="85"/>
     </row>
     <row r="36" spans="2:12" ht="36">
-      <c r="B36" s="96"/>
-      <c r="C36" s="138"/>
-      <c r="D36" s="111" t="s">
+      <c r="B36" s="82"/>
+      <c r="C36" s="90"/>
+      <c r="D36" s="75" t="s">
         <v>123</v>
       </c>
-      <c r="E36" s="24" t="s">
+      <c r="E36" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F36" s="26" t="s">
+      <c r="F36" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="G36" s="26"/>
+      <c r="G36" s="23"/>
       <c r="H36" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I36" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="J36" s="13" t="s">
+      <c r="J36" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="K36" s="10" t="s">
+      <c r="K36" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="L36" s="115" t="s">
-        <v>172</v>
+      <c r="L36" s="85" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="37" spans="2:12" ht="36">
-      <c r="B37" s="96"/>
-      <c r="C37" s="138"/>
-      <c r="D37" s="111"/>
-      <c r="E37" s="23" t="s">
+      <c r="B37" s="82"/>
+      <c r="C37" s="90"/>
+      <c r="D37" s="75"/>
+      <c r="E37" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F37" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="25"/>
+      <c r="G37" s="8"/>
       <c r="H37" s="9" t="s">
         <v>79</v>
       </c>
@@ -6341,176 +6082,176 @@
       <c r="J37" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="K37" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="L37" s="115"/>
+      <c r="K37" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="L37" s="85"/>
     </row>
     <row r="38" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B38" s="97"/>
-      <c r="C38" s="139"/>
-      <c r="D38" s="112"/>
-      <c r="E38" s="39" t="s">
+      <c r="B38" s="80"/>
+      <c r="C38" s="91"/>
+      <c r="D38" s="76"/>
+      <c r="E38" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="F38" s="34" t="s">
+      <c r="F38" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="G38" s="40"/>
-      <c r="H38" s="35" t="s">
+      <c r="G38" s="31"/>
+      <c r="H38" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="I38" s="33" t="s">
+      <c r="I38" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="J38" s="41" t="s">
+      <c r="J38" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="K38" s="36" t="s">
+      <c r="K38" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="L38" s="116"/>
+      <c r="L38" s="86"/>
     </row>
     <row r="39" spans="2:12" ht="48">
-      <c r="B39" s="94">
+      <c r="B39" s="79">
         <v>6</v>
       </c>
-      <c r="C39" s="109" t="s">
+      <c r="C39" s="74" t="s">
         <v>80</v>
       </c>
-      <c r="D39" s="109"/>
-      <c r="E39" s="128" t="s">
+      <c r="D39" s="74"/>
+      <c r="E39" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="F39" s="130" t="s">
+      <c r="F39" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="G39" s="28" t="s">
+      <c r="G39" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="H39" s="42" t="s">
+      <c r="H39" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="I39" s="30" t="s">
+      <c r="I39" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="J39" s="58" t="s">
-        <v>237</v>
-      </c>
-      <c r="K39" s="32" t="s">
+      <c r="J39" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="K39" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="L39" s="98" t="s">
-        <v>239</v>
+      <c r="L39" s="84" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="40" spans="2:12" ht="36">
-      <c r="B40" s="96"/>
-      <c r="C40" s="111"/>
-      <c r="D40" s="111"/>
-      <c r="E40" s="129"/>
-      <c r="F40" s="131"/>
-      <c r="G40" s="26" t="s">
+      <c r="B40" s="82"/>
+      <c r="C40" s="75"/>
+      <c r="D40" s="75"/>
+      <c r="E40" s="78"/>
+      <c r="F40" s="73"/>
+      <c r="G40" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="H40" s="11" t="s">
+      <c r="H40" s="10" t="s">
         <v>83</v>
       </c>
       <c r="I40" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="J40" s="135" t="s">
-        <v>180</v>
-      </c>
-      <c r="K40" s="136"/>
-      <c r="L40" s="115"/>
+      <c r="J40" s="87" t="s">
+        <v>179</v>
+      </c>
+      <c r="K40" s="88"/>
+      <c r="L40" s="85"/>
     </row>
     <row r="41" spans="2:12" ht="24">
-      <c r="B41" s="96"/>
-      <c r="C41" s="111"/>
-      <c r="D41" s="111"/>
-      <c r="E41" s="129"/>
-      <c r="F41" s="131"/>
-      <c r="G41" s="26" t="s">
+      <c r="B41" s="82"/>
+      <c r="C41" s="75"/>
+      <c r="D41" s="75"/>
+      <c r="E41" s="78"/>
+      <c r="F41" s="73"/>
+      <c r="G41" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="H41" s="11" t="s">
+      <c r="H41" s="10" t="s">
         <v>85</v>
       </c>
       <c r="I41" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="J41" s="135" t="s">
-        <v>180</v>
-      </c>
-      <c r="K41" s="136"/>
-      <c r="L41" s="115"/>
+      <c r="J41" s="87" t="s">
+        <v>179</v>
+      </c>
+      <c r="K41" s="88"/>
+      <c r="L41" s="85"/>
     </row>
     <row r="42" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B42" s="97"/>
-      <c r="C42" s="112"/>
-      <c r="D42" s="112"/>
-      <c r="E42" s="39" t="s">
+      <c r="B42" s="80"/>
+      <c r="C42" s="76"/>
+      <c r="D42" s="76"/>
+      <c r="E42" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="F42" s="40" t="s">
+      <c r="F42" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="G42" s="40"/>
-      <c r="H42" s="43" t="s">
+      <c r="G42" s="31"/>
+      <c r="H42" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I42" s="39" t="s">
+      <c r="I42" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="J42" s="35" t="s">
+      <c r="J42" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="K42" s="36" t="s">
-        <v>175</v>
-      </c>
-      <c r="L42" s="116"/>
+      <c r="K42" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="L42" s="86"/>
     </row>
     <row r="43" spans="2:12" ht="24">
-      <c r="B43" s="94">
+      <c r="B43" s="79">
         <v>7</v>
       </c>
-      <c r="C43" s="109" t="s">
+      <c r="C43" s="74" t="s">
         <v>89</v>
       </c>
-      <c r="D43" s="109"/>
-      <c r="E43" s="128" t="s">
+      <c r="D43" s="74"/>
+      <c r="E43" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="F43" s="130" t="s">
+      <c r="F43" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="G43" s="28" t="s">
+      <c r="G43" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="H43" s="29" t="s">
+      <c r="H43" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="I43" s="30" t="s">
+      <c r="I43" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="J43" s="44" t="s">
+      <c r="J43" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="K43" s="32" t="s">
+      <c r="K43" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="L43" s="98" t="s">
-        <v>173</v>
+      <c r="L43" s="84" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="44" spans="2:12" ht="36">
-      <c r="B44" s="96"/>
-      <c r="C44" s="111"/>
-      <c r="D44" s="111"/>
-      <c r="E44" s="129"/>
-      <c r="F44" s="131"/>
-      <c r="G44" s="26" t="s">
+      <c r="B44" s="82"/>
+      <c r="C44" s="75"/>
+      <c r="D44" s="75"/>
+      <c r="E44" s="78"/>
+      <c r="F44" s="73"/>
+      <c r="G44" s="23" t="s">
         <v>16</v>
       </c>
       <c r="H44" s="5" t="s">
@@ -6519,77 +6260,77 @@
       <c r="I44" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="J44" s="135" t="s">
-        <v>179</v>
-      </c>
-      <c r="K44" s="136"/>
-      <c r="L44" s="115"/>
+      <c r="J44" s="87" t="s">
+        <v>178</v>
+      </c>
+      <c r="K44" s="88"/>
+      <c r="L44" s="85"/>
     </row>
     <row r="45" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B45" s="97"/>
-      <c r="C45" s="112"/>
-      <c r="D45" s="112"/>
-      <c r="E45" s="39" t="s">
+      <c r="B45" s="80"/>
+      <c r="C45" s="76"/>
+      <c r="D45" s="76"/>
+      <c r="E45" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="F45" s="40" t="s">
+      <c r="F45" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="G45" s="40"/>
-      <c r="H45" s="35" t="s">
+      <c r="G45" s="31"/>
+      <c r="H45" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="I45" s="39" t="s">
+      <c r="I45" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="J45" s="35" t="s">
+      <c r="J45" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="K45" s="36" t="s">
-        <v>175</v>
-      </c>
-      <c r="L45" s="116"/>
+      <c r="K45" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="L45" s="86"/>
     </row>
     <row r="46" spans="2:12" ht="24">
-      <c r="B46" s="94">
+      <c r="B46" s="79">
         <v>8</v>
       </c>
-      <c r="C46" s="109" t="s">
+      <c r="C46" s="74" t="s">
         <v>105</v>
       </c>
-      <c r="D46" s="109"/>
-      <c r="E46" s="128" t="s">
+      <c r="D46" s="74"/>
+      <c r="E46" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="F46" s="130" t="s">
+      <c r="F46" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="G46" s="28" t="s">
+      <c r="G46" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="H46" s="29" t="s">
+      <c r="H46" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="I46" s="30" t="s">
+      <c r="I46" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="J46" s="31" t="s">
+      <c r="J46" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="K46" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="L46" s="98" t="s">
-        <v>216</v>
+      <c r="K46" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="L46" s="84" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="47" spans="2:12" ht="36">
-      <c r="B47" s="96"/>
-      <c r="C47" s="111"/>
-      <c r="D47" s="111"/>
-      <c r="E47" s="129"/>
-      <c r="F47" s="131"/>
-      <c r="G47" s="26" t="s">
+      <c r="B47" s="82"/>
+      <c r="C47" s="75"/>
+      <c r="D47" s="75"/>
+      <c r="E47" s="78"/>
+      <c r="F47" s="73"/>
+      <c r="G47" s="23" t="s">
         <v>0</v>
       </c>
       <c r="H47" s="5" t="s">
@@ -6598,25 +6339,25 @@
       <c r="I47" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="J47" s="13" t="s">
+      <c r="J47" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="K47" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="L47" s="115"/>
+      <c r="K47" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="L47" s="85"/>
     </row>
     <row r="48" spans="2:12" ht="36">
-      <c r="B48" s="96"/>
-      <c r="C48" s="111"/>
-      <c r="D48" s="111"/>
-      <c r="E48" s="24" t="s">
+      <c r="B48" s="82"/>
+      <c r="C48" s="75"/>
+      <c r="D48" s="75"/>
+      <c r="E48" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F48" s="26" t="s">
+      <c r="F48" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="G48" s="26"/>
+      <c r="G48" s="23"/>
       <c r="H48" s="5" t="s">
         <v>100</v>
       </c>
@@ -6626,76 +6367,76 @@
       <c r="J48" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="K48" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="L48" s="115"/>
+      <c r="K48" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="L48" s="85"/>
     </row>
     <row r="49" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B49" s="114"/>
-      <c r="C49" s="113"/>
-      <c r="D49" s="113"/>
-      <c r="E49" s="45" t="s">
+      <c r="B49" s="83"/>
+      <c r="C49" s="81"/>
+      <c r="D49" s="81"/>
+      <c r="E49" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="F49" s="46" t="s">
+      <c r="F49" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="G49" s="47"/>
-      <c r="H49" s="48" t="s">
+      <c r="G49" s="39"/>
+      <c r="H49" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="I49" s="45" t="s">
+      <c r="I49" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="J49" s="48" t="s">
+      <c r="J49" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="K49" s="49" t="s">
-        <v>175</v>
-      </c>
-      <c r="L49" s="99"/>
+      <c r="K49" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="L49" s="92"/>
     </row>
     <row r="50" spans="2:12" ht="36">
-      <c r="B50" s="94">
+      <c r="B50" s="79">
         <v>9</v>
       </c>
-      <c r="C50" s="109" t="s">
+      <c r="C50" s="74" t="s">
         <v>107</v>
       </c>
-      <c r="D50" s="109"/>
-      <c r="E50" s="128" t="s">
+      <c r="D50" s="74"/>
+      <c r="E50" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="F50" s="130" t="s">
+      <c r="F50" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="G50" s="28" t="s">
+      <c r="G50" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="H50" s="29" t="s">
+      <c r="H50" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="I50" s="30" t="s">
+      <c r="I50" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="J50" s="31" t="s">
+      <c r="J50" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="K50" s="32" t="s">
+      <c r="K50" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="L50" s="98" t="s">
-        <v>174</v>
+      <c r="L50" s="84" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="51" spans="2:12" ht="36">
-      <c r="B51" s="96"/>
-      <c r="C51" s="111"/>
-      <c r="D51" s="111"/>
-      <c r="E51" s="129"/>
-      <c r="F51" s="131"/>
-      <c r="G51" s="26" t="s">
+      <c r="B51" s="82"/>
+      <c r="C51" s="75"/>
+      <c r="D51" s="75"/>
+      <c r="E51" s="78"/>
+      <c r="F51" s="73"/>
+      <c r="G51" s="23" t="s">
         <v>0</v>
       </c>
       <c r="H51" s="5" t="s">
@@ -6704,77 +6445,77 @@
       <c r="I51" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="J51" s="135" t="s">
-        <v>181</v>
-      </c>
-      <c r="K51" s="136"/>
-      <c r="L51" s="115"/>
+      <c r="J51" s="87" t="s">
+        <v>180</v>
+      </c>
+      <c r="K51" s="88"/>
+      <c r="L51" s="85"/>
     </row>
     <row r="52" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B52" s="97"/>
-      <c r="C52" s="112"/>
-      <c r="D52" s="112"/>
-      <c r="E52" s="33" t="s">
+      <c r="B52" s="80"/>
+      <c r="C52" s="76"/>
+      <c r="D52" s="76"/>
+      <c r="E52" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="F52" s="40" t="s">
+      <c r="F52" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="G52" s="34"/>
-      <c r="H52" s="35" t="s">
+      <c r="G52" s="31"/>
+      <c r="H52" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="I52" s="33" t="s">
+      <c r="I52" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="J52" s="35" t="s">
+      <c r="J52" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="K52" s="36" t="s">
-        <v>175</v>
-      </c>
-      <c r="L52" s="116"/>
+      <c r="K52" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="L52" s="86"/>
     </row>
     <row r="53" spans="2:12">
-      <c r="B53" s="94">
+      <c r="B53" s="79">
         <v>10</v>
       </c>
-      <c r="C53" s="109" t="s">
+      <c r="C53" s="74" t="s">
         <v>114</v>
       </c>
-      <c r="D53" s="109"/>
-      <c r="E53" s="128" t="s">
+      <c r="D53" s="74"/>
+      <c r="E53" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="F53" s="130" t="s">
+      <c r="F53" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="G53" s="28" t="s">
+      <c r="G53" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="H53" s="29" t="s">
+      <c r="H53" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="I53" s="30" t="s">
+      <c r="I53" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="J53" s="44" t="s">
+      <c r="J53" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="K53" s="32" t="s">
+      <c r="K53" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="L53" s="98" t="s">
-        <v>163</v>
+      <c r="L53" s="84" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="54" spans="2:12" ht="30.75" customHeight="1">
-      <c r="B54" s="96"/>
-      <c r="C54" s="111"/>
-      <c r="D54" s="111"/>
-      <c r="E54" s="129"/>
-      <c r="F54" s="131"/>
-      <c r="G54" s="26" t="s">
+      <c r="B54" s="82"/>
+      <c r="C54" s="75"/>
+      <c r="D54" s="75"/>
+      <c r="E54" s="78"/>
+      <c r="F54" s="73"/>
+      <c r="G54" s="23" t="s">
         <v>0</v>
       </c>
       <c r="H54" s="5" t="s">
@@ -6786,100 +6527,100 @@
       <c r="J54" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="K54" s="10" t="s">
+      <c r="K54" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="L54" s="115"/>
+      <c r="L54" s="85"/>
     </row>
     <row r="55" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B55" s="97"/>
-      <c r="C55" s="112"/>
-      <c r="D55" s="112"/>
-      <c r="E55" s="50" t="s">
+      <c r="B55" s="80"/>
+      <c r="C55" s="76"/>
+      <c r="D55" s="76"/>
+      <c r="E55" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="F55" s="51" t="s">
+      <c r="F55" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="G55" s="51"/>
-      <c r="H55" s="52" t="s">
+      <c r="G55" s="42"/>
+      <c r="H55" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="I55" s="53" t="s">
+      <c r="I55" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="J55" s="35" t="s">
+      <c r="J55" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="K55" s="36" t="s">
+      <c r="K55" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="L55" s="116"/>
+      <c r="L55" s="86"/>
     </row>
     <row r="56" spans="2:12" ht="36">
-      <c r="B56" s="94">
+      <c r="B56" s="79">
         <v>11</v>
       </c>
-      <c r="C56" s="109" t="s">
+      <c r="C56" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="D56" s="109"/>
-      <c r="E56" s="38" t="s">
+      <c r="D56" s="74"/>
+      <c r="E56" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F56" s="28" t="s">
+      <c r="F56" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="G56" s="28"/>
-      <c r="H56" s="29" t="s">
+      <c r="G56" s="25"/>
+      <c r="H56" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="I56" s="30" t="s">
+      <c r="I56" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="J56" s="31" t="s">
+      <c r="J56" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="K56" s="32" t="s">
-        <v>177</v>
-      </c>
-      <c r="L56" s="98" t="s">
-        <v>164</v>
+      <c r="K56" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="L56" s="84" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="57" spans="2:12" ht="36.75" thickBot="1">
-      <c r="B57" s="97"/>
-      <c r="C57" s="112"/>
-      <c r="D57" s="112"/>
-      <c r="E57" s="50" t="s">
+      <c r="B57" s="80"/>
+      <c r="C57" s="76"/>
+      <c r="D57" s="76"/>
+      <c r="E57" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="F57" s="51" t="s">
+      <c r="F57" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="G57" s="51"/>
-      <c r="H57" s="52" t="s">
+      <c r="G57" s="42"/>
+      <c r="H57" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="I57" s="53" t="s">
+      <c r="I57" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="J57" s="41" t="s">
+      <c r="J57" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="K57" s="36" t="s">
+      <c r="K57" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="L57" s="116"/>
+      <c r="L57" s="86"/>
     </row>
     <row r="58" spans="2:12">
-      <c r="F58" s="140" t="s">
+      <c r="F58" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="G58" s="140"/>
-      <c r="H58" s="140"/>
-      <c r="I58" s="140"/>
-      <c r="J58" s="12"/>
+      <c r="G58" s="71"/>
+      <c r="H58" s="71"/>
+      <c r="I58" s="71"/>
+      <c r="J58" s="11"/>
     </row>
     <row r="59" spans="2:12">
       <c r="B59" s="4"/>
@@ -6892,13 +6633,57 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="F58:I58"/>
-    <mergeCell ref="F39:F41"/>
-    <mergeCell ref="C39:D42"/>
-    <mergeCell ref="D29:D33"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="L9:L13"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="C16:D21"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:D13"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="L39:L42"/>
+    <mergeCell ref="L46:L49"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="L16:L21"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="L56:L57"/>
+    <mergeCell ref="L53:L55"/>
+    <mergeCell ref="L50:L52"/>
+    <mergeCell ref="L43:L45"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="B29:B38"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="L22:L28"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="C29:C38"/>
+    <mergeCell ref="C22:D28"/>
+    <mergeCell ref="B22:B28"/>
+    <mergeCell ref="L29:L33"/>
+    <mergeCell ref="L36:L38"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="J41:K41"/>
     <mergeCell ref="B56:B57"/>
     <mergeCell ref="C56:D57"/>
     <mergeCell ref="F43:F44"/>
@@ -6915,57 +6700,13 @@
     <mergeCell ref="E53:E54"/>
     <mergeCell ref="F53:F54"/>
     <mergeCell ref="F46:F47"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="B29:B38"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="L22:L28"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="C29:C38"/>
-    <mergeCell ref="C22:D28"/>
-    <mergeCell ref="B22:B28"/>
-    <mergeCell ref="L29:L33"/>
-    <mergeCell ref="L36:L38"/>
-    <mergeCell ref="L34:L35"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="L56:L57"/>
-    <mergeCell ref="L53:L55"/>
-    <mergeCell ref="L50:L52"/>
-    <mergeCell ref="L43:L45"/>
-    <mergeCell ref="L39:L42"/>
-    <mergeCell ref="L46:L49"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="L16:L21"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="L9:L13"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="F16:F19"/>
-    <mergeCell ref="E16:E19"/>
-    <mergeCell ref="C16:D21"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:D13"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="F58:I58"/>
+    <mergeCell ref="F39:F41"/>
+    <mergeCell ref="C39:D42"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="E46:E47"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -6983,151 +6724,151 @@
     <hyperlink ref="J57" r:id="rId12" xr:uid="{7A4C070F-45E3-4C57-B9C0-345201DC3E9B}"/>
     <hyperlink ref="J21" r:id="rId13" xr:uid="{FA623ED8-E52C-4EDB-B36B-E099D21466CC}"/>
     <hyperlink ref="J25" r:id="rId14" location="L74" xr:uid="{3F799024-841A-4591-8AD7-C727A5B27D20}"/>
-    <hyperlink ref="J34" r:id="rId15" location="tag-html-unescape" xr:uid="{03ED6A5D-2F13-41DB-87A2-2FFB2FF1975C}"/>
-    <hyperlink ref="J22" r:id="rId16" xr:uid="{E4086FF7-8748-4345-A8EF-669469E1FCBB}"/>
-    <hyperlink ref="J23" r:id="rId17" xr:uid="{220C99A0-3ABC-4A5A-98C0-CC1598477D52}"/>
-    <hyperlink ref="J24" r:id="rId18" xr:uid="{3DFE7743-D209-4BF5-B1C7-EBAAFEB522A0}"/>
-    <hyperlink ref="J28" r:id="rId19" xr:uid="{FE55259F-EBD9-400B-8C5C-D7F41D671AA4}"/>
-    <hyperlink ref="J47" r:id="rId20" location="mail-mail-header-injection" xr:uid="{11097F48-767C-453D-A534-B0A76E6A75D5}"/>
-    <hyperlink ref="J9" r:id="rId21" display="https://nablarch.github.io/docs/LATEST/doc/application_framework/application_framework/libraries/database_management.html" xr:uid="{19222547-30E5-4FE4-9BBF-90D3EFFD2E94}"/>
-    <hyperlink ref="J10" r:id="rId22" display="https://nablarch.github.io/docs/LATEST/doc/application_framework/application_framework/libraries/database_management.html" xr:uid="{37F252DC-3BDF-4B52-B6BE-ED9AA331E98B}"/>
-    <hyperlink ref="J11" r:id="rId23" display="https://nablarch.github.io/docs/LATEST/doc/application_framework/application_framework/libraries/database_management.html" xr:uid="{BDD35FD1-BB81-4115-B556-E70CCE286F8E}"/>
-    <hyperlink ref="J16" r:id="rId24" display="https://nablarch.github.io/docs/LATEST/doc/application_framework/application_framework/libraries/file_path_management.html" xr:uid="{9081010D-28CE-47CE-8552-0CD72293402A}"/>
-    <hyperlink ref="J18" r:id="rId25" display="https://nablarch.github.io/docs/LATEST/doc/application_framework/application_framework/libraries/file_path_management.html" xr:uid="{66B95FAD-9E0B-421A-8A41-BF56EF1441AA}"/>
-    <hyperlink ref="J17" r:id="rId26" xr:uid="{1DC4A8DD-45B1-4C98-9DFB-4B4E74AF8E1E}"/>
-    <hyperlink ref="J19" r:id="rId27" xr:uid="{F3C54DE0-374F-49D1-90BC-9C21C4296FF1}"/>
+    <hyperlink ref="J22" r:id="rId15" xr:uid="{E4086FF7-8748-4345-A8EF-669469E1FCBB}"/>
+    <hyperlink ref="J23" r:id="rId16" xr:uid="{220C99A0-3ABC-4A5A-98C0-CC1598477D52}"/>
+    <hyperlink ref="J24" r:id="rId17" xr:uid="{3DFE7743-D209-4BF5-B1C7-EBAAFEB522A0}"/>
+    <hyperlink ref="J28" r:id="rId18" xr:uid="{FE55259F-EBD9-400B-8C5C-D7F41D671AA4}"/>
+    <hyperlink ref="J47" r:id="rId19" location="mail-mail-header-injection" xr:uid="{11097F48-767C-453D-A534-B0A76E6A75D5}"/>
+    <hyperlink ref="J9" r:id="rId20" display="https://nablarch.github.io/docs/LATEST/doc/application_framework/application_framework/libraries/database_management.html" xr:uid="{19222547-30E5-4FE4-9BBF-90D3EFFD2E94}"/>
+    <hyperlink ref="J10" r:id="rId21" display="https://nablarch.github.io/docs/LATEST/doc/application_framework/application_framework/libraries/database_management.html" xr:uid="{37F252DC-3BDF-4B52-B6BE-ED9AA331E98B}"/>
+    <hyperlink ref="J11" r:id="rId22" display="https://nablarch.github.io/docs/LATEST/doc/application_framework/application_framework/libraries/database_management.html" xr:uid="{BDD35FD1-BB81-4115-B556-E70CCE286F8E}"/>
+    <hyperlink ref="J16" r:id="rId23" display="https://nablarch.github.io/docs/LATEST/doc/application_framework/application_framework/libraries/file_path_management.html" xr:uid="{9081010D-28CE-47CE-8552-0CD72293402A}"/>
+    <hyperlink ref="J18" r:id="rId24" display="https://nablarch.github.io/docs/LATEST/doc/application_framework/application_framework/libraries/file_path_management.html" xr:uid="{66B95FAD-9E0B-421A-8A41-BF56EF1441AA}"/>
+    <hyperlink ref="J17" r:id="rId25" xr:uid="{1DC4A8DD-45B1-4C98-9DFB-4B4E74AF8E1E}"/>
+    <hyperlink ref="J19" r:id="rId26" xr:uid="{F3C54DE0-374F-49D1-90BC-9C21C4296FF1}"/>
   </hyperlinks>
   <pageMargins left="0.78740157480314965" right="0.47244094488188981" top="0.6692913385826772" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="21" fitToHeight="2" orientation="portrait" r:id="rId28"/>
+  <pageSetup paperSize="9" scale="21" fitToHeight="2" orientation="portrait" r:id="rId27"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId29"/>
+  <drawing r:id="rId28"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28E862B2-6DD6-4D95-991A-DE6699BF028C}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="2.5" style="20" customWidth="1"/>
-    <col min="2" max="2" width="11.875" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.875" style="15" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="15"/>
+    <col min="1" max="1" width="2.5" style="19" customWidth="1"/>
+    <col min="2" max="2" width="11.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.875" style="14" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="19" t="s">
-        <v>207</v>
+      <c r="A1" s="18" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="19" t="s">
-        <v>170</v>
+      <c r="A2" s="18" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="19" t="s">
-        <v>218</v>
+      <c r="A3" s="18" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="71" t="s">
-        <v>208</v>
+      <c r="A4" s="52" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="19"/>
-      <c r="B5" s="14"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="13"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="C6" s="67" t="s">
+      <c r="C6" s="50" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="84">
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="C7" s="68" t="s">
+      <c r="C8" s="16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="72">
+      <c r="B11" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="C11" s="17" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="B8" s="69" t="s">
-        <v>194</v>
-      </c>
-      <c r="C8" s="69" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="B9" s="69" t="s">
-        <v>195</v>
-      </c>
-      <c r="C9" s="68" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="B10" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="72">
-      <c r="B11" s="17" t="s">
+    <row r="12" spans="1:3">
+      <c r="B12" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C12" s="17" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="72">
+      <c r="B14" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="C14" s="17" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="B12" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="B13" s="69" t="s">
-        <v>199</v>
-      </c>
-      <c r="C13" s="69" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="72">
-      <c r="B14" s="69" t="s">
+    <row r="15" spans="1:3">
+      <c r="B15" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="C14" s="68" t="s">
+      <c r="C15" s="16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="36">
+      <c r="B16" s="51" t="s">
+        <v>201</v>
+      </c>
+      <c r="C16" s="51" t="s">
         <v>205</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="B15" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="C15" s="69" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="36">
-      <c r="B16" s="70" t="s">
-        <v>202</v>
-      </c>
-      <c r="C16" s="70" t="s">
-        <v>206</v>
       </c>
     </row>
   </sheetData>
